--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr showObjects="placeholders" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2289ACE8-57D0-450C-8EAB-5F645D8E808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32317CF-B384-49A9-81C4-46A463EB49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72960" yWindow="405" windowWidth="29895" windowHeight="20460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34665" yWindow="300" windowWidth="35070" windowHeight="20550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Pipeline" sheetId="29" r:id="rId1"/>
@@ -7400,7 +7400,7 @@
     </xf>
     <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7667,7 +7667,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="64">
@@ -11806,7 +11805,7 @@
   </sheetPr>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -12273,7 +12272,7 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="76" t="s">
         <v>835</v>
       </c>
       <c r="C24" s="77" t="s">
@@ -13460,11 +13459,11 @@
   </sheetPr>
   <dimension ref="A1:GD236"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CI3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BZ34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CJ10" sqref="CJ10"/>
+      <selection pane="bottomRight" activeCell="BZ34" sqref="BZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -14130,7 +14129,7 @@
         <v>5426</v>
       </c>
       <c r="CL3" s="93">
-        <f t="shared" ref="CK3:CP3" si="3">+CH3*1.2</f>
+        <f t="shared" ref="CL3:CP3" si="3">+CH3*1.2</f>
         <v>5492.4</v>
       </c>
       <c r="CM3" s="93">
@@ -15661,7 +15660,7 @@
         <v>417</v>
       </c>
       <c r="CL10" s="94">
-        <f t="shared" ref="CK10:CP10" si="19">+CK10*0.95</f>
+        <f t="shared" ref="CL10:CP10" si="19">+CK10*0.95</f>
         <v>396.15</v>
       </c>
       <c r="CM10" s="94">
@@ -24116,7 +24115,7 @@
         <v>88</v>
       </c>
       <c r="CL42" s="94">
-        <f t="shared" ref="CK42:CP42" si="85">+CK42+1</f>
+        <f t="shared" ref="CL42:CP42" si="85">+CK42+1</f>
         <v>89</v>
       </c>
       <c r="CM42" s="94">
@@ -25579,7 +25578,7 @@
         <v>62</v>
       </c>
       <c r="CL49" s="94">
-        <f t="shared" ref="CK49:CP49" si="92">+CK49*0.95</f>
+        <f t="shared" ref="CL49:CP49" si="92">+CK49*0.95</f>
         <v>58.9</v>
       </c>
       <c r="CM49" s="94">
@@ -30928,7 +30927,7 @@
         <v>1371</v>
       </c>
       <c r="CL72" s="94">
-        <f t="shared" ref="CK72:CP72" si="118">+CH72*1.05</f>
+        <f t="shared" ref="CL72:CP72" si="118">+CH72*1.05</f>
         <v>1324.05</v>
       </c>
       <c r="CM72" s="94">
@@ -32545,7 +32544,7 @@
         <v>1189</v>
       </c>
       <c r="CL81" s="94">
-        <f t="shared" ref="CK81:CP81" si="126">AVERAGE(CH81:CK81)</f>
+        <f t="shared" ref="CL81:CP81" si="126">AVERAGE(CH81:CK81)</f>
         <v>906</v>
       </c>
       <c r="CM81" s="94">
@@ -58825,12 +58824,12 @@
       <c r="B2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="122" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="122" t="s">
         <v>838</v>
       </c>
     </row>
@@ -59504,18 +59503,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59633,18 +59632,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958B6939-179A-4B1A-8B2E-7C8092C58C5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958B6939-179A-4B1A-8B2E-7C8092C58C5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr showObjects="placeholders" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32317CF-B384-49A9-81C4-46A463EB49ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C97CC-5F32-4B87-867F-3A53737F855D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34665" yWindow="300" windowWidth="35070" windowHeight="20550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31350" yWindow="2250" windowWidth="30135" windowHeight="17865" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Pipeline" sheetId="29" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="Keytruda" sheetId="31" r:id="rId4"/>
     <sheet name="Vytorin" sheetId="26" r:id="rId5"/>
     <sheet name="Gardasil" sheetId="3" r:id="rId6"/>
-    <sheet name="Rotateq" sheetId="17" r:id="rId7"/>
-    <sheet name="Fosamax" sheetId="22" r:id="rId8"/>
-    <sheet name="Arcoxia" sheetId="21" r:id="rId9"/>
-    <sheet name="Zostavax" sheetId="15" r:id="rId10"/>
-    <sheet name="Singulair" sheetId="19" r:id="rId11"/>
-    <sheet name="Januvia" sheetId="4" r:id="rId12"/>
-    <sheet name="Zolinza" sheetId="5" r:id="rId13"/>
+    <sheet name="Lynparza" sheetId="32" r:id="rId7"/>
+    <sheet name="Padcev" sheetId="33" r:id="rId8"/>
+    <sheet name="Rotateq" sheetId="17" r:id="rId9"/>
+    <sheet name="V940" sheetId="34" r:id="rId10"/>
+    <sheet name="Zostavax" sheetId="15" r:id="rId11"/>
+    <sheet name="Singulair" sheetId="19" r:id="rId12"/>
+    <sheet name="Januvia" sheetId="4" r:id="rId13"/>
     <sheet name="odanacatib" sheetId="27" r:id="rId14"/>
     <sheet name="524" sheetId="6" r:id="rId15"/>
     <sheet name="517" sheetId="13" r:id="rId16"/>
@@ -36,10 +36,13 @@
     <sheet name="457" sheetId="20" r:id="rId21"/>
     <sheet name="vorapaxar" sheetId="28" r:id="rId22"/>
     <sheet name="Crixivan" sheetId="30" r:id="rId23"/>
+    <sheet name="Fosamax" sheetId="22" r:id="rId24"/>
+    <sheet name="Arcoxia" sheetId="21" r:id="rId25"/>
+    <sheet name="Zolinza" sheetId="5" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId27"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
     <definedName name="\a">[1]ROCHE!#REF!</definedName>
@@ -4103,7 +4106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="937">
   <si>
     <t>CINV</t>
   </si>
@@ -6770,6 +6773,150 @@
   </si>
   <si>
     <t>GIP/GLP</t>
+  </si>
+  <si>
+    <t>1/11/23: Completes Imago tender</t>
+  </si>
+  <si>
+    <t>1/10/23: named JUST company</t>
+  </si>
+  <si>
+    <t>1/5/23: Q4 earnings date</t>
+  </si>
+  <si>
+    <t>bomedemstat</t>
+  </si>
+  <si>
+    <t>Myelofibrosis</t>
+  </si>
+  <si>
+    <t>LSD1 inhibitor</t>
+  </si>
+  <si>
+    <t>1/3/23: investor conference</t>
+  </si>
+  <si>
+    <t>12/22/22: investor conference</t>
+  </si>
+  <si>
+    <t>12/22/22: licenses 7 ADCs from Kelun-Biotech for $175m</t>
+  </si>
+  <si>
+    <t>Lynparza, fka AZD2281</t>
+  </si>
+  <si>
+    <t>olaparib</t>
+  </si>
+  <si>
+    <t>PARP1 inhibitor</t>
+  </si>
+  <si>
+    <t>aOC, mCRPC, pancreatic, mBC</t>
+  </si>
+  <si>
+    <t>MRK. Originally from KuDOS, acquired by AZN in 2006</t>
+  </si>
+  <si>
+    <t>LogP=1.9, MW=434, HBD=1, HBA=5, RB=4, TPSA=82. Capsule discontinued, Tablet replaced</t>
+  </si>
+  <si>
+    <t>7151102 first patent doesn't correspond to structure, expired</t>
+  </si>
+  <si>
+    <t>7449464 expires 2024</t>
+  </si>
+  <si>
+    <t>8071579 expires 2027, MOU patent</t>
+  </si>
+  <si>
+    <t>8143241 expires 2027, MOU patent</t>
+  </si>
+  <si>
+    <t>8475842 expires 2029, formulation patent</t>
+  </si>
+  <si>
+    <t>8859562 expires 2031, ridiculous claim</t>
+  </si>
+  <si>
+    <t>Phase III SOLO-2 - NCT01874353</t>
+  </si>
+  <si>
+    <t>Phase III POLO</t>
+  </si>
+  <si>
+    <t>Phase III "SOLO-1" n=391 1L aOC BRCA+ in PR/CR - NEJM 2018, NCT01844986</t>
+  </si>
+  <si>
+    <t>HR=0.30 TTP/OS</t>
+  </si>
+  <si>
+    <t>Phase III "PROpel" 1L CRPC abiraterone+-olaparib - NEJM 2022, NCT03732820</t>
+  </si>
+  <si>
+    <t>mibPFS HR=0.66, OS=0.86 (p=0.29 immature)</t>
+  </si>
+  <si>
+    <t>24.8 months vs. 16.6 months mibPFS</t>
+  </si>
+  <si>
+    <t>Padcev (enfortumab vedotin)</t>
+  </si>
+  <si>
+    <t>Urothelial Cancer</t>
+  </si>
+  <si>
+    <t>SGEN, 4503</t>
+  </si>
+  <si>
+    <t>Padcev</t>
+  </si>
+  <si>
+    <t>enfortumab vedotin</t>
+  </si>
+  <si>
+    <t>Nectin-4 ADC</t>
+  </si>
+  <si>
+    <t>Urothelial carcinoma</t>
+  </si>
+  <si>
+    <t>Priority review for BLA</t>
+  </si>
+  <si>
+    <t>12/21/22: Lynparza approved in EU for CRPC</t>
+  </si>
+  <si>
+    <t>12/20/22: Padcev priority review for 1L UC</t>
+  </si>
+  <si>
+    <t>Phase Ib/2 KEYNOTE-869/EV-103 1L UC - NCT03288545</t>
+  </si>
+  <si>
+    <t>12/15/22: Lynparza CRPC PDUFA extended</t>
+  </si>
+  <si>
+    <t>12/13/22: V940 results</t>
+  </si>
+  <si>
+    <t>mRNA-4157/V940</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>MRK 50/50 global P&amp;L profit share</t>
+  </si>
+  <si>
+    <t>personalized mRNA vaccine</t>
+  </si>
+  <si>
+    <t>Phase IIb "KEYNOTE-942" n=157 adjuvant melanoma - NCT0389788</t>
+  </si>
+  <si>
+    <t>RFS HR=0.56 p=0.0266 (one-sided!)</t>
   </si>
 </sst>
 </file>
@@ -6804,7 +6951,7 @@
     <numFmt numFmtId="186" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="187" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7095,6 +7242,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7400,7 +7555,7 @@
     </xf>
     <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7668,6 +7823,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="31" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="64">
     <cellStyle name="$" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7852,6 +8019,133 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>475480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Olaparib - Wikipedia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EEFE893-972E-4290-AFD0-6ABF71D670A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858000" y="520211"/>
+          <a:ext cx="3684672" cy="1480184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>391626</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B8C866-FAC3-47FE-8008-9A43A3E2381A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8242788" y="3546231"/>
+          <a:ext cx="3432300" cy="2363704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10055,10 +10349,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9625F3E4-DC5D-4D31-8D50-6936298325C5}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="128" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6637A397-9CD2-4E73-B7A1-1BC5D0F35C97}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q52:Q53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -10114,7 +10474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -10347,7 +10707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
@@ -10976,210 +11336,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:J42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="C28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="C30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="C32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="G33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="G34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="C42" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -11803,10 +11959,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11850,7 +12006,7 @@
         <v>193</v>
       </c>
       <c r="J2" s="55">
-        <v>100</v>
+        <v>110.37</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -11907,7 +12063,7 @@
       </c>
       <c r="J4" s="39">
         <f>J2*J3</f>
-        <v>254200</v>
+        <v>280560.54000000004</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -11990,7 +12146,7 @@
       </c>
       <c r="J7" s="39">
         <f>J4-J5+J6</f>
-        <v>275497</v>
+        <v>301857.54000000004</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12071,7 +12227,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="127" t="s">
         <v>847</v>
       </c>
       <c r="C12" s="77" t="s">
@@ -12155,30 +12311,30 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="127" t="s">
+        <v>917</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>918</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>922</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>919</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="76" t="s">
         <v>829</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C18" s="77" t="s">
         <v>597</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D18" s="77" t="s">
         <v>678</v>
-      </c>
-      <c r="E17" s="57">
-        <v>1</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="60"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>221</v>
       </c>
       <c r="E18" s="57">
         <v>1</v>
@@ -12187,138 +12343,136 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="56" t="s">
-        <v>339</v>
+      <c r="B19" s="66" t="s">
+        <v>16</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E19" s="57">
         <v>1</v>
       </c>
-      <c r="F19" s="67">
-        <v>39356</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>207</v>
-      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="56" t="s">
-        <v>782</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>578</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>577</v>
+        <v>339</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>218</v>
       </c>
       <c r="E20" s="57">
         <v>1</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="67">
+        <v>39356</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="56" t="s">
+        <v>782</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>577</v>
+      </c>
+      <c r="E21" s="57">
+        <v>1</v>
+      </c>
+      <c r="F21" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="G21" s="63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53" t="s">
+    <row r="22" spans="2:9">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G22" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="76" t="s">
-        <v>830</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>831</v>
-      </c>
-      <c r="D22" s="77" t="s">
-        <v>832</v>
-      </c>
-      <c r="E22" s="57">
-        <v>1</v>
-      </c>
-      <c r="F22" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="G22" s="60"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="76" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>416</v>
-      </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="50"/>
+        <v>832</v>
+      </c>
+      <c r="E23" s="57">
+        <v>1</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>343</v>
+      </c>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="76" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>836</v>
-      </c>
-      <c r="E24" s="65">
-        <v>1</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>343</v>
-      </c>
-      <c r="G24" s="63"/>
+        <v>416</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="76" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>831</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>840</v>
-      </c>
-      <c r="E25" s="77" t="s">
-        <v>841</v>
+        <v>836</v>
+      </c>
+      <c r="E25" s="65">
+        <v>1</v>
       </c>
       <c r="F25" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="G25" s="60"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="76" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>844</v>
-      </c>
-      <c r="E26" s="121">
-        <v>1</v>
+        <v>840</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>841</v>
       </c>
       <c r="F26" s="77" t="s">
         <v>343</v>
@@ -12327,11 +12481,13 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="76" t="s">
-        <v>845</v>
-      </c>
-      <c r="C27" s="77"/>
+        <v>842</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>843</v>
+      </c>
       <c r="D27" s="77" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E27" s="121">
         <v>1</v>
@@ -12343,14 +12499,14 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="76" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="77" t="s">
-        <v>859</v>
-      </c>
-      <c r="E28" s="121" t="s">
-        <v>860</v>
+        <v>846</v>
+      </c>
+      <c r="E28" s="121">
+        <v>1</v>
       </c>
       <c r="F28" s="77" t="s">
         <v>343</v>
@@ -12358,17 +12514,17 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="76" t="s">
-        <v>861</v>
+      <c r="B29" s="127" t="s">
+        <v>930</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>863</v>
+        <v>931</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>862</v>
-      </c>
-      <c r="E29" s="121">
-        <v>1</v>
+        <v>221</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>932</v>
       </c>
       <c r="F29" s="77" t="s">
         <v>343</v>
@@ -12377,14 +12533,14 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="76" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="77" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="E30" s="121" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F30" s="77" t="s">
         <v>343</v>
@@ -12393,13 +12549,13 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="76" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="D31" s="77" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="E31" s="121">
         <v>1</v>
@@ -12411,16 +12567,14 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="76" t="s">
-        <v>874</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>831</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="C32" s="77"/>
       <c r="D32" s="77" t="s">
-        <v>875</v>
-      </c>
-      <c r="E32" s="121">
-        <v>1</v>
+        <v>870</v>
+      </c>
+      <c r="E32" s="121" t="s">
+        <v>871</v>
       </c>
       <c r="F32" s="77" t="s">
         <v>343</v>
@@ -12429,13 +12583,13 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="76" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>878</v>
+        <v>831</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E33" s="121">
         <v>1</v>
@@ -12447,16 +12601,16 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="76" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>880</v>
+        <v>831</v>
       </c>
       <c r="D34" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="E34" s="121" t="s">
-        <v>881</v>
+        <v>875</v>
+      </c>
+      <c r="E34" s="121">
+        <v>1</v>
       </c>
       <c r="F34" s="77" t="s">
         <v>343</v>
@@ -12465,13 +12619,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="76" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>831</v>
+        <v>878</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="E35" s="121">
         <v>1</v>
@@ -12483,16 +12637,16 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="76" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C36" s="77" t="s">
         <v>880</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E36" s="121" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F36" s="77" t="s">
         <v>343</v>
@@ -12500,40 +12654,122 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
+      <c r="B37" s="76" t="s">
+        <v>883</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>831</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>884</v>
+      </c>
+      <c r="E37" s="121">
+        <v>1</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="76" t="s">
+        <v>886</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>880</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>888</v>
+      </c>
+      <c r="E38" s="121" t="s">
+        <v>887</v>
+      </c>
+      <c r="F38" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" s="60"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="E39" s="71"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="49"/>
-      <c r="E40" s="71" t="s">
-        <v>809</v>
-      </c>
+      <c r="B39" s="124" t="s">
+        <v>892</v>
+      </c>
+      <c r="C39" s="125" t="s">
+        <v>893</v>
+      </c>
+      <c r="D39" s="125" t="s">
+        <v>894</v>
+      </c>
+      <c r="E39" s="126">
+        <v>1</v>
+      </c>
+      <c r="F39" s="125" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" s="70"/>
     </row>
     <row r="41" spans="2:7">
       <c r="E41" s="71"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="4"/>
-      <c r="E42" s="71"/>
+      <c r="B42" s="49"/>
+      <c r="E42" s="71" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="E43" s="71"/>
+      <c r="B43" s="49"/>
+      <c r="E43" s="71" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="E44" s="71"/>
+      <c r="B44" s="49"/>
+      <c r="E44" s="123" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="45" spans="2:7">
-      <c r="E45"/>
+      <c r="B45" s="49"/>
+      <c r="E45" s="123" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="46" spans="2:7">
-      <c r="E46"/>
+      <c r="B46" s="49"/>
+      <c r="E46" s="71" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="E47" s="71" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="4"/>
+      <c r="E48" s="71" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="123" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="123" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="71" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="71" t="s">
+        <v>889</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12541,10 +12777,13 @@
     <hyperlink ref="B3" location="Januvia!A1" display="Januvia (sitagliptin, MK-431)" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="B9" location="Gardasil!A1" display="Gardasil" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="B8" location="Rotateq!A1" display="Rotateq" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B19" location="Isentress!A1" display="Isentress" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B20" location="Isentress!A1" display="Isentress" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
     <hyperlink ref="B4" location="Januvia!A1" display="MK-0431A (Januvia+metformin)" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B20" location="vorapaxar!A1" display="vorapaxar" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B21" location="vorapaxar!A1" display="vorapaxar" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
     <hyperlink ref="B5" location="Keytruda!A1" display="Keytruda (pembrolizumab)" xr:uid="{433D8747-409A-417C-AD07-4E613C39AC97}"/>
+    <hyperlink ref="B12" location="Lynparza!A1" display="Lynparza (olaparib)" xr:uid="{D84D036E-8C88-4B96-B572-5129CBFE5229}"/>
+    <hyperlink ref="B17" location="Padcev!A1" display="Padcev (enfortumab vedotin)" xr:uid="{33EE860D-63D3-418E-B01B-057450F711AA}"/>
+    <hyperlink ref="B29" location="'V940'!A1" display="mRNA-4157/V940" xr:uid="{65BBEC83-B707-4BA2-A718-31CE8CC7240A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="58" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
@@ -13452,6 +13691,389 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="G33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="G34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
@@ -13459,11 +14081,11 @@
   </sheetPr>
   <dimension ref="A1:GD236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BZ34" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BZ34" sqref="BZ34"/>
+      <selection pane="bottomRight" activeCell="CG8" sqref="CG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -59216,6 +59838,243 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A671A16-316E-48BB-B999-AA82650C1096}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="75" t="s">
+        <v>762</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="75" t="s">
+        <v>766</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="75"/>
+      <c r="C11" s="75" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="75"/>
+      <c r="C12" s="75" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="18" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="18" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="18" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="75" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="18" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="75" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="75" t="s">
+        <v>916</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{CB5B6681-A23F-4545-8244-DCDAC8728B91}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B697981C-8D40-49C4-8F02-2FFF268709B7}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="75" t="s">
+        <v>762</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="75" t="s">
+        <v>766</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="18" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="75" t="s">
+        <v>924</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{2799A7CE-31AA-4E0E-899A-2C492B295102}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -59323,201 +60182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -59631,10 +60296,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -59649,17 +60337,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr showObjects="placeholders" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7C5C85-517E-4341-BF65-F4BD265DF8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF9F3F-0FDB-2449-A590-F3CAF3FECBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Pipeline" sheetId="29" r:id="rId1"/>
@@ -46,15 +46,6 @@
     <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
-    <definedName name="\a">[1]ROCHE!#REF!</definedName>
-    <definedName name="\p">[1]ROCHE!#REF!</definedName>
-    <definedName name="\q">[1]ROCHE!#REF!</definedName>
-    <definedName name="\r">[1]ROCHE!#REF!</definedName>
-    <definedName name="\s">[1]ROCHE!#REF!</definedName>
-    <definedName name="\t">[1]ROCHE!#REF!</definedName>
-    <definedName name="\u">[1]ROCHE!#REF!</definedName>
-    <definedName name="\v">[1]ROCHE!#REF!</definedName>
-    <definedName name="\x">[1]ROCHE!#REF!</definedName>
     <definedName name="_1EBITDA_Sh">#REF!</definedName>
     <definedName name="_2NOPAT_Sh">#REF!</definedName>
     <definedName name="_3_.__Gross_inc_gro">#REF!</definedName>
@@ -65,6 +56,15 @@
     <definedName name="_8_3__Increase_in_other_liabilit">#REF!</definedName>
     <definedName name="_9_3__Other_Segment_Reven">#REF!</definedName>
     <definedName name="_QP2">#REF!</definedName>
+    <definedName name="\a">[1]ROCHE!#REF!</definedName>
+    <definedName name="\p">[1]ROCHE!#REF!</definedName>
+    <definedName name="\q">[1]ROCHE!#REF!</definedName>
+    <definedName name="\r">[1]ROCHE!#REF!</definedName>
+    <definedName name="\s">[1]ROCHE!#REF!</definedName>
+    <definedName name="\t">[1]ROCHE!#REF!</definedName>
+    <definedName name="\u">[1]ROCHE!#REF!</definedName>
+    <definedName name="\v">[1]ROCHE!#REF!</definedName>
+    <definedName name="\x">[1]ROCHE!#REF!</definedName>
     <definedName name="Adjusted_EPS">[2]Figures!#REF!</definedName>
     <definedName name="Choices_Wrapper">[0]!Choices_Wrapper</definedName>
     <definedName name="Company_reported_exceptionals">[2]Figures!#REF!</definedName>
@@ -7959,7 +7959,6 @@
     </xf>
   </cellXfs>
   <cellStyles count="64">
-    <cellStyle name="$" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="_Comma" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="_Currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="_CurrencySpace" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -7967,6 +7966,7 @@
     <cellStyle name="_MultipleSpace" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="_Percent" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="_PercentSpace" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="$" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Actual data" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Actual year" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Actuals Cells" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -9815,13 +9815,13 @@
       <selection pane="bottomRight" activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10629,7 +10629,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -10695,10 +10695,10 @@
       <selection activeCell="Q53" sqref="Q52:Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10755,13 +10755,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="10.28515625" style="73" customWidth="1"/>
+    <col min="11" max="12" width="10.33203125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11184,12 +11184,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="12" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11417,12 +11417,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12050,11 +12050,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12130,16 +12130,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12318,7 +12318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -12353,11 +12353,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12456,10 +12456,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12545,22 +12545,22 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="50" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="51" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="51" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="11.25" customHeight="1">
@@ -12616,10 +12616,10 @@
         <v>327</v>
       </c>
       <c r="J3" s="61">
-        <v>2544</v>
+        <v>2534.8093119999999</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="J4" s="39">
         <f>J2*J3</f>
-        <v>287472</v>
+        <v>286433.45225599996</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -12672,10 +12672,10 @@
         <v>329</v>
       </c>
       <c r="J5" s="39">
-        <v>5899</v>
+        <v>11711</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12701,10 +12701,10 @@
         <v>330</v>
       </c>
       <c r="J6" s="39">
-        <v>34219</v>
+        <v>37788</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="J7" s="39">
         <f>J4-J5+J6</f>
-        <v>315792</v>
+        <v>312510.45225599996</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -13401,11 +13401,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13522,11 +13522,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13700,11 +13700,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13834,10 +13834,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13896,11 +13896,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -14421,11 +14421,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14465,11 +14465,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14600,11 +14600,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -14806,42 +14806,42 @@
   <dimension ref="A1:IP241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CD77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CF116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CQ95" sqref="CQ95"/>
+      <selection pane="bottomRight" activeCell="CR131" sqref="CR131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="6.140625" style="62" customWidth="1"/>
-    <col min="35" max="38" width="6.85546875" style="62" customWidth="1"/>
-    <col min="39" max="39" width="7.28515625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="6.1640625" style="62" customWidth="1"/>
+    <col min="35" max="38" width="6.83203125" style="62" customWidth="1"/>
+    <col min="39" max="39" width="7.33203125" style="62" customWidth="1"/>
     <col min="40" max="43" width="7" style="62" customWidth="1"/>
-    <col min="44" max="54" width="6.7109375" style="62" customWidth="1"/>
-    <col min="55" max="70" width="7.42578125" style="62" customWidth="1"/>
-    <col min="71" max="74" width="7.140625" style="62" customWidth="1"/>
-    <col min="75" max="85" width="6.5703125" style="62" customWidth="1"/>
-    <col min="86" max="86" width="7.28515625" style="62" customWidth="1"/>
-    <col min="87" max="102" width="7.85546875" style="62" customWidth="1"/>
-    <col min="103" max="104" width="6.42578125" style="62" customWidth="1"/>
-    <col min="105" max="105" width="4.28515625" style="75" customWidth="1"/>
-    <col min="106" max="106" width="7.140625" style="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="7.42578125" style="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="9.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="7.7109375" style="62" customWidth="1"/>
-    <col min="110" max="110" width="7.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="111" max="113" width="7.5703125" style="62" customWidth="1"/>
-    <col min="114" max="125" width="7.28515625" style="62" customWidth="1"/>
-    <col min="126" max="130" width="7.7109375" style="62" customWidth="1"/>
-    <col min="131" max="131" width="8.28515625" style="62" customWidth="1"/>
-    <col min="132" max="132" width="8.28515625" style="75" customWidth="1"/>
-    <col min="133" max="133" width="8.28515625" style="114" customWidth="1"/>
-    <col min="134" max="140" width="8.28515625" style="75" customWidth="1"/>
-    <col min="141" max="191" width="9.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="192" max="16384" width="9.140625" style="75"/>
+    <col min="44" max="54" width="6.6640625" style="62" customWidth="1"/>
+    <col min="55" max="70" width="7.5" style="62" customWidth="1"/>
+    <col min="71" max="74" width="7.1640625" style="62" customWidth="1"/>
+    <col min="75" max="85" width="6.5" style="62" customWidth="1"/>
+    <col min="86" max="86" width="7.33203125" style="62" customWidth="1"/>
+    <col min="87" max="102" width="7.83203125" style="62" customWidth="1"/>
+    <col min="103" max="104" width="6.5" style="62" customWidth="1"/>
+    <col min="105" max="105" width="4.33203125" style="75" customWidth="1"/>
+    <col min="106" max="106" width="7.1640625" style="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="7.5" style="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="9.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.6640625" style="62" customWidth="1"/>
+    <col min="110" max="110" width="7.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="111" max="113" width="7.5" style="62" customWidth="1"/>
+    <col min="114" max="125" width="7.33203125" style="62" customWidth="1"/>
+    <col min="126" max="130" width="7.6640625" style="62" customWidth="1"/>
+    <col min="131" max="131" width="8.33203125" style="62" customWidth="1"/>
+    <col min="132" max="132" width="8.33203125" style="75" customWidth="1"/>
+    <col min="133" max="133" width="8.33203125" style="114" customWidth="1"/>
+    <col min="134" max="140" width="8.33203125" style="75" customWidth="1"/>
+    <col min="141" max="191" width="9.33203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="192" max="16384" width="9.1640625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:140" s="83" customFormat="1" ht="12.75" customHeight="1">
@@ -36564,339 +36564,339 @@
       <c r="M87" s="28"/>
       <c r="N87" s="28"/>
       <c r="O87" s="28">
-        <f>SUM(O14:O84)+O86</f>
+        <f t="shared" ref="O87:AH87" si="135">SUM(O14:O84)+O86</f>
         <v>3060</v>
       </c>
       <c r="P87" s="28">
-        <f>SUM(P14:P84)+P86</f>
+        <f t="shared" si="135"/>
         <v>3276</v>
       </c>
       <c r="Q87" s="28">
-        <f>SUM(Q14:Q84)+Q86</f>
+        <f t="shared" si="135"/>
         <v>2902</v>
       </c>
       <c r="R87" s="28">
-        <f>SUM(R14:R84)+R86</f>
+        <f t="shared" si="135"/>
         <v>2929</v>
       </c>
       <c r="S87" s="28">
-        <f>SUM(S14:S84)+S86</f>
+        <f t="shared" si="135"/>
         <v>2839</v>
       </c>
       <c r="T87" s="28">
-        <f>SUM(T14:T84)+T86</f>
+        <f t="shared" si="135"/>
         <v>2796</v>
       </c>
       <c r="U87" s="28">
-        <f>SUM(U14:U84)+U86</f>
+        <f t="shared" si="135"/>
         <v>2867</v>
       </c>
       <c r="V87" s="28">
-        <f>SUM(V14:V84)+V86</f>
+        <f t="shared" si="135"/>
         <v>3199</v>
       </c>
       <c r="W87" s="28">
-        <f>SUM(W14:W84)+W86</f>
+        <f t="shared" si="135"/>
         <v>2905.0000000000009</v>
       </c>
       <c r="X87" s="28">
-        <f>SUM(X14:X84)+X86</f>
+        <f t="shared" si="135"/>
         <v>3201</v>
       </c>
       <c r="Y87" s="28">
-        <f>SUM(Y14:Y84)+Y86</f>
+        <f t="shared" si="135"/>
         <v>1392.5</v>
       </c>
       <c r="Z87" s="28">
-        <f>SUM(Z14:Z84)+Z86</f>
+        <f t="shared" si="135"/>
         <v>1909</v>
       </c>
       <c r="AA87" s="28">
-        <f>SUM(AA14:AA84)+AA86</f>
+        <f t="shared" si="135"/>
         <v>1656.2000000000016</v>
       </c>
       <c r="AB87" s="28">
-        <f>SUM(AB14:AB84)+AB86</f>
+        <f t="shared" si="135"/>
         <v>1675.1000000000004</v>
       </c>
       <c r="AC87" s="28">
-        <f>SUM(AC14:AC84)+AC86</f>
+        <f t="shared" si="135"/>
         <v>1460</v>
       </c>
       <c r="AD87" s="28">
-        <f>SUM(AD14:AD84)+AD86</f>
+        <f t="shared" si="135"/>
         <v>5640</v>
       </c>
       <c r="AE87" s="28">
-        <f>SUM(AE14:AE84)+AE86</f>
+        <f t="shared" si="135"/>
         <v>1465.0999999999985</v>
       </c>
       <c r="AF87" s="28">
-        <f>SUM(AF14:AF84)+AF86</f>
+        <f t="shared" si="135"/>
         <v>2265.5</v>
       </c>
       <c r="AG87" s="28">
-        <f>SUM(AG14:AG84)+AG86</f>
+        <f t="shared" si="135"/>
         <v>1500.5</v>
       </c>
       <c r="AH87" s="28">
-        <f>SUM(AH14:AH84)+AH86</f>
+        <f t="shared" si="135"/>
         <v>2488.1999999999998</v>
       </c>
       <c r="AI87" s="28">
-        <f>SUM(AI3:AI86)</f>
+        <f t="shared" ref="AI87:BN87" si="136">SUM(AI3:AI86)</f>
         <v>7155</v>
       </c>
       <c r="AJ87" s="28">
-        <f>SUM(AJ3:AJ86)</f>
+        <f t="shared" si="136"/>
         <v>8095</v>
       </c>
       <c r="AK87" s="28">
-        <f>SUM(AK3:AK86)</f>
+        <f t="shared" si="136"/>
         <v>8175</v>
       </c>
       <c r="AL87" s="28">
-        <f>SUM(AL3:AL86)</f>
+        <f t="shared" si="136"/>
         <v>11147</v>
       </c>
       <c r="AM87" s="28">
-        <f>SUM(AM3:AM86)</f>
+        <f t="shared" si="136"/>
         <v>11423</v>
       </c>
       <c r="AN87" s="41">
-        <f>SUM(AN3:AN86)</f>
+        <f t="shared" si="136"/>
         <v>11348</v>
       </c>
       <c r="AO87" s="41">
-        <f>SUM(AO3:AO86)</f>
+        <f t="shared" si="136"/>
         <v>11125</v>
       </c>
       <c r="AP87" s="41">
-        <f>SUM(AP3:AP86)</f>
+        <f t="shared" si="136"/>
         <v>12094</v>
       </c>
       <c r="AQ87" s="41">
-        <f>SUM(AQ3:AQ86)</f>
+        <f t="shared" si="136"/>
         <v>11581</v>
       </c>
       <c r="AR87" s="41">
-        <f>SUM(AR3:AR86)</f>
+        <f t="shared" si="136"/>
         <v>12153</v>
       </c>
       <c r="AS87" s="41">
-        <f>SUM(AS3:AS86)</f>
+        <f t="shared" si="136"/>
         <v>12022</v>
       </c>
       <c r="AT87" s="41">
-        <f>SUM(AT3:AT86)</f>
+        <f t="shared" si="136"/>
         <v>12298</v>
       </c>
       <c r="AU87" s="41">
-        <f>SUM(AU3:AU86)</f>
+        <f t="shared" si="136"/>
         <v>11731</v>
       </c>
       <c r="AV87" s="41">
-        <f>SUM(AV3:AV86)</f>
+        <f t="shared" si="136"/>
         <v>12310</v>
       </c>
       <c r="AW87" s="41">
-        <f>SUM(AW3:AW86)</f>
+        <f t="shared" si="136"/>
         <v>11488</v>
       </c>
       <c r="AX87" s="41">
-        <f>SUM(AX3:AX86)</f>
+        <f t="shared" si="136"/>
         <v>11741</v>
       </c>
       <c r="AY87" s="41">
-        <f>SUM(AY3:AY86)</f>
+        <f t="shared" si="136"/>
         <v>10671</v>
       </c>
       <c r="AZ87" s="41">
-        <f>SUM(AZ3:AZ86)</f>
+        <f t="shared" si="136"/>
         <v>11010</v>
       </c>
       <c r="BA87" s="41">
-        <f>SUM(BA3:BA86)</f>
+        <f t="shared" si="136"/>
         <v>11032</v>
       </c>
       <c r="BB87" s="41">
-        <f>SUM(BB3:BB86)</f>
+        <f t="shared" si="136"/>
         <v>11319</v>
       </c>
       <c r="BC87" s="41">
-        <f>SUM(BC3:BC86)</f>
+        <f t="shared" si="136"/>
         <v>10264</v>
       </c>
       <c r="BD87" s="41">
-        <f>SUM(BD3:BD86)</f>
+        <f t="shared" si="136"/>
         <v>10934</v>
       </c>
       <c r="BE87" s="41">
-        <f>SUM(BE3:BE86)</f>
+        <f t="shared" si="136"/>
         <v>10557</v>
       </c>
       <c r="BF87" s="41">
-        <f>SUM(BF3:BF86)</f>
+        <f t="shared" si="136"/>
         <v>10482</v>
       </c>
       <c r="BG87" s="41">
-        <f>SUM(BG3:BG86)</f>
+        <f t="shared" si="136"/>
         <v>9425</v>
       </c>
       <c r="BH87" s="41">
-        <f>SUM(BH3:BH86)</f>
+        <f t="shared" si="136"/>
         <v>9785</v>
       </c>
       <c r="BI87" s="41">
-        <f>SUM(BI3:BI86)</f>
+        <f t="shared" si="136"/>
         <v>10073</v>
       </c>
       <c r="BJ87" s="41">
-        <f>SUM(BJ3:BJ86)</f>
+        <f t="shared" si="136"/>
         <v>10215</v>
       </c>
       <c r="BK87" s="41">
-        <f>SUM(BK3:BK86)</f>
+        <f t="shared" si="136"/>
         <v>9312</v>
       </c>
       <c r="BL87" s="41">
-        <f>SUM(BL3:BL86)</f>
+        <f t="shared" si="136"/>
         <v>9844</v>
       </c>
       <c r="BM87" s="41">
-        <f>SUM(BM3:BM86)</f>
+        <f t="shared" si="136"/>
         <v>10536</v>
       </c>
       <c r="BN87" s="41">
-        <f>SUM(BN3:BN86)</f>
+        <f t="shared" si="136"/>
         <v>10115</v>
       </c>
       <c r="BO87" s="41">
-        <f>SUM(BO3:BO86)</f>
+        <f t="shared" ref="BO87:CT87" si="137">SUM(BO3:BO86)</f>
         <v>9434</v>
       </c>
       <c r="BP87" s="41">
-        <f>SUM(BP3:BP86)</f>
+        <f t="shared" si="137"/>
         <v>9930</v>
       </c>
       <c r="BQ87" s="41">
-        <f>SUM(BQ3:BQ86)</f>
+        <f t="shared" si="137"/>
         <v>10325</v>
       </c>
       <c r="BR87" s="41">
-        <f>SUM(BR3:BR86)</f>
+        <f t="shared" si="137"/>
         <v>10433</v>
       </c>
       <c r="BS87" s="41">
-        <f>SUM(BS3:BS86)</f>
+        <f t="shared" si="137"/>
         <v>10037</v>
       </c>
       <c r="BT87" s="41">
-        <f>SUM(BT3:BT86)</f>
+        <f t="shared" si="137"/>
         <v>10465</v>
       </c>
       <c r="BU87" s="41">
-        <f>SUM(BU3:BU86)</f>
+        <f t="shared" si="137"/>
         <v>10794</v>
       </c>
       <c r="BV87" s="41">
-        <f>SUM(BV3:BV86)</f>
+        <f t="shared" si="137"/>
         <v>10998</v>
       </c>
       <c r="BW87" s="41">
-        <f>SUM(BW3:BW86)</f>
+        <f t="shared" si="137"/>
         <v>10816</v>
       </c>
       <c r="BX87" s="41">
-        <f>SUM(BX3:BX86)</f>
+        <f t="shared" si="137"/>
         <v>11760</v>
       </c>
       <c r="BY87" s="41">
-        <f>SUM(BY3:BY86)</f>
+        <f t="shared" si="137"/>
         <v>12397</v>
       </c>
       <c r="BZ87" s="41">
-        <f>SUM(BZ3:BZ86)</f>
+        <f t="shared" si="137"/>
         <v>11868</v>
       </c>
       <c r="CA87" s="41">
-        <f>SUM(CA3:CA86)</f>
+        <f t="shared" si="137"/>
         <v>12057</v>
       </c>
       <c r="CB87" s="41">
-        <f>SUM(CB3:CB86)</f>
+        <f t="shared" si="137"/>
         <v>10872</v>
       </c>
       <c r="CC87" s="41">
-        <f>SUM(CC3:CC86)</f>
+        <f t="shared" si="137"/>
         <v>10929</v>
       </c>
       <c r="CD87" s="41">
-        <f>SUM(CD3:CD86)</f>
+        <f t="shared" si="137"/>
         <v>12514</v>
       </c>
       <c r="CE87" s="41">
-        <f>SUM(CE3:CE86)</f>
+        <f t="shared" si="137"/>
         <v>10627</v>
       </c>
       <c r="CF87" s="41">
-        <f>SUM(CF3:CF86)</f>
+        <f t="shared" si="137"/>
         <v>11402</v>
       </c>
       <c r="CG87" s="41">
-        <f>SUM(CG3:CG86)</f>
+        <f t="shared" si="137"/>
         <v>13154</v>
       </c>
       <c r="CH87" s="41">
-        <f>SUM(CH3:CH86)</f>
+        <f t="shared" si="137"/>
         <v>13521</v>
       </c>
       <c r="CI87" s="41">
-        <f>SUM(CI3:CI86)</f>
+        <f t="shared" si="137"/>
         <v>15901</v>
       </c>
       <c r="CJ87" s="41">
-        <f>SUM(CJ3:CJ86)</f>
+        <f t="shared" si="137"/>
         <v>14593</v>
       </c>
       <c r="CK87" s="41">
-        <f>SUM(CK3:CK86)</f>
+        <f t="shared" si="137"/>
         <v>14959</v>
       </c>
       <c r="CL87" s="41">
-        <f>SUM(CL3:CL86)</f>
+        <f t="shared" si="137"/>
         <v>13830</v>
       </c>
       <c r="CM87" s="41">
-        <f>SUM(CM3:CM86)</f>
+        <f t="shared" si="137"/>
         <v>14565</v>
       </c>
       <c r="CN87" s="41">
-        <f>SUM(CN3:CN86)</f>
+        <f t="shared" si="137"/>
         <v>15035</v>
       </c>
       <c r="CO87" s="41">
-        <f>SUM(CO3:CO86)</f>
+        <f t="shared" si="137"/>
         <v>15962</v>
       </c>
       <c r="CP87" s="41">
-        <f>SUM(CP3:CP86)</f>
+        <f t="shared" si="137"/>
         <v>14630</v>
       </c>
       <c r="CQ87" s="41">
-        <f>SUM(CQ3:CQ86)</f>
+        <f t="shared" si="137"/>
         <v>15775</v>
       </c>
       <c r="CR87" s="41">
-        <f>SUM(CR3:CR86)</f>
+        <f t="shared" si="137"/>
         <v>16112</v>
       </c>
       <c r="CS87" s="41">
-        <f>SUM(CS3:CS86)</f>
+        <f t="shared" si="137"/>
         <v>12288.699999999999</v>
       </c>
       <c r="CT87" s="41">
-        <f>SUM(CT3:CT86)</f>
+        <f t="shared" si="137"/>
         <v>11648.5</v>
       </c>
       <c r="DA87" s="48"/>
@@ -36937,107 +36937,107 @@
         <v>28009</v>
       </c>
       <c r="DK87" s="28">
-        <f>SUM(DK3:DK86)</f>
+        <f t="shared" ref="DK87:EJ87" si="138">SUM(DK3:DK86)</f>
         <v>46049</v>
       </c>
       <c r="DL87" s="28">
-        <f>SUM(DL3:DL86)</f>
+        <f t="shared" si="138"/>
         <v>47986</v>
       </c>
       <c r="DM87" s="28">
-        <f>SUM(DM3:DM86)</f>
+        <f t="shared" si="138"/>
         <v>47270</v>
       </c>
       <c r="DN87" s="28">
-        <f>SUM(DN3:DN86)</f>
+        <f t="shared" si="138"/>
         <v>44032</v>
       </c>
       <c r="DO87" s="28">
-        <f>SUM(DO3:DO86)</f>
+        <f t="shared" si="138"/>
         <v>42237</v>
       </c>
       <c r="DP87" s="28">
-        <f>SUM(DP3:DP86)</f>
+        <f t="shared" si="138"/>
         <v>39498</v>
       </c>
       <c r="DQ87" s="28">
-        <f>SUM(DQ3:DQ86)</f>
+        <f t="shared" si="138"/>
         <v>39807</v>
       </c>
       <c r="DR87" s="28">
-        <f>SUM(DR3:DR86)</f>
+        <f t="shared" si="138"/>
         <v>40122</v>
       </c>
       <c r="DS87" s="28">
-        <f>SUM(DS3:DS86)</f>
+        <f t="shared" si="138"/>
         <v>42294</v>
       </c>
       <c r="DT87" s="28">
-        <f>SUM(DT3:DT86)</f>
+        <f t="shared" si="138"/>
         <v>46841</v>
       </c>
       <c r="DU87" s="28">
-        <f>SUM(DU3:DU86)</f>
+        <f t="shared" si="138"/>
         <v>46372</v>
       </c>
       <c r="DV87" s="28">
-        <f>SUM(DV3:DV86)</f>
+        <f t="shared" si="138"/>
         <v>48704</v>
       </c>
       <c r="DW87" s="28">
-        <f>SUM(DW3:DW86)</f>
+        <f t="shared" si="138"/>
         <v>59283</v>
       </c>
       <c r="DX87" s="28">
-        <f>SUM(DX3:DX86)</f>
+        <f t="shared" si="138"/>
         <v>60242</v>
       </c>
       <c r="DY87" s="28">
-        <f>SUM(DY3:DY86)</f>
+        <f t="shared" si="138"/>
         <v>58425.57</v>
       </c>
       <c r="DZ87" s="28">
-        <f>SUM(DZ3:DZ86)</f>
+        <f t="shared" si="138"/>
         <v>57567.47849999999</v>
       </c>
       <c r="EA87" s="28">
-        <f>SUM(EA3:EA86)</f>
+        <f t="shared" si="138"/>
         <v>55630.060807000002</v>
       </c>
       <c r="EB87" s="28">
-        <f>SUM(EB3:EB86)</f>
+        <f t="shared" si="138"/>
         <v>54033.214332449999</v>
       </c>
       <c r="EC87" s="28">
-        <f>SUM(EC3:EC86)</f>
+        <f t="shared" si="138"/>
         <v>53483.206818926315</v>
       </c>
       <c r="ED87" s="28">
-        <f>SUM(ED3:ED86)</f>
+        <f t="shared" si="138"/>
         <v>50485.928905679037</v>
       </c>
       <c r="EE87" s="28">
-        <f>SUM(EE3:EE86)</f>
+        <f t="shared" si="138"/>
         <v>45583.335816049897</v>
       </c>
       <c r="EF87" s="28">
-        <f>SUM(EF3:EF86)</f>
+        <f t="shared" si="138"/>
         <v>39843.225289239774</v>
       </c>
       <c r="EG87" s="28">
-        <f>SUM(EG3:EG86)</f>
+        <f t="shared" si="138"/>
         <v>34551.671295327003</v>
       </c>
       <c r="EH87" s="28">
-        <f>SUM(EH3:EH86)</f>
+        <f t="shared" si="138"/>
         <v>31430.762863438144</v>
       </c>
       <c r="EI87" s="28">
-        <f>SUM(EI3:EI86)</f>
+        <f t="shared" si="138"/>
         <v>29408.667310131124</v>
       </c>
       <c r="EJ87" s="28">
-        <f>SUM(EJ3:EJ86)</f>
+        <f t="shared" si="138"/>
         <v>28284.38797871373</v>
       </c>
     </row>
@@ -37309,47 +37309,47 @@
       <c r="DJ88" s="94"/>
       <c r="DK88" s="94"/>
       <c r="DL88" s="94">
-        <f t="shared" ref="DL88:EA88" si="135">DL87-DL89</f>
+        <f t="shared" ref="DL88:EA88" si="139">DL87-DL89</f>
         <v>12044.485999999997</v>
       </c>
       <c r="DM88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>47270</v>
       </c>
       <c r="DN88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>44032</v>
       </c>
       <c r="DO88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>42237</v>
       </c>
       <c r="DP88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>39498</v>
       </c>
       <c r="DQ88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>39807</v>
       </c>
       <c r="DR88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>40122</v>
       </c>
       <c r="DS88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>42294</v>
       </c>
       <c r="DT88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>46841</v>
       </c>
       <c r="DU88" s="94">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>46372</v>
       </c>
       <c r="DV88" s="94">
-        <f t="shared" ref="DV88" si="136">SUM(CE88:CH88)</f>
+        <f t="shared" ref="DV88" si="140">SUM(CE88:CH88)</f>
         <v>11638</v>
       </c>
       <c r="DW88" s="94">
@@ -37361,15 +37361,15 @@
         <v>13896</v>
       </c>
       <c r="DY88" s="92">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>11685.113999999994</v>
       </c>
       <c r="DZ88" s="92">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>11513.495699999992</v>
       </c>
       <c r="EA88" s="92">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>11126.012161399995</v>
       </c>
       <c r="EB88" s="92">
@@ -37377,35 +37377,35 @@
         <v>10806.642866489994</v>
       </c>
       <c r="EC88" s="92">
-        <f t="shared" ref="EC88:EJ88" si="137">EC87-EC89</f>
+        <f t="shared" ref="EC88:EJ88" si="141">EC87-EC89</f>
         <v>10696.64136378526</v>
       </c>
       <c r="ED88" s="92">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>10097.185781135806</v>
       </c>
       <c r="EE88" s="92">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>9116.6671632099751</v>
       </c>
       <c r="EF88" s="92">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>7968.6450578479526</v>
       </c>
       <c r="EG88" s="92">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>6910.3342590653992</v>
       </c>
       <c r="EH88" s="92">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>6286.152572687628</v>
       </c>
       <c r="EI88" s="92">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>5881.7334620262227</v>
       </c>
       <c r="EJ88" s="92">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>5656.8775957427461</v>
       </c>
     </row>
@@ -37504,35 +37504,35 @@
       <c r="CA89" s="94"/>
       <c r="CB89" s="94"/>
       <c r="CC89" s="94">
-        <f t="shared" ref="CC89:CJ89" si="138">+CC87-CC88</f>
+        <f t="shared" ref="CC89:CJ89" si="142">+CC87-CC88</f>
         <v>8357</v>
       </c>
       <c r="CD89" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>9775</v>
       </c>
       <c r="CE89" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>8140</v>
       </c>
       <c r="CF89" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>8718</v>
       </c>
       <c r="CG89" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>10098</v>
       </c>
       <c r="CH89" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>10110</v>
       </c>
       <c r="CI89" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>11247</v>
       </c>
       <c r="CJ89" s="94">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>10895</v>
       </c>
       <c r="CK89" s="94">
@@ -37590,43 +37590,43 @@
       <c r="DJ89" s="94"/>
       <c r="DK89" s="94"/>
       <c r="DL89" s="94">
-        <f t="shared" ref="DL89:DU89" si="139">DL87*DL107</f>
+        <f t="shared" ref="DL89:DU89" si="143">DL87*DL107</f>
         <v>35941.514000000003</v>
       </c>
       <c r="DM89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DN89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DO89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DP89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DQ89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DR89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DS89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DT89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DU89" s="94">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>0</v>
       </c>
       <c r="DV89" s="94">
@@ -37642,15 +37642,15 @@
         <v>46346</v>
       </c>
       <c r="DY89" s="92">
-        <f t="shared" ref="DY89:EA89" si="140">DY87*0.8</f>
+        <f t="shared" ref="DY89:EA89" si="144">DY87*0.8</f>
         <v>46740.456000000006</v>
       </c>
       <c r="DZ89" s="92">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>46053.982799999998</v>
       </c>
       <c r="EA89" s="92">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>44504.048645600007</v>
       </c>
       <c r="EB89" s="92">
@@ -37658,35 +37658,35 @@
         <v>43226.571465960005</v>
       </c>
       <c r="EC89" s="92">
-        <f t="shared" ref="EC89:EJ89" si="141">EC87*0.8</f>
+        <f t="shared" ref="EC89:EJ89" si="145">EC87*0.8</f>
         <v>42786.565455141055</v>
       </c>
       <c r="ED89" s="92">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>40388.743124543231</v>
       </c>
       <c r="EE89" s="92">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>36466.668652839922</v>
       </c>
       <c r="EF89" s="92">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>31874.580231391821</v>
       </c>
       <c r="EG89" s="92">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>27641.337036261604</v>
       </c>
       <c r="EH89" s="92">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>25144.610290750516</v>
       </c>
       <c r="EI89" s="92">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>23526.933848104902</v>
       </c>
       <c r="EJ89" s="92">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>22627.510382970984</v>
       </c>
     </row>
@@ -37960,47 +37960,47 @@
         <v>12724.3</v>
       </c>
       <c r="DL90" s="93">
-        <f t="shared" ref="DL90:DT90" si="142">DL87*DL108</f>
+        <f t="shared" ref="DL90:DT90" si="146">DL87*DL108</f>
         <v>13292.122000000001</v>
       </c>
       <c r="DM90" s="93">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>12999.250000000002</v>
       </c>
       <c r="DN90" s="93">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>11976.704000000002</v>
       </c>
       <c r="DO90" s="93">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>11403.990000000002</v>
       </c>
       <c r="DP90" s="93">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>10664.460000000001</v>
       </c>
       <c r="DQ90" s="93">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>10747.890000000001</v>
       </c>
       <c r="DR90" s="93">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>10832.94</v>
       </c>
       <c r="DS90" s="93">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>11419.380000000001</v>
       </c>
       <c r="DT90" s="93">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>12647.070000000002</v>
       </c>
       <c r="DU90" s="93">
-        <f t="shared" ref="DU90:EA90" si="143">+DT90</f>
+        <f t="shared" ref="DU90:EA90" si="147">+DT90</f>
         <v>12647.070000000002</v>
       </c>
       <c r="DV90" s="94">
-        <f t="shared" ref="DV90:DV91" si="144">SUM(CE90:CH90)</f>
+        <f t="shared" ref="DV90:DV91" si="148">SUM(CE90:CH90)</f>
         <v>9292</v>
       </c>
       <c r="DW90" s="94">
@@ -38012,15 +38012,15 @@
         <v>10296</v>
       </c>
       <c r="DY90" s="93">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>10296</v>
       </c>
       <c r="DZ90" s="93">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>10296</v>
       </c>
       <c r="EA90" s="93">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>10296</v>
       </c>
       <c r="EB90" s="92">
@@ -38028,35 +38028,35 @@
         <v>13508.3035831125</v>
       </c>
       <c r="EC90" s="92">
-        <f t="shared" ref="EC90:EJ90" si="145">EC87*0.25</f>
+        <f t="shared" ref="EC90:EJ90" si="149">EC87*0.25</f>
         <v>13370.801704731579</v>
       </c>
       <c r="ED90" s="92">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>12621.482226419759</v>
       </c>
       <c r="EE90" s="92">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>11395.833954012474</v>
       </c>
       <c r="EF90" s="92">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>9960.8063223099434</v>
       </c>
       <c r="EG90" s="92">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>8637.9178238317509</v>
       </c>
       <c r="EH90" s="92">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>7857.6907158595359</v>
       </c>
       <c r="EI90" s="92">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>7352.1668275327811</v>
       </c>
       <c r="EJ90" s="92">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>7071.0969946784326</v>
       </c>
     </row>
@@ -38354,7 +38354,7 @@
       <c r="DT91" s="93"/>
       <c r="DU91" s="93"/>
       <c r="DV91" s="94">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>11843</v>
       </c>
       <c r="DW91" s="94">
@@ -38375,111 +38375,111 @@
         <v>62</v>
       </c>
       <c r="C92" s="93">
-        <f t="shared" ref="C92:N92" si="146">SUM(C88:C91)</f>
+        <f t="shared" ref="C92:N92" si="150">SUM(C88:C91)</f>
         <v>2772.73</v>
       </c>
       <c r="D92" s="93">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>2966.73</v>
       </c>
       <c r="E92" s="93">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>2946.24</v>
       </c>
       <c r="F92" s="93">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>3096.2000000000003</v>
       </c>
       <c r="G92" s="93">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>2737.8</v>
       </c>
       <c r="H92" s="93">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>2936.2</v>
       </c>
       <c r="I92" s="93">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>3057.7000000000003</v>
       </c>
       <c r="J92" s="93">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>3502.9000000000005</v>
       </c>
       <c r="K92" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>3314.3999999999996</v>
       </c>
       <c r="L92" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>3364.8</v>
       </c>
       <c r="M92" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>3323.5</v>
       </c>
       <c r="N92" s="94">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>3917.2999999999997</v>
       </c>
       <c r="O92" s="94">
-        <f t="shared" ref="O92:AH92" si="147">O91+O90</f>
+        <f t="shared" ref="O92:AH92" si="151">O91+O90</f>
         <v>2448.6999999999998</v>
       </c>
       <c r="P92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2461.1999999999998</v>
       </c>
       <c r="Q92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2637.2</v>
       </c>
       <c r="R92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2870.4</v>
       </c>
       <c r="S92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2459.9</v>
       </c>
       <c r="T92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2702.1</v>
       </c>
       <c r="U92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2603.8000000000002</v>
       </c>
       <c r="V92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2937</v>
       </c>
       <c r="W92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2602</v>
       </c>
       <c r="X92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2610.6999999999998</v>
       </c>
       <c r="Y92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>3316</v>
       </c>
       <c r="Z92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>3479.5</v>
       </c>
       <c r="AA92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2832</v>
       </c>
       <c r="AB92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>3114.2</v>
       </c>
       <c r="AC92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>3066.8</v>
       </c>
       <c r="AD92" s="94"/>
@@ -38488,7 +38488,7 @@
         <v>2892.7</v>
       </c>
       <c r="AF92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>3099.5</v>
       </c>
       <c r="AG92" s="94">
@@ -38496,19 +38496,19 @@
         <v>2901.3999999999996</v>
       </c>
       <c r="AH92" s="94">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>3248.7</v>
       </c>
       <c r="AI92" s="94">
-        <f t="shared" ref="AI92:AN92" si="148">AI91+AI90</f>
+        <f t="shared" ref="AI92:AN92" si="152">AI91+AI90</f>
         <v>2762.1000000000004</v>
       </c>
       <c r="AJ92" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>2947.8</v>
       </c>
       <c r="AK92" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>2979.5</v>
       </c>
       <c r="AL92" s="94">
@@ -38516,11 +38516,11 @@
         <v>5174.2</v>
       </c>
       <c r="AM92" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>5160.5</v>
       </c>
       <c r="AN92" s="94">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>5135.1000000000004</v>
       </c>
       <c r="AO92" s="94">
@@ -38589,7 +38589,7 @@
         <v>6553</v>
       </c>
       <c r="CG92" s="94">
-        <f t="shared" ref="CG92" si="149">+CG90+CG91</f>
+        <f t="shared" ref="CG92" si="153">+CG90+CG91</f>
         <v>4746</v>
       </c>
       <c r="CH92" s="94">
@@ -38605,11 +38605,11 @@
         <v>5184</v>
       </c>
       <c r="CK92" s="94">
-        <f t="shared" ref="CK92:CQ92" si="150">+CK90+CK91</f>
+        <f t="shared" ref="CK92:CQ92" si="154">+CK90+CK91</f>
         <v>5968</v>
       </c>
       <c r="CL92" s="94">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>5663</v>
       </c>
       <c r="CM92" s="94">
@@ -38617,31 +38617,31 @@
         <v>6724</v>
       </c>
       <c r="CN92" s="94">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>5736</v>
       </c>
       <c r="CO92" s="94">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>5759</v>
       </c>
       <c r="CP92" s="94">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>6089</v>
       </c>
       <c r="CQ92" s="94">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>6431</v>
       </c>
       <c r="CR92" s="94">
-        <f t="shared" ref="CR92:CT92" si="151">+CR90+CR91</f>
+        <f t="shared" ref="CR92:CT92" si="155">+CR90+CR91</f>
         <v>6164</v>
       </c>
       <c r="CS92" s="94">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="CT92" s="94">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="CU92" s="94"/>
@@ -38652,39 +38652,39 @@
       <c r="CZ92" s="94"/>
       <c r="DA92" s="95"/>
       <c r="DB92" s="94">
-        <f t="shared" ref="DB92:DJ92" si="152">DB91+DB90</f>
+        <f t="shared" ref="DB92:DJ92" si="156">DB91+DB90</f>
         <v>8157</v>
       </c>
       <c r="DC92" s="94">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>8329.3999999999978</v>
       </c>
       <c r="DD92" s="94">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>9573</v>
       </c>
       <c r="DE92" s="94">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>10417.5</v>
       </c>
       <c r="DF92" s="94">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>10702.8</v>
       </c>
       <c r="DG92" s="94">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>12008.2</v>
       </c>
       <c r="DH92" s="94">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>9013</v>
       </c>
       <c r="DI92" s="94">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>12142.3</v>
       </c>
       <c r="DJ92" s="94">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>13863.599999999999</v>
       </c>
       <c r="DK92" s="94">
@@ -38696,43 +38696,43 @@
         <v>21231.421999999999</v>
       </c>
       <c r="DM92" s="94">
-        <f t="shared" ref="DM92:DT92" si="153">DM91+DM90</f>
+        <f t="shared" ref="DM92:DT92" si="157">DM91+DM90</f>
         <v>12999.250000000002</v>
       </c>
       <c r="DN92" s="94">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>11976.704000000002</v>
       </c>
       <c r="DO92" s="94">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>11403.990000000002</v>
       </c>
       <c r="DP92" s="94">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>10664.460000000001</v>
       </c>
       <c r="DQ92" s="94">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>10747.890000000001</v>
       </c>
       <c r="DR92" s="94">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>10832.94</v>
       </c>
       <c r="DS92" s="94">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>11419.380000000001</v>
       </c>
       <c r="DT92" s="94">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>12647.070000000002</v>
       </c>
       <c r="DU92" s="94">
-        <f t="shared" ref="DU92:EA92" si="154">DU91+DU90</f>
+        <f t="shared" ref="DU92:EA92" si="158">DU91+DU90</f>
         <v>12647.070000000002</v>
       </c>
       <c r="DV92" s="94">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>21135</v>
       </c>
       <c r="DW92" s="94">
@@ -38744,51 +38744,51 @@
         <v>24308</v>
       </c>
       <c r="DY92" s="94">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>10296</v>
       </c>
       <c r="DZ92" s="94">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>10296</v>
       </c>
       <c r="EA92" s="94">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>10296</v>
       </c>
       <c r="EB92" s="94">
-        <f t="shared" ref="EB92:EJ92" si="155">EB91+EB90</f>
+        <f t="shared" ref="EB92:EJ92" si="159">EB91+EB90</f>
         <v>13508.3035831125</v>
       </c>
       <c r="EC92" s="94">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>13370.801704731579</v>
       </c>
       <c r="ED92" s="94">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>12621.482226419759</v>
       </c>
       <c r="EE92" s="94">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>11395.833954012474</v>
       </c>
       <c r="EF92" s="94">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>9960.8063223099434</v>
       </c>
       <c r="EG92" s="94">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>8637.9178238317509</v>
       </c>
       <c r="EH92" s="94">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>7857.6907158595359</v>
       </c>
       <c r="EI92" s="94">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>7352.1668275327811</v>
       </c>
       <c r="EJ92" s="94">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>7071.0969946784326</v>
       </c>
     </row>
@@ -38797,111 +38797,111 @@
         <v>63</v>
       </c>
       <c r="C93" s="93">
-        <f t="shared" ref="C93:N93" si="156">C87-C92</f>
+        <f t="shared" ref="C93:N93" si="160">C87-C92</f>
         <v>2123.0700000000002</v>
       </c>
       <c r="D93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>2321.0700000000002</v>
       </c>
       <c r="E93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>2497.46</v>
       </c>
       <c r="F93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>2475.4</v>
       </c>
       <c r="G93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>-2737.8</v>
       </c>
       <c r="H93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>-2936.2</v>
       </c>
       <c r="I93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>-3057.7000000000003</v>
       </c>
       <c r="J93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>-3502.9000000000005</v>
       </c>
       <c r="K93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>-3314.3999999999996</v>
       </c>
       <c r="L93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>-3364.8</v>
       </c>
       <c r="M93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>-3323.5</v>
       </c>
       <c r="N93" s="93">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>-3917.2999999999997</v>
       </c>
       <c r="O93" s="93" t="e">
-        <f t="shared" ref="O93:AH93" si="157">O89-O92</f>
+        <f t="shared" ref="O93:AH93" si="161">O89-O92</f>
         <v>#REF!</v>
       </c>
       <c r="P93" s="93" t="e">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>#REF!</v>
       </c>
       <c r="Q93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2637.2</v>
       </c>
       <c r="R93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2870.4</v>
       </c>
       <c r="S93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2459.9</v>
       </c>
       <c r="T93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2702.1</v>
       </c>
       <c r="U93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2603.8000000000002</v>
       </c>
       <c r="V93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2937</v>
       </c>
       <c r="W93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2602</v>
       </c>
       <c r="X93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2610.6999999999998</v>
       </c>
       <c r="Y93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-3316</v>
       </c>
       <c r="Z93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-3479.5</v>
       </c>
       <c r="AA93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-2832</v>
       </c>
       <c r="AB93" s="93">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-3114.2</v>
       </c>
       <c r="AC93" s="94">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-3066.8</v>
       </c>
       <c r="AD93" s="94"/>
@@ -38910,7 +38910,7 @@
         <v>-2892.7</v>
       </c>
       <c r="AF93" s="94">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-3099.5</v>
       </c>
       <c r="AG93" s="94">
@@ -38918,31 +38918,31 @@
         <v>-2901.3999999999996</v>
       </c>
       <c r="AH93" s="94">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>-3248.7</v>
       </c>
       <c r="AI93" s="94">
-        <f t="shared" ref="AI93:AN93" si="158">AI89-AI92</f>
+        <f t="shared" ref="AI93:AN93" si="162">AI89-AI92</f>
         <v>-2762.1000000000004</v>
       </c>
       <c r="AJ93" s="94">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>-2947.8</v>
       </c>
       <c r="AK93" s="94">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>-2979.5</v>
       </c>
       <c r="AL93" s="94">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>3377.0000000000009</v>
       </c>
       <c r="AM93" s="94">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>3450.7999999999993</v>
       </c>
       <c r="AN93" s="94">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>-5135.1000000000004</v>
       </c>
       <c r="AO93" s="94">
@@ -39011,7 +39011,7 @@
         <v>2165</v>
       </c>
       <c r="CG93" s="94">
-        <f t="shared" ref="CG93" si="159">+CG89-CG92</f>
+        <f t="shared" ref="CG93" si="163">+CG89-CG92</f>
         <v>5352</v>
       </c>
       <c r="CH93" s="94">
@@ -39027,11 +39027,11 @@
         <v>5711</v>
       </c>
       <c r="CK93" s="94">
-        <f t="shared" ref="CK93:CQ93" si="160">+CK89-CK92</f>
+        <f t="shared" ref="CK93:CQ93" si="164">+CK89-CK92</f>
         <v>5557</v>
       </c>
       <c r="CL93" s="94">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>4806</v>
       </c>
       <c r="CM93" s="94">
@@ -39039,31 +39039,31 @@
         <v>4489</v>
       </c>
       <c r="CN93" s="94">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>5774</v>
       </c>
       <c r="CO93" s="94">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>6524</v>
       </c>
       <c r="CP93" s="94">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>5201</v>
       </c>
       <c r="CQ93" s="94">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>6383</v>
       </c>
       <c r="CR93" s="94">
-        <f t="shared" ref="CR93:CT93" si="161">+CR89-CR92</f>
+        <f t="shared" ref="CR93:CT93" si="165">+CR89-CR92</f>
         <v>6875</v>
       </c>
       <c r="CS93" s="94">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="CT93" s="94">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
       <c r="CU93" s="94"/>
@@ -39074,39 +39074,39 @@
       <c r="CZ93" s="94"/>
       <c r="DA93" s="95"/>
       <c r="DB93" s="94">
-        <f t="shared" ref="DB93:DJ93" si="162">DB89-DB92</f>
+        <f t="shared" ref="DB93:DJ93" si="166">DB89-DB92</f>
         <v>9417.2000000000007</v>
       </c>
       <c r="DC93" s="94">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>-8329.3999999999978</v>
       </c>
       <c r="DD93" s="94">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>-9573</v>
       </c>
       <c r="DE93" s="94">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>-10417.5</v>
       </c>
       <c r="DF93" s="94">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>-10702.8</v>
       </c>
       <c r="DG93" s="94">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>-12008.2</v>
       </c>
       <c r="DH93" s="94">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>-9013</v>
       </c>
       <c r="DI93" s="94">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>-12142.3</v>
       </c>
       <c r="DJ93" s="94">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>-13863.599999999999</v>
       </c>
       <c r="DK93" s="94">
@@ -39118,43 +39118,43 @@
         <v>14710.092000000004</v>
       </c>
       <c r="DM93" s="94">
-        <f t="shared" ref="DM93:DT93" si="163">DM89-DM92</f>
+        <f t="shared" ref="DM93:DT93" si="167">DM89-DM92</f>
         <v>-12999.250000000002</v>
       </c>
       <c r="DN93" s="94">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>-11976.704000000002</v>
       </c>
       <c r="DO93" s="94">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>-11403.990000000002</v>
       </c>
       <c r="DP93" s="94">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>-10664.460000000001</v>
       </c>
       <c r="DQ93" s="94">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>-10747.890000000001</v>
       </c>
       <c r="DR93" s="94">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>-10832.94</v>
       </c>
       <c r="DS93" s="94">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>-11419.380000000001</v>
       </c>
       <c r="DT93" s="94">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>-12647.070000000002</v>
       </c>
       <c r="DU93" s="94">
-        <f t="shared" ref="DU93:EA93" si="164">DU89-DU92</f>
+        <f t="shared" ref="DU93:EA93" si="168">DU89-DU92</f>
         <v>-12647.070000000002</v>
       </c>
       <c r="DV93" s="94">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>15931</v>
       </c>
       <c r="DW93" s="94">
@@ -39166,51 +39166,51 @@
         <v>22038</v>
       </c>
       <c r="DY93" s="94">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>36444.456000000006</v>
       </c>
       <c r="DZ93" s="94">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>35757.982799999998</v>
       </c>
       <c r="EA93" s="94">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>34208.048645600007</v>
       </c>
       <c r="EB93" s="94">
-        <f t="shared" ref="EB93:EJ93" si="165">EB89-EB92</f>
+        <f t="shared" ref="EB93:EJ93" si="169">EB89-EB92</f>
         <v>29718.267882847504</v>
       </c>
       <c r="EC93" s="94">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>29415.763750409475</v>
       </c>
       <c r="ED93" s="94">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>27767.260898123473</v>
       </c>
       <c r="EE93" s="94">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>25070.83469882745</v>
       </c>
       <c r="EF93" s="94">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>21913.77390908188</v>
       </c>
       <c r="EG93" s="94">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>19003.419212429853</v>
       </c>
       <c r="EH93" s="94">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>17286.919574890981</v>
       </c>
       <c r="EI93" s="94">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>16174.767020572121</v>
       </c>
       <c r="EJ93" s="94">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>15556.413388292553</v>
       </c>
     </row>
@@ -39374,27 +39374,27 @@
       <c r="DA94" s="75"/>
       <c r="DB94" s="94"/>
       <c r="DC94" s="94">
-        <f t="shared" ref="DC94:DC99" si="166">SUM(G94:J94)</f>
+        <f t="shared" ref="DC94:DC99" si="170">SUM(G94:J94)</f>
         <v>-415.7</v>
       </c>
       <c r="DD94" s="94">
-        <f t="shared" ref="DD94:DD99" si="167">SUM(K94:N94)</f>
+        <f t="shared" ref="DD94:DD99" si="171">SUM(K94:N94)</f>
         <v>-308.7</v>
       </c>
       <c r="DE94" s="94">
-        <f t="shared" ref="DE94:DE99" si="168">SUM(O94:R94)</f>
+        <f t="shared" ref="DE94:DE99" si="172">SUM(O94:R94)</f>
         <v>300.09999999999997</v>
       </c>
       <c r="DF94" s="94">
-        <f t="shared" ref="DF94:DF99" si="169">SUM(S94:V94)</f>
+        <f t="shared" ref="DF94:DF99" si="173">SUM(S94:V94)</f>
         <v>480.8</v>
       </c>
       <c r="DG94" s="93">
-        <f t="shared" ref="DG94:DG99" si="170">SUM(W94:Z94)</f>
+        <f t="shared" ref="DG94:DG99" si="174">SUM(W94:Z94)</f>
         <v>764.3</v>
       </c>
       <c r="DH94" s="93">
-        <f t="shared" ref="DH94:DH99" si="171">SUM(AA94:AD94)</f>
+        <f t="shared" ref="DH94:DH99" si="175">SUM(AA94:AD94)</f>
         <v>540.9</v>
       </c>
       <c r="DI94" s="93">
@@ -39639,27 +39639,27 @@
       <c r="DA95" s="75"/>
       <c r="DB95" s="94"/>
       <c r="DC95" s="94">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>390.80000000000007</v>
       </c>
       <c r="DD95" s="94">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>350.9</v>
       </c>
       <c r="DE95" s="94">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>293.79999999999995</v>
       </c>
       <c r="DF95" s="94">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>385.4</v>
       </c>
       <c r="DG95" s="93">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>375</v>
       </c>
       <c r="DH95" s="93">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>297.2</v>
       </c>
       <c r="DI95" s="94"/>
@@ -39676,7 +39676,7 @@
       <c r="DT95" s="84"/>
       <c r="DU95" s="84"/>
       <c r="DV95" s="94">
-        <f t="shared" ref="DV95" si="172">SUM(CE95:CH95)</f>
+        <f t="shared" ref="DV95" si="176">SUM(CE95:CH95)</f>
         <v>-467</v>
       </c>
       <c r="DW95" s="94">
@@ -39684,55 +39684,55 @@
         <v>-360</v>
       </c>
       <c r="DX95" s="94">
-        <f t="shared" ref="DX95" si="173">SUM(CM95:CP95)</f>
+        <f t="shared" ref="DX95" si="177">SUM(CM95:CP95)</f>
         <v>-256</v>
       </c>
       <c r="DY95" s="87">
-        <f t="shared" ref="DY95:EJ95" si="174">-DX122*$EM$107</f>
+        <f t="shared" ref="DY95:EJ95" si="178">-DX122*$EM$107</f>
         <v>0</v>
       </c>
       <c r="DZ95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-273.33342000000005</v>
       </c>
       <c r="EA95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-543.56829164999999</v>
       </c>
       <c r="EB95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-804.20541867937516</v>
       </c>
       <c r="EC95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-1033.1239684408267</v>
       </c>
       <c r="ED95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-1261.4906263322041</v>
       </c>
       <c r="EE95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-1479.2062627656217</v>
       </c>
       <c r="EF95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-1678.3315699775699</v>
       </c>
       <c r="EG95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-1855.2723610705154</v>
       </c>
       <c r="EH95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-2011.7125478717683</v>
       </c>
       <c r="EI95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-2156.4522887924886</v>
       </c>
       <c r="EJ95" s="87">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>-2293.9364336127232</v>
       </c>
     </row>
@@ -39892,27 +39892,27 @@
       <c r="DA96" s="75"/>
       <c r="DB96" s="94"/>
       <c r="DC96" s="94">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>-7.7999999999999989</v>
       </c>
       <c r="DD96" s="94">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>-28.4</v>
       </c>
       <c r="DE96" s="94">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>2.8000000000000007</v>
       </c>
       <c r="DF96" s="94">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>16.100000000000001</v>
       </c>
       <c r="DG96" s="93">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>25</v>
       </c>
       <c r="DH96" s="93">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>39.900000000000006</v>
       </c>
       <c r="DI96" s="94"/>
@@ -40092,27 +40092,27 @@
       <c r="DA97" s="75"/>
       <c r="DB97" s="94"/>
       <c r="DC97" s="94">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>214.2</v>
       </c>
       <c r="DD97" s="94">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>168.7</v>
       </c>
       <c r="DE97" s="94">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>-154.30000000000001</v>
       </c>
       <c r="DF97" s="94">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>-121.8</v>
       </c>
       <c r="DG97" s="93">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>-120.5</v>
       </c>
       <c r="DH97" s="93">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>-92</v>
       </c>
       <c r="DI97" s="94"/>
@@ -40308,23 +40308,23 @@
         <v>-685.90000000000009</v>
       </c>
       <c r="DC98" s="94">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>-644.70000000000005</v>
       </c>
       <c r="DD98" s="94">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>-474.1</v>
       </c>
       <c r="DE98" s="94">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>1008.1999999999999</v>
       </c>
       <c r="DF98" s="94">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>1717.1</v>
       </c>
       <c r="DG98" s="93">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>2293.8999999999996</v>
       </c>
       <c r="DH98" s="93">
@@ -40531,27 +40531,27 @@
         <v>155.01</v>
       </c>
       <c r="DC99" s="94">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>20.79999999999999</v>
       </c>
       <c r="DD99" s="94">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>-198.50000000000006</v>
       </c>
       <c r="DE99" s="94">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>175.1</v>
       </c>
       <c r="DF99" s="94">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>120.8</v>
       </c>
       <c r="DG99" s="93">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>88.7</v>
       </c>
       <c r="DH99" s="93">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>329.3</v>
       </c>
       <c r="DI99" s="98"/>
@@ -40596,79 +40596,79 @@
         <v>-61.599999999999994</v>
       </c>
       <c r="G100" s="93">
-        <f t="shared" ref="G100:N100" si="175">SUM(G94:G99)</f>
+        <f t="shared" ref="G100:N100" si="179">SUM(G94:G99)</f>
         <v>-148.4</v>
       </c>
       <c r="H100" s="93">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>-128.4</v>
       </c>
       <c r="I100" s="93">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>-141.89999999999998</v>
       </c>
       <c r="J100" s="93">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>-23.700000000000003</v>
       </c>
       <c r="K100" s="93">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>40.899999999999991</v>
       </c>
       <c r="L100" s="93">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>-309.20000000000005</v>
       </c>
       <c r="M100" s="93">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>-170.70000000000002</v>
       </c>
       <c r="N100" s="93">
-        <f t="shared" si="175"/>
+        <f t="shared" si="179"/>
         <v>-51.099999999999994</v>
       </c>
       <c r="O100" s="93">
-        <f t="shared" ref="O100:Y100" si="176">O94-O95+O96+O97+O98+O99</f>
+        <f t="shared" ref="O100:Y100" si="180">O94-O95+O96+O97+O98+O99</f>
         <v>140.19999999999999</v>
       </c>
       <c r="P100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>187.8</v>
       </c>
       <c r="Q100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>315.89999999999998</v>
       </c>
       <c r="R100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>394.19999999999993</v>
       </c>
       <c r="S100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>289.8</v>
       </c>
       <c r="T100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>320.10000000000002</v>
       </c>
       <c r="U100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>504.8</v>
       </c>
       <c r="V100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>712.90000000000009</v>
       </c>
       <c r="W100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>604</v>
       </c>
       <c r="X100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>681.4</v>
       </c>
       <c r="Y100" s="93">
-        <f t="shared" si="176"/>
+        <f t="shared" si="180"/>
         <v>729.7</v>
       </c>
       <c r="Z100" s="93">
@@ -40799,39 +40799,39 @@
       <c r="CZ100" s="93"/>
       <c r="DA100" s="75"/>
       <c r="DB100" s="93">
-        <f t="shared" ref="DB100:DJ100" si="177">DB94-DB95+DB96+DB97+DB98+DB99</f>
+        <f t="shared" ref="DB100:DJ100" si="181">DB94-DB95+DB96+DB97+DB98+DB99</f>
         <v>-530.8900000000001</v>
       </c>
       <c r="DC100" s="93">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>-1224</v>
       </c>
       <c r="DD100" s="93">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>-1191.9000000000001</v>
       </c>
       <c r="DE100" s="93">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>1038.0999999999999</v>
       </c>
       <c r="DF100" s="93">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>1827.6</v>
       </c>
       <c r="DG100" s="93">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>2676.3999999999996</v>
       </c>
       <c r="DH100" s="93">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>2701.1</v>
       </c>
       <c r="DI100" s="93">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>1984.3999999999999</v>
       </c>
       <c r="DJ100" s="93">
-        <f t="shared" si="177"/>
+        <f t="shared" si="181"/>
         <v>0</v>
       </c>
       <c r="DK100" s="93">
@@ -40847,47 +40847,47 @@
         <v>#REF!</v>
       </c>
       <c r="DN100" s="93" t="e">
-        <f t="shared" ref="DN100:DT100" si="178">DN94-DN95+DN96+DN97+DN98+DN99</f>
+        <f t="shared" ref="DN100:DT100" si="182">DN94-DN95+DN96+DN97+DN98+DN99</f>
         <v>#REF!</v>
       </c>
       <c r="DO100" s="93" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#REF!</v>
       </c>
       <c r="DP100" s="93" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#REF!</v>
       </c>
       <c r="DQ100" s="93" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#REF!</v>
       </c>
       <c r="DR100" s="93" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#REF!</v>
       </c>
       <c r="DS100" s="93" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#REF!</v>
       </c>
       <c r="DT100" s="93" t="e">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>#REF!</v>
       </c>
       <c r="DU100" s="93" t="e">
-        <f t="shared" ref="DU100:DX100" si="179">DU94-DU95+DU96+DU97+DU98+DU99</f>
+        <f t="shared" ref="DU100:DX100" si="183">DU94-DU95+DU96+DU97+DU98+DU99</f>
         <v>#REF!</v>
       </c>
       <c r="DV100" s="93">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>467</v>
       </c>
       <c r="DW100" s="93">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>360</v>
       </c>
       <c r="DX100" s="93">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>256</v>
       </c>
       <c r="DY100" s="93">
@@ -40895,47 +40895,47 @@
         <v>0</v>
       </c>
       <c r="DZ100" s="93">
-        <f t="shared" ref="DZ100:EJ100" si="180">DZ94-DZ95+DZ96+DZ97+DZ98+DZ99</f>
+        <f t="shared" ref="DZ100:EJ100" si="184">DZ94-DZ95+DZ96+DZ97+DZ98+DZ99</f>
         <v>273.33342000000005</v>
       </c>
       <c r="EA100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>543.56829164999999</v>
       </c>
       <c r="EB100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>804.20541867937516</v>
       </c>
       <c r="EC100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>1033.1239684408267</v>
       </c>
       <c r="ED100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>1261.4906263322041</v>
       </c>
       <c r="EE100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>1479.2062627656217</v>
       </c>
       <c r="EF100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>1678.3315699775699</v>
       </c>
       <c r="EG100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>1855.2723610705154</v>
       </c>
       <c r="EH100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>2011.7125478717683</v>
       </c>
       <c r="EI100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>2156.4522887924886</v>
       </c>
       <c r="EJ100" s="93">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>2293.9364336127232</v>
       </c>
       <c r="EK100" s="92"/>
@@ -40998,111 +40998,111 @@
         <v>72</v>
       </c>
       <c r="C101" s="93">
-        <f t="shared" ref="C101:N101" si="181">C93-C100</f>
+        <f t="shared" ref="C101:N101" si="185">C93-C100</f>
         <v>2279.5</v>
       </c>
       <c r="D101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>2477.5</v>
       </c>
       <c r="E101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>2653.89</v>
       </c>
       <c r="F101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>2537</v>
       </c>
       <c r="G101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>-2589.4</v>
       </c>
       <c r="H101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>-2807.7999999999997</v>
       </c>
       <c r="I101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>-2915.8</v>
       </c>
       <c r="J101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>-3479.2000000000007</v>
       </c>
       <c r="K101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>-3355.2999999999997</v>
       </c>
       <c r="L101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>-3055.6000000000004</v>
       </c>
       <c r="M101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>-3152.8</v>
       </c>
       <c r="N101" s="93">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>-3866.2</v>
       </c>
       <c r="O101" s="93" t="e">
-        <f t="shared" ref="O101:X101" si="182">O93+O100</f>
+        <f t="shared" ref="O101:X101" si="186">O93+O100</f>
         <v>#REF!</v>
       </c>
       <c r="P101" s="93" t="e">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>#REF!</v>
       </c>
       <c r="Q101" s="93">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>-2321.2999999999997</v>
       </c>
       <c r="R101" s="93">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>-2476.2000000000003</v>
       </c>
       <c r="S101" s="93">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>-2170.1</v>
       </c>
       <c r="T101" s="93">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>-2382</v>
       </c>
       <c r="U101" s="93">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>-2099</v>
       </c>
       <c r="V101" s="93">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>-2224.1</v>
       </c>
       <c r="W101" s="93">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>-1998</v>
       </c>
       <c r="X101" s="93">
-        <f t="shared" si="182"/>
+        <f t="shared" si="186"/>
         <v>-1929.2999999999997</v>
       </c>
       <c r="Y101" s="93">
-        <f t="shared" ref="Y101:AJ101" si="183">Y100+Y93</f>
+        <f t="shared" ref="Y101:AJ101" si="187">Y100+Y93</f>
         <v>-2586.3000000000002</v>
       </c>
       <c r="Z101" s="93">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>-2818.2</v>
       </c>
       <c r="AA101" s="93">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>-1923.4</v>
       </c>
       <c r="AB101" s="93">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>-2271.1</v>
       </c>
       <c r="AC101" s="93">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>-2117.4</v>
       </c>
       <c r="AD101" s="93"/>
@@ -41119,43 +41119,43 @@
         <v>-2173.9999999999995</v>
       </c>
       <c r="AH101" s="93">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>-2501.8999999999996</v>
       </c>
       <c r="AI101" s="93">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>-2097.1000000000004</v>
       </c>
       <c r="AJ101" s="93">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>-2314.3000000000002</v>
       </c>
       <c r="AK101" s="93">
-        <f t="shared" ref="AK101:AQ101" si="184">AK100+AK93</f>
+        <f t="shared" ref="AK101:AQ101" si="188">AK100+AK93</f>
         <v>-2291.3000000000002</v>
       </c>
       <c r="AL101" s="93">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>3658.8000000000011</v>
       </c>
       <c r="AM101" s="93">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>3427.8999999999992</v>
       </c>
       <c r="AN101" s="93">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-5245</v>
       </c>
       <c r="AO101" s="93">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-4889.6999999999989</v>
       </c>
       <c r="AP101" s="93">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-5721</v>
       </c>
       <c r="AQ101" s="93">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-5012</v>
       </c>
       <c r="AR101" s="93"/>
@@ -41196,75 +41196,75 @@
       <c r="CA101" s="93"/>
       <c r="CB101" s="93"/>
       <c r="CC101" s="93">
-        <f t="shared" ref="CC101:CJ101" si="185">+CC93+CC95</f>
+        <f t="shared" ref="CC101:CJ101" si="189">+CC93+CC95</f>
         <v>4073</v>
       </c>
       <c r="CD101" s="93">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>4513</v>
       </c>
       <c r="CE101" s="93">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>3445</v>
       </c>
       <c r="CF101" s="93">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>2127</v>
       </c>
       <c r="CG101" s="93">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>5108</v>
       </c>
       <c r="CH101" s="93">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>4784</v>
       </c>
       <c r="CI101" s="93">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>6309</v>
       </c>
       <c r="CJ101" s="93">
-        <f t="shared" si="185"/>
+        <f t="shared" si="189"/>
         <v>5509</v>
       </c>
       <c r="CK101" s="93">
-        <f t="shared" ref="CK101:CT101" si="186">+CK93+CK95</f>
+        <f t="shared" ref="CK101:CT101" si="190">+CK93+CK95</f>
         <v>5452</v>
       </c>
       <c r="CL101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>4892</v>
       </c>
       <c r="CM101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>4559</v>
       </c>
       <c r="CN101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>5755</v>
       </c>
       <c r="CO101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>6391</v>
       </c>
       <c r="CP101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>5027</v>
       </c>
       <c r="CQ101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>6296</v>
       </c>
       <c r="CR101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>6767</v>
       </c>
       <c r="CS101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="CT101" s="93">
-        <f t="shared" si="186"/>
+        <f t="shared" si="190"/>
         <v>0</v>
       </c>
       <c r="CU101" s="93"/>
@@ -41275,39 +41275,39 @@
       <c r="CZ101" s="93"/>
       <c r="DA101" s="75"/>
       <c r="DB101" s="93">
-        <f t="shared" ref="DB101:DJ101" si="187">DB100+DB93</f>
+        <f t="shared" ref="DB101:DJ101" si="191">DB100+DB93</f>
         <v>8886.3100000000013</v>
       </c>
       <c r="DC101" s="93">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>-9553.3999999999978</v>
       </c>
       <c r="DD101" s="93">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>-10764.9</v>
       </c>
       <c r="DE101" s="93">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>-9379.4</v>
       </c>
       <c r="DF101" s="93">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>-8875.1999999999989</v>
       </c>
       <c r="DG101" s="93">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>-9331.8000000000011</v>
       </c>
       <c r="DH101" s="93">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>-6311.9</v>
       </c>
       <c r="DI101" s="93">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>-10157.9</v>
       </c>
       <c r="DJ101" s="93">
-        <f t="shared" si="187"/>
+        <f t="shared" si="191"/>
         <v>-13863.599999999999</v>
       </c>
       <c r="DK101" s="93">
@@ -41323,35 +41323,35 @@
         <v>#REF!</v>
       </c>
       <c r="DN101" s="93" t="e">
-        <f t="shared" ref="DN101:DT101" si="188">DN100+DN93</f>
+        <f t="shared" ref="DN101:DT101" si="192">DN100+DN93</f>
         <v>#REF!</v>
       </c>
       <c r="DO101" s="93" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="192"/>
         <v>#REF!</v>
       </c>
       <c r="DP101" s="93" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="192"/>
         <v>#REF!</v>
       </c>
       <c r="DQ101" s="93" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="192"/>
         <v>#REF!</v>
       </c>
       <c r="DR101" s="93" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="192"/>
         <v>#REF!</v>
       </c>
       <c r="DS101" s="93" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="192"/>
         <v>#REF!</v>
       </c>
       <c r="DT101" s="93" t="e">
-        <f t="shared" si="188"/>
+        <f t="shared" si="192"/>
         <v>#REF!</v>
       </c>
       <c r="DU101" s="93" t="e">
-        <f t="shared" ref="DU101:DX101" si="189">DU100+DU93</f>
+        <f t="shared" ref="DU101:DX101" si="193">DU100+DU93</f>
         <v>#REF!</v>
       </c>
       <c r="DV101" s="93">
@@ -41363,7 +41363,7 @@
         <v>22882</v>
       </c>
       <c r="DX101" s="93">
-        <f t="shared" si="189"/>
+        <f t="shared" si="193"/>
         <v>22294</v>
       </c>
       <c r="DY101" s="93">
@@ -41371,47 +41371,47 @@
         <v>36444.456000000006</v>
       </c>
       <c r="DZ101" s="93">
-        <f t="shared" ref="DZ101:EJ101" si="190">DZ100+DZ93</f>
+        <f t="shared" ref="DZ101:EJ101" si="194">DZ100+DZ93</f>
         <v>36031.316220000001</v>
       </c>
       <c r="EA101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>34751.616937250008</v>
       </c>
       <c r="EB101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>30522.473301526879</v>
       </c>
       <c r="EC101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>30448.887718850303</v>
       </c>
       <c r="ED101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>29028.751524455678</v>
       </c>
       <c r="EE101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>26550.040961593073</v>
       </c>
       <c r="EF101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>23592.10547905945</v>
       </c>
       <c r="EG101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>20858.691573500368</v>
       </c>
       <c r="EH101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>19298.632122762749</v>
       </c>
       <c r="EI101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>18331.219309364609</v>
       </c>
       <c r="EJ101" s="93">
-        <f t="shared" si="190"/>
+        <f t="shared" si="194"/>
         <v>17850.349821905274</v>
       </c>
       <c r="EK101" s="92"/>
@@ -41730,11 +41730,11 @@
         <v>1645</v>
       </c>
       <c r="DI102" s="93">
-        <f t="shared" ref="DI102:DT102" si="191">DI101*0.25</f>
+        <f t="shared" ref="DI102:DT102" si="195">DI101*0.25</f>
         <v>-2539.4749999999999</v>
       </c>
       <c r="DJ102" s="93">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>-3465.8999999999996</v>
       </c>
       <c r="DK102" s="93">
@@ -41746,43 +41746,43 @@
         <v>#REF!</v>
       </c>
       <c r="DM102" s="93" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>#REF!</v>
       </c>
       <c r="DN102" s="93" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>#REF!</v>
       </c>
       <c r="DO102" s="93" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>#REF!</v>
       </c>
       <c r="DP102" s="93" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>#REF!</v>
       </c>
       <c r="DQ102" s="93" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>#REF!</v>
       </c>
       <c r="DR102" s="93" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>#REF!</v>
       </c>
       <c r="DS102" s="93" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>#REF!</v>
       </c>
       <c r="DT102" s="93" t="e">
-        <f t="shared" si="191"/>
+        <f t="shared" si="195"/>
         <v>#REF!</v>
       </c>
       <c r="DU102" s="93" t="e">
-        <f t="shared" ref="DU102:EA102" si="192">DU101*0.25</f>
+        <f t="shared" ref="DU102:EA102" si="196">DU101*0.25</f>
         <v>#REF!</v>
       </c>
       <c r="DV102" s="94">
-        <f t="shared" ref="DV102" si="193">SUM(CE102:CH102)</f>
+        <f t="shared" ref="DV102" si="197">SUM(CE102:CH102)</f>
         <v>1931</v>
       </c>
       <c r="DW102" s="94">
@@ -41790,51 +41790,51 @@
         <v>3155</v>
       </c>
       <c r="DX102" s="94">
-        <f t="shared" ref="DX102" si="194">SUM(CM102:CP102)</f>
+        <f t="shared" ref="DX102" si="198">SUM(CM102:CP102)</f>
         <v>2142</v>
       </c>
       <c r="DY102" s="93">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>9111.1140000000014</v>
       </c>
       <c r="DZ102" s="93">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>9007.8290550000002</v>
       </c>
       <c r="EA102" s="93">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>8687.904234312502</v>
       </c>
       <c r="EB102" s="93">
-        <f t="shared" ref="EB102:EI102" si="195">EB101*0.25</f>
+        <f t="shared" ref="EB102:EI102" si="199">EB101*0.25</f>
         <v>7630.6183253817198</v>
       </c>
       <c r="EC102" s="93">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>7612.2219297125757</v>
       </c>
       <c r="ED102" s="93">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>7257.1878811139195</v>
       </c>
       <c r="EE102" s="93">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>6637.5102403982683</v>
       </c>
       <c r="EF102" s="93">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>5898.0263697648625</v>
       </c>
       <c r="EG102" s="93">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>5214.6728933750919</v>
       </c>
       <c r="EH102" s="93">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>4824.6580306906872</v>
       </c>
       <c r="EI102" s="93">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>4582.8048273411523</v>
       </c>
       <c r="EJ102" s="93">
@@ -41901,55 +41901,55 @@
         <v>73</v>
       </c>
       <c r="C103" s="93">
-        <f t="shared" ref="C103:W103" si="196">C101-C102</f>
+        <f t="shared" ref="C103:W103" si="200">C101-C102</f>
         <v>1616.2</v>
       </c>
       <c r="D103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>1756.5</v>
       </c>
       <c r="E103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>1881.59</v>
       </c>
       <c r="F103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>1798.7</v>
       </c>
       <c r="G103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-3244.5</v>
       </c>
       <c r="H103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-3503.8999999999996</v>
       </c>
       <c r="I103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-3658.8</v>
       </c>
       <c r="J103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-4242.5000000000009</v>
       </c>
       <c r="K103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-4026.5</v>
       </c>
       <c r="L103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-3740.9000000000005</v>
       </c>
       <c r="M103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-3892.6000000000004</v>
       </c>
       <c r="N103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-4231.8999999999996</v>
       </c>
       <c r="O103" s="93" t="e">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>#REF!</v>
       </c>
       <c r="P103" s="93" t="e">
@@ -41957,23 +41957,23 @@
         <v>#REF!</v>
       </c>
       <c r="Q103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-2808.7</v>
       </c>
       <c r="R103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-2754.9</v>
       </c>
       <c r="S103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-2720.7</v>
       </c>
       <c r="T103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-2946</v>
       </c>
       <c r="U103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-2676.5</v>
       </c>
       <c r="V103" s="93">
@@ -41981,7 +41981,7 @@
         <v>-2624.4</v>
       </c>
       <c r="W103" s="93">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-2448.4</v>
       </c>
       <c r="X103" s="93">
@@ -41989,32 +41989,32 @@
         <v>-2538.2999999999997</v>
       </c>
       <c r="Y103" s="93">
-        <f t="shared" ref="Y103:AH103" si="197">Y101-Y102</f>
+        <f t="shared" ref="Y103:AH103" si="201">Y101-Y102</f>
         <v>-2876.5</v>
       </c>
       <c r="Z103" s="93">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-3256.2</v>
       </c>
       <c r="AA103" s="93">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-2473.5</v>
       </c>
       <c r="AB103" s="93">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-2826.8999999999996</v>
       </c>
       <c r="AC103" s="93">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-2656.5</v>
       </c>
       <c r="AD103" s="93"/>
       <c r="AE103" s="93">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-1680.4499999999998</v>
       </c>
       <c r="AF103" s="93">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-2784.7999999999997</v>
       </c>
       <c r="AG103" s="93">
@@ -42022,39 +42022,39 @@
         <v>-2492.1999999999994</v>
       </c>
       <c r="AH103" s="93">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-2814.4999999999995</v>
       </c>
       <c r="AI103" s="93">
-        <f t="shared" ref="AI103:AP103" si="198">AI101-AI102</f>
+        <f t="shared" ref="AI103:AP103" si="202">AI101-AI102</f>
         <v>-2455.1000000000004</v>
       </c>
       <c r="AJ103" s="93">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>-2805.3</v>
       </c>
       <c r="AK103" s="93">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>-1560.3753000000002</v>
       </c>
       <c r="AL103" s="93">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>3229.2000000000012</v>
       </c>
       <c r="AM103" s="93">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>2608.1999999999994</v>
       </c>
       <c r="AN103" s="93">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>-5976.1</v>
       </c>
       <c r="AO103" s="93">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>-5684.0999999999985</v>
       </c>
       <c r="AP103" s="93">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>-6209</v>
       </c>
       <c r="AQ103" s="93">
@@ -42099,75 +42099,75 @@
       <c r="CA103" s="93"/>
       <c r="CB103" s="93"/>
       <c r="CC103" s="93">
-        <f t="shared" ref="CC103:CJ103" si="199">+CC101-CC102</f>
+        <f t="shared" ref="CC103:CJ103" si="203">+CC101-CC102</f>
         <v>3488</v>
       </c>
       <c r="CD103" s="93">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>4061</v>
       </c>
       <c r="CE103" s="93">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>2951</v>
       </c>
       <c r="CF103" s="93">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>1560</v>
       </c>
       <c r="CG103" s="93">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>4443</v>
       </c>
       <c r="CH103" s="93">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>4579</v>
       </c>
       <c r="CI103" s="93">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>5426</v>
       </c>
       <c r="CJ103" s="93">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>4748</v>
       </c>
       <c r="CK103" s="93">
-        <f t="shared" ref="CK103:CT103" si="200">+CK101-CK102</f>
+        <f t="shared" ref="CK103:CT103" si="204">+CK101-CK102</f>
         <v>4703</v>
       </c>
       <c r="CL103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>4130</v>
       </c>
       <c r="CM103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>3646</v>
       </c>
       <c r="CN103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>4945</v>
       </c>
       <c r="CO103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>5432</v>
       </c>
       <c r="CP103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>5567</v>
       </c>
       <c r="CQ103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>5284</v>
       </c>
       <c r="CR103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>5815</v>
       </c>
       <c r="CS103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="CT103" s="93">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="CU103" s="93"/>
@@ -42178,39 +42178,39 @@
       <c r="CZ103" s="93"/>
       <c r="DA103" s="75"/>
       <c r="DB103" s="94">
-        <f t="shared" ref="DB103:DJ103" si="201">DB101-DB102</f>
+        <f t="shared" ref="DB103:DJ103" si="205">DB101-DB102</f>
         <v>5991.4100000000017</v>
       </c>
       <c r="DC103" s="94">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>-12410.299999999997</v>
       </c>
       <c r="DD103" s="94">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>-13226.9</v>
       </c>
       <c r="DE103" s="94">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>-11540.5</v>
       </c>
       <c r="DF103" s="94">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>-10967.599999999999</v>
       </c>
       <c r="DG103" s="94">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>-11119.400000000001</v>
       </c>
       <c r="DH103" s="94">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>-7956.9</v>
       </c>
       <c r="DI103" s="94">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>-7618.4249999999993</v>
       </c>
       <c r="DJ103" s="94">
-        <f t="shared" si="201"/>
+        <f t="shared" si="205"/>
         <v>-10397.699999999999</v>
       </c>
       <c r="DK103" s="94">
@@ -42222,39 +42222,39 @@
         <v>#REF!</v>
       </c>
       <c r="DM103" s="94" t="e">
-        <f t="shared" ref="DM103:DT103" si="202">DM101-DM102</f>
+        <f t="shared" ref="DM103:DT103" si="206">DM101-DM102</f>
         <v>#REF!</v>
       </c>
       <c r="DN103" s="94" t="e">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>#REF!</v>
       </c>
       <c r="DO103" s="94" t="e">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>#REF!</v>
       </c>
       <c r="DP103" s="94" t="e">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>#REF!</v>
       </c>
       <c r="DQ103" s="94" t="e">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>#REF!</v>
       </c>
       <c r="DR103" s="94" t="e">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>#REF!</v>
       </c>
       <c r="DS103" s="94" t="e">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>#REF!</v>
       </c>
       <c r="DT103" s="94" t="e">
-        <f t="shared" si="202"/>
+        <f t="shared" si="206"/>
         <v>#REF!</v>
       </c>
       <c r="DU103" s="94" t="e">
-        <f t="shared" ref="DU103:EA103" si="203">DU101-DU102</f>
+        <f t="shared" ref="DU103:EA103" si="207">DU101-DU102</f>
         <v>#REF!</v>
       </c>
       <c r="DV103" s="94">
@@ -42270,491 +42270,491 @@
         <v>20152</v>
       </c>
       <c r="DY103" s="94">
-        <f t="shared" si="203"/>
+        <f t="shared" si="207"/>
         <v>27333.342000000004</v>
       </c>
       <c r="DZ103" s="94">
-        <f t="shared" si="203"/>
+        <f t="shared" si="207"/>
         <v>27023.487164999999</v>
       </c>
       <c r="EA103" s="94">
-        <f t="shared" si="203"/>
+        <f t="shared" si="207"/>
         <v>26063.712702937504</v>
       </c>
       <c r="EB103" s="94">
-        <f t="shared" ref="EB103:EJ103" si="204">EB101-EB102</f>
+        <f t="shared" ref="EB103:EJ103" si="208">EB101-EB102</f>
         <v>22891.854976145158</v>
       </c>
       <c r="EC103" s="94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>22836.665789137725</v>
       </c>
       <c r="ED103" s="94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>21771.56364334176</v>
       </c>
       <c r="EE103" s="94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>19912.530721194806</v>
       </c>
       <c r="EF103" s="94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>17694.079109294587</v>
       </c>
       <c r="EG103" s="94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>15644.018680125275</v>
       </c>
       <c r="EH103" s="94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>14473.974092072061</v>
       </c>
       <c r="EI103" s="94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>13748.414482023458</v>
       </c>
       <c r="EJ103" s="94">
-        <f t="shared" si="204"/>
+        <f t="shared" si="208"/>
         <v>13387.762366428957</v>
       </c>
       <c r="EK103" s="97">
-        <f t="shared" ref="EK103:FP103" si="205">EJ103*(1+$EM$108)</f>
+        <f t="shared" ref="EK103:FP103" si="209">EJ103*(1+$EM$108)</f>
         <v>13253.884742764667</v>
       </c>
       <c r="EL103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>13121.345895337021</v>
       </c>
       <c r="EM103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>12990.13243638365</v>
       </c>
       <c r="EN103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>12860.231112019814</v>
       </c>
       <c r="EO103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>12731.628800899616</v>
       </c>
       <c r="EP103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>12604.312512890619</v>
       </c>
       <c r="EQ103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>12478.269387761713</v>
       </c>
       <c r="ER103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>12353.486693884095</v>
       </c>
       <c r="ES103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>12229.951826945255</v>
       </c>
       <c r="ET103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>12107.652308675802</v>
       </c>
       <c r="EU103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11986.575785589044</v>
       </c>
       <c r="EV103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11866.710027733154</v>
       </c>
       <c r="EW103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11748.042927455823</v>
       </c>
       <c r="EX103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11630.562498181265</v>
       </c>
       <c r="EY103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11514.256873199452</v>
       </c>
       <c r="EZ103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11399.114304467457</v>
       </c>
       <c r="FA103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11285.123161422782</v>
       </c>
       <c r="FB103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11172.271929808554</v>
       </c>
       <c r="FC103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>11060.549210510468</v>
       </c>
       <c r="FD103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10949.943718405362</v>
       </c>
       <c r="FE103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10840.444281221309</v>
       </c>
       <c r="FF103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10732.039838409097</v>
       </c>
       <c r="FG103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10624.719440025006</v>
       </c>
       <c r="FH103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10518.472245624756</v>
       </c>
       <c r="FI103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10413.287523168508</v>
       </c>
       <c r="FJ103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10309.154647936823</v>
       </c>
       <c r="FK103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10206.063101457454</v>
       </c>
       <c r="FL103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10104.00247044288</v>
       </c>
       <c r="FM103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>10002.962445738451</v>
       </c>
       <c r="FN103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>9902.9328212810669</v>
       </c>
       <c r="FO103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>9803.9034930682556</v>
       </c>
       <c r="FP103" s="97">
-        <f t="shared" si="205"/>
+        <f t="shared" si="209"/>
         <v>9705.8644581375738</v>
       </c>
       <c r="FQ103" s="97">
-        <f t="shared" ref="FQ103:GV103" si="206">FP103*(1+$EM$108)</f>
+        <f t="shared" ref="FQ103:GV103" si="210">FP103*(1+$EM$108)</f>
         <v>9608.8058135561987</v>
       </c>
       <c r="FR103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>9512.7177554206373</v>
       </c>
       <c r="FS103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>9417.590577866431</v>
       </c>
       <c r="FT103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>9323.414672087767</v>
       </c>
       <c r="FU103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>9230.1805253668899</v>
       </c>
       <c r="FV103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>9137.8787201132218</v>
       </c>
       <c r="FW103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>9046.4999329120892</v>
       </c>
       <c r="FX103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8956.0349335829687</v>
       </c>
       <c r="FY103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8866.4745842471384</v>
       </c>
       <c r="FZ103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8777.8098384046662</v>
       </c>
       <c r="GA103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8690.0317400206186</v>
       </c>
       <c r="GB103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8603.1314226204122</v>
       </c>
       <c r="GC103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8517.1001083942083</v>
       </c>
       <c r="GD103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8431.9291073102668</v>
       </c>
       <c r="GE103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8347.6098162371636</v>
       </c>
       <c r="GF103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8264.1337180747923</v>
       </c>
       <c r="GG103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8181.4923808940439</v>
       </c>
       <c r="GH103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8099.677457085103</v>
       </c>
       <c r="GI103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>8018.6806825142521</v>
       </c>
       <c r="GJ103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7938.4938756891097</v>
       </c>
       <c r="GK103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7859.108936932219</v>
       </c>
       <c r="GL103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7780.5178475628963</v>
       </c>
       <c r="GM103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7702.7126690872674</v>
       </c>
       <c r="GN103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7625.6855423963943</v>
       </c>
       <c r="GO103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7549.4286869724301</v>
       </c>
       <c r="GP103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7473.9344001027057</v>
       </c>
       <c r="GQ103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7399.1950561016783</v>
       </c>
       <c r="GR103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7325.2031055406615</v>
       </c>
       <c r="GS103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7251.951074485255</v>
       </c>
       <c r="GT103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7179.4315637404025</v>
       </c>
       <c r="GU103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7107.6372481029985</v>
       </c>
       <c r="GV103" s="97">
-        <f t="shared" si="206"/>
+        <f t="shared" si="210"/>
         <v>7036.5608756219681</v>
       </c>
       <c r="GW103" s="97">
-        <f t="shared" ref="GW103:IB103" si="207">GV103*(1+$EM$108)</f>
+        <f t="shared" ref="GW103:IB103" si="211">GV103*(1+$EM$108)</f>
         <v>6966.1952668657486</v>
       </c>
       <c r="GX103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6896.5333141970914</v>
       </c>
       <c r="GY103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6827.5679810551201</v>
       </c>
       <c r="GZ103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6759.292301244569</v>
       </c>
       <c r="HA103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6691.6993782321233</v>
       </c>
       <c r="HB103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6624.7823844498016</v>
       </c>
       <c r="HC103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6558.5345606053033</v>
       </c>
       <c r="HD103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6492.9492149992502</v>
       </c>
       <c r="HE103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6428.019722849258</v>
       </c>
       <c r="HF103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6363.7395256207656</v>
       </c>
       <c r="HG103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6300.1021303645575</v>
       </c>
       <c r="HH103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6237.1011090609118</v>
       </c>
       <c r="HI103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6174.7300979703023</v>
       </c>
       <c r="HJ103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6112.9827969905991</v>
       </c>
       <c r="HK103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>6051.8529690206933</v>
       </c>
       <c r="HL103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5991.334439330486</v>
       </c>
       <c r="HM103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5931.4210949371809</v>
       </c>
       <c r="HN103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5872.1068839878089</v>
       </c>
       <c r="HO103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5813.3858151479308</v>
       </c>
       <c r="HP103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5755.2519569964516</v>
       </c>
       <c r="HQ103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5697.6994374264868</v>
       </c>
       <c r="HR103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5640.7224430522219</v>
       </c>
       <c r="HS103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5584.3152186216994</v>
       </c>
       <c r="HT103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5528.4720664354827</v>
       </c>
       <c r="HU103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5473.1873457711281</v>
       </c>
       <c r="HV103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5418.455472313417</v>
       </c>
       <c r="HW103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5364.2709175902828</v>
       </c>
       <c r="HX103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5310.6282084143795</v>
       </c>
       <c r="HY103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5257.5219263302361</v>
       </c>
       <c r="HZ103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5204.9467070669334</v>
       </c>
       <c r="IA103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5152.897239996264</v>
       </c>
       <c r="IB103" s="97">
-        <f t="shared" si="207"/>
+        <f t="shared" si="211"/>
         <v>5101.3682675963009</v>
       </c>
       <c r="IC103" s="97">
-        <f t="shared" ref="IC103:IP103" si="208">IB103*(1+$EM$108)</f>
+        <f t="shared" ref="IC103:IP103" si="212">IB103*(1+$EM$108)</f>
         <v>5050.3545849203383</v>
       </c>
       <c r="ID103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4999.8510390711344</v>
       </c>
       <c r="IE103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4949.8525286804233</v>
       </c>
       <c r="IF103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4900.3540033936188</v>
       </c>
       <c r="IG103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4851.3504633596822</v>
       </c>
       <c r="IH103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4802.836958726085</v>
       </c>
       <c r="II103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4754.8085891388237</v>
       </c>
       <c r="IJ103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4707.2605032474357</v>
       </c>
       <c r="IK103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4660.187898214961</v>
       </c>
       <c r="IL103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4613.5860192328109</v>
       </c>
       <c r="IM103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4567.4501590404825</v>
       </c>
       <c r="IN103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4521.7756574500772</v>
       </c>
       <c r="IO103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4476.5579008755767</v>
       </c>
       <c r="IP103" s="97">
-        <f t="shared" si="208"/>
+        <f t="shared" si="212"/>
         <v>4431.7923218668211</v>
       </c>
     </row>
@@ -42779,71 +42779,71 @@
         <v>0.781703607127336</v>
       </c>
       <c r="G104" s="34">
-        <f t="shared" ref="G104:W104" si="209">ROUND(G103/G105,2)</f>
+        <f t="shared" ref="G104:W104" si="213">ROUND(G103/G105,2)</f>
         <v>-1.41</v>
       </c>
       <c r="H104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.53</v>
       </c>
       <c r="I104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.61</v>
       </c>
       <c r="J104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.87</v>
       </c>
       <c r="K104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.78</v>
       </c>
       <c r="L104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.65</v>
       </c>
       <c r="M104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.73</v>
       </c>
       <c r="N104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.89</v>
       </c>
       <c r="O104" s="34" t="e">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>#REF!</v>
       </c>
       <c r="P104" s="34" t="e">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>#REF!</v>
       </c>
       <c r="Q104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.26</v>
       </c>
       <c r="R104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.24</v>
       </c>
       <c r="S104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.23</v>
       </c>
       <c r="T104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.34</v>
       </c>
       <c r="U104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.22</v>
       </c>
       <c r="V104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.2</v>
       </c>
       <c r="W104" s="34">
-        <f t="shared" si="209"/>
+        <f t="shared" si="213"/>
         <v>-1.1200000000000001</v>
       </c>
       <c r="X104" s="34">
@@ -42851,32 +42851,32 @@
         <v>-1.1599999999999999</v>
       </c>
       <c r="Y104" s="34">
-        <f t="shared" ref="Y104:AH104" si="210">Y103/Y105</f>
+        <f t="shared" ref="Y104:AH104" si="214">Y103/Y105</f>
         <v>-1.3160543532964268</v>
       </c>
       <c r="Z104" s="34">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>-1.4905245811590222</v>
       </c>
       <c r="AA104" s="34">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>-1.1346330275229357</v>
       </c>
       <c r="AB104" s="34">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>-1.2912936232413665</v>
       </c>
       <c r="AC104" s="34">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>-1.21146479387085</v>
       </c>
       <c r="AD104" s="29"/>
       <c r="AE104" s="29">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>-0.77272727272727271</v>
       </c>
       <c r="AF104" s="29">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>-1.2926704730074732</v>
       </c>
       <c r="AG104" s="29">
@@ -42884,39 +42884,39 @@
         <v>-1.1669788349878252</v>
       </c>
       <c r="AH104" s="29">
-        <f t="shared" si="210"/>
+        <f t="shared" si="214"/>
         <v>-1.3333175422805437</v>
       </c>
       <c r="AI104" s="29">
-        <f t="shared" ref="AI104:AP104" si="211">AI103/AI105</f>
+        <f t="shared" ref="AI104:AP104" si="215">AI103/AI105</f>
         <v>-1.1639958278020106</v>
       </c>
       <c r="AJ104" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>-1.3295260663507109</v>
       </c>
       <c r="AK104" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>-0.73821985144533298</v>
       </c>
       <c r="AL104" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>1.173060156931125</v>
       </c>
       <c r="AM104" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>0.83037249283667602</v>
       </c>
       <c r="AN104" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>-1.9120460726283797</v>
       </c>
       <c r="AO104" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>-1.8326347691514053</v>
       </c>
       <c r="AP104" s="29">
-        <f t="shared" si="211"/>
+        <f t="shared" si="215"/>
         <v>-1.9990341274951706</v>
       </c>
       <c r="AQ104" s="29">
@@ -42961,75 +42961,75 @@
       <c r="CA104" s="29"/>
       <c r="CB104" s="29"/>
       <c r="CC104" s="29">
-        <f t="shared" ref="CC104:CJ104" si="212">+CC103/CC105</f>
+        <f t="shared" ref="CC104:CJ104" si="216">+CC103/CC105</f>
         <v>1.3743104806934594</v>
       </c>
       <c r="CD104" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>1.5981896890987799</v>
       </c>
       <c r="CE104" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>1.1613537977174342</v>
       </c>
       <c r="CF104" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>0.61417322834645671</v>
       </c>
       <c r="CG104" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>1.7519716088328077</v>
       </c>
       <c r="CH104" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>1.8063116370808678</v>
       </c>
       <c r="CI104" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>2.1387465510445409</v>
       </c>
       <c r="CJ104" s="29">
-        <f t="shared" si="212"/>
+        <f t="shared" si="216"/>
         <v>1.8692913385826773</v>
       </c>
       <c r="CK104" s="29">
-        <f t="shared" ref="CK104:CT104" si="213">+CK103/CK105</f>
+        <f t="shared" ref="CK104:CT104" si="217">+CK103/CK105</f>
         <v>1.8501180173092053</v>
       </c>
       <c r="CL104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>1.6208791208791209</v>
       </c>
       <c r="CM104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>1.4292434339474716</v>
       </c>
       <c r="CN104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>1.947617172115006</v>
       </c>
       <c r="CO104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>2.1335428122545168</v>
       </c>
       <c r="CP104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>2.1977891827872087</v>
       </c>
       <c r="CQ104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>2.0770440251572326</v>
       </c>
       <c r="CR104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>2.2857704402515724</v>
       </c>
       <c r="CS104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="CT104" s="29">
-        <f t="shared" si="213"/>
+        <f t="shared" si="217"/>
         <v>0</v>
       </c>
       <c r="CU104" s="29"/>
@@ -43044,23 +43044,23 @@
         <v>3.0387915018021863</v>
       </c>
       <c r="DC104" s="29">
-        <f t="shared" ref="DC104:DG104" si="214">ROUND(DC103/DC105,2)</f>
+        <f t="shared" ref="DC104:DG104" si="218">ROUND(DC103/DC105,2)</f>
         <v>-5.45</v>
       </c>
       <c r="DD104" s="29">
-        <f t="shared" si="214"/>
+        <f t="shared" si="218"/>
         <v>-5.87</v>
       </c>
       <c r="DE104" s="29">
-        <f t="shared" si="214"/>
+        <f t="shared" si="218"/>
         <v>-5.18</v>
       </c>
       <c r="DF104" s="29">
-        <f t="shared" si="214"/>
+        <f t="shared" si="218"/>
         <v>-4.9800000000000004</v>
       </c>
       <c r="DG104" s="29">
-        <f t="shared" si="214"/>
+        <f t="shared" si="218"/>
         <v>-5.08</v>
       </c>
       <c r="DH104" s="29"/>
@@ -43078,63 +43078,63 @@
       <c r="DT104" s="29"/>
       <c r="DU104" s="29"/>
       <c r="DV104" s="29">
-        <f t="shared" ref="DV104:EA104" si="215">ROUND(DV103/DV105,2)</f>
+        <f t="shared" ref="DV104:EA104" si="219">ROUND(DV103/DV105,2)</f>
         <v>5.7</v>
       </c>
       <c r="DW104" s="29">
-        <f t="shared" si="215"/>
+        <f t="shared" si="219"/>
         <v>7.76</v>
       </c>
       <c r="DX104" s="29">
-        <f t="shared" si="215"/>
+        <f t="shared" si="219"/>
         <v>7.93</v>
       </c>
       <c r="DY104" s="29">
-        <f t="shared" si="215"/>
+        <f t="shared" si="219"/>
         <v>10.75</v>
       </c>
       <c r="DZ104" s="29">
-        <f t="shared" si="215"/>
+        <f t="shared" si="219"/>
         <v>10.63</v>
       </c>
       <c r="EA104" s="29">
-        <f t="shared" si="215"/>
+        <f t="shared" si="219"/>
         <v>10.25</v>
       </c>
       <c r="EB104" s="29">
-        <f t="shared" ref="EB104:EJ104" si="216">ROUND(EB103/EB105,2)</f>
+        <f t="shared" ref="EB104:EJ104" si="220">ROUND(EB103/EB105,2)</f>
         <v>9</v>
       </c>
       <c r="EC104" s="29">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>8.98</v>
       </c>
       <c r="ED104" s="29">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>8.56</v>
       </c>
       <c r="EE104" s="29">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>7.83</v>
       </c>
       <c r="EF104" s="29">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>6.96</v>
       </c>
       <c r="EG104" s="29">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>6.15</v>
       </c>
       <c r="EH104" s="29">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>5.69</v>
       </c>
       <c r="EI104" s="29">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>5.41</v>
       </c>
       <c r="EJ104" s="29">
-        <f t="shared" si="216"/>
+        <f t="shared" si="220"/>
         <v>5.27</v>
       </c>
     </row>
@@ -43412,51 +43412,51 @@
         <v>2542.25</v>
       </c>
       <c r="DY105" s="94">
-        <f t="shared" ref="DY105:EA105" si="217">+DX105</f>
+        <f t="shared" ref="DY105:EA105" si="221">+DX105</f>
         <v>2542.25</v>
       </c>
       <c r="DZ105" s="94">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>2542.25</v>
       </c>
       <c r="EA105" s="94">
-        <f t="shared" si="217"/>
+        <f t="shared" si="221"/>
         <v>2542.25</v>
       </c>
       <c r="EB105" s="94">
-        <f t="shared" ref="EB105" si="218">+EA105</f>
+        <f t="shared" ref="EB105" si="222">+EA105</f>
         <v>2542.25</v>
       </c>
       <c r="EC105" s="94">
-        <f t="shared" ref="EC105" si="219">+EB105</f>
+        <f t="shared" ref="EC105" si="223">+EB105</f>
         <v>2542.25</v>
       </c>
       <c r="ED105" s="94">
-        <f t="shared" ref="ED105" si="220">+EC105</f>
+        <f t="shared" ref="ED105" si="224">+EC105</f>
         <v>2542.25</v>
       </c>
       <c r="EE105" s="94">
-        <f t="shared" ref="EE105" si="221">+ED105</f>
+        <f t="shared" ref="EE105" si="225">+ED105</f>
         <v>2542.25</v>
       </c>
       <c r="EF105" s="94">
-        <f t="shared" ref="EF105" si="222">+EE105</f>
+        <f t="shared" ref="EF105" si="226">+EE105</f>
         <v>2542.25</v>
       </c>
       <c r="EG105" s="94">
-        <f t="shared" ref="EG105" si="223">+EF105</f>
+        <f t="shared" ref="EG105" si="227">+EF105</f>
         <v>2542.25</v>
       </c>
       <c r="EH105" s="94">
-        <f t="shared" ref="EH105" si="224">+EG105</f>
+        <f t="shared" ref="EH105" si="228">+EG105</f>
         <v>2542.25</v>
       </c>
       <c r="EI105" s="94">
-        <f t="shared" ref="EI105" si="225">+EH105</f>
+        <f t="shared" ref="EI105" si="229">+EH105</f>
         <v>2542.25</v>
       </c>
       <c r="EJ105" s="94">
-        <f t="shared" ref="EJ105" si="226">+EI105</f>
+        <f t="shared" ref="EJ105" si="230">+EI105</f>
         <v>2542.25</v>
       </c>
     </row>
@@ -43676,67 +43676,67 @@
       <c r="CA107" s="105"/>
       <c r="CB107" s="105"/>
       <c r="CC107" s="105">
-        <f t="shared" ref="CC107:CP107" si="227">+CC89/CC87</f>
+        <f t="shared" ref="CC107:CP107" si="231">+CC89/CC87</f>
         <v>0.76466282368011707</v>
       </c>
       <c r="CD107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.78112513984337539</v>
       </c>
       <c r="CE107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.76597346381857534</v>
       </c>
       <c r="CF107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.76460270128047714</v>
       </c>
       <c r="CG107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.76767523186863307</v>
       </c>
       <c r="CH107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.74772575992899937</v>
       </c>
       <c r="CI107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.7073140054084649</v>
       </c>
       <c r="CJ107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.74659083122044811</v>
       </c>
       <c r="CK107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.77043920048131564</v>
       </c>
       <c r="CL107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.75697758496023138</v>
       </c>
       <c r="CM107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.7698592516306213</v>
       </c>
       <c r="CN107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.76554705686730962</v>
       </c>
       <c r="CO107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.76951509835860166</v>
       </c>
       <c r="CP107" s="105">
-        <f t="shared" si="227"/>
+        <f t="shared" si="231"/>
         <v>0.771701982228298</v>
       </c>
       <c r="CQ107" s="105">
-        <f t="shared" ref="CQ107:CR107" si="228">+CQ89/CQ87</f>
+        <f t="shared" ref="CQ107" si="232">+CQ89/CQ87</f>
         <v>0.81229793977812992</v>
       </c>
       <c r="CR107" s="105">
-        <f t="shared" ref="CR107" si="229">+CR89/CR87</f>
+        <f t="shared" ref="CR107" si="233">+CR89/CR87</f>
         <v>0.80927259185700096</v>
       </c>
       <c r="CS107" s="105"/>
@@ -43791,55 +43791,55 @@
         <v>0.74449673599514199</v>
       </c>
       <c r="DX107" s="105">
-        <f t="shared" ref="DX107:EJ107" si="230">DX89/DX87</f>
+        <f t="shared" ref="DX107:EJ107" si="234">DX89/DX87</f>
         <v>0.76933036751767869</v>
       </c>
       <c r="DY107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="DZ107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="EA107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="EB107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="EC107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="ED107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="EE107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="EF107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="EG107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="EH107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="EI107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="EJ107" s="105">
-        <f t="shared" si="230"/>
+        <f t="shared" si="234"/>
         <v>0.8</v>
       </c>
       <c r="EL107" s="83" t="s">
@@ -43944,67 +43944,67 @@
       <c r="CA108" s="105"/>
       <c r="CB108" s="105"/>
       <c r="CC108" s="105">
-        <f t="shared" ref="CC108:CP108" si="231">+CC90/CC87</f>
+        <f t="shared" ref="CC108:CP108" si="235">+CC90/CC87</f>
         <v>0.18482935309726417</v>
       </c>
       <c r="CD108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.20513025411539076</v>
       </c>
       <c r="CE108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.20457325679872024</v>
       </c>
       <c r="CF108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.19768461673390633</v>
       </c>
       <c r="CG108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.17257108103998783</v>
       </c>
       <c r="CH108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.19184971525774722</v>
       </c>
       <c r="CI108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.14162631281051505</v>
       </c>
       <c r="CJ108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.16583293359830056</v>
       </c>
       <c r="CK108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.16525168794705528</v>
       </c>
       <c r="CL108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.19002169197396962</v>
       </c>
       <c r="CM108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.16876072777205631</v>
       </c>
       <c r="CN108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.17459261722647157</v>
       </c>
       <c r="CO108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.15424132314246336</v>
       </c>
       <c r="CP108" s="105">
-        <f t="shared" si="231"/>
+        <f t="shared" si="235"/>
         <v>0.18803827751196173</v>
       </c>
       <c r="CQ108" s="105">
-        <f t="shared" ref="CQ108:CR108" si="232">+CQ90/CQ87</f>
+        <f t="shared" ref="CQ108:CR108" si="236">+CQ90/CQ87</f>
         <v>0.15575277337559429</v>
       </c>
       <c r="CR108" s="105">
-        <f t="shared" si="232"/>
+        <f t="shared" si="236"/>
         <v>0.16658391261171798</v>
       </c>
       <c r="CS108" s="105"/>
@@ -44187,67 +44187,67 @@
       <c r="CA109" s="105"/>
       <c r="CB109" s="105"/>
       <c r="CC109" s="105">
-        <f t="shared" ref="CC109:CP109" si="233">+CC91/CC87</f>
+        <f t="shared" ref="CC109:CP109" si="237">+CC91/CC87</f>
         <v>0.20395278616524842</v>
       </c>
       <c r="CD109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.20736774812210323</v>
       </c>
       <c r="CE109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.22461654276842005</v>
       </c>
       <c r="CF109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.37703911594457112</v>
       </c>
       <c r="CG109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.18823171658811008</v>
       </c>
       <c r="CH109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.19828415058057836</v>
       </c>
       <c r="CI109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.16017860511917489</v>
       </c>
       <c r="CJ109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.18940587953128213</v>
       </c>
       <c r="CK109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.23370546159502639</v>
       </c>
       <c r="CL109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.21945046999276935</v>
       </c>
       <c r="CM109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.29289392378990731</v>
       </c>
       <c r="CN109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.20691719321582974</v>
       </c>
       <c r="CO109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.20655306352587396</v>
       </c>
       <c r="CP109" s="105">
-        <f t="shared" si="233"/>
+        <f t="shared" si="237"/>
         <v>0.22816131237183868</v>
       </c>
       <c r="CQ109" s="105">
-        <f t="shared" ref="CQ109:CR109" si="234">+CQ91/CQ87</f>
+        <f t="shared" ref="CQ109:CR109" si="238">+CQ91/CQ87</f>
         <v>0.25191759112519813</v>
       </c>
       <c r="CR109" s="105">
-        <f t="shared" si="234"/>
+        <f t="shared" si="238"/>
         <v>0.21598808341608738</v>
       </c>
       <c r="CS109" s="105"/>
@@ -44430,67 +44430,67 @@
       <c r="CA110" s="105"/>
       <c r="CB110" s="105"/>
       <c r="CC110" s="105">
-        <f t="shared" ref="CC110:CP110" si="235">+CC93/CC87</f>
+        <f t="shared" ref="CC110:CP110" si="239">+CC93/CC87</f>
         <v>0.37588068441760453</v>
       </c>
       <c r="CD110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.36862713760588139</v>
       </c>
       <c r="CE110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.33678366425143502</v>
       </c>
       <c r="CF110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.18987896860199965</v>
       </c>
       <c r="CG110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.40687243424053521</v>
       </c>
       <c r="CH110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.35759189409067377</v>
       </c>
       <c r="CI110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.4055090874787749</v>
       </c>
       <c r="CJ110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.39135201809086551</v>
       </c>
       <c r="CK110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.37148205093923392</v>
       </c>
       <c r="CL110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.34750542299349241</v>
       </c>
       <c r="CM110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.30820460006865774</v>
       </c>
       <c r="CN110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.38403724642500831</v>
       </c>
       <c r="CO110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.40872071169026436</v>
       </c>
       <c r="CP110" s="105">
-        <f t="shared" si="235"/>
+        <f t="shared" si="239"/>
         <v>0.3555023923444976</v>
       </c>
       <c r="CQ110" s="105">
-        <f t="shared" ref="CQ110:CR110" si="236">+CQ93/CQ87</f>
+        <f t="shared" ref="CQ110:CR110" si="240">+CQ93/CQ87</f>
         <v>0.40462757527733756</v>
       </c>
       <c r="CR110" s="105">
-        <f t="shared" si="236"/>
+        <f t="shared" si="240"/>
         <v>0.42670059582919562</v>
       </c>
       <c r="CS110" s="105"/>
@@ -44533,43 +44533,43 @@
         <v>#REF!</v>
       </c>
       <c r="DK110" s="105">
-        <f t="shared" ref="DK110:DT110" si="237">DK93/DK87</f>
+        <f t="shared" ref="DK110:DT110" si="241">DK93/DK87</f>
         <v>-0.45270038437316773</v>
       </c>
       <c r="DL110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>0.30654966031759273</v>
       </c>
       <c r="DM110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-0.27500000000000002</v>
       </c>
       <c r="DN110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-0.27200000000000002</v>
       </c>
       <c r="DO110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-0.27</v>
       </c>
       <c r="DP110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-0.27</v>
       </c>
       <c r="DQ110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-0.27</v>
       </c>
       <c r="DR110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-0.27</v>
       </c>
       <c r="DS110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-0.27</v>
       </c>
       <c r="DT110" s="105">
-        <f t="shared" si="237"/>
+        <f t="shared" si="241"/>
         <v>-0.27</v>
       </c>
       <c r="DU110" s="105"/>
@@ -44585,7 +44585,7 @@
       </c>
       <c r="EM110" s="87">
         <f>NPV($EM$109,DY103:HA103)+Main!J5-Main!J6+DX103</f>
-        <v>234767.70210847582</v>
+        <v>237010.70210847582</v>
       </c>
     </row>
     <row r="111" spans="2:250" s="103" customFormat="1" ht="12.75" customHeight="1">
@@ -44742,39 +44742,39 @@
         <v>-0.45688505722165523</v>
       </c>
       <c r="DL111" s="105" t="e">
-        <f t="shared" ref="DL111:DT111" si="238">DL101/DL$87</f>
+        <f t="shared" ref="DL111:DT111" si="242">DL101/DL$87</f>
         <v>#REF!</v>
       </c>
       <c r="DM111" s="105" t="e">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>#REF!</v>
       </c>
       <c r="DN111" s="105" t="e">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>#REF!</v>
       </c>
       <c r="DO111" s="105" t="e">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>#REF!</v>
       </c>
       <c r="DP111" s="105" t="e">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>#REF!</v>
       </c>
       <c r="DQ111" s="105" t="e">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>#REF!</v>
       </c>
       <c r="DR111" s="105" t="e">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>#REF!</v>
       </c>
       <c r="DS111" s="105" t="e">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>#REF!</v>
       </c>
       <c r="DT111" s="105" t="e">
-        <f t="shared" si="238"/>
+        <f t="shared" si="242"/>
         <v>#REF!</v>
       </c>
       <c r="DU111" s="105"/>
@@ -44790,7 +44790,7 @@
       </c>
       <c r="EM111" s="109">
         <f>EM110/Main!J3</f>
-        <v>92.282901772199608</v>
+        <v>93.502379443868733</v>
       </c>
     </row>
     <row r="112" spans="2:250" s="103" customFormat="1" ht="12.75" customHeight="1">
@@ -44888,67 +44888,67 @@
       <c r="CA112" s="105"/>
       <c r="CB112" s="105"/>
       <c r="CC112" s="105">
-        <f t="shared" ref="CC112:CP112" si="239">+CC103/CC87</f>
+        <f t="shared" ref="CC112:CP112" si="243">+CC103/CC87</f>
         <v>0.31915088297190958</v>
       </c>
       <c r="CD112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.32451654147354964</v>
       </c>
       <c r="CE112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.27768890561776605</v>
       </c>
       <c r="CF112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.13681810208735309</v>
       </c>
       <c r="CG112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.3377679793218793</v>
       </c>
       <c r="CH112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.33865838325567638</v>
       </c>
       <c r="CI112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.34123640022640084</v>
       </c>
       <c r="CJ112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.32536147467964094</v>
       </c>
       <c r="CK112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.31439267330703924</v>
       </c>
       <c r="CL112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.29862617498192334</v>
       </c>
       <c r="CM112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.25032612427051149</v>
       </c>
       <c r="CN112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.32889923511805785</v>
       </c>
       <c r="CO112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.34030823205112143</v>
       </c>
       <c r="CP112" s="105">
-        <f t="shared" si="239"/>
+        <f t="shared" si="243"/>
         <v>0.38051948051948054</v>
       </c>
       <c r="CQ112" s="105">
-        <f t="shared" ref="CQ112:CR112" si="240">+CQ103/CQ87</f>
+        <f t="shared" ref="CQ112:CR112" si="244">+CQ103/CQ87</f>
         <v>0.33496038034865294</v>
       </c>
       <c r="CR112" s="105">
-        <f t="shared" si="240"/>
+        <f t="shared" si="244"/>
         <v>0.36091112214498511</v>
       </c>
       <c r="CS112" s="105"/>
@@ -44995,39 +44995,39 @@
         <v>-0.51841082325349086</v>
       </c>
       <c r="DL112" s="105" t="e">
-        <f t="shared" ref="DL112:DT112" si="241">DL103/DL$87</f>
+        <f t="shared" ref="DL112:DT112" si="245">DL103/DL$87</f>
         <v>#REF!</v>
       </c>
       <c r="DM112" s="105" t="e">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>#REF!</v>
       </c>
       <c r="DN112" s="105" t="e">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>#REF!</v>
       </c>
       <c r="DO112" s="105" t="e">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>#REF!</v>
       </c>
       <c r="DP112" s="105" t="e">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>#REF!</v>
       </c>
       <c r="DQ112" s="105" t="e">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>#REF!</v>
       </c>
       <c r="DR112" s="105" t="e">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>#REF!</v>
       </c>
       <c r="DS112" s="105" t="e">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>#REF!</v>
       </c>
       <c r="DT112" s="105" t="e">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>#REF!</v>
       </c>
       <c r="DU112" s="105"/>
@@ -45099,39 +45099,39 @@
         <v>0.26</v>
       </c>
       <c r="AI113" s="105">
-        <f t="shared" ref="AI113:AQ113" si="242">AI102/AI101</f>
+        <f t="shared" ref="AI113:AQ113" si="246">AI102/AI101</f>
         <v>-0.17071193553001762</v>
       </c>
       <c r="AJ113" s="105">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>-0.21215918420256663</v>
       </c>
       <c r="AK113" s="105">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>0.31900000000000001</v>
       </c>
       <c r="AL113" s="105">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>0.11741554608068216</v>
       </c>
       <c r="AM113" s="105">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>0.23912599550745359</v>
       </c>
       <c r="AN113" s="105">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>-0.13938989513822686</v>
       </c>
       <c r="AO113" s="105">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>-0.16246395484385548</v>
       </c>
       <c r="AP113" s="105">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>-8.529977276699878E-2</v>
       </c>
       <c r="AQ113" s="105">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>-0.19732641660015962</v>
       </c>
       <c r="AR113" s="105"/>
@@ -45172,67 +45172,67 @@
       <c r="CA113" s="105"/>
       <c r="CB113" s="105"/>
       <c r="CC113" s="105">
-        <f t="shared" ref="CC113:CP113" si="243">+CC102/CC101</f>
+        <f t="shared" ref="CC113:CP113" si="247">+CC102/CC101</f>
         <v>0.14362877485882641</v>
       </c>
       <c r="CD113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.10015510746731664</v>
       </c>
       <c r="CE113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.14339622641509434</v>
       </c>
       <c r="CF113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.26657263751763044</v>
       </c>
       <c r="CG113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.13018794048551291</v>
       </c>
       <c r="CH113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>4.2851170568561872E-2</v>
       </c>
       <c r="CI113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.13995878903154224</v>
       </c>
       <c r="CJ113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.13813759302958795</v>
       </c>
       <c r="CK113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.13738077769625825</v>
       </c>
       <c r="CL113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.15576451349141454</v>
       </c>
       <c r="CM113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.20026321561745997</v>
       </c>
       <c r="CN113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.14074717636837533</v>
       </c>
       <c r="CO113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>0.15005476451259583</v>
       </c>
       <c r="CP113" s="105">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>-0.10741993236522777</v>
       </c>
       <c r="CQ113" s="105">
-        <f t="shared" ref="CQ113:CR113" si="244">+CQ102/CQ101</f>
+        <f t="shared" ref="CQ113:CR113" si="248">+CQ102/CQ101</f>
         <v>0.16073697585768743</v>
       </c>
       <c r="CR113" s="105">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>0.14068272498891679</v>
       </c>
       <c r="CS113" s="105"/>
@@ -45245,79 +45245,79 @@
       <c r="CZ113" s="105"/>
       <c r="DA113" s="107"/>
       <c r="DB113" s="105">
-        <f t="shared" ref="DB113:DT113" si="245">DB102/DB101</f>
+        <f t="shared" ref="DB113:DT113" si="249">DB102/DB101</f>
         <v>0.32577076424297591</v>
       </c>
       <c r="DC113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-0.29904536604768989</v>
       </c>
       <c r="DD113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-0.22870625830244593</v>
       </c>
       <c r="DE113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-0.23040919461799261</v>
       </c>
       <c r="DF113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-0.23575806742383273</v>
       </c>
       <c r="DG113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-0.19156004200690113</v>
       </c>
       <c r="DH113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-0.26061883109681716</v>
       </c>
       <c r="DI113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>0.25</v>
       </c>
       <c r="DJ113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>0.25</v>
       </c>
       <c r="DK113" s="105">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>-0.1346635549999762</v>
       </c>
       <c r="DL113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DM113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DN113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DO113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DP113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DQ113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DR113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DS113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DT113" s="105" t="e">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>#REF!</v>
       </c>
       <c r="DU113" s="105"/>
@@ -45703,83 +45703,83 @@
       <c r="BY116" s="44"/>
       <c r="BZ116" s="44"/>
       <c r="CA116" s="44">
-        <f t="shared" ref="CA116:CT116" si="246">+CA87/BW87-1</f>
+        <f t="shared" ref="CA116:CT116" si="250">+CA87/BW87-1</f>
         <v>0.11473742603550297</v>
       </c>
       <c r="CB116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>-7.551020408163267E-2</v>
       </c>
       <c r="CC116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>-0.11841574574493829</v>
       </c>
       <c r="CD116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>5.4432086282440117E-2</v>
       </c>
       <c r="CE116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>-0.11860330098697847</v>
       </c>
       <c r="CF116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>4.8749080206033746E-2</v>
       </c>
       <c r="CG116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>0.20358678744624403</v>
       </c>
       <c r="CH116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>8.046987374140957E-2</v>
       </c>
       <c r="CI116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>0.49628305260186312</v>
       </c>
       <c r="CJ116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>0.27986318189791271</v>
       </c>
       <c r="CK116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>0.1372206173027215</v>
       </c>
       <c r="CL116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>2.2853339250055393E-2</v>
       </c>
       <c r="CM116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>-8.4019872963964515E-2</v>
       </c>
       <c r="CN116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>3.0288494483656558E-2</v>
       </c>
       <c r="CO116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>6.7049936493080997E-2</v>
       </c>
       <c r="CP116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>5.7845263919016565E-2</v>
       </c>
       <c r="CQ116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>8.3075866803982157E-2</v>
       </c>
       <c r="CR116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>7.1632856667775302E-2</v>
       </c>
       <c r="CS116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>-0.23012780353339191</v>
       </c>
       <c r="CT116" s="44">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>-0.20379357484620642</v>
       </c>
       <c r="CU116" s="44"/>
@@ -46039,83 +46039,83 @@
       <c r="BY118" s="112"/>
       <c r="BZ118" s="112"/>
       <c r="CA118" s="112">
-        <f>+CA3/BW3-1</f>
+        <f t="shared" ref="CA118:CT118" si="251">+CA3/BW3-1</f>
         <v>0.44733362714852354</v>
       </c>
       <c r="CB118" s="112">
-        <f>+CB3/BX3-1</f>
+        <f t="shared" si="251"/>
         <v>0.28625664388762329</v>
       </c>
       <c r="CC118" s="112">
-        <f>+CC3/BY3-1</f>
+        <f t="shared" si="251"/>
         <v>0.21009771986970693</v>
       </c>
       <c r="CD118" s="112">
-        <f>+CD3/BZ3-1</f>
+        <f t="shared" si="251"/>
         <v>0.28351012536162012</v>
       </c>
       <c r="CE118" s="112">
-        <f>+CE3/CA3-1</f>
+        <f t="shared" si="251"/>
         <v>0.18727161997563946</v>
       </c>
       <c r="CF118" s="112">
-        <f>+CF3/CB3-1</f>
+        <f t="shared" si="251"/>
         <v>0.23258559622195984</v>
       </c>
       <c r="CG118" s="112">
-        <f>+CG3/CC3-1</f>
+        <f t="shared" si="251"/>
         <v>0.22045760430686401</v>
       </c>
       <c r="CH118" s="112">
-        <f>+CH3/CD3-1</f>
+        <f t="shared" si="251"/>
         <v>0.14625594790884056</v>
       </c>
       <c r="CI118" s="112">
-        <f>+CI3/CE3-1</f>
+        <f t="shared" si="251"/>
         <v>0.23339317773788149</v>
       </c>
       <c r="CJ118" s="112">
-        <f>+CJ3/CF3-1</f>
+        <f t="shared" si="251"/>
         <v>0.25766283524904221</v>
       </c>
       <c r="CK118" s="112">
-        <f>+CK3/CG3-1</f>
+        <f t="shared" si="251"/>
         <v>0.19673577415086019</v>
       </c>
       <c r="CL118" s="112">
-        <f>+CL3/CH3-1</f>
+        <f t="shared" si="251"/>
         <v>0.19073629014638405</v>
       </c>
       <c r="CM118" s="112">
-        <f>+CM3/CI3-1</f>
+        <f t="shared" si="251"/>
         <v>0.20503223123310454</v>
       </c>
       <c r="CN118" s="112">
-        <f>+CN3/CJ3-1</f>
+        <f t="shared" si="251"/>
         <v>0.19402132520944404</v>
       </c>
       <c r="CO118" s="112">
-        <f>+CO3/CK3-1</f>
+        <f t="shared" si="251"/>
         <v>0.1680796166605234</v>
       </c>
       <c r="CP118" s="112">
-        <f>+CP3/CL3-1</f>
+        <f t="shared" si="251"/>
         <v>0.21247706422018342</v>
       </c>
       <c r="CQ118" s="112">
-        <f>+CQ3/CM3-1</f>
+        <f t="shared" si="251"/>
         <v>0.19879206212251943</v>
       </c>
       <c r="CR118" s="112">
-        <f>+CR3/CN3-1</f>
+        <f t="shared" si="251"/>
         <v>0.15930473608674856</v>
       </c>
       <c r="CS118" s="112">
-        <f>+CS3/CO3-1</f>
+        <f t="shared" si="251"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="CT118" s="112">
-        <f>+CT3/CP3-1</f>
+        <f t="shared" si="251"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="CU118" s="112"/>
@@ -46185,71 +46185,71 @@
       <c r="AB119" s="112"/>
       <c r="AC119" s="112"/>
       <c r="AD119" s="112">
-        <f>+AD9/Z9-1</f>
+        <f t="shared" ref="AD119:AT119" si="252">+AD9/Z9-1</f>
         <v>1.903225806451613</v>
       </c>
       <c r="AE119" s="112">
-        <f>+AE9/AA9-1</f>
+        <f t="shared" si="252"/>
         <v>6.8493150684931559E-2</v>
       </c>
       <c r="AF119" s="112">
-        <f>+AF9/AB9-1</f>
+        <f t="shared" si="252"/>
         <v>-8.9385474860335212E-2</v>
       </c>
       <c r="AG119" s="112">
-        <f>+AG9/AC9-1</f>
+        <f t="shared" si="252"/>
         <v>-4.0669856459330189E-2</v>
       </c>
       <c r="AH119" s="112">
-        <f>+AH9/AD9-1</f>
+        <f t="shared" si="252"/>
         <v>-8.666666666666667E-2</v>
       </c>
       <c r="AI119" s="112">
-        <f>+AI9/AE9-1</f>
+        <f t="shared" si="252"/>
         <v>-0.32820512820512826</v>
       </c>
       <c r="AJ119" s="112">
-        <f>+AJ9/AF9-1</f>
+        <f t="shared" si="252"/>
         <v>-0.17791411042944782</v>
       </c>
       <c r="AK119" s="112">
-        <f>+AK9/AG9-1</f>
+        <f t="shared" si="252"/>
         <v>-0.22443890274314215</v>
       </c>
       <c r="AL119" s="112">
-        <f>+AL9/AH9-1</f>
+        <f t="shared" si="252"/>
         <v>-0.32603406326034068</v>
       </c>
       <c r="AM119" s="112">
-        <f>+AM9/AI9-1</f>
+        <f t="shared" si="252"/>
         <v>-0.11068702290076338</v>
       </c>
       <c r="AN119" s="112">
-        <f>+AN9/AJ9-1</f>
+        <f t="shared" si="252"/>
         <v>-0.18283582089552242</v>
       </c>
       <c r="AO119" s="112">
-        <f>+AO9/AK9-1</f>
+        <f t="shared" si="252"/>
         <v>1.6077170418006492E-2</v>
       </c>
       <c r="AP119" s="112">
-        <f>+AP9/AL9-1</f>
+        <f t="shared" si="252"/>
         <v>-0.20216606498194944</v>
       </c>
       <c r="AQ119" s="112">
-        <f>+AQ9/AM9-1</f>
+        <f t="shared" si="252"/>
         <v>-8.1545064377682386E-2</v>
       </c>
       <c r="AR119" s="112">
-        <f>+AR9/AN9-1</f>
+        <f t="shared" si="252"/>
         <v>0.26484018264840192</v>
       </c>
       <c r="AS119" s="112">
-        <f>+AS9/AO9-1</f>
+        <f t="shared" si="252"/>
         <v>0.40822784810126578</v>
       </c>
       <c r="AT119" s="112">
-        <f>+AT9/AP9-1</f>
+        <f t="shared" si="252"/>
         <v>0.23981900452488691</v>
       </c>
       <c r="AU119" s="112"/>
@@ -46285,83 +46285,83 @@
       <c r="BY119" s="112"/>
       <c r="BZ119" s="112"/>
       <c r="CA119" s="112">
-        <f>+CA9/BW9-1</f>
+        <f t="shared" ref="CA119:CT119" si="253">+CA9/BW9-1</f>
         <v>0.30906921241050123</v>
       </c>
       <c r="CB119" s="112">
-        <f>+CB9/BX9-1</f>
+        <f t="shared" si="253"/>
         <v>-0.2595936794582393</v>
       </c>
       <c r="CC119" s="112">
-        <f>+CC9/BY9-1</f>
+        <f t="shared" si="253"/>
         <v>-0.10075757575757571</v>
       </c>
       <c r="CD119" s="112">
-        <f>+CD9/BZ9-1</f>
+        <f t="shared" si="253"/>
         <v>0.44011544011544013</v>
       </c>
       <c r="CE119" s="112">
-        <f>+CE9/CA9-1</f>
+        <f t="shared" si="253"/>
         <v>-0.16408386508659978</v>
       </c>
       <c r="CF119" s="112">
-        <f>+CF9/CB9-1</f>
+        <f t="shared" si="253"/>
         <v>0.88109756097560976</v>
       </c>
       <c r="CG119" s="112">
-        <f>+CG9/CC9-1</f>
+        <f t="shared" si="253"/>
         <v>0.67902274641954508</v>
       </c>
       <c r="CH119" s="112">
-        <f>+CH9/CD9-1</f>
+        <f t="shared" si="253"/>
         <v>0.53106212424849697</v>
       </c>
       <c r="CI119" s="112">
-        <f>+CI9/CE9-1</f>
+        <f t="shared" si="253"/>
         <v>0.59214830970556154</v>
       </c>
       <c r="CJ119" s="112">
-        <f>+CJ9/CF9-1</f>
+        <f t="shared" si="253"/>
         <v>0.35656401944894656</v>
       </c>
       <c r="CK119" s="112">
-        <f>+CK9/CG9-1</f>
+        <f t="shared" si="253"/>
         <v>0.15102860010035113</v>
       </c>
       <c r="CL119" s="112">
-        <f>+CL9/CH9-1</f>
+        <f t="shared" si="253"/>
         <v>-3.7958115183246099E-2</v>
       </c>
       <c r="CM119" s="112">
-        <f>+CM9/CI9-1</f>
+        <f t="shared" si="253"/>
         <v>0.35068493150684921</v>
       </c>
       <c r="CN119" s="112">
-        <f>+CN9/CJ9-1</f>
+        <f t="shared" si="253"/>
         <v>0.46833930704898452</v>
       </c>
       <c r="CO119" s="112">
-        <f>+CO9/CK9-1</f>
+        <f t="shared" si="253"/>
         <v>0.12685265911072352</v>
       </c>
       <c r="CP119" s="112">
-        <f>+CP9/CL9-1</f>
+        <f t="shared" si="253"/>
         <v>0.27278911564625852</v>
       </c>
       <c r="CQ119" s="112">
-        <f>+CQ9/CM9-1</f>
+        <f t="shared" si="253"/>
         <v>0.1404665314401623</v>
       </c>
       <c r="CR119" s="112">
-        <f>+CR9/CN9-1</f>
+        <f t="shared" si="253"/>
         <v>8.1366965012203973E-3</v>
       </c>
       <c r="CS119" s="112">
-        <f>+CS9/CO9-1</f>
+        <f t="shared" si="253"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CT119" s="112">
-        <f>+CT9/CP9-1</f>
+        <f t="shared" si="253"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CU119" s="112"/>
@@ -46431,71 +46431,71 @@
       <c r="AB120" s="112"/>
       <c r="AC120" s="112"/>
       <c r="AD120" s="112">
-        <f>+AD12/Z12-1</f>
+        <f t="shared" ref="AD120:AT120" si="254">+AD12/Z12-1</f>
         <v>0.85281385281385291</v>
       </c>
       <c r="AE120" s="112">
-        <f>+AE12/AA12-1</f>
+        <f t="shared" si="254"/>
         <v>-8.1300813008130079E-2</v>
       </c>
       <c r="AF120" s="112">
-        <f>+AF12/AB12-1</f>
+        <f t="shared" si="254"/>
         <v>-7.5581395348837233E-2</v>
       </c>
       <c r="AG120" s="112">
-        <f>+AG12/AC12-1</f>
+        <f t="shared" si="254"/>
         <v>4.6728971962617383E-3</v>
       </c>
       <c r="AH120" s="112">
-        <f>+AH12/AD12-1</f>
+        <f t="shared" si="254"/>
         <v>4.6728971962617383E-3</v>
       </c>
       <c r="AI120" s="112">
-        <f>+AI12/AE12-1</f>
+        <f t="shared" si="254"/>
         <v>0.11504424778761058</v>
       </c>
       <c r="AJ120" s="112">
-        <f>+AJ12/AF12-1</f>
+        <f t="shared" si="254"/>
         <v>1.2578616352201255E-2</v>
       </c>
       <c r="AK120" s="112">
-        <f>+AK12/AG12-1</f>
+        <f t="shared" si="254"/>
         <v>7.441860465116279E-2</v>
       </c>
       <c r="AL120" s="112">
-        <f>+AL12/AH12-1</f>
+        <f t="shared" si="254"/>
         <v>-0.22558139534883725</v>
       </c>
       <c r="AM120" s="112">
-        <f>+AM12/AI12-1</f>
+        <f t="shared" si="254"/>
         <v>0.26587301587301582</v>
       </c>
       <c r="AN120" s="112">
-        <f>+AN12/AJ12-1</f>
+        <f t="shared" si="254"/>
         <v>5.5900621118012417E-2</v>
       </c>
       <c r="AO120" s="112">
-        <f>+AO12/AK12-1</f>
+        <f t="shared" si="254"/>
         <v>-6.0606060606060552E-2</v>
       </c>
       <c r="AP120" s="112">
-        <f>+AP12/AL12-1</f>
+        <f t="shared" si="254"/>
         <v>-0.14414414414414412</v>
       </c>
       <c r="AQ120" s="112">
-        <f>+AQ12/AM12-1</f>
+        <f t="shared" si="254"/>
         <v>-0.23510971786833856</v>
       </c>
       <c r="AR120" s="112">
-        <f>+AR12/AN12-1</f>
+        <f t="shared" si="254"/>
         <v>-0.14411764705882357</v>
       </c>
       <c r="AS120" s="112">
-        <f>+AS12/AO12-1</f>
+        <f t="shared" si="254"/>
         <v>-9.9078341013824844E-2</v>
       </c>
       <c r="AT120" s="112">
-        <f>+AT12/AP12-1</f>
+        <f t="shared" si="254"/>
         <v>-3.157894736842104E-2</v>
       </c>
       <c r="AU120" s="112"/>
@@ -46812,15 +46812,15 @@
         <v>-21297</v>
       </c>
       <c r="CK122" s="116">
-        <f t="shared" ref="CK122:CM122" si="247">CK123-CK132</f>
+        <f t="shared" ref="CK122:CM122" si="255">CK123-CK132</f>
         <v>0</v>
       </c>
       <c r="CL122" s="116">
-        <f t="shared" si="247"/>
+        <f t="shared" si="255"/>
         <v>0</v>
       </c>
       <c r="CM122" s="116">
-        <f t="shared" si="247"/>
+        <f t="shared" si="255"/>
         <v>-19069</v>
       </c>
       <c r="CN122" s="116"/>
@@ -46830,7 +46830,10 @@
         <f>+CQ123-CQ132</f>
         <v>-28320</v>
       </c>
-      <c r="CR122" s="116"/>
+      <c r="CR122" s="116">
+        <f>+CR123-CR132</f>
+        <v>-26077</v>
+      </c>
       <c r="CS122" s="116"/>
       <c r="CT122" s="116"/>
       <c r="CU122" s="116"/>
@@ -46867,51 +46870,51 @@
         <v>0</v>
       </c>
       <c r="DY122" s="87">
-        <f t="shared" ref="DY122:EJ122" si="248">DX122+DY103</f>
+        <f t="shared" ref="DY122:EJ122" si="256">DX122+DY103</f>
         <v>27333.342000000004</v>
       </c>
       <c r="DZ122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>54356.829165000003</v>
       </c>
       <c r="EA122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>80420.541867937514</v>
       </c>
       <c r="EB122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>103312.39684408267</v>
       </c>
       <c r="EC122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>126149.0626332204</v>
       </c>
       <c r="ED122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>147920.62627656217</v>
       </c>
       <c r="EE122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>167833.15699775697</v>
       </c>
       <c r="EF122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>185527.23610705155</v>
       </c>
       <c r="EG122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>201171.25478717682</v>
       </c>
       <c r="EH122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>215645.22887924887</v>
       </c>
       <c r="EI122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>229393.64336127232</v>
       </c>
       <c r="EJ122" s="87">
-        <f t="shared" si="248"/>
+        <f t="shared" si="256"/>
         <v>242781.40572770126</v>
       </c>
     </row>
@@ -47021,7 +47024,10 @@
         <f>5579+40+280</f>
         <v>5899</v>
       </c>
-      <c r="CR123" s="87"/>
+      <c r="CR123" s="87">
+        <f>11304+50+357</f>
+        <v>11711</v>
+      </c>
       <c r="CS123" s="84"/>
       <c r="CT123" s="84"/>
       <c r="CU123" s="84"/>
@@ -47162,7 +47168,9 @@
       <c r="CQ124" s="87">
         <v>11366</v>
       </c>
-      <c r="CR124" s="87"/>
+      <c r="CR124" s="87">
+        <v>11642</v>
+      </c>
       <c r="CS124" s="84"/>
       <c r="CT124" s="84"/>
       <c r="CU124" s="84"/>
@@ -47303,7 +47311,9 @@
       <c r="CQ125" s="87">
         <v>6510</v>
       </c>
-      <c r="CR125" s="87"/>
+      <c r="CR125" s="87">
+        <v>6469</v>
+      </c>
       <c r="CS125" s="84"/>
       <c r="CT125" s="84"/>
       <c r="CU125" s="84"/>
@@ -47444,7 +47454,9 @@
       <c r="CQ126" s="87">
         <v>7950</v>
       </c>
-      <c r="CR126" s="87"/>
+      <c r="CR126" s="87">
+        <v>8740</v>
+      </c>
       <c r="CS126" s="88"/>
       <c r="CT126" s="88"/>
       <c r="CU126" s="88"/>
@@ -47585,7 +47597,9 @@
       <c r="CQ127" s="87">
         <v>23045</v>
       </c>
-      <c r="CR127" s="87"/>
+      <c r="CR127" s="87">
+        <v>23221</v>
+      </c>
       <c r="CS127" s="84"/>
       <c r="CT127" s="84"/>
       <c r="CU127" s="84"/>
@@ -47729,7 +47743,10 @@
         <f>21181+17572</f>
         <v>38753</v>
       </c>
-      <c r="CR128" s="87"/>
+      <c r="CR128" s="87">
+        <f>21161+16984</f>
+        <v>38145</v>
+      </c>
       <c r="CS128" s="84"/>
       <c r="CT128" s="84"/>
       <c r="CU128" s="84"/>
@@ -47870,7 +47887,9 @@
       <c r="CQ129" s="87">
         <v>12326</v>
       </c>
-      <c r="CR129" s="87"/>
+      <c r="CR129" s="87">
+        <v>12702</v>
+      </c>
       <c r="CS129" s="84"/>
       <c r="CT129" s="84"/>
       <c r="CU129" s="84"/>
@@ -48014,7 +48033,10 @@
         <f>SUM(CQ123:CQ129)</f>
         <v>105849</v>
       </c>
-      <c r="CR130" s="87"/>
+      <c r="CR130" s="87">
+        <f>SUM(CR123:CR129)</f>
+        <v>112630</v>
+      </c>
       <c r="CS130" s="84"/>
       <c r="CT130" s="84"/>
       <c r="CU130" s="84"/>
@@ -48291,7 +48313,10 @@
         <f>31142+3077</f>
         <v>34219</v>
       </c>
-      <c r="CR132" s="87"/>
+      <c r="CR132" s="87">
+        <f>3071+34717</f>
+        <v>37788</v>
+      </c>
       <c r="CS132" s="87"/>
       <c r="CT132" s="87"/>
       <c r="CU132" s="87"/>
@@ -48432,7 +48457,9 @@
       <c r="CQ133" s="87">
         <v>3514</v>
       </c>
-      <c r="CR133" s="87"/>
+      <c r="CR133" s="87">
+        <v>3519</v>
+      </c>
       <c r="CS133" s="87"/>
       <c r="CT133" s="87"/>
       <c r="CU133" s="87"/>
@@ -48573,7 +48600,9 @@
       <c r="CQ134" s="87">
         <v>14102</v>
       </c>
-      <c r="CR134" s="87"/>
+      <c r="CR134" s="87">
+        <v>14712</v>
+      </c>
       <c r="CS134" s="87"/>
       <c r="CT134" s="87"/>
       <c r="CU134" s="87"/>
@@ -48717,7 +48746,9 @@
         <f>2398+922</f>
         <v>3320</v>
       </c>
-      <c r="CR135" s="87"/>
+      <c r="CR135" s="87">
+        <v>2777</v>
+      </c>
       <c r="CS135" s="87"/>
       <c r="CT135" s="87"/>
       <c r="CU135" s="87"/>
@@ -48858,7 +48889,9 @@
       <c r="CQ136" s="87">
         <v>2008</v>
       </c>
-      <c r="CR136" s="87"/>
+      <c r="CR136" s="87">
+        <v>1981</v>
+      </c>
       <c r="CS136" s="87"/>
       <c r="CT136" s="87"/>
       <c r="CU136" s="87"/>
@@ -48999,7 +49032,10 @@
       <c r="CQ137" s="87">
         <v>8262</v>
       </c>
-      <c r="CR137" s="87"/>
+      <c r="CR137" s="87">
+        <f>876+7329</f>
+        <v>8205</v>
+      </c>
       <c r="CS137" s="87"/>
       <c r="CT137" s="87"/>
       <c r="CU137" s="87"/>
@@ -49140,7 +49176,9 @@
       <c r="CQ138" s="87">
         <v>40424</v>
       </c>
-      <c r="CR138" s="87"/>
+      <c r="CR138" s="87">
+        <v>43648</v>
+      </c>
       <c r="CS138" s="87"/>
       <c r="CT138" s="87"/>
       <c r="CU138" s="87"/>
@@ -49284,7 +49322,10 @@
         <f>SUM(CQ132:CQ138)</f>
         <v>105849</v>
       </c>
-      <c r="CR139" s="87"/>
+      <c r="CR139" s="87">
+        <f>SUM(CR132:CR138)</f>
+        <v>112630</v>
+      </c>
       <c r="CS139" s="87"/>
       <c r="CT139" s="87"/>
       <c r="CU139" s="87"/>
@@ -53478,71 +53519,71 @@
         <v>442</v>
       </c>
       <c r="AD170" s="112">
-        <f>+AD10/Z10-1</f>
+        <f t="shared" ref="AD170:AT170" si="257">+AD10/Z10-1</f>
         <v>3.7619047619047619</v>
       </c>
       <c r="AE170" s="112">
-        <f>+AE10/AA10-1</f>
+        <f t="shared" si="257"/>
         <v>2.1264367816091956</v>
       </c>
       <c r="AF170" s="112">
-        <f>+AF10/AB10-1</f>
+        <f t="shared" si="257"/>
         <v>1.3194444444444446</v>
       </c>
       <c r="AG170" s="112">
-        <f>+AG10/AC10-1</f>
+        <f t="shared" si="257"/>
         <v>1.0486486486486486</v>
       </c>
       <c r="AH170" s="112">
-        <f>+AH10/AD10-1</f>
+        <f t="shared" si="257"/>
         <v>-1</v>
       </c>
       <c r="AI170" s="112">
-        <f>+AI10/AE10-1</f>
+        <f t="shared" si="257"/>
         <v>0.51102941176470584</v>
       </c>
       <c r="AJ170" s="112">
-        <f>+AJ10/AF10-1</f>
+        <f t="shared" si="257"/>
         <v>0.38323353293413165</v>
       </c>
       <c r="AK170" s="112">
-        <f>+AK10/AG10-1</f>
+        <f t="shared" si="257"/>
         <v>0.29551451187335087</v>
       </c>
       <c r="AL170" s="112" t="e">
-        <f>+AL10/AH10-1</f>
+        <f t="shared" si="257"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM170" s="112">
-        <f>+AM10/AI10-1</f>
+        <f t="shared" si="257"/>
         <v>0.24330900243308995</v>
       </c>
       <c r="AN170" s="112">
-        <f>+AN10/AJ10-1</f>
+        <f t="shared" si="257"/>
         <v>0.29870129870129869</v>
       </c>
       <c r="AO170" s="112">
-        <f>+AO10/AK10-1</f>
+        <f t="shared" si="257"/>
         <v>0.22199592668024448</v>
       </c>
       <c r="AP170" s="112">
-        <f>+AP10/AL10-1</f>
+        <f t="shared" si="257"/>
         <v>0.20967741935483875</v>
       </c>
       <c r="AQ170" s="112">
-        <f>+AQ10/AM10-1</f>
+        <f t="shared" si="257"/>
         <v>0.44618395303326808</v>
       </c>
       <c r="AR170" s="112">
-        <f>+AR10/AN10-1</f>
+        <f t="shared" si="257"/>
         <v>0.29833333333333334</v>
       </c>
       <c r="AS170" s="112">
-        <f>+AS10/AO10-1</f>
+        <f t="shared" si="257"/>
         <v>0.40999999999999992</v>
       </c>
       <c r="AT170" s="112">
-        <f>+AT10/AP10-1</f>
+        <f t="shared" si="257"/>
         <v>0.42222222222222228</v>
       </c>
       <c r="AU170" s="112"/>
@@ -53578,71 +53619,71 @@
       <c r="BY170" s="112"/>
       <c r="BZ170" s="112"/>
       <c r="CA170" s="112">
-        <f>+CA10/BW10-1</f>
+        <f t="shared" ref="CA170:CJ171" si="258">+CA10/BW10-1</f>
         <v>-6.067961165048541E-2</v>
       </c>
       <c r="CB170" s="112">
-        <f>+CB10/BX10-1</f>
+        <f t="shared" si="258"/>
         <v>-5.9471365638766538E-2</v>
       </c>
       <c r="CC170" s="112">
-        <f>+CC10/BY10-1</f>
+        <f t="shared" si="258"/>
         <v>1.7348203221809078E-2</v>
       </c>
       <c r="CD170" s="112">
-        <f>+CD10/BZ10-1</f>
+        <f t="shared" si="258"/>
         <v>-9.1198303287380655E-2</v>
       </c>
       <c r="CE170" s="112">
-        <f>+CE10/CA10-1</f>
+        <f t="shared" si="258"/>
         <v>4.5219638242893989E-2</v>
       </c>
       <c r="CF170" s="112">
-        <f>+CF10/CB10-1</f>
+        <f t="shared" si="258"/>
         <v>-8.1967213114754078E-2</v>
       </c>
       <c r="CG170" s="112">
-        <f>+CG10/CC10-1</f>
+        <f t="shared" si="258"/>
         <v>3.7758830694275325E-2</v>
       </c>
       <c r="CH170" s="112">
-        <f>+CH10/CD10-1</f>
+        <f t="shared" si="258"/>
         <v>2.4504084014002281E-2</v>
       </c>
       <c r="CI170" s="112">
-        <f>+CI10/CE10-1</f>
+        <f t="shared" si="258"/>
         <v>-3.7082818294190356E-2</v>
       </c>
       <c r="CJ170" s="112">
-        <f>+CJ10/CF10-1</f>
+        <f t="shared" si="258"/>
         <v>-3.5714285714285698E-2</v>
       </c>
       <c r="CK170" s="112">
-        <f>+CK10/CG10-1</f>
+        <f t="shared" ref="CK170:CT171" si="259">+CK10/CG10-1</f>
         <v>-0.15845070422535212</v>
       </c>
       <c r="CL170" s="112">
-        <f>+CL10/CH10-1</f>
+        <f t="shared" si="259"/>
         <v>-0.36104783599088841</v>
       </c>
       <c r="CM170" s="112">
-        <f>+CM10/CI10-1</f>
+        <f t="shared" si="259"/>
         <v>-0.29268292682926833</v>
       </c>
       <c r="CN170" s="112">
-        <f>+CN10/CJ10-1</f>
+        <f t="shared" si="259"/>
         <v>-0.32407407407407407</v>
       </c>
       <c r="CO170" s="112">
-        <f>+CO10/CK10-1</f>
+        <f t="shared" si="259"/>
         <v>-0.18967921896792195</v>
       </c>
       <c r="CP170" s="112">
-        <f>+CP10/CL10-1</f>
+        <f t="shared" si="259"/>
         <v>-2.4955436720142554E-2</v>
       </c>
       <c r="CQ170" s="112">
-        <f>+CQ10/CM10-1</f>
+        <f t="shared" si="259"/>
         <v>-0.23956442831215974</v>
       </c>
       <c r="CR170" s="112"/>
@@ -53727,63 +53768,63 @@
         <v>442</v>
       </c>
       <c r="AF171" s="112">
-        <f>+AF11/AB11-1</f>
+        <f t="shared" ref="AF171:AT171" si="260">+AF11/AB11-1</f>
         <v>2</v>
       </c>
       <c r="AG171" s="112">
-        <f>+AG11/AC11-1</f>
+        <f t="shared" si="260"/>
         <v>4.3157894736842106</v>
       </c>
       <c r="AH171" s="112">
-        <f>+AH11/AD11-1</f>
+        <f t="shared" si="260"/>
         <v>-1</v>
       </c>
       <c r="AI171" s="112">
-        <f>+AI11/AE11-1</f>
+        <f t="shared" si="260"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="AJ171" s="112">
-        <f>+AJ11/AF11-1</f>
+        <f t="shared" si="260"/>
         <v>1.1527777777777777</v>
       </c>
       <c r="AK171" s="112">
-        <f>+AK11/AG11-1</f>
+        <f t="shared" si="260"/>
         <v>0.71287128712871284</v>
       </c>
       <c r="AL171" s="112" t="e">
-        <f>+AL11/AH11-1</f>
+        <f t="shared" si="260"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM171" s="112">
-        <f>+AM11/AI11-1</f>
+        <f t="shared" si="260"/>
         <v>0.5703125</v>
       </c>
       <c r="AN171" s="112">
-        <f>+AN11/AJ11-1</f>
+        <f t="shared" si="260"/>
         <v>0.40645161290322585</v>
       </c>
       <c r="AO171" s="112">
-        <f>+AO11/AK11-1</f>
+        <f t="shared" si="260"/>
         <v>0.42774566473988429</v>
       </c>
       <c r="AP171" s="112">
-        <f>+AP11/AL11-1</f>
+        <f t="shared" si="260"/>
         <v>0.42574257425742568</v>
       </c>
       <c r="AQ171" s="112">
-        <f>+AQ11/AM11-1</f>
+        <f t="shared" si="260"/>
         <v>0.51741293532338317</v>
       </c>
       <c r="AR171" s="112">
-        <f>+AR11/AN11-1</f>
+        <f t="shared" si="260"/>
         <v>0.47247706422018343</v>
       </c>
       <c r="AS171" s="112">
-        <f>+AS11/AO11-1</f>
+        <f t="shared" si="260"/>
         <v>0.417004048582996</v>
       </c>
       <c r="AT171" s="112">
-        <f>+AT11/AP11-1</f>
+        <f t="shared" si="260"/>
         <v>0.34027777777777768</v>
       </c>
       <c r="AU171" s="112"/>
@@ -53819,71 +53860,71 @@
       <c r="BY171" s="112"/>
       <c r="BZ171" s="112"/>
       <c r="CA171" s="112">
-        <f>+CA11/BW11-1</f>
+        <f t="shared" si="258"/>
         <v>-5.0943396226415083E-2</v>
       </c>
       <c r="CB171" s="112">
-        <f>+CB11/BX11-1</f>
+        <f t="shared" si="258"/>
         <v>-8.0675422138836828E-2</v>
       </c>
       <c r="CC171" s="112">
-        <f>+CC11/BY11-1</f>
+        <f t="shared" si="258"/>
         <v>5.9642147117295874E-3</v>
       </c>
       <c r="CD171" s="112">
-        <f>+CD11/BZ11-1</f>
+        <f t="shared" si="258"/>
         <v>-6.3157894736841635E-3</v>
       </c>
       <c r="CE171" s="112">
-        <f>+CE11/CA11-1</f>
+        <f t="shared" si="258"/>
         <v>-3.379721669980118E-2</v>
       </c>
       <c r="CF171" s="112">
-        <f>+CF11/CB11-1</f>
+        <f t="shared" si="258"/>
         <v>-2.6530612244897944E-2</v>
       </c>
       <c r="CG171" s="112">
-        <f>+CG11/CC11-1</f>
+        <f t="shared" si="258"/>
         <v>-3.7549407114624511E-2</v>
       </c>
       <c r="CH171" s="112">
-        <f>+CH11/CD11-1</f>
+        <f t="shared" si="258"/>
         <v>8.8983050847457612E-2</v>
       </c>
       <c r="CI171" s="112">
-        <f>+CI11/CE11-1</f>
+        <f t="shared" si="258"/>
         <v>-6.5843621399176988E-2</v>
       </c>
       <c r="CJ171" s="112">
-        <f>+CJ11/CF11-1</f>
+        <f t="shared" si="258"/>
         <v>-2.0964360587002462E-3</v>
       </c>
       <c r="CK171" s="112">
-        <f>+CK11/CG11-1</f>
+        <f t="shared" si="259"/>
         <v>-0.14373716632443534</v>
       </c>
       <c r="CL171" s="112">
-        <f>+CL11/CH11-1</f>
+        <f t="shared" si="259"/>
         <v>-0.3132295719844358</v>
       </c>
       <c r="CM171" s="112">
-        <f>+CM11/CI11-1</f>
+        <f t="shared" si="259"/>
         <v>-0.27533039647577096</v>
       </c>
       <c r="CN171" s="112">
-        <f>+CN11/CJ11-1</f>
+        <f t="shared" si="259"/>
         <v>-0.25630252100840334</v>
       </c>
       <c r="CO171" s="112">
-        <f>+CO11/CK11-1</f>
+        <f t="shared" si="259"/>
         <v>-0.38848920863309355</v>
       </c>
       <c r="CP171" s="112">
-        <f>+CP11/CL11-1</f>
+        <f t="shared" si="259"/>
         <v>-0.32011331444759206</v>
       </c>
       <c r="CQ171" s="112">
-        <f>+CQ11/CM11-1</f>
+        <f t="shared" si="259"/>
         <v>-0.23708206686930089</v>
       </c>
       <c r="CR171" s="112"/>
@@ -53968,55 +54009,55 @@
         <v>442</v>
       </c>
       <c r="AH172" s="112">
-        <f>+AH22/AD22-1</f>
+        <f t="shared" ref="AH172:AT172" si="261">+AH22/AD22-1</f>
         <v>7.9120879120879062E-2</v>
       </c>
       <c r="AI172" s="112">
-        <f>+AI22/AE22-1</f>
+        <f t="shared" si="261"/>
         <v>2.1696252465483346E-2</v>
       </c>
       <c r="AJ172" s="112">
-        <f>+AJ22/AF22-1</f>
+        <f t="shared" si="261"/>
         <v>1.4362657091562037E-2</v>
       </c>
       <c r="AK172" s="112">
-        <f>+AK22/AG22-1</f>
+        <f t="shared" si="261"/>
         <v>7.8014184397163122E-2</v>
       </c>
       <c r="AL172" s="112">
-        <f>+AL22/AH22-1</f>
+        <f t="shared" si="261"/>
         <v>-0.12219959266802449</v>
       </c>
       <c r="AM172" s="112">
-        <f>+AM22/AI22-1</f>
+        <f t="shared" si="261"/>
         <v>0.30115830115830122</v>
       </c>
       <c r="AN172" s="112">
-        <f>+AN22/AJ22-1</f>
+        <f t="shared" si="261"/>
         <v>0.1840707964601771</v>
       </c>
       <c r="AO172" s="112">
-        <f>+AO22/AK22-1</f>
+        <f t="shared" si="261"/>
         <v>8.7171052631578982E-2</v>
       </c>
       <c r="AP172" s="112">
-        <f>+AP22/AL22-1</f>
+        <f t="shared" si="261"/>
         <v>0.64733178654292334</v>
       </c>
       <c r="AQ172" s="112">
-        <f>+AQ22/AM22-1</f>
+        <f t="shared" si="261"/>
         <v>0.1172106824925816</v>
       </c>
       <c r="AR172" s="112">
-        <f>+AR22/AN22-1</f>
+        <f t="shared" si="261"/>
         <v>0.25859491778774291</v>
       </c>
       <c r="AS172" s="112">
-        <f>+AS22/AO22-1</f>
+        <f t="shared" si="261"/>
         <v>-0.15128593040847205</v>
       </c>
       <c r="AT172" s="112">
-        <f>+AT22/AP22-1</f>
+        <f t="shared" si="261"/>
         <v>-0.28028169014084503</v>
       </c>
       <c r="AU172" s="112"/>
@@ -54138,71 +54179,71 @@
       <c r="AB173" s="112"/>
       <c r="AC173" s="112"/>
       <c r="AD173" s="112">
-        <f t="shared" ref="AD173:AT173" si="249">+AD51/Z51-1</f>
+        <f t="shared" ref="AD173:AT173" si="262">+AD51/Z51-1</f>
         <v>8.5187194791101595E-2</v>
       </c>
       <c r="AE173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>4.3924334722667657E-2</v>
       </c>
       <c r="AF173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-0.13738344988344986</v>
       </c>
       <c r="AG173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-0.18152958152958143</v>
       </c>
       <c r="AH173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-3.7999999999999923E-2</v>
       </c>
       <c r="AI173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-0.26750614250614257</v>
       </c>
       <c r="AJ173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-0.10150312447221754</v>
       </c>
       <c r="AK173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-7.4400564174894268E-2</v>
       </c>
       <c r="AL173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-3.4650034650041128E-4</v>
       </c>
       <c r="AM173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AN173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-7.8947368421052655E-2</v>
       </c>
       <c r="AO173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-7.6190476190476142E-2</v>
       </c>
       <c r="AP173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-2.5996533795493937E-2</v>
       </c>
       <c r="AQ173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>6.2893081761006275E-3</v>
       </c>
       <c r="AR173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-6.3265306122448961E-2</v>
       </c>
       <c r="AS173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-3.2989690721649478E-2</v>
       </c>
       <c r="AT173" s="112">
-        <f t="shared" si="249"/>
+        <f t="shared" si="262"/>
         <v>-0.15480427046263345</v>
       </c>
       <c r="AU173" s="112"/>
@@ -54324,71 +54365,71 @@
       <c r="AB174" s="112"/>
       <c r="AC174" s="112"/>
       <c r="AD174" s="112">
-        <f t="shared" ref="AD174:AT174" si="250">+AD50/Z50-1</f>
+        <f t="shared" ref="AD174:AT174" si="263">+AD50/Z50-1</f>
         <v>0.13784741652676735</v>
       </c>
       <c r="AE174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>6.9301470588235325E-2</v>
       </c>
       <c r="AF174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>-2.9610389610389642E-2</v>
       </c>
       <c r="AG174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>-0.11976935749588147</v>
       </c>
       <c r="AH174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>-1</v>
       </c>
       <c r="AI174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>-0.12325941206807645</v>
       </c>
       <c r="AJ174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>-7.8515346181298185E-3</v>
       </c>
       <c r="AK174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>5.371514130638233E-2</v>
       </c>
       <c r="AL174" s="112" t="e">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>4.705882352941182E-2</v>
       </c>
       <c r="AN174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>1.4388489208633004E-2</v>
       </c>
       <c r="AO174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>1.4209591474245054E-2</v>
       </c>
       <c r="AP174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>2.4429967426710109E-2</v>
       </c>
       <c r="AQ174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>8.98876404494382E-2</v>
       </c>
       <c r="AR174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>4.9645390070921946E-2</v>
       </c>
       <c r="AS174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>7.5306479859895026E-2</v>
       </c>
       <c r="AT174" s="112">
-        <f t="shared" si="250"/>
+        <f t="shared" si="263"/>
         <v>1.7488076311605649E-2</v>
       </c>
       <c r="AU174" s="112"/>
@@ -55947,35 +55988,35 @@
       <c r="M185" s="87"/>
       <c r="N185" s="87"/>
       <c r="O185" s="87" t="e">
-        <f t="shared" ref="O185:V185" si="251">O184-O186</f>
+        <f t="shared" ref="O185:V185" si="264">O184-O186</f>
         <v>#REF!</v>
       </c>
       <c r="P185" s="87" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="264"/>
         <v>#REF!</v>
       </c>
       <c r="Q185" s="87" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="264"/>
         <v>#REF!</v>
       </c>
       <c r="R185" s="87" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="264"/>
         <v>#REF!</v>
       </c>
       <c r="S185" s="87" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="264"/>
         <v>#REF!</v>
       </c>
       <c r="T185" s="87">
-        <f t="shared" si="251"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="U185" s="87">
-        <f t="shared" si="251"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="V185" s="87" t="e">
-        <f t="shared" si="251"/>
+        <f t="shared" si="264"/>
         <v>#REF!</v>
       </c>
       <c r="W185" s="87"/>
@@ -56605,51 +56646,51 @@
       <c r="I189" s="94"/>
       <c r="J189" s="94"/>
       <c r="K189" s="94">
-        <f t="shared" ref="K189:V189" si="252">ROUND(K103/K188,2)</f>
+        <f t="shared" ref="K189:V189" si="265">ROUND(K103/K188,2)</f>
         <v>-1.79</v>
       </c>
       <c r="L189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.67</v>
       </c>
       <c r="M189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.74</v>
       </c>
       <c r="N189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.9</v>
       </c>
       <c r="O189" s="94" t="e">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>#REF!</v>
       </c>
       <c r="P189" s="94" t="e">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>#REF!</v>
       </c>
       <c r="Q189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.27</v>
       </c>
       <c r="R189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.25</v>
       </c>
       <c r="S189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.23</v>
       </c>
       <c r="T189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.34</v>
       </c>
       <c r="U189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.22</v>
       </c>
       <c r="V189" s="94">
-        <f t="shared" si="252"/>
+        <f t="shared" si="265"/>
         <v>-1.19</v>
       </c>
       <c r="W189" s="94"/>
@@ -56932,47 +56973,47 @@
       <c r="I191" s="93"/>
       <c r="J191" s="93"/>
       <c r="K191" s="93">
-        <f t="shared" ref="K191:U191" si="253">K101+K95+K94+K184</f>
+        <f t="shared" ref="K191:U191" si="266">K101+K95+K94+K184</f>
         <v>-3021.7999999999997</v>
       </c>
       <c r="L191" s="93">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>-2563</v>
       </c>
       <c r="M191" s="93">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>-2950.9000000000005</v>
       </c>
       <c r="N191" s="93">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>-3537.7999999999997</v>
       </c>
       <c r="O191" s="93" t="e">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>#REF!</v>
       </c>
       <c r="P191" s="93" t="e">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>#REF!</v>
       </c>
       <c r="Q191" s="93" t="e">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>#REF!</v>
       </c>
       <c r="R191" s="93" t="e">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>#REF!</v>
       </c>
       <c r="S191" s="93" t="e">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>#REF!</v>
       </c>
       <c r="T191" s="93">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>-2190.2000000000003</v>
       </c>
       <c r="U191" s="93">
-        <f t="shared" si="253"/>
+        <f t="shared" si="266"/>
         <v>-1877.1000000000001</v>
       </c>
       <c r="V191" s="93"/>
@@ -57491,11 +57532,11 @@
       <c r="DB194" s="114"/>
       <c r="DC194" s="114"/>
       <c r="DD194" s="93">
-        <f t="shared" ref="DD194:DD199" si="254">SUM(K194:N194)</f>
+        <f t="shared" ref="DD194:DD199" si="267">SUM(K194:N194)</f>
         <v>195</v>
       </c>
       <c r="DE194" s="93">
-        <f t="shared" ref="DE194:DE199" si="255">SUM(O194:R194)</f>
+        <f t="shared" ref="DE194:DE199" si="268">SUM(O194:R194)</f>
         <v>106</v>
       </c>
       <c r="DF194" s="116">
@@ -57651,11 +57692,11 @@
       <c r="DB195" s="114"/>
       <c r="DC195" s="114"/>
       <c r="DD195" s="93">
-        <f t="shared" si="254"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="DE195" s="93">
-        <f t="shared" si="255"/>
+        <f t="shared" si="268"/>
         <v>93.2</v>
       </c>
       <c r="DF195" s="116">
@@ -57811,11 +57852,11 @@
       <c r="DB196" s="114"/>
       <c r="DC196" s="114"/>
       <c r="DD196" s="93">
-        <f t="shared" si="254"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="DE196" s="93">
-        <f t="shared" si="255"/>
+        <f t="shared" si="268"/>
         <v>745.4</v>
       </c>
       <c r="DF196" s="116"/>
@@ -57968,11 +58009,11 @@
       <c r="DB197" s="114"/>
       <c r="DC197" s="114"/>
       <c r="DD197" s="93">
-        <f t="shared" si="254"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="DE197" s="93">
-        <f t="shared" si="255"/>
+        <f t="shared" si="268"/>
         <v>-173.6</v>
       </c>
       <c r="DF197" s="87"/>
@@ -58012,27 +58053,27 @@
       <c r="I198" s="116"/>
       <c r="J198" s="116"/>
       <c r="K198" s="116">
-        <f t="shared" ref="K198:P198" si="256">K90-K194</f>
+        <f t="shared" ref="K198:P198" si="269">K90-K194</f>
         <v>1547.3</v>
       </c>
       <c r="L198" s="116">
-        <f t="shared" si="256"/>
+        <f t="shared" si="269"/>
         <v>1589.9</v>
       </c>
       <c r="M198" s="116">
-        <f t="shared" si="256"/>
+        <f t="shared" si="269"/>
         <v>1463.6</v>
       </c>
       <c r="N198" s="116">
-        <f t="shared" si="256"/>
+        <f t="shared" si="269"/>
         <v>1599.1</v>
       </c>
       <c r="O198" s="116">
-        <f t="shared" si="256"/>
+        <f t="shared" si="269"/>
         <v>1542.4</v>
       </c>
       <c r="P198" s="116">
-        <f t="shared" si="256"/>
+        <f t="shared" si="269"/>
         <v>1574.2</v>
       </c>
       <c r="Q198" s="116">
@@ -58145,11 +58186,11 @@
       <c r="DB198" s="114"/>
       <c r="DC198" s="114"/>
       <c r="DD198" s="114">
-        <f t="shared" si="254"/>
+        <f t="shared" si="267"/>
         <v>6199.9</v>
       </c>
       <c r="DE198" s="114">
-        <f t="shared" si="255"/>
+        <f t="shared" si="268"/>
         <v>5835.9000000000005</v>
       </c>
       <c r="DF198" s="87"/>
@@ -58189,35 +58230,35 @@
       <c r="I199" s="87"/>
       <c r="J199" s="87"/>
       <c r="K199" s="87">
-        <f t="shared" ref="K199:R199" si="257">K88-K195</f>
+        <f t="shared" ref="K199:R199" si="270">K88-K195</f>
         <v>1046.8</v>
       </c>
       <c r="L199" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="270"/>
         <v>988.5</v>
       </c>
       <c r="M199" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="270"/>
         <v>1083.4000000000001</v>
       </c>
       <c r="N199" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="270"/>
         <v>1228.3</v>
       </c>
       <c r="O199" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="270"/>
         <v>1147.8</v>
       </c>
       <c r="P199" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="270"/>
         <v>1164.2</v>
       </c>
       <c r="Q199" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="270"/>
         <v>1271</v>
       </c>
       <c r="R199" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="270"/>
         <v>1283.5999999999999</v>
       </c>
       <c r="S199" s="87"/>
@@ -58310,11 +58351,11 @@
       <c r="DB199" s="114"/>
       <c r="DC199" s="114"/>
       <c r="DD199" s="114">
-        <f t="shared" si="254"/>
+        <f t="shared" si="267"/>
         <v>4347</v>
       </c>
       <c r="DE199" s="114">
-        <f t="shared" si="255"/>
+        <f t="shared" si="268"/>
         <v>4866.6000000000004</v>
       </c>
       <c r="DF199" s="87"/>
@@ -58996,43 +59037,43 @@
       <c r="DI204" s="31"/>
       <c r="DJ204" s="31"/>
       <c r="DK204" s="30">
-        <f>(DK62+DK54+DK51+DK50+DK10+DK47+DK34+DK53+DK14+DK37+DK63+DK32+DK11+DK25+DK35+DK38+DK58+DK46+DK59+DK48+DK61+DK55+DK57+DK64+DK56)</f>
+        <f t="shared" ref="DK204:DT204" si="271">(DK62+DK54+DK51+DK50+DK10+DK47+DK34+DK53+DK14+DK37+DK63+DK32+DK11+DK25+DK35+DK38+DK58+DK46+DK59+DK48+DK61+DK55+DK57+DK64+DK56)</f>
         <v>25281</v>
       </c>
       <c r="DL204" s="30">
-        <f>(DL62+DL54+DL51+DL50+DL10+DL47+DL34+DL53+DL14+DL37+DL63+DL32+DL11+DL25+DL35+DL38+DL58+DL46+DL59+DL48+DL61+DL55+DL57+DL64+DL56)</f>
+        <f t="shared" si="271"/>
         <v>26526</v>
       </c>
       <c r="DM204" s="30">
-        <f>(DM62+DM54+DM51+DM50+DM10+DM47+DM34+DM53+DM14+DM37+DM63+DM32+DM11+DM25+DM35+DM38+DM58+DM46+DM59+DM48+DM61+DM55+DM57+DM64+DM56)</f>
+        <f t="shared" si="271"/>
         <v>24892</v>
       </c>
       <c r="DN204" s="30">
-        <f>(DN62+DN54+DN51+DN50+DN10+DN47+DN34+DN53+DN14+DN37+DN63+DN32+DN11+DN25+DN35+DN38+DN58+DN46+DN59+DN48+DN61+DN55+DN57+DN64+DN56)</f>
+        <f t="shared" si="271"/>
         <v>20004</v>
       </c>
       <c r="DO204" s="30">
-        <f>(DO62+DO54+DO51+DO50+DO10+DO47+DO34+DO53+DO14+DO37+DO63+DO32+DO11+DO25+DO35+DO38+DO58+DO46+DO59+DO48+DO61+DO55+DO57+DO64+DO56)</f>
+        <f t="shared" si="271"/>
         <v>18945</v>
       </c>
       <c r="DP204" s="30">
-        <f>(DP62+DP54+DP51+DP50+DP10+DP47+DP34+DP53+DP14+DP37+DP63+DP32+DP11+DP25+DP35+DP38+DP58+DP46+DP59+DP48+DP61+DP55+DP57+DP64+DP56)</f>
+        <f t="shared" si="271"/>
         <v>16537</v>
       </c>
       <c r="DQ204" s="30">
-        <f>(DQ62+DQ54+DQ51+DQ50+DQ10+DQ47+DQ34+DQ53+DQ14+DQ37+DQ63+DQ32+DQ11+DQ25+DQ35+DQ38+DQ58+DQ46+DQ59+DQ48+DQ61+DQ55+DQ57+DQ64+DQ56)</f>
+        <f t="shared" si="271"/>
         <v>15768</v>
       </c>
       <c r="DR204" s="30">
-        <f>(DR62+DR54+DR51+DR50+DR10+DR47+DR34+DR53+DR14+DR37+DR63+DR32+DR11+DR25+DR35+DR38+DR58+DR46+DR59+DR48+DR61+DR55+DR57+DR64+DR56)</f>
+        <f t="shared" si="271"/>
         <v>12932</v>
       </c>
       <c r="DS204" s="30">
-        <f>(DS62+DS54+DS51+DS50+DS10+DS47+DS34+DS53+DS14+DS37+DS63+DS32+DS11+DS25+DS35+DS38+DS58+DS46+DS59+DS48+DS61+DS55+DS57+DS64+DS56)</f>
+        <f t="shared" si="271"/>
         <v>11819</v>
       </c>
       <c r="DT204" s="30">
-        <f>(DT62+DT54+DT51+DT50+DT10+DT47+DT34+DT53+DT14+DT37+DT63+DT32+DT11+DT25+DT35+DT38+DT58+DT46+DT59+DT48+DT61+DT55+DT57+DT64+DT56)</f>
+        <f t="shared" si="271"/>
         <v>10003</v>
       </c>
       <c r="DU204" s="30"/>
@@ -59161,43 +59202,43 @@
       <c r="DI205" s="118"/>
       <c r="DJ205" s="118"/>
       <c r="DK205" s="119">
-        <f t="shared" ref="DK205:DT205" si="258">DK204/DK87</f>
+        <f t="shared" ref="DK205:DT205" si="272">DK204/DK87</f>
         <v>0.54900214988381946</v>
       </c>
       <c r="DL205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.55278622931688404</v>
       </c>
       <c r="DM205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.52659191876454414</v>
       </c>
       <c r="DN205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.45430595930232559</v>
       </c>
       <c r="DO205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.4485403792883017</v>
       </c>
       <c r="DP205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.41867942680642056</v>
       </c>
       <c r="DQ205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.39611123671716031</v>
       </c>
       <c r="DR205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.32231693335327249</v>
       </c>
       <c r="DS205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.27944862155388472</v>
       </c>
       <c r="DT205" s="119">
-        <f t="shared" si="258"/>
+        <f t="shared" si="272"/>
         <v>0.21355222988407591</v>
       </c>
       <c r="DU205" s="119"/>
@@ -64019,12 +64060,12 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -64149,11 +64190,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -64564,7 +64605,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -64649,7 +64690,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -64806,7 +64847,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -64886,7 +64927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -64989,6 +65030,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -65102,33 +65158,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -65143,9 +65176,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr showObjects="placeholders" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF9F3F-0FDB-2449-A590-F3CAF3FECBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB22E86-C5AA-4026-A497-29BE62D03DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51165" yWindow="375" windowWidth="24000" windowHeight="19110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Pipeline" sheetId="29" r:id="rId1"/>
@@ -46,6 +46,15 @@
     <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
+    <definedName name="\a">[1]ROCHE!#REF!</definedName>
+    <definedName name="\p">[1]ROCHE!#REF!</definedName>
+    <definedName name="\q">[1]ROCHE!#REF!</definedName>
+    <definedName name="\r">[1]ROCHE!#REF!</definedName>
+    <definedName name="\s">[1]ROCHE!#REF!</definedName>
+    <definedName name="\t">[1]ROCHE!#REF!</definedName>
+    <definedName name="\u">[1]ROCHE!#REF!</definedName>
+    <definedName name="\v">[1]ROCHE!#REF!</definedName>
+    <definedName name="\x">[1]ROCHE!#REF!</definedName>
     <definedName name="_1EBITDA_Sh">#REF!</definedName>
     <definedName name="_2NOPAT_Sh">#REF!</definedName>
     <definedName name="_3_.__Gross_inc_gro">#REF!</definedName>
@@ -56,15 +65,6 @@
     <definedName name="_8_3__Increase_in_other_liabilit">#REF!</definedName>
     <definedName name="_9_3__Other_Segment_Reven">#REF!</definedName>
     <definedName name="_QP2">#REF!</definedName>
-    <definedName name="\a">[1]ROCHE!#REF!</definedName>
-    <definedName name="\p">[1]ROCHE!#REF!</definedName>
-    <definedName name="\q">[1]ROCHE!#REF!</definedName>
-    <definedName name="\r">[1]ROCHE!#REF!</definedName>
-    <definedName name="\s">[1]ROCHE!#REF!</definedName>
-    <definedName name="\t">[1]ROCHE!#REF!</definedName>
-    <definedName name="\u">[1]ROCHE!#REF!</definedName>
-    <definedName name="\v">[1]ROCHE!#REF!</definedName>
-    <definedName name="\x">[1]ROCHE!#REF!</definedName>
     <definedName name="Adjusted_EPS">[2]Figures!#REF!</definedName>
     <definedName name="Choices_Wrapper">[0]!Choices_Wrapper</definedName>
     <definedName name="Company_reported_exceptionals">[2]Figures!#REF!</definedName>
@@ -2366,7 +2366,10 @@
     <author>James A. Kelly</author>
     <author>Authorized User</author>
     <author>RBC</author>
+    <author>tc={C1BD413A-99FF-41DF-937A-88EF8D616602}</author>
+    <author>tc={F4D29010-B63C-4B58-B2E6-142C51012576}</author>
     <author>tc={7821796D-9EB0-4DFB-8766-A9582AD4F077}</author>
+    <author>tc={99E8A869-9A70-49E7-AF36-9A3825C38124}</author>
     <author>waterg</author>
   </authors>
   <commentList>
@@ -3936,7 +3939,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO117" authorId="13" shapeId="0" xr:uid="{7821796D-9EB0-4DFB-8766-A9582AD4F077}">
+    <comment ref="CM117" authorId="13" shapeId="0" xr:uid="{C1BD413A-99FF-41DF-937A-88EF8D616602}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Excludes Lagevrio</t>
+      </text>
+    </comment>
+    <comment ref="CN117" authorId="14" shapeId="0" xr:uid="{F4D29010-B63C-4B58-B2E6-142C51012576}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Excludes Lagevrio</t>
+      </text>
+    </comment>
+    <comment ref="CO117" authorId="15" shapeId="0" xr:uid="{7821796D-9EB0-4DFB-8766-A9582AD4F077}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Excludes Lagevrio</t>
+      </text>
+    </comment>
+    <comment ref="CP117" authorId="16" shapeId="0" xr:uid="{99E8A869-9A70-49E7-AF36-9A3825C38124}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -3993,7 +4020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B185" authorId="14" shapeId="0" xr:uid="{00000000-0006-0000-0300-000048000000}">
+    <comment ref="B185" authorId="17" shapeId="0" xr:uid="{00000000-0006-0000-0300-000048000000}">
       <text>
         <r>
           <rPr>
@@ -4018,7 +4045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B186" authorId="14" shapeId="0" xr:uid="{00000000-0006-0000-0300-000049000000}">
+    <comment ref="B186" authorId="17" shapeId="0" xr:uid="{00000000-0006-0000-0300-000049000000}">
       <text>
         <r>
           <rPr>
@@ -4033,7 +4060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N188" authorId="14" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004A000000}">
+    <comment ref="N188" authorId="17" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -4062,7 +4089,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="999">
   <si>
     <t>CINV</t>
   </si>
@@ -6722,9 +6749,6 @@
     <t>1/5/23: Q4 earnings date</t>
   </si>
   <si>
-    <t>bomedemstat</t>
-  </si>
-  <si>
     <t>Myelofibrosis</t>
   </si>
   <si>
@@ -7020,6 +7044,48 @@
   </si>
   <si>
     <t>Winrevair</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>Prometheus - 10.8B</t>
+  </si>
+  <si>
+    <t>bomedemstat (fka MK-3543)</t>
+  </si>
+  <si>
+    <t>MK-3475 (pembrolizumab + hyaluronidase)</t>
+  </si>
+  <si>
+    <t>NSCLC</t>
+  </si>
+  <si>
+    <t>HALO</t>
+  </si>
+  <si>
+    <t>MK-7684</t>
+  </si>
+  <si>
+    <t>TIGIT</t>
+  </si>
+  <si>
+    <t>CRPC</t>
+  </si>
+  <si>
+    <t>RSV</t>
+  </si>
+  <si>
+    <t>MK-1654 (clesrovimab)</t>
+  </si>
+  <si>
+    <t>MK-7240/PRA023 (tulisokibart)</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>TNF L1A</t>
   </si>
 </sst>
 </file>
@@ -7664,7 +7730,7 @@
     </xf>
     <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7957,8 +8023,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="64">
+    <cellStyle name="$" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="_Comma" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="_Currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="_CurrencySpace" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -7966,7 +8036,6 @@
     <cellStyle name="_MultipleSpace" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="_Percent" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="_PercentSpace" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="$" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Actual data" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Actual year" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Actuals Cells" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -8345,1098 +8414,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="ROCHE"/>
       <sheetName val="Valuation"/>
-      <sheetName val="ROCHE"/>
-      <sheetName val="Old Valuation"/>
-      <sheetName val="Hill Samuel"/>
-      <sheetName val="NoteXpress"/>
-      <sheetName val="Bus Seg"/>
-      <sheetName val="Financial "/>
-      <sheetName val="Geographic"/>
-      <sheetName val="Divisional breakdown"/>
-      <sheetName val="Pharma"/>
-      <sheetName val="Quarters"/>
-      <sheetName val="Interims"/>
-      <sheetName val="CashFlow"/>
-      <sheetName val="OLD divisional"/>
-      <sheetName val="Liq Funds"/>
-      <sheetName val="Standard Qs Sheet"/>
-      <sheetName val="Qtrly Product Sales"/>
-      <sheetName val="Sensitivity multiples"/>
-      <sheetName val="DCF"/>
-      <sheetName val="BSheet"/>
-      <sheetName val="Financials"/>
-      <sheetName val="Roche ex-Genentech"/>
-      <sheetName val="Sum of the Parts"/>
-      <sheetName val="Pharma Only"/>
-      <sheetName val="Discounted CashFlow"/>
-      <sheetName val="ex-F&amp;F"/>
-      <sheetName val="Therapeutic Areas"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Xenical"/>
-      <sheetName val="Genentech"/>
-      <sheetName val="Product Buffer Sheet"/>
-      <sheetName val="Genentech Phasing"/>
-      <sheetName val="Chart1"/>
-      <sheetName val="Charts"/>
-      <sheetName val="Conversion"/>
-      <sheetName val="Quarterly product sales"/>
-      <sheetName val="Quantum"/>
-      <sheetName val="Pharma Half Year"/>
-      <sheetName val="Div'l Analysis"/>
-      <sheetName val="half year results"/>
-      <sheetName val="EVA"/>
-      <sheetName val="R&amp;D"/>
-      <sheetName val="EVA Calculations"/>
-      <sheetName val="Historical Division"/>
-      <sheetName val="Valuations"/>
-      <sheetName val="#REF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Roche Bearer Share Price SFr</v>
-          </cell>
-          <cell r="F1">
-            <v>172</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Roche Genussscheine Share Price SFr</v>
-          </cell>
-          <cell r="F2">
-            <v>103.5</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Market Capitalisation SFrm</v>
-          </cell>
-          <cell r="F3">
-            <v>100235.23944999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Market Capitalisation US$m</v>
-          </cell>
-          <cell r="F4">
-            <v>66904.01527569149</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>US$/SFr Exchange Rate</v>
-          </cell>
-          <cell r="F5">
-            <v>0.66747000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Data  (SFr)</v>
-          </cell>
-          <cell r="B7">
-            <v>1998</v>
-          </cell>
-          <cell r="C7">
-            <v>1999</v>
-          </cell>
-          <cell r="D7">
-            <v>2000</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>2001R</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>2002E</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>2003E</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>2004E</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>2005E</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>2006E</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>EV</v>
-          </cell>
-          <cell r="B9">
-            <v>120442</v>
-          </cell>
-          <cell r="C9">
-            <v>100755.0997903206</v>
-          </cell>
-          <cell r="D9">
-            <v>101205.23944999999</v>
-          </cell>
-          <cell r="E9">
-            <v>99417.239449999994</v>
-          </cell>
-          <cell r="F9">
-            <v>99417.239449999994</v>
-          </cell>
-          <cell r="G9">
-            <v>99417.239449999994</v>
-          </cell>
-          <cell r="H9">
-            <v>99417.239449999994</v>
-          </cell>
-          <cell r="I9">
-            <v>99417.239449999994</v>
-          </cell>
-          <cell r="J9">
-            <v>99417.239449999994</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Sales</v>
-          </cell>
-          <cell r="B10">
-            <v>25336</v>
-          </cell>
-          <cell r="C10">
-            <v>25496</v>
-          </cell>
-          <cell r="D10">
-            <v>27543</v>
-          </cell>
-          <cell r="E10">
-            <v>25761</v>
-          </cell>
-          <cell r="F10">
-            <v>27169.038</v>
-          </cell>
-          <cell r="G10">
-            <v>31677.681400000005</v>
-          </cell>
-          <cell r="H10">
-            <v>34660.140568000003</v>
-          </cell>
-          <cell r="I10">
-            <v>37623.862574240004</v>
-          </cell>
-          <cell r="J10">
-            <v>40594.558433357204</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v xml:space="preserve">EBIT </v>
-          </cell>
-          <cell r="B11">
-            <v>4667</v>
-          </cell>
-          <cell r="C11">
-            <v>4094</v>
-          </cell>
-          <cell r="D11">
-            <v>4301</v>
-          </cell>
-          <cell r="E11">
-            <v>4438</v>
-          </cell>
-          <cell r="F11">
-            <v>4797.1849839999995</v>
-          </cell>
-          <cell r="G11">
-            <v>5869.9318352000018</v>
-          </cell>
-          <cell r="H11">
-            <v>6988.569165936</v>
-          </cell>
-          <cell r="I11">
-            <v>8078.7383720329599</v>
-          </cell>
-          <cell r="J11">
-            <v>9126.3166635119342</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>EBITDA</v>
-          </cell>
-          <cell r="B12">
-            <v>6740</v>
-          </cell>
-          <cell r="C12">
-            <v>6547</v>
-          </cell>
-          <cell r="D12">
-            <v>7149</v>
-          </cell>
-          <cell r="E12">
-            <v>7424</v>
-          </cell>
-          <cell r="F12">
-            <v>7669.2849839999999</v>
-          </cell>
-          <cell r="G12">
-            <v>9000.7793352000008</v>
-          </cell>
-          <cell r="H12">
-            <v>10218.574540936001</v>
-          </cell>
-          <cell r="I12">
-            <v>11415.259065782961</v>
-          </cell>
-          <cell r="J12">
-            <v>12577.314826949434</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Net Income</v>
-          </cell>
-          <cell r="B13">
-            <v>4849</v>
-          </cell>
-          <cell r="C13">
-            <v>4401</v>
-          </cell>
-          <cell r="D13">
-            <v>5014</v>
-          </cell>
-          <cell r="E13">
-            <v>4632</v>
-          </cell>
-          <cell r="F13">
-            <v>3705.5213386400001</v>
-          </cell>
-          <cell r="G13">
-            <v>4002.050239696001</v>
-          </cell>
-          <cell r="H13">
-            <v>4861.6554911332796</v>
-          </cell>
-          <cell r="I13">
-            <v>5690.4790115840606</v>
-          </cell>
-          <cell r="J13">
-            <v>6478.6111643637123</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Depreciation</v>
-          </cell>
-          <cell r="B15">
-            <v>1143</v>
-          </cell>
-          <cell r="C15">
-            <v>1246</v>
-          </cell>
-          <cell r="D15">
-            <v>1374</v>
-          </cell>
-          <cell r="E15">
-            <v>1433</v>
-          </cell>
-          <cell r="F15">
-            <v>1314.1</v>
-          </cell>
-          <cell r="G15">
-            <v>1497.8474999999999</v>
-          </cell>
-          <cell r="H15">
-            <v>1597.0053750000002</v>
-          </cell>
-          <cell r="I15">
-            <v>1703.5206937500002</v>
-          </cell>
-          <cell r="J15">
-            <v>1817.9981634375004</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Amortisation</v>
-          </cell>
-          <cell r="B16">
-            <v>930</v>
-          </cell>
-          <cell r="C16">
-            <v>1207</v>
-          </cell>
-          <cell r="D16">
-            <v>1474</v>
-          </cell>
-          <cell r="E16">
-            <v>1553</v>
-          </cell>
-          <cell r="F16">
-            <v>1558</v>
-          </cell>
-          <cell r="G16">
-            <v>1633</v>
-          </cell>
-          <cell r="H16">
-            <v>1633</v>
-          </cell>
-          <cell r="I16">
-            <v>1633</v>
-          </cell>
-          <cell r="J16">
-            <v>1633</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Net Debt (Cash)</v>
-          </cell>
-          <cell r="B17">
-            <v>2798</v>
-          </cell>
-          <cell r="C17">
-            <v>519.86034032060707</v>
-          </cell>
-          <cell r="D17">
-            <v>970</v>
-          </cell>
-          <cell r="E17">
-            <v>-818</v>
-          </cell>
-          <cell r="F17">
-            <v>-3034.6230459938852</v>
-          </cell>
-          <cell r="G17">
-            <v>-5548.4576422291502</v>
-          </cell>
-          <cell r="H17">
-            <v>-9143.4205779970798</v>
-          </cell>
-          <cell r="I17">
-            <v>-13388.778086975166</v>
-          </cell>
-          <cell r="J17">
-            <v>-18260.348563545031</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Total Assets</v>
-          </cell>
-          <cell r="B18">
-            <v>55879</v>
-          </cell>
-          <cell r="C18">
-            <v>70431</v>
-          </cell>
-          <cell r="D18">
-            <v>69535</v>
-          </cell>
-          <cell r="E18">
-            <v>75286</v>
-          </cell>
-          <cell r="F18">
-            <v>77612.805674187664</v>
-          </cell>
-          <cell r="G18">
-            <v>81169.40697541149</v>
-          </cell>
-          <cell r="H18">
-            <v>85596.294124583277</v>
-          </cell>
-          <cell r="I18">
-            <v>90796.096517629005</v>
-          </cell>
-          <cell r="J18">
-            <v>96747.781871624204</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Average Shareholder's Equity</v>
-          </cell>
-          <cell r="B19">
-            <v>21033</v>
-          </cell>
-          <cell r="C19">
-            <v>24884.5</v>
-          </cell>
-          <cell r="D19">
-            <v>23543.5</v>
-          </cell>
-          <cell r="E19">
-            <v>23629.5</v>
-          </cell>
-          <cell r="F19">
-            <v>26022.842837093835</v>
-          </cell>
-          <cell r="G19">
-            <v>30510.983124799575</v>
-          </cell>
-          <cell r="H19">
-            <v>36019.285245997373</v>
-          </cell>
-          <cell r="I19">
-            <v>42317.254896226135</v>
-          </cell>
-          <cell r="J19">
-            <v>49343.493479413002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Number of Shares</v>
-          </cell>
-          <cell r="B21">
-            <v>8.6256269999999997</v>
-          </cell>
-          <cell r="C21">
-            <v>862.56269999999995</v>
-          </cell>
-          <cell r="D21">
-            <v>862.56269999999995</v>
-          </cell>
-          <cell r="E21">
-            <v>862.56269999999995</v>
-          </cell>
-          <cell r="F21">
-            <v>862.56269999999995</v>
-          </cell>
-          <cell r="G21">
-            <v>862.56269999999995</v>
-          </cell>
-          <cell r="H21">
-            <v>862.56269999999995</v>
-          </cell>
-          <cell r="I21">
-            <v>862.56269999999995</v>
-          </cell>
-          <cell r="J21">
-            <v>862.56269999999995</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>EPS</v>
-          </cell>
-          <cell r="B22">
-            <v>5.62</v>
-          </cell>
-          <cell r="C22">
-            <v>5.1022377851488363</v>
-          </cell>
-          <cell r="D22">
-            <v>5.9640194105811339</v>
-          </cell>
-          <cell r="E22">
-            <v>5.4823055982956559</v>
-          </cell>
-          <cell r="F22">
-            <v>4.3857513772517454</v>
-          </cell>
-          <cell r="G22">
-            <v>4.7367146877689681</v>
-          </cell>
-          <cell r="H22">
-            <v>5.7541194119224519</v>
-          </cell>
-          <cell r="I22">
-            <v>6.7350917405421482</v>
-          </cell>
-          <cell r="J22">
-            <v>7.6679029049162173</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>EPS in ADR</v>
-          </cell>
-          <cell r="B23">
-            <v>0.03</v>
-          </cell>
-          <cell r="C23">
-            <v>3.4055906544532936E-2</v>
-          </cell>
-          <cell r="D23">
-            <v>3.9808040359805896E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>3.6592745176944018E-2</v>
-          </cell>
-          <cell r="F23">
-            <v>2.9273574717742223E-2</v>
-          </cell>
-          <cell r="G23">
-            <v>3.1616149526451531E-2</v>
-          </cell>
-          <cell r="H23">
-            <v>3.8407020838758792E-2</v>
-          </cell>
-          <cell r="I23">
-            <v>4.4954716840596681E-2</v>
-          </cell>
-          <cell r="J23">
-            <v>5.1180951519444275E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Dividend Per Share</v>
-          </cell>
-          <cell r="B24">
-            <v>97</v>
-          </cell>
-          <cell r="C24">
-            <v>1</v>
-          </cell>
-          <cell r="D24">
-            <v>1.1499999999999999</v>
-          </cell>
-          <cell r="E24">
-            <v>1.3</v>
-          </cell>
-          <cell r="F24">
-            <v>1.4</v>
-          </cell>
-          <cell r="G24">
-            <v>1.5</v>
-          </cell>
-          <cell r="H24">
-            <v>1.7</v>
-          </cell>
-          <cell r="I24">
-            <v>1.9</v>
-          </cell>
-          <cell r="J24">
-            <v>2.1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Free Cash Flow per Share</v>
-          </cell>
-          <cell r="B25">
-            <v>-596.70178654838662</v>
-          </cell>
-          <cell r="C25">
-            <v>-5.4488792524879641E-2</v>
-          </cell>
-          <cell r="D25">
-            <v>12.613575801504053</v>
-          </cell>
-          <cell r="E25">
-            <v>9.9946357522763272</v>
-          </cell>
-          <cell r="F25">
-            <v>14.12515963164906</v>
-          </cell>
-          <cell r="G25">
-            <v>15.770694333770118</v>
-          </cell>
-          <cell r="H25">
-            <v>18.911111064121066</v>
-          </cell>
-          <cell r="I25">
-            <v>21.517429315119106</v>
-          </cell>
-          <cell r="J25">
-            <v>24.033010958304619</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Operating Cash Flow per Share</v>
-          </cell>
-          <cell r="B26">
-            <v>513.46991934615301</v>
-          </cell>
-          <cell r="C26">
-            <v>5.6506037184311362</v>
-          </cell>
-          <cell r="D26">
-            <v>8.399389400909639</v>
-          </cell>
-          <cell r="E26">
-            <v>9.2028092566488215</v>
-          </cell>
-          <cell r="F26">
-            <v>9.4616715793530144</v>
-          </cell>
-          <cell r="G26">
-            <v>10.740992318819259</v>
-          </cell>
-          <cell r="H26">
-            <v>12.152826155056324</v>
-          </cell>
-          <cell r="I26">
-            <v>13.540185618718455</v>
-          </cell>
-          <cell r="J26">
-            <v>14.887398709623584</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Price Sensitive Calculations</v>
-          </cell>
-          <cell r="B28">
-            <v>1998</v>
-          </cell>
-          <cell r="C28">
-            <v>1999</v>
-          </cell>
-          <cell r="D28">
-            <v>2000</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>2001</v>
-          </cell>
-          <cell r="F28" t="str">
-            <v>2002E</v>
-          </cell>
-          <cell r="G28" t="str">
-            <v>2003E</v>
-          </cell>
-          <cell r="H28" t="str">
-            <v>2004E</v>
-          </cell>
-          <cell r="I28" t="str">
-            <v>2005E</v>
-          </cell>
-          <cell r="J28" t="str">
-            <v>2006E</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>P/E</v>
-          </cell>
-          <cell r="B30">
-            <v>18.416370106761565</v>
-          </cell>
-          <cell r="C30">
-            <v>20.285216871165645</v>
-          </cell>
-          <cell r="D30">
-            <v>17.354068267513394</v>
-          </cell>
-          <cell r="E30">
-            <v>18.878918393782385</v>
-          </cell>
-          <cell r="F30">
-            <v>23.599148947849496</v>
-          </cell>
-          <cell r="G30">
-            <v>21.850587764396121</v>
-          </cell>
-          <cell r="H30">
-            <v>17.987113681643365</v>
-          </cell>
-          <cell r="I30">
-            <v>15.367273971485451</v>
-          </cell>
-          <cell r="J30">
-            <v>13.497823496648838</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v xml:space="preserve">2001-2004E EPS Compound </v>
-          </cell>
-          <cell r="F32">
-            <v>1.6260884107447415E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v xml:space="preserve">2002-2005E EPS Compound </v>
-          </cell>
-          <cell r="F33">
-            <v>0.15371844454996064</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v xml:space="preserve">2002-2006E EPS Compound </v>
-          </cell>
-          <cell r="F34">
-            <v>0.14989490353473611</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Price / Free Cash Flow</v>
-          </cell>
-          <cell r="B36">
-            <v>-0.17345347765538685</v>
-          </cell>
-          <cell r="C36">
-            <v>-1899.4731797872341</v>
-          </cell>
-          <cell r="D36">
-            <v>8.2054448023897049</v>
-          </cell>
-          <cell r="E36">
-            <v>10.355554976220857</v>
-          </cell>
-          <cell r="F36">
-            <v>7.3273508193207411</v>
-          </cell>
-          <cell r="G36">
-            <v>6.5628055309126934</v>
-          </cell>
-          <cell r="H36">
-            <v>5.4729729865721346</v>
-          </cell>
-          <cell r="I36">
-            <v>4.810054141889351</v>
-          </cell>
-          <cell r="J36">
-            <v>4.3065764909592206</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Price / Operating Cash Flow</v>
-          </cell>
-          <cell r="B37">
-            <v>0.20156974362158503</v>
-          </cell>
-          <cell r="C37">
-            <v>18.316626887566677</v>
-          </cell>
-          <cell r="D37">
-            <v>12.322324285714284</v>
-          </cell>
-          <cell r="E37">
-            <v>11.24656581632653</v>
-          </cell>
-          <cell r="F37">
-            <v>10.938870487309526</v>
-          </cell>
-          <cell r="G37">
-            <v>9.635981195020312</v>
-          </cell>
-          <cell r="H37">
-            <v>8.5165375262886993</v>
-          </cell>
-          <cell r="I37">
-            <v>7.643912935500512</v>
-          </cell>
-          <cell r="J37">
-            <v>6.9521883586751141</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>EBITDA/Sales</v>
-          </cell>
-          <cell r="B39">
-            <v>0.26602462898642248</v>
-          </cell>
-          <cell r="C39">
-            <v>0.25678537809852525</v>
-          </cell>
-          <cell r="D39">
-            <v>0.25955778237664745</v>
-          </cell>
-          <cell r="E39">
-            <v>0.28818757035829357</v>
-          </cell>
-          <cell r="F39">
-            <v>0.28228032895386285</v>
-          </cell>
-          <cell r="G39">
-            <v>0.28413630472336271</v>
-          </cell>
-          <cell r="H39">
-            <v>0.29482207439084385</v>
-          </cell>
-          <cell r="I39">
-            <v>0.30340476189169013</v>
-          </cell>
-          <cell r="J39">
-            <v>0.30982760528353109</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>EV/EBITDA</v>
-          </cell>
-          <cell r="B40">
-            <v>17.869732937685459</v>
-          </cell>
-          <cell r="C40">
-            <v>15.389506612237758</v>
-          </cell>
-          <cell r="D40">
-            <v>14.156558882361168</v>
-          </cell>
-          <cell r="E40">
-            <v>13.391330744881465</v>
-          </cell>
-          <cell r="F40">
-            <v>12.963038882687059</v>
-          </cell>
-          <cell r="G40">
-            <v>11.045403486473864</v>
-          </cell>
-          <cell r="H40">
-            <v>9.729071217490338</v>
-          </cell>
-          <cell r="I40">
-            <v>8.7091531499273138</v>
-          </cell>
-          <cell r="J40">
-            <v>7.9044884236322446</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>EV/Sales</v>
-          </cell>
-          <cell r="B41">
-            <v>4.753789074834228</v>
-          </cell>
-          <cell r="C41">
-            <v>3.9518002741732272</v>
-          </cell>
-          <cell r="D41">
-            <v>3.6744450295900952</v>
-          </cell>
-          <cell r="E41">
-            <v>3.8592150712317066</v>
-          </cell>
-          <cell r="F41">
-            <v>3.6592108800466177</v>
-          </cell>
-          <cell r="G41">
-            <v>3.1384001308252309</v>
-          </cell>
-          <cell r="H41">
-            <v>2.8683449582367539</v>
-          </cell>
-          <cell r="I41">
-            <v>2.6423985377319599</v>
-          </cell>
-          <cell r="J41">
-            <v>2.4490287192853719</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Return on Average Shareholder's Equity</v>
-          </cell>
-          <cell r="B43">
-            <v>0.23054248086340512</v>
-          </cell>
-          <cell r="C43">
-            <v>0.17685707970825212</v>
-          </cell>
-          <cell r="D43">
-            <v>0.2129674857179264</v>
-          </cell>
-          <cell r="E43">
-            <v>0.19602615374849236</v>
-          </cell>
-          <cell r="F43">
-            <v>0.1423949474635425</v>
-          </cell>
-          <cell r="G43">
-            <v>0.13116752820865685</v>
-          </cell>
-          <cell r="H43">
-            <v>0.13497368029182447</v>
-          </cell>
-          <cell r="I43">
-            <v>0.13447183721011022</v>
-          </cell>
-          <cell r="J43">
-            <v>0.13129615897720551</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Key Ratios</v>
-          </cell>
-          <cell r="B45">
-            <v>1998</v>
-          </cell>
-          <cell r="C45">
-            <v>1999</v>
-          </cell>
-          <cell r="D45">
-            <v>2000</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>2001</v>
-          </cell>
-          <cell r="F45" t="str">
-            <v>2002E</v>
-          </cell>
-          <cell r="G45" t="str">
-            <v>2003E</v>
-          </cell>
-          <cell r="H45" t="str">
-            <v>2004E</v>
-          </cell>
-          <cell r="I45" t="str">
-            <v>2005E</v>
-          </cell>
-          <cell r="J45" t="str">
-            <v>2006E</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Margins</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v xml:space="preserve">   Gross</v>
-          </cell>
-          <cell r="B48">
-            <v>0.70129460056836124</v>
-          </cell>
-          <cell r="C48">
-            <v>0.69355977408220892</v>
-          </cell>
-          <cell r="D48">
-            <v>0.69338851976908833</v>
-          </cell>
-          <cell r="E48">
-            <v>0.76666278482978145</v>
-          </cell>
-          <cell r="F48">
-            <v>0.76</v>
-          </cell>
-          <cell r="G48">
-            <v>0.76400000000000001</v>
-          </cell>
-          <cell r="H48">
-            <v>0.76600000000000001</v>
-          </cell>
-          <cell r="I48">
-            <v>0.76800000000000013</v>
-          </cell>
-          <cell r="J48">
-            <v>0.77</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v xml:space="preserve">   Operating</v>
-          </cell>
-          <cell r="B49">
-            <v>0.18420429428481214</v>
-          </cell>
-          <cell r="C49">
-            <v>0.16057420771885786</v>
-          </cell>
-          <cell r="D49">
-            <v>0.15615582906727662</v>
-          </cell>
-          <cell r="E49">
-            <v>0.17227592096580102</v>
-          </cell>
-          <cell r="F49">
-            <v>0.17656808400797994</v>
-          </cell>
-          <cell r="G49">
-            <v>0.18530181426725256</v>
-          </cell>
-          <cell r="H49">
-            <v>0.20163129899098567</v>
-          </cell>
-          <cell r="I49">
-            <v>0.21472379015025012</v>
-          </cell>
-          <cell r="J49">
-            <v>0.22481625655552623</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v xml:space="preserve">   Net Income</v>
-          </cell>
-          <cell r="B50">
-            <v>0.19138774865803598</v>
-          </cell>
-          <cell r="C50">
-            <v>0.1726153122058362</v>
-          </cell>
-          <cell r="D50">
-            <v>0.18204262426024762</v>
-          </cell>
-          <cell r="E50">
-            <v>0.17980668452311635</v>
-          </cell>
-          <cell r="F50">
-            <v>0.13638765342519674</v>
-          </cell>
-          <cell r="G50">
-            <v>0.12633658976366877</v>
-          </cell>
-          <cell r="H50">
-            <v>0.14026646780601365</v>
-          </cell>
-          <cell r="I50">
-            <v>0.15124653935665211</v>
-          </cell>
-          <cell r="J50">
-            <v>0.15959309361621563</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9446,54 +8429,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Q"/>
       <sheetName val="Figures"/>
       <sheetName val="projections"/>
-      <sheetName val="Targets &amp; Cost cutting"/>
-      <sheetName val="eval"/>
-      <sheetName val="dayval"/>
-      <sheetName val="debt"/>
-      <sheetName val="dcf"/>
-      <sheetName val="Oildisc"/>
-      <sheetName val="assms"/>
-      <sheetName val="chem"/>
-      <sheetName val="r&amp;m"/>
-      <sheetName val="Gas&amp;Power"/>
-      <sheetName val="group e&amp;p"/>
-      <sheetName val="ARCO_E&amp;P"/>
-      <sheetName val="USA"/>
-      <sheetName val="UK"/>
-      <sheetName val="Europe"/>
-      <sheetName val="RoW"/>
-      <sheetName val="prodprofile"/>
-      <sheetName val="lr"/>
-      <sheetName val="SOP"/>
-      <sheetName val="Amoco Cost savings"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9798,7 +8739,16 @@
   <threadedComment ref="CC86" dT="2022-09-13T11:07:18.69" personId="{8A593782-0C54-4957-8AFA-F9666DD85167}" id="{A29B3FF7-0F38-41FD-8B90-13892A472691}">
     <text>Was 1,197</text>
   </threadedComment>
+  <threadedComment ref="CM117" dT="2024-05-31T01:27:59.35" personId="{8A593782-0C54-4957-8AFA-F9666DD85167}" id="{C1BD413A-99FF-41DF-937A-88EF8D616602}">
+    <text>Excludes Lagevrio</text>
+  </threadedComment>
+  <threadedComment ref="CN117" dT="2024-05-31T01:27:59.35" personId="{8A593782-0C54-4957-8AFA-F9666DD85167}" id="{F4D29010-B63C-4B58-B2E6-142C51012576}">
+    <text>Excludes Lagevrio</text>
+  </threadedComment>
   <threadedComment ref="CO117" dT="2024-05-31T01:27:59.35" personId="{8A593782-0C54-4957-8AFA-F9666DD85167}" id="{7821796D-9EB0-4DFB-8766-A9582AD4F077}">
+    <text>Excludes Lagevrio</text>
+  </threadedComment>
+  <threadedComment ref="CP117" dT="2024-05-31T01:27:59.35" personId="{8A593782-0C54-4957-8AFA-F9666DD85167}" id="{99E8A869-9A70-49E7-AF36-9A3825C38124}">
     <text>Excludes Lagevrio</text>
   </threadedComment>
 </ThreadedComments>
@@ -9815,13 +8765,13 @@
       <selection pane="bottomRight" activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10629,7 +9579,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -10645,7 +9595,7 @@
         <v>757</v>
       </c>
       <c r="C2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10653,7 +9603,7 @@
         <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10661,7 +9611,7 @@
         <v>762</v>
       </c>
       <c r="C4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10671,12 +9621,12 @@
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="128" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -10695,10 +9645,10 @@
       <selection activeCell="Q53" sqref="Q52:Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10755,13 +9705,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="10.33203125" style="73" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11184,12 +10134,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="12" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="12" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11417,12 +10367,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12050,11 +11000,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12130,16 +11080,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12318,7 +11268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -12353,11 +11303,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12456,10 +11406,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12542,25 +11492,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="50" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="50" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="51" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="51" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="11.25" customHeight="1">
@@ -12619,7 +11569,7 @@
         <v>2534.8093119999999</v>
       </c>
       <c r="K3" s="62" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12675,7 +11625,7 @@
         <v>11711</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12704,7 +11654,7 @@
         <v>37788</v>
       </c>
       <c r="K6" s="62" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12751,12 +11701,12 @@
         <v>2006</v>
       </c>
       <c r="G8" s="133" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="56" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>14</v>
@@ -12792,7 +11742,7 @@
       </c>
       <c r="G10" s="60"/>
       <c r="I10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -12840,7 +11790,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>806</v>
@@ -12887,30 +11837,30 @@
         <v>43924</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="127" t="s">
+        <v>910</v>
+      </c>
+      <c r="C16" s="77" t="s">
         <v>911</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="D16" s="77" t="s">
+        <v>915</v>
+      </c>
+      <c r="E16" s="121" t="s">
         <v>912</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>916</v>
-      </c>
-      <c r="E16" s="121" t="s">
-        <v>913</v>
       </c>
       <c r="F16" s="58"/>
       <c r="G16" s="133" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="76" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>596</v>
@@ -12926,7 +11876,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
@@ -12940,7 +11890,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="76" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
@@ -12963,7 +11913,7 @@
       </c>
       <c r="F20" s="50"/>
       <c r="G20" s="133" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -13017,7 +11967,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="76" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>872</v>
@@ -13048,68 +11998,64 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="76" t="s">
-        <v>829</v>
+        <v>988</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>825</v>
+        <v>989</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>830</v>
-      </c>
-      <c r="E26" s="65">
-        <v>1</v>
-      </c>
-      <c r="F26" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="63"/>
+        <v>697</v>
+      </c>
+      <c r="E26" s="121" t="s">
+        <v>990</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="60"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="76" t="s">
-        <v>833</v>
+        <v>996</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>825</v>
+        <v>997</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>834</v>
-      </c>
-      <c r="E27" s="77" t="s">
-        <v>835</v>
-      </c>
-      <c r="F27" s="77" t="s">
-        <v>342</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="E27" s="57"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="76" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="D28" s="77" t="s">
-        <v>838</v>
-      </c>
-      <c r="E28" s="121">
+        <v>830</v>
+      </c>
+      <c r="E28" s="65">
         <v>1</v>
       </c>
       <c r="F28" s="77" t="s">
         <v>342</v>
       </c>
-      <c r="G28" s="60"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="76" t="s">
-        <v>839</v>
-      </c>
-      <c r="C29" s="77"/>
+        <v>833</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>825</v>
+      </c>
       <c r="D29" s="77" t="s">
-        <v>840</v>
-      </c>
-      <c r="E29" s="121">
-        <v>1</v>
+        <v>834</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>835</v>
       </c>
       <c r="F29" s="77" t="s">
         <v>342</v>
@@ -13117,33 +12063,31 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="127" t="s">
-        <v>924</v>
+      <c r="B30" s="76" t="s">
+        <v>991</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>925</v>
+        <v>825</v>
       </c>
       <c r="D30" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="E30" s="121" t="s">
-        <v>926</v>
-      </c>
-      <c r="F30" s="77" t="s">
-        <v>342</v>
-      </c>
+        <v>992</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="76" t="s">
-        <v>852</v>
-      </c>
-      <c r="C31" s="77"/>
+        <v>836</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>837</v>
+      </c>
       <c r="D31" s="77" t="s">
-        <v>853</v>
-      </c>
-      <c r="E31" s="121" t="s">
-        <v>854</v>
+        <v>838</v>
+      </c>
+      <c r="E31" s="121">
+        <v>1</v>
       </c>
       <c r="F31" s="77" t="s">
         <v>342</v>
@@ -13152,13 +12096,11 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="76" t="s">
-        <v>855</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>857</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="C32" s="77"/>
       <c r="D32" s="77" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="E32" s="121">
         <v>1</v>
@@ -13169,15 +12111,17 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="76" t="s">
-        <v>863</v>
-      </c>
-      <c r="C33" s="77"/>
+      <c r="B33" s="127" t="s">
+        <v>923</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>924</v>
+      </c>
       <c r="D33" s="77" t="s">
-        <v>864</v>
+        <v>220</v>
       </c>
       <c r="E33" s="121" t="s">
-        <v>865</v>
+        <v>925</v>
       </c>
       <c r="F33" s="77" t="s">
         <v>342</v>
@@ -13186,16 +12130,16 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="76" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>825</v>
+        <v>993</v>
       </c>
       <c r="D34" s="77" t="s">
-        <v>867</v>
-      </c>
-      <c r="E34" s="121">
-        <v>1</v>
+        <v>853</v>
+      </c>
+      <c r="E34" s="121" t="s">
+        <v>854</v>
       </c>
       <c r="F34" s="77" t="s">
         <v>342</v>
@@ -13204,13 +12148,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="76" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E35" s="121">
         <v>1</v>
@@ -13222,16 +12166,14 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="76" t="s">
-        <v>870</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>872</v>
-      </c>
+        <v>863</v>
+      </c>
+      <c r="C36" s="77"/>
       <c r="D36" s="77" t="s">
-        <v>871</v>
-      </c>
-      <c r="E36" s="121">
-        <v>1</v>
+        <v>864</v>
+      </c>
+      <c r="E36" s="121" t="s">
+        <v>865</v>
       </c>
       <c r="F36" s="77" t="s">
         <v>342</v>
@@ -13240,16 +12182,16 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="76" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>874</v>
+        <v>825</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>876</v>
-      </c>
-      <c r="E37" s="121" t="s">
-        <v>875</v>
+        <v>867</v>
+      </c>
+      <c r="E37" s="121">
+        <v>1</v>
       </c>
       <c r="F37" s="77" t="s">
         <v>342</v>
@@ -13258,13 +12200,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="76" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C38" s="77" t="s">
         <v>825</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="E38" s="121">
         <v>1</v>
@@ -13276,16 +12218,16 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="76" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>882</v>
-      </c>
-      <c r="E39" s="121" t="s">
-        <v>881</v>
+        <v>871</v>
+      </c>
+      <c r="E39" s="121">
+        <v>1</v>
       </c>
       <c r="F39" s="77" t="s">
         <v>342</v>
@@ -13293,85 +12235,156 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="124" t="s">
+      <c r="B40" s="76" t="s">
+        <v>873</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>874</v>
+      </c>
+      <c r="D40" s="77" t="s">
+        <v>876</v>
+      </c>
+      <c r="E40" s="121" t="s">
+        <v>875</v>
+      </c>
+      <c r="F40" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="76" t="s">
+        <v>995</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>994</v>
+      </c>
+      <c r="D41" s="77"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="76" t="s">
+        <v>877</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>825</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>878</v>
+      </c>
+      <c r="E42" s="121">
+        <v>1</v>
+      </c>
+      <c r="F42" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="76" t="s">
+        <v>880</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>874</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>882</v>
+      </c>
+      <c r="E43" s="121" t="s">
+        <v>881</v>
+      </c>
+      <c r="F43" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" s="60"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="124" t="s">
+        <v>987</v>
+      </c>
+      <c r="C44" s="125" t="s">
         <v>886</v>
       </c>
-      <c r="C40" s="125" t="s">
+      <c r="D44" s="125" t="s">
         <v>887</v>
       </c>
-      <c r="D40" s="125" t="s">
-        <v>888</v>
-      </c>
-      <c r="E40" s="126">
+      <c r="E44" s="126">
         <v>1</v>
       </c>
-      <c r="F40" s="125" t="s">
+      <c r="F44" s="125" t="s">
         <v>342</v>
       </c>
-      <c r="G40" s="70"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="E42" s="71"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="49"/>
-      <c r="E43" s="71" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="49"/>
-      <c r="E44" s="71" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="49"/>
-      <c r="E45" s="123" t="s">
-        <v>922</v>
-      </c>
+      <c r="G44" s="70"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="49"/>
-      <c r="E46" s="123" t="s">
-        <v>920</v>
-      </c>
+      <c r="E46" s="71"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="49"/>
       <c r="E47" s="71" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="49"/>
+      <c r="E48" s="71" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="49"/>
+      <c r="E49" s="123" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="49"/>
+      <c r="E50" s="123" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="E48" s="71" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="4"/>
-      <c r="E49" s="71" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="E50" s="123" t="s">
-        <v>889</v>
-      </c>
-    </row>
     <row r="51" spans="2:5">
-      <c r="E51" s="123" t="s">
-        <v>885</v>
+      <c r="B51" s="49"/>
+      <c r="E51" s="71" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="E52" s="71" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="4"/>
+      <c r="E53" s="71" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="E54" s="123" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="E55" s="123" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="E56" s="71" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
-      <c r="E53" s="71" t="s">
+    <row r="57" spans="2:5">
+      <c r="E57" s="71" t="s">
         <v>883</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="E59" s="71" t="s">
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -13385,7 +12398,7 @@
     <hyperlink ref="B5" location="Keytruda!A1" display="Keytruda (pembrolizumab)" xr:uid="{433D8747-409A-417C-AD07-4E613C39AC97}"/>
     <hyperlink ref="B11" location="Lynparza!A1" display="Lynparza (olaparib)" xr:uid="{D84D036E-8C88-4B96-B572-5129CBFE5229}"/>
     <hyperlink ref="B16" location="Padcev!A1" display="Padcev (enfortumab vedotin)" xr:uid="{33EE860D-63D3-418E-B01B-057450F711AA}"/>
-    <hyperlink ref="B30" location="'V940'!A1" display="mRNA-4157/V940" xr:uid="{65BBEC83-B707-4BA2-A718-31CE8CC7240A}"/>
+    <hyperlink ref="B33" location="'V940'!A1" display="mRNA-4157/V940" xr:uid="{65BBEC83-B707-4BA2-A718-31CE8CC7240A}"/>
     <hyperlink ref="B12" location="Lenvima!A1" display="Lenvima (lenvatinib)" xr:uid="{97BC3190-888D-4EC7-975B-02F7AC4A5C14}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13401,11 +12414,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13522,11 +12535,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13700,11 +12713,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13834,10 +12847,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13896,11 +12909,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -14421,11 +13434,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14465,11 +13478,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14600,11 +13613,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -14805,43 +13818,43 @@
   </sheetPr>
   <dimension ref="A1:IP241"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CF116" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CR131" sqref="CR131"/>
+      <selection pane="bottomRight" activeCell="CP2" sqref="CP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="6.1640625" style="62" customWidth="1"/>
-    <col min="35" max="38" width="6.83203125" style="62" customWidth="1"/>
-    <col min="39" max="39" width="7.33203125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="6.140625" style="62" customWidth="1"/>
+    <col min="35" max="38" width="6.85546875" style="62" customWidth="1"/>
+    <col min="39" max="39" width="7.28515625" style="62" customWidth="1"/>
     <col min="40" max="43" width="7" style="62" customWidth="1"/>
-    <col min="44" max="54" width="6.6640625" style="62" customWidth="1"/>
-    <col min="55" max="70" width="7.5" style="62" customWidth="1"/>
-    <col min="71" max="74" width="7.1640625" style="62" customWidth="1"/>
-    <col min="75" max="85" width="6.5" style="62" customWidth="1"/>
-    <col min="86" max="86" width="7.33203125" style="62" customWidth="1"/>
-    <col min="87" max="102" width="7.83203125" style="62" customWidth="1"/>
-    <col min="103" max="104" width="6.5" style="62" customWidth="1"/>
-    <col min="105" max="105" width="4.33203125" style="75" customWidth="1"/>
-    <col min="106" max="106" width="7.1640625" style="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="7.5" style="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="9.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="7.6640625" style="62" customWidth="1"/>
-    <col min="110" max="110" width="7.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="111" max="113" width="7.5" style="62" customWidth="1"/>
-    <col min="114" max="125" width="7.33203125" style="62" customWidth="1"/>
-    <col min="126" max="130" width="7.6640625" style="62" customWidth="1"/>
-    <col min="131" max="131" width="8.33203125" style="62" customWidth="1"/>
-    <col min="132" max="132" width="8.33203125" style="75" customWidth="1"/>
-    <col min="133" max="133" width="8.33203125" style="114" customWidth="1"/>
-    <col min="134" max="140" width="8.33203125" style="75" customWidth="1"/>
-    <col min="141" max="191" width="9.33203125" style="75" bestFit="1" customWidth="1"/>
-    <col min="192" max="16384" width="9.1640625" style="75"/>
+    <col min="44" max="54" width="6.7109375" style="62" customWidth="1"/>
+    <col min="55" max="70" width="7.42578125" style="62" customWidth="1"/>
+    <col min="71" max="74" width="7.140625" style="62" customWidth="1"/>
+    <col min="75" max="85" width="6.85546875" style="62" customWidth="1"/>
+    <col min="86" max="86" width="7.28515625" style="62" customWidth="1"/>
+    <col min="87" max="102" width="7.85546875" style="62" customWidth="1"/>
+    <col min="103" max="104" width="6.42578125" style="62" customWidth="1"/>
+    <col min="105" max="105" width="4.28515625" style="75" customWidth="1"/>
+    <col min="106" max="106" width="7.140625" style="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="7.42578125" style="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="9.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.7109375" style="62" customWidth="1"/>
+    <col min="110" max="110" width="7.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="111" max="113" width="7.42578125" style="62" customWidth="1"/>
+    <col min="114" max="125" width="7.28515625" style="62" customWidth="1"/>
+    <col min="126" max="130" width="7.7109375" style="62" customWidth="1"/>
+    <col min="131" max="131" width="8.28515625" style="62" customWidth="1"/>
+    <col min="132" max="132" width="8.28515625" style="75" customWidth="1"/>
+    <col min="133" max="133" width="8.28515625" style="114" customWidth="1"/>
+    <col min="134" max="140" width="8.28515625" style="75" customWidth="1"/>
+    <col min="141" max="191" width="9.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="192" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:140" s="83" customFormat="1" ht="12.75" customHeight="1">
@@ -14936,7 +13949,7 @@
       <c r="CJ1" s="84"/>
       <c r="CK1" s="84"/>
       <c r="CL1" s="84"/>
-      <c r="CM1" s="84"/>
+      <c r="CM1" s="134"/>
       <c r="CN1" s="84"/>
       <c r="CO1" s="84"/>
       <c r="CP1" s="84"/>
@@ -15258,28 +14271,28 @@
         <v>740</v>
       </c>
       <c r="CQ2" s="90" t="s">
+        <v>954</v>
+      </c>
+      <c r="CR2" s="90" t="s">
         <v>955</v>
       </c>
-      <c r="CR2" s="90" t="s">
+      <c r="CS2" s="90" t="s">
         <v>956</v>
       </c>
-      <c r="CS2" s="90" t="s">
+      <c r="CT2" s="90" t="s">
         <v>957</v>
       </c>
-      <c r="CT2" s="90" t="s">
-        <v>958</v>
-      </c>
       <c r="CU2" s="90" t="s">
+        <v>980</v>
+      </c>
+      <c r="CV2" s="90" t="s">
         <v>981</v>
       </c>
-      <c r="CV2" s="90" t="s">
+      <c r="CW2" s="90" t="s">
         <v>982</v>
       </c>
-      <c r="CW2" s="90" t="s">
+      <c r="CX2" s="90" t="s">
         <v>983</v>
-      </c>
-      <c r="CX2" s="90" t="s">
-        <v>984</v>
       </c>
       <c r="CY2" s="90"/>
       <c r="CZ2" s="90"/>
@@ -16440,7 +15453,7 @@
     </row>
     <row r="7" spans="1:140" s="92" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="46" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="93"/>
@@ -19410,7 +18423,7 @@
     </row>
     <row r="16" spans="1:140" s="41" customFormat="1" ht="12.75" customHeight="1">
       <c r="B16" s="46" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -19556,7 +18569,7 @@
       <c r="DT16" s="94"/>
       <c r="DU16" s="94"/>
       <c r="DV16" s="96" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="DW16" s="94">
         <f t="shared" si="31"/>
@@ -23185,7 +22198,7 @@
     </row>
     <row r="29" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="B29" s="47" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -23379,7 +22392,7 @@
     </row>
     <row r="30" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="B30" s="47" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -23537,7 +22550,7 @@
     </row>
     <row r="31" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="B31" s="47" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -23720,7 +22733,7 @@
         <v>1407.7137173165042</v>
       </c>
     </row>
-    <row r="32" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="32" spans="2:140" s="8" customFormat="1" ht="3.75" customHeight="1">
       <c r="B32" s="47" t="s">
         <v>354</v>
       </c>
@@ -23984,7 +22997,7 @@
       <c r="EA32" s="94"/>
       <c r="EC32" s="30"/>
     </row>
-    <row r="33" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="33" spans="2:136" s="8" customFormat="1" ht="3.75" customHeight="1">
       <c r="B33" s="47" t="s">
         <v>756</v>
       </c>
@@ -24182,7 +23195,7 @@
       <c r="EA33" s="94"/>
       <c r="EC33" s="30"/>
     </row>
-    <row r="34" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="34" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B34" s="47" t="s">
         <v>571</v>
       </c>
@@ -24438,7 +23451,7 @@
       <c r="EA34" s="94"/>
       <c r="EC34" s="30"/>
     </row>
-    <row r="35" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B35" s="47" t="s">
         <v>9</v>
       </c>
@@ -24744,7 +23757,7 @@
       <c r="EC35" s="30"/>
       <c r="EF35" s="99"/>
     </row>
-    <row r="36" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="36" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B36" s="47" t="s">
         <v>696</v>
       </c>
@@ -24924,7 +23937,7 @@
       <c r="EC36" s="30"/>
       <c r="EF36" s="99"/>
     </row>
-    <row r="37" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="37" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B37" s="47" t="s">
         <v>633</v>
       </c>
@@ -25134,7 +24147,7 @@
       <c r="EC37" s="30"/>
       <c r="EF37" s="83"/>
     </row>
-    <row r="38" spans="2:136" s="41" customFormat="1" ht="12.75" customHeight="1">
+    <row r="38" spans="2:136" s="41" customFormat="1" ht="0.75" customHeight="1">
       <c r="B38" s="46" t="s">
         <v>106</v>
       </c>
@@ -25486,7 +24499,7 @@
       <c r="EA38" s="94"/>
       <c r="EC38" s="30"/>
     </row>
-    <row r="39" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="39" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B39" s="47" t="s">
         <v>569</v>
       </c>
@@ -25699,7 +24712,7 @@
       <c r="EC39" s="30"/>
       <c r="EF39" s="83"/>
     </row>
-    <row r="40" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="40" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B40" s="47" t="s">
         <v>755</v>
       </c>
@@ -25901,7 +24914,7 @@
       <c r="EC40" s="30"/>
       <c r="EF40" s="83"/>
     </row>
-    <row r="41" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="41" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B41" s="47" t="s">
         <v>619</v>
       </c>
@@ -26175,7 +25188,7 @@
       <c r="EA41" s="94"/>
       <c r="EC41" s="30"/>
     </row>
-    <row r="42" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="42" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B42" s="47" t="s">
         <v>612</v>
       </c>
@@ -26439,7 +25452,7 @@
       <c r="EA42" s="94"/>
       <c r="EC42" s="30"/>
     </row>
-    <row r="43" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="43" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B43" s="47" t="s">
         <v>676</v>
       </c>
@@ -26662,7 +25675,7 @@
       <c r="EA43" s="94"/>
       <c r="EC43" s="30"/>
     </row>
-    <row r="44" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="44" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B44" s="47" t="s">
         <v>128</v>
       </c>
@@ -26950,7 +25963,7 @@
       <c r="EA44" s="94"/>
       <c r="EC44" s="30"/>
     </row>
-    <row r="45" spans="2:136" s="41" customFormat="1" ht="12.75" customHeight="1">
+    <row r="45" spans="2:136" s="41" customFormat="1" ht="0.75" customHeight="1">
       <c r="B45" s="46" t="s">
         <v>695</v>
       </c>
@@ -27224,7 +26237,7 @@
       <c r="EA45" s="94"/>
       <c r="EC45" s="30"/>
     </row>
-    <row r="46" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="46" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B46" s="47" t="s">
         <v>107</v>
       </c>
@@ -27555,7 +26568,7 @@
       <c r="EC46" s="30"/>
       <c r="EF46" s="83"/>
     </row>
-    <row r="47" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="47" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B47" s="47" t="s">
         <v>11</v>
       </c>
@@ -27903,7 +26916,7 @@
       <c r="EA47" s="94"/>
       <c r="EC47" s="30"/>
     </row>
-    <row r="48" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="48" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B48" s="47" t="s">
         <v>356</v>
       </c>
@@ -28233,7 +27246,7 @@
       <c r="EA48" s="94"/>
       <c r="EC48" s="30"/>
     </row>
-    <row r="49" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="49" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B49" s="47" t="s">
         <v>357</v>
       </c>
@@ -28585,7 +27598,7 @@
       <c r="EA49" s="94"/>
       <c r="EC49" s="30"/>
     </row>
-    <row r="50" spans="2:136" s="41" customFormat="1" ht="12.75" customHeight="1">
+    <row r="50" spans="2:136" s="41" customFormat="1" ht="0.75" customHeight="1">
       <c r="B50" s="46" t="s">
         <v>475</v>
       </c>
@@ -28912,7 +27925,7 @@
       <c r="EA50" s="94"/>
       <c r="EC50" s="87"/>
     </row>
-    <row r="51" spans="2:136" s="41" customFormat="1" ht="12.75" customHeight="1">
+    <row r="51" spans="2:136" s="41" customFormat="1" ht="0.75" customHeight="1">
       <c r="B51" s="46" t="s">
         <v>476</v>
       </c>
@@ -29241,7 +28254,7 @@
       <c r="EA51" s="94"/>
       <c r="EC51" s="87"/>
     </row>
-    <row r="52" spans="2:136" s="41" customFormat="1" ht="12.75" customHeight="1">
+    <row r="52" spans="2:136" s="41" customFormat="1" ht="0.75" customHeight="1">
       <c r="B52" s="46" t="s">
         <v>754</v>
       </c>
@@ -29420,7 +28433,7 @@
       <c r="EA52" s="94"/>
       <c r="EC52" s="87"/>
     </row>
-    <row r="53" spans="2:136" s="41" customFormat="1" ht="12.75" customHeight="1">
+    <row r="53" spans="2:136" s="41" customFormat="1" ht="0.75" customHeight="1">
       <c r="B53" s="46" t="s">
         <v>570</v>
       </c>
@@ -29700,7 +28713,7 @@
       <c r="EC53" s="30"/>
       <c r="EF53" s="43"/>
     </row>
-    <row r="54" spans="2:136" s="41" customFormat="1" ht="12.75" customHeight="1">
+    <row r="54" spans="2:136" s="41" customFormat="1" ht="0.75" customHeight="1">
       <c r="B54" s="46" t="s">
         <v>776</v>
       </c>
@@ -30057,7 +29070,7 @@
       <c r="EE54" s="97"/>
       <c r="EF54" s="92"/>
     </row>
-    <row r="55" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="55" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B55" s="47" t="s">
         <v>634</v>
       </c>
@@ -30323,7 +29336,7 @@
       <c r="EC55" s="30"/>
       <c r="EF55" s="99"/>
     </row>
-    <row r="56" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="56" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B56" s="47" t="s">
         <v>589</v>
       </c>
@@ -30521,7 +29534,7 @@
       <c r="EA56" s="94"/>
       <c r="EC56" s="30"/>
     </row>
-    <row r="57" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="57" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B57" s="47" t="s">
         <v>102</v>
       </c>
@@ -30763,7 +29776,7 @@
       <c r="EA57" s="94"/>
       <c r="EC57" s="30"/>
     </row>
-    <row r="58" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="58" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B58" s="47" t="s">
         <v>614</v>
       </c>
@@ -30939,7 +29952,7 @@
       <c r="EA58" s="94"/>
       <c r="EC58" s="30"/>
     </row>
-    <row r="59" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="59" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B59" s="47" t="s">
         <v>355</v>
       </c>
@@ -31164,7 +30177,7 @@
       <c r="EA59" s="94"/>
       <c r="EC59" s="30"/>
     </row>
-    <row r="60" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="60" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B60" s="47" t="s">
         <v>587</v>
       </c>
@@ -31323,7 +30336,7 @@
       <c r="EA60" s="94"/>
       <c r="EC60" s="30"/>
     </row>
-    <row r="61" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="61" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B61" s="47" t="s">
         <v>101</v>
       </c>
@@ -31565,7 +30578,7 @@
       <c r="EA61" s="94"/>
       <c r="EC61" s="30"/>
     </row>
-    <row r="62" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="62" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B62" s="47" t="s">
         <v>441</v>
       </c>
@@ -31919,7 +30932,7 @@
       <c r="EC62" s="87"/>
       <c r="EF62" s="83"/>
     </row>
-    <row r="63" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="63" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B63" s="47" t="s">
         <v>510</v>
       </c>
@@ -32105,7 +31118,7 @@
       <c r="EA63" s="94"/>
       <c r="EC63" s="30"/>
     </row>
-    <row r="64" spans="2:136" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="64" spans="2:136" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B64" s="47" t="s">
         <v>164</v>
       </c>
@@ -32347,7 +31360,7 @@
       <c r="EA64" s="94"/>
       <c r="EC64" s="30"/>
     </row>
-    <row r="65" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="65" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B65" s="47" t="s">
         <v>586</v>
       </c>
@@ -32523,7 +31536,7 @@
       <c r="EA65" s="94"/>
       <c r="EC65" s="30"/>
     </row>
-    <row r="66" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="66" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B66" s="47" t="s">
         <v>591</v>
       </c>
@@ -32677,7 +31690,7 @@
       <c r="EA66" s="94"/>
       <c r="EC66" s="30"/>
     </row>
-    <row r="67" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="67" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B67" s="47" t="s">
         <v>590</v>
       </c>
@@ -32831,7 +31844,7 @@
       <c r="EA67" s="94"/>
       <c r="EC67" s="30"/>
     </row>
-    <row r="68" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="68" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B68" s="47" t="s">
         <v>639</v>
       </c>
@@ -33009,7 +32022,7 @@
       <c r="EC68" s="30"/>
       <c r="EF68" s="83"/>
     </row>
-    <row r="69" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="69" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B69" s="47" t="s">
         <v>592</v>
       </c>
@@ -33168,7 +32181,7 @@
       <c r="EA69" s="94"/>
       <c r="EC69" s="30"/>
     </row>
-    <row r="70" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="70" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B70" s="47" t="s">
         <v>611</v>
       </c>
@@ -33344,7 +32357,7 @@
       <c r="EA70" s="94"/>
       <c r="EC70" s="30"/>
     </row>
-    <row r="71" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="71" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B71" s="47" t="s">
         <v>353</v>
       </c>
@@ -33423,13 +32436,13 @@
         <v>81</v>
       </c>
       <c r="AI71" s="96" t="s">
+        <v>932</v>
+      </c>
+      <c r="AJ71" s="96" t="s">
         <v>933</v>
       </c>
-      <c r="AJ71" s="96" t="s">
+      <c r="AK71" s="96" t="s">
         <v>934</v>
-      </c>
-      <c r="AK71" s="96" t="s">
-        <v>935</v>
       </c>
       <c r="AL71" s="94"/>
       <c r="AM71" s="94"/>
@@ -33551,7 +32564,7 @@
       <c r="EA71" s="94"/>
       <c r="EC71" s="30"/>
     </row>
-    <row r="72" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="72" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B72" s="47" t="s">
         <v>352</v>
       </c>
@@ -33630,13 +32643,13 @@
         <v>36</v>
       </c>
       <c r="AI72" s="96" t="s">
+        <v>935</v>
+      </c>
+      <c r="AJ72" s="96" t="s">
         <v>936</v>
       </c>
-      <c r="AJ72" s="96" t="s">
+      <c r="AK72" s="96" t="s">
         <v>937</v>
-      </c>
-      <c r="AK72" s="96" t="s">
-        <v>938</v>
       </c>
       <c r="AL72" s="94"/>
       <c r="AM72" s="94"/>
@@ -33758,7 +32771,7 @@
       <c r="EA72" s="94"/>
       <c r="EC72" s="30"/>
     </row>
-    <row r="73" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="73" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B73" s="47" t="s">
         <v>358</v>
       </c>
@@ -33840,7 +32853,7 @@
         <v>787</v>
       </c>
       <c r="AJ73" s="96" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AK73" s="96" t="s">
         <v>787</v>
@@ -33965,7 +32978,7 @@
       <c r="EA73" s="94"/>
       <c r="EC73" s="30"/>
     </row>
-    <row r="74" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="74" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B74" s="47" t="s">
         <v>588</v>
       </c>
@@ -34124,7 +33137,7 @@
       <c r="EA74" s="94"/>
       <c r="EC74" s="30"/>
     </row>
-    <row r="75" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="75" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B75" s="47" t="s">
         <v>100</v>
       </c>
@@ -34324,7 +33337,7 @@
       <c r="EA75" s="94"/>
       <c r="EC75" s="30"/>
     </row>
-    <row r="76" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="76" spans="2:140" s="8" customFormat="1" ht="0.75" customHeight="1">
       <c r="B76" s="47" t="s">
         <v>180</v>
       </c>
@@ -34861,7 +33874,7 @@
         <v>7133.86009441432</v>
       </c>
     </row>
-    <row r="78" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="78" spans="2:140" s="8" customFormat="1" ht="4.5" customHeight="1">
       <c r="B78" s="47" t="s">
         <v>488</v>
       </c>
@@ -35059,7 +34072,7 @@
       <c r="EA78" s="94"/>
       <c r="EC78" s="30"/>
     </row>
-    <row r="79" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="79" spans="2:140" s="8" customFormat="1" ht="3.75" customHeight="1">
       <c r="B79" s="47" t="s">
         <v>98</v>
       </c>
@@ -35200,7 +34213,7 @@
       <c r="EA79" s="84"/>
       <c r="EC79" s="30"/>
     </row>
-    <row r="80" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="80" spans="2:140" s="8" customFormat="1" ht="3.75" customHeight="1">
       <c r="B80" s="47" t="s">
         <v>613</v>
       </c>
@@ -35335,7 +34348,7 @@
       <c r="EA80" s="84"/>
       <c r="EC80" s="30"/>
     </row>
-    <row r="81" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="81" spans="2:140" s="8" customFormat="1" ht="3.75" customHeight="1">
       <c r="B81" s="47" t="s">
         <v>104</v>
       </c>
@@ -35474,7 +34487,7 @@
       <c r="EA81" s="26"/>
       <c r="EC81" s="30"/>
     </row>
-    <row r="82" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="82" spans="2:140" s="8" customFormat="1" ht="3.75" customHeight="1">
       <c r="B82" s="47" t="s">
         <v>99</v>
       </c>
@@ -35613,7 +34626,7 @@
       <c r="EA82" s="26"/>
       <c r="EC82" s="30"/>
     </row>
-    <row r="83" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="83" spans="2:140" s="8" customFormat="1" ht="3.75" customHeight="1">
       <c r="B83" s="47" t="s">
         <v>97</v>
       </c>
@@ -35787,7 +34800,7 @@
       <c r="EA83" s="26"/>
       <c r="EC83" s="30"/>
     </row>
-    <row r="84" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
+    <row r="84" spans="2:140" s="8" customFormat="1" ht="3.75" customHeight="1">
       <c r="B84" s="47" t="s">
         <v>165</v>
       </c>
@@ -36369,8 +35382,8 @@
         <v>927</v>
       </c>
       <c r="CM86" s="94">
-        <f>275+584</f>
-        <v>859</v>
+        <f>275+584-CM29-CM30</f>
+        <v>781</v>
       </c>
       <c r="CN86" s="94">
         <f>122+560</f>
@@ -36488,55 +35501,55 @@
       </c>
       <c r="DX86" s="94">
         <f>SUM(CM86:CP86)</f>
-        <v>3195</v>
+        <v>3117</v>
       </c>
       <c r="DY86" s="94">
         <f t="shared" ref="DY86:EA86" si="125">DX86*0.9</f>
-        <v>2875.5</v>
+        <v>2805.3</v>
       </c>
       <c r="DZ86" s="94">
         <f t="shared" si="125"/>
-        <v>2587.9500000000003</v>
+        <v>2524.7700000000004</v>
       </c>
       <c r="EA86" s="94">
         <f t="shared" si="125"/>
-        <v>2329.1550000000002</v>
+        <v>2272.2930000000006</v>
       </c>
       <c r="EB86" s="94">
         <f t="shared" ref="EB86" si="126">EA86*0.9</f>
-        <v>2096.2395000000001</v>
+        <v>2045.0637000000006</v>
       </c>
       <c r="EC86" s="94">
         <f t="shared" ref="EC86" si="127">EB86*0.9</f>
-        <v>1886.6155500000002</v>
+        <v>1840.5573300000005</v>
       </c>
       <c r="ED86" s="94">
         <f t="shared" ref="ED86" si="128">EC86*0.9</f>
-        <v>1697.9539950000003</v>
+        <v>1656.5015970000006</v>
       </c>
       <c r="EE86" s="94">
         <f t="shared" ref="EE86" si="129">ED86*0.9</f>
-        <v>1528.1585955000003</v>
+        <v>1490.8514373000005</v>
       </c>
       <c r="EF86" s="94">
         <f t="shared" ref="EF86" si="130">EE86*0.9</f>
-        <v>1375.3427359500004</v>
+        <v>1341.7662935700005</v>
       </c>
       <c r="EG86" s="94">
         <f t="shared" ref="EG86" si="131">EF86*0.9</f>
-        <v>1237.8084623550003</v>
+        <v>1207.5896642130006</v>
       </c>
       <c r="EH86" s="94">
         <f t="shared" ref="EH86" si="132">EG86*0.9</f>
-        <v>1114.0276161195004</v>
+        <v>1086.8306977917005</v>
       </c>
       <c r="EI86" s="94">
         <f t="shared" ref="EI86" si="133">EH86*0.9</f>
-        <v>1002.6248545075504</v>
+        <v>978.14762801253039</v>
       </c>
       <c r="EJ86" s="94">
         <f t="shared" ref="EJ86" si="134">EI86*0.9</f>
-        <v>902.36236905679539</v>
+        <v>880.33286521127741</v>
       </c>
     </row>
     <row r="87" spans="2:140" s="41" customFormat="1" ht="12.75" customHeight="1">
@@ -36868,11 +35881,11 @@
         <v>13830</v>
       </c>
       <c r="CM87" s="41">
-        <f t="shared" si="137"/>
-        <v>14565</v>
+        <f>SUM(CM3:CM86)</f>
+        <v>14487</v>
       </c>
       <c r="CN87" s="41">
-        <f t="shared" si="137"/>
+        <f>SUM(CN3:CN86)</f>
         <v>15035</v>
       </c>
       <c r="CO87" s="41">
@@ -36990,55 +36003,55 @@
       </c>
       <c r="DX87" s="28">
         <f t="shared" si="138"/>
-        <v>60242</v>
+        <v>60164</v>
       </c>
       <c r="DY87" s="28">
         <f t="shared" si="138"/>
-        <v>58425.57</v>
+        <v>58355.37</v>
       </c>
       <c r="DZ87" s="28">
         <f t="shared" si="138"/>
-        <v>57567.47849999999</v>
+        <v>57504.29849999999</v>
       </c>
       <c r="EA87" s="28">
         <f t="shared" si="138"/>
-        <v>55630.060807000002</v>
+        <v>55573.198807000001</v>
       </c>
       <c r="EB87" s="28">
         <f t="shared" si="138"/>
-        <v>54033.214332449999</v>
+        <v>53982.038532449995</v>
       </c>
       <c r="EC87" s="28">
         <f t="shared" si="138"/>
-        <v>53483.206818926315</v>
+        <v>53437.148598926316</v>
       </c>
       <c r="ED87" s="28">
         <f t="shared" si="138"/>
-        <v>50485.928905679037</v>
+        <v>50444.476507679035</v>
       </c>
       <c r="EE87" s="28">
         <f t="shared" si="138"/>
-        <v>45583.335816049897</v>
+        <v>45546.0286578499</v>
       </c>
       <c r="EF87" s="28">
         <f t="shared" si="138"/>
-        <v>39843.225289239774</v>
+        <v>39809.648846859774</v>
       </c>
       <c r="EG87" s="28">
         <f t="shared" si="138"/>
-        <v>34551.671295327003</v>
+        <v>34521.452497185004</v>
       </c>
       <c r="EH87" s="28">
         <f t="shared" si="138"/>
-        <v>31430.762863438144</v>
+        <v>31403.565945110346</v>
       </c>
       <c r="EI87" s="28">
         <f t="shared" si="138"/>
-        <v>29408.667310131124</v>
+        <v>29384.190083636106</v>
       </c>
       <c r="EJ87" s="28">
         <f t="shared" si="138"/>
-        <v>28284.38797871373</v>
+        <v>28262.358474868211</v>
       </c>
     </row>
     <row r="88" spans="2:140" s="92" customFormat="1" ht="12.75" customHeight="1">
@@ -37362,51 +36375,51 @@
       </c>
       <c r="DY88" s="92">
         <f t="shared" si="139"/>
-        <v>11685.113999999994</v>
+        <v>11671.074000000001</v>
       </c>
       <c r="DZ88" s="92">
         <f t="shared" si="139"/>
-        <v>11513.495699999992</v>
+        <v>11500.859699999994</v>
       </c>
       <c r="EA88" s="92">
         <f t="shared" si="139"/>
-        <v>11126.012161399995</v>
+        <v>11114.639761399994</v>
       </c>
       <c r="EB88" s="92">
         <f>EB87-EB89</f>
-        <v>10806.642866489994</v>
+        <v>10796.407706489998</v>
       </c>
       <c r="EC88" s="92">
         <f t="shared" ref="EC88:EJ88" si="141">EC87-EC89</f>
-        <v>10696.64136378526</v>
+        <v>10687.429719785257</v>
       </c>
       <c r="ED88" s="92">
         <f t="shared" si="141"/>
-        <v>10097.185781135806</v>
+        <v>10088.895301535806</v>
       </c>
       <c r="EE88" s="92">
         <f t="shared" si="141"/>
-        <v>9116.6671632099751</v>
+        <v>9109.2057315699785</v>
       </c>
       <c r="EF88" s="92">
         <f t="shared" si="141"/>
-        <v>7968.6450578479526</v>
+        <v>7961.9297693719527</v>
       </c>
       <c r="EG88" s="92">
         <f t="shared" si="141"/>
-        <v>6910.3342590653992</v>
+        <v>6904.2904994370001</v>
       </c>
       <c r="EH88" s="92">
         <f t="shared" si="141"/>
-        <v>6286.152572687628</v>
+        <v>6280.7131890220662</v>
       </c>
       <c r="EI88" s="92">
         <f t="shared" si="141"/>
-        <v>5881.7334620262227</v>
+        <v>5876.8380167272189</v>
       </c>
       <c r="EJ88" s="92">
         <f t="shared" si="141"/>
-        <v>5656.8775957427461</v>
+        <v>5652.4716949736394</v>
       </c>
     </row>
     <row r="89" spans="2:140" s="92" customFormat="1" ht="12.75" customHeight="1">
@@ -37545,7 +36558,7 @@
       </c>
       <c r="CM89" s="94">
         <f>CM87-CM88</f>
-        <v>11213</v>
+        <v>11135</v>
       </c>
       <c r="CN89" s="94">
         <f>+CN87-CN88</f>
@@ -37639,55 +36652,55 @@
       </c>
       <c r="DX89" s="94">
         <f>DX87-DX88</f>
-        <v>46346</v>
+        <v>46268</v>
       </c>
       <c r="DY89" s="92">
         <f t="shared" ref="DY89:EA89" si="144">DY87*0.8</f>
-        <v>46740.456000000006</v>
+        <v>46684.296000000002</v>
       </c>
       <c r="DZ89" s="92">
         <f t="shared" si="144"/>
-        <v>46053.982799999998</v>
+        <v>46003.438799999996</v>
       </c>
       <c r="EA89" s="92">
         <f t="shared" si="144"/>
-        <v>44504.048645600007</v>
+        <v>44458.559045600006</v>
       </c>
       <c r="EB89" s="92">
         <f>EB87*0.8</f>
-        <v>43226.571465960005</v>
+        <v>43185.630825959997</v>
       </c>
       <c r="EC89" s="92">
         <f t="shared" ref="EC89:EJ89" si="145">EC87*0.8</f>
-        <v>42786.565455141055</v>
+        <v>42749.718879141059</v>
       </c>
       <c r="ED89" s="92">
         <f t="shared" si="145"/>
-        <v>40388.743124543231</v>
+        <v>40355.58120614323</v>
       </c>
       <c r="EE89" s="92">
         <f t="shared" si="145"/>
-        <v>36466.668652839922</v>
+        <v>36436.822926279921</v>
       </c>
       <c r="EF89" s="92">
         <f t="shared" si="145"/>
-        <v>31874.580231391821</v>
+        <v>31847.719077487822</v>
       </c>
       <c r="EG89" s="92">
         <f t="shared" si="145"/>
-        <v>27641.337036261604</v>
+        <v>27617.161997748004</v>
       </c>
       <c r="EH89" s="92">
         <f t="shared" si="145"/>
-        <v>25144.610290750516</v>
+        <v>25122.852756088279</v>
       </c>
       <c r="EI89" s="92">
         <f t="shared" si="145"/>
-        <v>23526.933848104902</v>
+        <v>23507.352066908887</v>
       </c>
       <c r="EJ89" s="92">
         <f t="shared" si="145"/>
-        <v>22627.510382970984</v>
+        <v>22609.886779894572</v>
       </c>
     </row>
     <row r="90" spans="2:140" s="92" customFormat="1" ht="12.75" customHeight="1">
@@ -38025,39 +37038,39 @@
       </c>
       <c r="EB90" s="92">
         <f>EB87*0.25</f>
-        <v>13508.3035831125</v>
+        <v>13495.509633112499</v>
       </c>
       <c r="EC90" s="92">
         <f t="shared" ref="EC90:EJ90" si="149">EC87*0.25</f>
-        <v>13370.801704731579</v>
+        <v>13359.287149731579</v>
       </c>
       <c r="ED90" s="92">
         <f t="shared" si="149"/>
-        <v>12621.482226419759</v>
+        <v>12611.119126919759</v>
       </c>
       <c r="EE90" s="92">
         <f t="shared" si="149"/>
-        <v>11395.833954012474</v>
+        <v>11386.507164462475</v>
       </c>
       <c r="EF90" s="92">
         <f t="shared" si="149"/>
-        <v>9960.8063223099434</v>
+        <v>9952.4122117149436</v>
       </c>
       <c r="EG90" s="92">
         <f t="shared" si="149"/>
-        <v>8637.9178238317509</v>
+        <v>8630.363124296251</v>
       </c>
       <c r="EH90" s="92">
         <f t="shared" si="149"/>
-        <v>7857.6907158595359</v>
+        <v>7850.8914862775864</v>
       </c>
       <c r="EI90" s="92">
         <f t="shared" si="149"/>
-        <v>7352.1668275327811</v>
+        <v>7346.0475209090264</v>
       </c>
       <c r="EJ90" s="92">
         <f t="shared" si="149"/>
-        <v>7071.0969946784326</v>
+        <v>7065.5896187170529</v>
       </c>
     </row>
     <row r="91" spans="2:140" s="83" customFormat="1" ht="12.75" customHeight="1">
@@ -38757,39 +37770,39 @@
       </c>
       <c r="EB92" s="94">
         <f t="shared" ref="EB92:EJ92" si="159">EB91+EB90</f>
-        <v>13508.3035831125</v>
+        <v>13495.509633112499</v>
       </c>
       <c r="EC92" s="94">
         <f t="shared" si="159"/>
-        <v>13370.801704731579</v>
+        <v>13359.287149731579</v>
       </c>
       <c r="ED92" s="94">
         <f t="shared" si="159"/>
-        <v>12621.482226419759</v>
+        <v>12611.119126919759</v>
       </c>
       <c r="EE92" s="94">
         <f t="shared" si="159"/>
-        <v>11395.833954012474</v>
+        <v>11386.507164462475</v>
       </c>
       <c r="EF92" s="94">
         <f t="shared" si="159"/>
-        <v>9960.8063223099434</v>
+        <v>9952.4122117149436</v>
       </c>
       <c r="EG92" s="94">
         <f t="shared" si="159"/>
-        <v>8637.9178238317509</v>
+        <v>8630.363124296251</v>
       </c>
       <c r="EH92" s="94">
         <f t="shared" si="159"/>
-        <v>7857.6907158595359</v>
+        <v>7850.8914862775864</v>
       </c>
       <c r="EI92" s="94">
         <f t="shared" si="159"/>
-        <v>7352.1668275327811</v>
+        <v>7346.0475209090264</v>
       </c>
       <c r="EJ92" s="94">
         <f t="shared" si="159"/>
-        <v>7071.0969946784326</v>
+        <v>7065.5896187170529</v>
       </c>
     </row>
     <row r="93" spans="2:140" s="92" customFormat="1" ht="12.75" customHeight="1">
@@ -39036,7 +38049,7 @@
       </c>
       <c r="CM93" s="94">
         <f>+CM89-CM92</f>
-        <v>4489</v>
+        <v>4411</v>
       </c>
       <c r="CN93" s="94">
         <f t="shared" si="164"/>
@@ -39163,55 +38176,55 @@
       </c>
       <c r="DX93" s="94">
         <f>DX89-DX92</f>
-        <v>22038</v>
+        <v>21960</v>
       </c>
       <c r="DY93" s="94">
         <f t="shared" si="168"/>
-        <v>36444.456000000006</v>
+        <v>36388.296000000002</v>
       </c>
       <c r="DZ93" s="94">
         <f t="shared" si="168"/>
-        <v>35757.982799999998</v>
+        <v>35707.438799999996</v>
       </c>
       <c r="EA93" s="94">
         <f t="shared" si="168"/>
-        <v>34208.048645600007</v>
+        <v>34162.559045600006</v>
       </c>
       <c r="EB93" s="94">
         <f t="shared" ref="EB93:EJ93" si="169">EB89-EB92</f>
-        <v>29718.267882847504</v>
+        <v>29690.121192847499</v>
       </c>
       <c r="EC93" s="94">
         <f t="shared" si="169"/>
-        <v>29415.763750409475</v>
+        <v>29390.43172940948</v>
       </c>
       <c r="ED93" s="94">
         <f t="shared" si="169"/>
-        <v>27767.260898123473</v>
+        <v>27744.462079223471</v>
       </c>
       <c r="EE93" s="94">
         <f t="shared" si="169"/>
-        <v>25070.83469882745</v>
+        <v>25050.315761817445</v>
       </c>
       <c r="EF93" s="94">
         <f t="shared" si="169"/>
-        <v>21913.77390908188</v>
+        <v>21895.30686577288</v>
       </c>
       <c r="EG93" s="94">
         <f t="shared" si="169"/>
-        <v>19003.419212429853</v>
+        <v>18986.798873451753</v>
       </c>
       <c r="EH93" s="94">
         <f t="shared" si="169"/>
-        <v>17286.919574890981</v>
+        <v>17271.961269810694</v>
       </c>
       <c r="EI93" s="94">
         <f t="shared" si="169"/>
-        <v>16174.767020572121</v>
+        <v>16161.304545999861</v>
       </c>
       <c r="EJ93" s="94">
         <f t="shared" si="169"/>
-        <v>15556.413388292553</v>
+        <v>15544.297161177519</v>
       </c>
     </row>
     <row r="94" spans="2:140" s="83" customFormat="1" ht="12.75" customHeight="1">
@@ -39689,54 +38702,54 @@
       </c>
       <c r="DY95" s="87">
         <f t="shared" ref="DY95:EJ95" si="178">-DX122*$EM$107</f>
-        <v>0</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="DZ95" s="87">
         <f t="shared" si="178"/>
-        <v>-273.33342000000005</v>
+        <v>6.2660299999999554</v>
       </c>
       <c r="EA95" s="87">
         <f t="shared" si="178"/>
-        <v>-543.56829164999999</v>
+        <v>-261.49276577500001</v>
       </c>
       <c r="EB95" s="87">
         <f t="shared" si="178"/>
-        <v>-804.20541867937516</v>
+        <v>-519.67315436031254</v>
       </c>
       <c r="EC95" s="87">
         <f t="shared" si="178"/>
-        <v>-1033.1239684408267</v>
+        <v>-746.24661196437114</v>
       </c>
       <c r="ED95" s="87">
         <f t="shared" si="178"/>
-        <v>-1261.4906263322041</v>
+        <v>-972.27169952467489</v>
       </c>
       <c r="EE95" s="87">
         <f t="shared" si="178"/>
-        <v>-1479.2062627656217</v>
+        <v>-1187.6472028652861</v>
       </c>
       <c r="EF95" s="87">
         <f t="shared" si="178"/>
-        <v>-1678.3315699775699</v>
+        <v>-1384.4319251004065</v>
       </c>
       <c r="EG95" s="87">
         <f t="shared" si="178"/>
-        <v>-1855.2723610705154</v>
+        <v>-1559.0299660319561</v>
       </c>
       <c r="EH95" s="87">
         <f t="shared" si="178"/>
-        <v>-2011.7125478717683</v>
+        <v>-1713.123682328084</v>
       </c>
       <c r="EI95" s="87">
         <f t="shared" si="178"/>
-        <v>-2156.4522887924886</v>
+        <v>-1855.5118194691249</v>
       </c>
       <c r="EJ95" s="87">
         <f t="shared" si="178"/>
-        <v>-2293.9364336127232</v>
-      </c>
-    </row>
-    <row r="96" spans="2:140" s="83" customFormat="1" ht="12.75" customHeight="1">
+        <v>-1990.6379422101422</v>
+      </c>
+    </row>
+    <row r="96" spans="2:140" s="83" customFormat="1" ht="3.75" customHeight="1">
       <c r="B96" s="100" t="s">
         <v>66</v>
       </c>
@@ -39936,7 +38949,7 @@
       <c r="EA96" s="84"/>
       <c r="EC96" s="87"/>
     </row>
-    <row r="97" spans="2:250" s="83" customFormat="1" ht="12.75" customHeight="1">
+    <row r="97" spans="2:250" s="83" customFormat="1" ht="3.75" customHeight="1">
       <c r="B97" s="100" t="s">
         <v>67</v>
       </c>
@@ -40136,7 +39149,7 @@
       <c r="EA97" s="84"/>
       <c r="EC97" s="87"/>
     </row>
-    <row r="98" spans="2:250" s="83" customFormat="1" ht="12.75" customHeight="1">
+    <row r="98" spans="2:250" s="83" customFormat="1" ht="3.75" customHeight="1">
       <c r="B98" s="100" t="s">
         <v>68</v>
       </c>
@@ -40358,7 +39371,7 @@
       <c r="EA98" s="94"/>
       <c r="EC98" s="87"/>
     </row>
-    <row r="99" spans="2:250" s="83" customFormat="1" ht="12.75" customHeight="1">
+    <row r="99" spans="2:250" s="83" customFormat="1" ht="3.75" customHeight="1">
       <c r="B99" s="100" t="s">
         <v>70</v>
       </c>
@@ -40575,7 +39588,7 @@
       <c r="EA99" s="84"/>
       <c r="EC99" s="87"/>
     </row>
-    <row r="100" spans="2:250" s="83" customFormat="1" ht="12.75" customHeight="1">
+    <row r="100" spans="2:250" s="83" customFormat="1" ht="3.75" customHeight="1">
       <c r="B100" s="100" t="s">
         <v>71</v>
       </c>
@@ -40892,51 +39905,51 @@
       </c>
       <c r="DY100" s="93">
         <f>DY94-DY95+DY96+DY97+DY98+DY99</f>
-        <v>0</v>
+        <v>-277.10000000000002</v>
       </c>
       <c r="DZ100" s="93">
         <f t="shared" ref="DZ100:EJ100" si="184">DZ94-DZ95+DZ96+DZ97+DZ98+DZ99</f>
-        <v>273.33342000000005</v>
+        <v>-6.2660299999999554</v>
       </c>
       <c r="EA100" s="93">
         <f t="shared" si="184"/>
-        <v>543.56829164999999</v>
+        <v>261.49276577500001</v>
       </c>
       <c r="EB100" s="93">
         <f t="shared" si="184"/>
-        <v>804.20541867937516</v>
+        <v>519.67315436031254</v>
       </c>
       <c r="EC100" s="93">
         <f t="shared" si="184"/>
-        <v>1033.1239684408267</v>
+        <v>746.24661196437114</v>
       </c>
       <c r="ED100" s="93">
         <f t="shared" si="184"/>
-        <v>1261.4906263322041</v>
+        <v>972.27169952467489</v>
       </c>
       <c r="EE100" s="93">
         <f t="shared" si="184"/>
-        <v>1479.2062627656217</v>
+        <v>1187.6472028652861</v>
       </c>
       <c r="EF100" s="93">
         <f t="shared" si="184"/>
-        <v>1678.3315699775699</v>
+        <v>1384.4319251004065</v>
       </c>
       <c r="EG100" s="93">
         <f t="shared" si="184"/>
-        <v>1855.2723610705154</v>
+        <v>1559.0299660319561</v>
       </c>
       <c r="EH100" s="93">
         <f t="shared" si="184"/>
-        <v>2011.7125478717683</v>
+        <v>1713.123682328084</v>
       </c>
       <c r="EI100" s="93">
         <f t="shared" si="184"/>
-        <v>2156.4522887924886</v>
+        <v>1855.5118194691249</v>
       </c>
       <c r="EJ100" s="93">
         <f t="shared" si="184"/>
-        <v>2293.9364336127232</v>
+        <v>1990.6379422101422</v>
       </c>
       <c r="EK100" s="92"/>
       <c r="EL100" s="92"/>
@@ -41237,7 +40250,7 @@
       </c>
       <c r="CM101" s="93">
         <f t="shared" si="190"/>
-        <v>4559</v>
+        <v>4481</v>
       </c>
       <c r="CN101" s="93">
         <f t="shared" si="190"/>
@@ -41364,55 +40377,55 @@
       </c>
       <c r="DX101" s="93">
         <f t="shared" si="193"/>
-        <v>22294</v>
+        <v>22216</v>
       </c>
       <c r="DY101" s="93">
         <f>DY100+DY93</f>
-        <v>36444.456000000006</v>
+        <v>36111.196000000004</v>
       </c>
       <c r="DZ101" s="93">
         <f t="shared" ref="DZ101:EJ101" si="194">DZ100+DZ93</f>
-        <v>36031.316220000001</v>
+        <v>35701.172769999997</v>
       </c>
       <c r="EA101" s="93">
         <f t="shared" si="194"/>
-        <v>34751.616937250008</v>
+        <v>34424.051811375008</v>
       </c>
       <c r="EB101" s="93">
         <f t="shared" si="194"/>
-        <v>30522.473301526879</v>
+        <v>30209.794347207811</v>
       </c>
       <c r="EC101" s="93">
         <f t="shared" si="194"/>
-        <v>30448.887718850303</v>
+        <v>30136.678341373852</v>
       </c>
       <c r="ED101" s="93">
         <f t="shared" si="194"/>
-        <v>29028.751524455678</v>
+        <v>28716.733778748145</v>
       </c>
       <c r="EE101" s="93">
         <f t="shared" si="194"/>
-        <v>26550.040961593073</v>
+        <v>26237.962964682731</v>
       </c>
       <c r="EF101" s="93">
         <f t="shared" si="194"/>
-        <v>23592.10547905945</v>
+        <v>23279.738790873285</v>
       </c>
       <c r="EG101" s="93">
         <f t="shared" si="194"/>
-        <v>20858.691573500368</v>
+        <v>20545.828839483707</v>
       </c>
       <c r="EH101" s="93">
         <f t="shared" si="194"/>
-        <v>19298.632122762749</v>
+        <v>18985.084952138779</v>
       </c>
       <c r="EI101" s="93">
         <f t="shared" si="194"/>
-        <v>18331.219309364609</v>
+        <v>18016.816365468985</v>
       </c>
       <c r="EJ101" s="93">
         <f t="shared" si="194"/>
-        <v>17850.349821905274</v>
+        <v>17534.935103387663</v>
       </c>
       <c r="EK101" s="92"/>
       <c r="EL101" s="92"/>
@@ -41795,51 +40808,51 @@
       </c>
       <c r="DY102" s="93">
         <f t="shared" si="196"/>
-        <v>9111.1140000000014</v>
+        <v>9027.7990000000009</v>
       </c>
       <c r="DZ102" s="93">
         <f t="shared" si="196"/>
-        <v>9007.8290550000002</v>
+        <v>8925.2931924999993</v>
       </c>
       <c r="EA102" s="93">
         <f t="shared" si="196"/>
-        <v>8687.904234312502</v>
+        <v>8606.0129528437519</v>
       </c>
       <c r="EB102" s="93">
         <f t="shared" ref="EB102:EI102" si="199">EB101*0.25</f>
-        <v>7630.6183253817198</v>
+        <v>7552.4485868019528</v>
       </c>
       <c r="EC102" s="93">
         <f t="shared" si="199"/>
-        <v>7612.2219297125757</v>
+        <v>7534.169585343463</v>
       </c>
       <c r="ED102" s="93">
         <f t="shared" si="199"/>
-        <v>7257.1878811139195</v>
+        <v>7179.1834446870362</v>
       </c>
       <c r="EE102" s="93">
         <f t="shared" si="199"/>
-        <v>6637.5102403982683</v>
+        <v>6559.4907411706827</v>
       </c>
       <c r="EF102" s="93">
         <f t="shared" si="199"/>
-        <v>5898.0263697648625</v>
+        <v>5819.9346977183213</v>
       </c>
       <c r="EG102" s="93">
         <f t="shared" si="199"/>
-        <v>5214.6728933750919</v>
+        <v>5136.4572098709268</v>
       </c>
       <c r="EH102" s="93">
         <f t="shared" si="199"/>
-        <v>4824.6580306906872</v>
+        <v>4746.2712380346948</v>
       </c>
       <c r="EI102" s="93">
         <f t="shared" si="199"/>
-        <v>4582.8048273411523</v>
+        <v>4504.2040913672463</v>
       </c>
       <c r="EJ102" s="93">
         <f>EJ101*0.25</f>
-        <v>4462.5874554763186</v>
+        <v>4383.7337758469157</v>
       </c>
       <c r="EK102" s="92"/>
       <c r="EL102" s="92"/>
@@ -42140,7 +41153,7 @@
       </c>
       <c r="CM103" s="93">
         <f t="shared" si="204"/>
-        <v>3646</v>
+        <v>3568</v>
       </c>
       <c r="CN103" s="93">
         <f t="shared" si="204"/>
@@ -42267,495 +41280,495 @@
       </c>
       <c r="DX103" s="94">
         <f>DX101-DX102</f>
-        <v>20152</v>
+        <v>20074</v>
       </c>
       <c r="DY103" s="94">
         <f t="shared" si="207"/>
-        <v>27333.342000000004</v>
+        <v>27083.397000000004</v>
       </c>
       <c r="DZ103" s="94">
         <f t="shared" si="207"/>
-        <v>27023.487164999999</v>
+        <v>26775.879577499996</v>
       </c>
       <c r="EA103" s="94">
         <f t="shared" si="207"/>
-        <v>26063.712702937504</v>
+        <v>25818.038858531254</v>
       </c>
       <c r="EB103" s="94">
         <f t="shared" ref="EB103:EJ103" si="208">EB101-EB102</f>
-        <v>22891.854976145158</v>
+        <v>22657.345760405857</v>
       </c>
       <c r="EC103" s="94">
         <f t="shared" si="208"/>
-        <v>22836.665789137725</v>
+        <v>22602.508756030387</v>
       </c>
       <c r="ED103" s="94">
         <f t="shared" si="208"/>
-        <v>21771.56364334176</v>
+        <v>21537.55033406111</v>
       </c>
       <c r="EE103" s="94">
         <f t="shared" si="208"/>
-        <v>19912.530721194806</v>
+        <v>19678.47222351205</v>
       </c>
       <c r="EF103" s="94">
         <f t="shared" si="208"/>
-        <v>17694.079109294587</v>
+        <v>17459.804093154962</v>
       </c>
       <c r="EG103" s="94">
         <f t="shared" si="208"/>
-        <v>15644.018680125275</v>
+        <v>15409.37162961278</v>
       </c>
       <c r="EH103" s="94">
         <f t="shared" si="208"/>
-        <v>14473.974092072061</v>
+        <v>14238.813714104084</v>
       </c>
       <c r="EI103" s="94">
         <f t="shared" si="208"/>
-        <v>13748.414482023458</v>
+        <v>13512.612274101739</v>
       </c>
       <c r="EJ103" s="94">
         <f t="shared" si="208"/>
-        <v>13387.762366428957</v>
+        <v>13151.201327540748</v>
       </c>
       <c r="EK103" s="97">
         <f t="shared" ref="EK103:FP103" si="209">EJ103*(1+$EM$108)</f>
-        <v>13253.884742764667</v>
+        <v>13019.689314265341</v>
       </c>
       <c r="EL103" s="97">
         <f t="shared" si="209"/>
-        <v>13121.345895337021</v>
+        <v>12889.492421122688</v>
       </c>
       <c r="EM103" s="97">
         <f t="shared" si="209"/>
-        <v>12990.13243638365</v>
+        <v>12760.597496911461</v>
       </c>
       <c r="EN103" s="97">
         <f t="shared" si="209"/>
-        <v>12860.231112019814</v>
+        <v>12632.991521942347</v>
       </c>
       <c r="EO103" s="97">
         <f t="shared" si="209"/>
-        <v>12731.628800899616</v>
+        <v>12506.661606722924</v>
       </c>
       <c r="EP103" s="97">
         <f t="shared" si="209"/>
-        <v>12604.312512890619</v>
+        <v>12381.594990655694</v>
       </c>
       <c r="EQ103" s="97">
         <f t="shared" si="209"/>
-        <v>12478.269387761713</v>
+        <v>12257.779040749137</v>
       </c>
       <c r="ER103" s="97">
         <f t="shared" si="209"/>
-        <v>12353.486693884095</v>
+        <v>12135.201250341646</v>
       </c>
       <c r="ES103" s="97">
         <f t="shared" si="209"/>
-        <v>12229.951826945255</v>
+        <v>12013.849237838229</v>
       </c>
       <c r="ET103" s="97">
         <f t="shared" si="209"/>
-        <v>12107.652308675802</v>
+        <v>11893.710745459846</v>
       </c>
       <c r="EU103" s="97">
         <f t="shared" si="209"/>
-        <v>11986.575785589044</v>
+        <v>11774.773638005248</v>
       </c>
       <c r="EV103" s="97">
         <f t="shared" si="209"/>
-        <v>11866.710027733154</v>
+        <v>11657.025901625197</v>
       </c>
       <c r="EW103" s="97">
         <f t="shared" si="209"/>
-        <v>11748.042927455823</v>
+        <v>11540.455642608944</v>
       </c>
       <c r="EX103" s="97">
         <f t="shared" si="209"/>
-        <v>11630.562498181265</v>
+        <v>11425.051086182855</v>
       </c>
       <c r="EY103" s="97">
         <f t="shared" si="209"/>
-        <v>11514.256873199452</v>
+        <v>11310.800575321027</v>
       </c>
       <c r="EZ103" s="97">
         <f t="shared" si="209"/>
-        <v>11399.114304467457</v>
+        <v>11197.692569567816</v>
       </c>
       <c r="FA103" s="97">
         <f t="shared" si="209"/>
-        <v>11285.123161422782</v>
+        <v>11085.715643872138</v>
       </c>
       <c r="FB103" s="97">
         <f t="shared" si="209"/>
-        <v>11172.271929808554</v>
+        <v>10974.858487433416</v>
       </c>
       <c r="FC103" s="97">
         <f t="shared" si="209"/>
-        <v>11060.549210510468</v>
+        <v>10865.109902559081</v>
       </c>
       <c r="FD103" s="97">
         <f t="shared" si="209"/>
-        <v>10949.943718405362</v>
+        <v>10756.458803533491</v>
       </c>
       <c r="FE103" s="97">
         <f t="shared" si="209"/>
-        <v>10840.444281221309</v>
+        <v>10648.894215498156</v>
       </c>
       <c r="FF103" s="97">
         <f t="shared" si="209"/>
-        <v>10732.039838409097</v>
+        <v>10542.405273343174</v>
       </c>
       <c r="FG103" s="97">
         <f t="shared" si="209"/>
-        <v>10624.719440025006</v>
+        <v>10436.981220609743</v>
       </c>
       <c r="FH103" s="97">
         <f t="shared" si="209"/>
-        <v>10518.472245624756</v>
+        <v>10332.611408403645</v>
       </c>
       <c r="FI103" s="97">
         <f t="shared" si="209"/>
-        <v>10413.287523168508</v>
+        <v>10229.285294319609</v>
       </c>
       <c r="FJ103" s="97">
         <f t="shared" si="209"/>
-        <v>10309.154647936823</v>
+        <v>10126.992441376413</v>
       </c>
       <c r="FK103" s="97">
         <f t="shared" si="209"/>
-        <v>10206.063101457454</v>
+        <v>10025.722516962649</v>
       </c>
       <c r="FL103" s="97">
         <f t="shared" si="209"/>
-        <v>10104.00247044288</v>
+        <v>9925.4652917930216</v>
       </c>
       <c r="FM103" s="97">
         <f t="shared" si="209"/>
-        <v>10002.962445738451</v>
+        <v>9826.2106388750908</v>
       </c>
       <c r="FN103" s="97">
         <f t="shared" si="209"/>
-        <v>9902.9328212810669</v>
+        <v>9727.9485324863399</v>
       </c>
       <c r="FO103" s="97">
         <f t="shared" si="209"/>
-        <v>9803.9034930682556</v>
+        <v>9630.6690471614766</v>
       </c>
       <c r="FP103" s="97">
         <f t="shared" si="209"/>
-        <v>9705.8644581375738</v>
+        <v>9534.3623566898623</v>
       </c>
       <c r="FQ103" s="97">
         <f t="shared" ref="FQ103:GV103" si="210">FP103*(1+$EM$108)</f>
-        <v>9608.8058135561987</v>
+        <v>9439.0187331229645</v>
       </c>
       <c r="FR103" s="97">
         <f t="shared" si="210"/>
-        <v>9512.7177554206373</v>
+        <v>9344.6285457917347</v>
       </c>
       <c r="FS103" s="97">
         <f t="shared" si="210"/>
-        <v>9417.590577866431</v>
+        <v>9251.1822603338169</v>
       </c>
       <c r="FT103" s="97">
         <f t="shared" si="210"/>
-        <v>9323.414672087767</v>
+        <v>9158.6704377304795</v>
       </c>
       <c r="FU103" s="97">
         <f t="shared" si="210"/>
-        <v>9230.1805253668899</v>
+        <v>9067.0837333531745</v>
       </c>
       <c r="FV103" s="97">
         <f t="shared" si="210"/>
-        <v>9137.8787201132218</v>
+        <v>8976.4128960196431</v>
       </c>
       <c r="FW103" s="97">
         <f t="shared" si="210"/>
-        <v>9046.4999329120892</v>
+        <v>8886.648767059447</v>
       </c>
       <c r="FX103" s="97">
         <f t="shared" si="210"/>
-        <v>8956.0349335829687</v>
+        <v>8797.7822793888517</v>
       </c>
       <c r="FY103" s="97">
         <f t="shared" si="210"/>
-        <v>8866.4745842471384</v>
+        <v>8709.804456594964</v>
       </c>
       <c r="FZ103" s="97">
         <f t="shared" si="210"/>
-        <v>8777.8098384046662</v>
+        <v>8622.7064120290142</v>
       </c>
       <c r="GA103" s="97">
         <f t="shared" si="210"/>
-        <v>8690.0317400206186</v>
+        <v>8536.4793479087239</v>
       </c>
       <c r="GB103" s="97">
         <f t="shared" si="210"/>
-        <v>8603.1314226204122</v>
+        <v>8451.114554429636</v>
       </c>
       <c r="GC103" s="97">
         <f t="shared" si="210"/>
-        <v>8517.1001083942083</v>
+        <v>8366.6034088853394</v>
       </c>
       <c r="GD103" s="97">
         <f t="shared" si="210"/>
-        <v>8431.9291073102668</v>
+        <v>8282.9373747964855</v>
       </c>
       <c r="GE103" s="97">
         <f t="shared" si="210"/>
-        <v>8347.6098162371636</v>
+        <v>8200.1080010485202</v>
       </c>
       <c r="GF103" s="97">
         <f t="shared" si="210"/>
-        <v>8264.1337180747923</v>
+        <v>8118.1069210380347</v>
       </c>
       <c r="GG103" s="97">
         <f t="shared" si="210"/>
-        <v>8181.4923808940439</v>
+        <v>8036.9258518276547</v>
       </c>
       <c r="GH103" s="97">
         <f t="shared" si="210"/>
-        <v>8099.677457085103</v>
+        <v>7956.5565933093785</v>
       </c>
       <c r="GI103" s="97">
         <f t="shared" si="210"/>
-        <v>8018.6806825142521</v>
+        <v>7876.9910273762844</v>
       </c>
       <c r="GJ103" s="97">
         <f t="shared" si="210"/>
-        <v>7938.4938756891097</v>
+        <v>7798.221117102521</v>
       </c>
       <c r="GK103" s="97">
         <f t="shared" si="210"/>
-        <v>7859.108936932219</v>
+        <v>7720.2389059314955</v>
       </c>
       <c r="GL103" s="97">
         <f t="shared" si="210"/>
-        <v>7780.5178475628963</v>
+        <v>7643.0365168721801</v>
       </c>
       <c r="GM103" s="97">
         <f t="shared" si="210"/>
-        <v>7702.7126690872674</v>
+        <v>7566.6061517034586</v>
       </c>
       <c r="GN103" s="97">
         <f t="shared" si="210"/>
-        <v>7625.6855423963943</v>
+        <v>7490.9400901864237</v>
       </c>
       <c r="GO103" s="97">
         <f t="shared" si="210"/>
-        <v>7549.4286869724301</v>
+        <v>7416.0306892845592</v>
       </c>
       <c r="GP103" s="97">
         <f t="shared" si="210"/>
-        <v>7473.9344001027057</v>
+        <v>7341.870382391714</v>
       </c>
       <c r="GQ103" s="97">
         <f t="shared" si="210"/>
-        <v>7399.1950561016783</v>
+        <v>7268.451678567797</v>
       </c>
       <c r="GR103" s="97">
         <f t="shared" si="210"/>
-        <v>7325.2031055406615</v>
+        <v>7195.7671617821188</v>
       </c>
       <c r="GS103" s="97">
         <f t="shared" si="210"/>
-        <v>7251.951074485255</v>
+        <v>7123.8094901642971</v>
       </c>
       <c r="GT103" s="97">
         <f t="shared" si="210"/>
-        <v>7179.4315637404025</v>
+        <v>7052.5713952626538</v>
       </c>
       <c r="GU103" s="97">
         <f t="shared" si="210"/>
-        <v>7107.6372481029985</v>
+        <v>6982.0456813100272</v>
       </c>
       <c r="GV103" s="97">
         <f t="shared" si="210"/>
-        <v>7036.5608756219681</v>
+        <v>6912.2252244969268</v>
       </c>
       <c r="GW103" s="97">
         <f t="shared" ref="GW103:IB103" si="211">GV103*(1+$EM$108)</f>
-        <v>6966.1952668657486</v>
+        <v>6843.1029722519579</v>
       </c>
       <c r="GX103" s="97">
         <f t="shared" si="211"/>
-        <v>6896.5333141970914</v>
+        <v>6774.6719425294386</v>
       </c>
       <c r="GY103" s="97">
         <f t="shared" si="211"/>
-        <v>6827.5679810551201</v>
+        <v>6706.9252231041446</v>
       </c>
       <c r="GZ103" s="97">
         <f t="shared" si="211"/>
-        <v>6759.292301244569</v>
+        <v>6639.8559708731027</v>
       </c>
       <c r="HA103" s="97">
         <f t="shared" si="211"/>
-        <v>6691.6993782321233</v>
+        <v>6573.4574111643715</v>
       </c>
       <c r="HB103" s="97">
         <f t="shared" si="211"/>
-        <v>6624.7823844498016</v>
+        <v>6507.7228370527273</v>
       </c>
       <c r="HC103" s="97">
         <f t="shared" si="211"/>
-        <v>6558.5345606053033</v>
+        <v>6442.6456086822</v>
       </c>
       <c r="HD103" s="97">
         <f t="shared" si="211"/>
-        <v>6492.9492149992502</v>
+        <v>6378.2191525953776</v>
       </c>
       <c r="HE103" s="97">
         <f t="shared" si="211"/>
-        <v>6428.019722849258</v>
+        <v>6314.4369610694239</v>
       </c>
       <c r="HF103" s="97">
         <f t="shared" si="211"/>
-        <v>6363.7395256207656</v>
+        <v>6251.2925914587295</v>
       </c>
       <c r="HG103" s="97">
         <f t="shared" si="211"/>
-        <v>6300.1021303645575</v>
+        <v>6188.7796655441425</v>
       </c>
       <c r="HH103" s="97">
         <f t="shared" si="211"/>
-        <v>6237.1011090609118</v>
+        <v>6126.8918688887006</v>
       </c>
       <c r="HI103" s="97">
         <f t="shared" si="211"/>
-        <v>6174.7300979703023</v>
+        <v>6065.6229501998132</v>
       </c>
       <c r="HJ103" s="97">
         <f t="shared" si="211"/>
-        <v>6112.9827969905991</v>
+        <v>6004.9667206978147</v>
       </c>
       <c r="HK103" s="97">
         <f t="shared" si="211"/>
-        <v>6051.8529690206933</v>
+        <v>5944.9170534908362</v>
       </c>
       <c r="HL103" s="97">
         <f t="shared" si="211"/>
-        <v>5991.334439330486</v>
+        <v>5885.467882955928</v>
       </c>
       <c r="HM103" s="97">
         <f t="shared" si="211"/>
-        <v>5931.4210949371809</v>
+        <v>5826.6132041263691</v>
       </c>
       <c r="HN103" s="97">
         <f t="shared" si="211"/>
-        <v>5872.1068839878089</v>
+        <v>5768.3470720851055</v>
       </c>
       <c r="HO103" s="97">
         <f t="shared" si="211"/>
-        <v>5813.3858151479308</v>
+        <v>5710.6636013642546</v>
       </c>
       <c r="HP103" s="97">
         <f t="shared" si="211"/>
-        <v>5755.2519569964516</v>
+        <v>5653.5569653506118</v>
       </c>
       <c r="HQ103" s="97">
         <f t="shared" si="211"/>
-        <v>5697.6994374264868</v>
+        <v>5597.0213956971056</v>
       </c>
       <c r="HR103" s="97">
         <f t="shared" si="211"/>
-        <v>5640.7224430522219</v>
+        <v>5541.0511817401348</v>
       </c>
       <c r="HS103" s="97">
         <f t="shared" si="211"/>
-        <v>5584.3152186216994</v>
+        <v>5485.6406699227337</v>
       </c>
       <c r="HT103" s="97">
         <f t="shared" si="211"/>
-        <v>5528.4720664354827</v>
+        <v>5430.7842632235061</v>
       </c>
       <c r="HU103" s="97">
         <f t="shared" si="211"/>
-        <v>5473.1873457711281</v>
+        <v>5376.4764205912707</v>
       </c>
       <c r="HV103" s="97">
         <f t="shared" si="211"/>
-        <v>5418.455472313417</v>
+        <v>5322.7116563853579</v>
       </c>
       <c r="HW103" s="97">
         <f t="shared" si="211"/>
-        <v>5364.2709175902828</v>
+        <v>5269.4845398215039</v>
       </c>
       <c r="HX103" s="97">
         <f t="shared" si="211"/>
-        <v>5310.6282084143795</v>
+        <v>5216.7896944232889</v>
       </c>
       <c r="HY103" s="97">
         <f t="shared" si="211"/>
-        <v>5257.5219263302361</v>
+        <v>5164.6217974790561</v>
       </c>
       <c r="HZ103" s="97">
         <f t="shared" si="211"/>
-        <v>5204.9467070669334</v>
+        <v>5112.9755795042656</v>
       </c>
       <c r="IA103" s="97">
         <f t="shared" si="211"/>
-        <v>5152.897239996264</v>
+        <v>5061.8458237092227</v>
       </c>
       <c r="IB103" s="97">
         <f t="shared" si="211"/>
-        <v>5101.3682675963009</v>
+        <v>5011.2273654721303</v>
       </c>
       <c r="IC103" s="97">
         <f t="shared" ref="IC103:IP103" si="212">IB103*(1+$EM$108)</f>
-        <v>5050.3545849203383</v>
+        <v>4961.1150918174089</v>
       </c>
       <c r="ID103" s="97">
         <f t="shared" si="212"/>
-        <v>4999.8510390711344</v>
+        <v>4911.5039408992352</v>
       </c>
       <c r="IE103" s="97">
         <f t="shared" si="212"/>
-        <v>4949.8525286804233</v>
+        <v>4862.3889014902425</v>
       </c>
       <c r="IF103" s="97">
         <f t="shared" si="212"/>
-        <v>4900.3540033936188</v>
+        <v>4813.76501247534</v>
       </c>
       <c r="IG103" s="97">
         <f t="shared" si="212"/>
-        <v>4851.3504633596822</v>
+        <v>4765.6273623505867</v>
       </c>
       <c r="IH103" s="97">
         <f t="shared" si="212"/>
-        <v>4802.836958726085</v>
+        <v>4717.9710887270812</v>
       </c>
       <c r="II103" s="97">
         <f t="shared" si="212"/>
-        <v>4754.8085891388237</v>
+        <v>4670.7913778398106</v>
       </c>
       <c r="IJ103" s="97">
         <f t="shared" si="212"/>
-        <v>4707.2605032474357</v>
+        <v>4624.0834640614121</v>
       </c>
       <c r="IK103" s="97">
         <f t="shared" si="212"/>
-        <v>4660.187898214961</v>
+        <v>4577.8426294207975</v>
       </c>
       <c r="IL103" s="97">
         <f t="shared" si="212"/>
-        <v>4613.5860192328109</v>
+        <v>4532.0642031265897</v>
       </c>
       <c r="IM103" s="97">
         <f t="shared" si="212"/>
-        <v>4567.4501590404825</v>
+        <v>4486.7435610953235</v>
       </c>
       <c r="IN103" s="97">
         <f t="shared" si="212"/>
-        <v>4521.7756574500772</v>
+        <v>4441.8761254843703</v>
       </c>
       <c r="IO103" s="97">
         <f t="shared" si="212"/>
-        <v>4476.5579008755767</v>
+        <v>4397.4573642295263</v>
       </c>
       <c r="IP103" s="97">
         <f t="shared" si="212"/>
-        <v>4431.7923218668211</v>
+        <v>4353.4827905872307</v>
       </c>
     </row>
     <row r="104" spans="2:250" s="8" customFormat="1" ht="12.75" customHeight="1">
@@ -43002,7 +42015,7 @@
       </c>
       <c r="CM104" s="29">
         <f t="shared" si="217"/>
-        <v>1.4292434339474716</v>
+        <v>1.3986671893375147</v>
       </c>
       <c r="CN104" s="29">
         <f t="shared" si="217"/>
@@ -43087,55 +42100,55 @@
       </c>
       <c r="DX104" s="29">
         <f t="shared" si="219"/>
-        <v>7.93</v>
+        <v>7.9</v>
       </c>
       <c r="DY104" s="29">
         <f t="shared" si="219"/>
-        <v>10.75</v>
+        <v>10.65</v>
       </c>
       <c r="DZ104" s="29">
         <f t="shared" si="219"/>
-        <v>10.63</v>
+        <v>10.53</v>
       </c>
       <c r="EA104" s="29">
         <f t="shared" si="219"/>
-        <v>10.25</v>
+        <v>10.16</v>
       </c>
       <c r="EB104" s="29">
         <f t="shared" ref="EB104:EJ104" si="220">ROUND(EB103/EB105,2)</f>
-        <v>9</v>
+        <v>8.91</v>
       </c>
       <c r="EC104" s="29">
         <f t="shared" si="220"/>
-        <v>8.98</v>
+        <v>8.89</v>
       </c>
       <c r="ED104" s="29">
         <f t="shared" si="220"/>
-        <v>8.56</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="EE104" s="29">
         <f t="shared" si="220"/>
-        <v>7.83</v>
+        <v>7.74</v>
       </c>
       <c r="EF104" s="29">
         <f t="shared" si="220"/>
-        <v>6.96</v>
+        <v>6.87</v>
       </c>
       <c r="EG104" s="29">
         <f t="shared" si="220"/>
-        <v>6.15</v>
+        <v>6.06</v>
       </c>
       <c r="EH104" s="29">
         <f t="shared" si="220"/>
-        <v>5.69</v>
+        <v>5.6</v>
       </c>
       <c r="EI104" s="29">
         <f t="shared" si="220"/>
-        <v>5.41</v>
+        <v>5.32</v>
       </c>
       <c r="EJ104" s="29">
         <f t="shared" si="220"/>
-        <v>5.27</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="105" spans="2:250" s="83" customFormat="1" ht="12.75" customHeight="1">
@@ -43717,7 +42730,7 @@
       </c>
       <c r="CM107" s="105">
         <f t="shared" si="231"/>
-        <v>0.7698592516306213</v>
+        <v>0.76862014219645203</v>
       </c>
       <c r="CN107" s="105">
         <f t="shared" si="231"/>
@@ -43792,7 +42805,7 @@
       </c>
       <c r="DX107" s="105">
         <f t="shared" ref="DX107:EJ107" si="234">DX89/DX87</f>
-        <v>0.76933036751767869</v>
+        <v>0.76903131440728678</v>
       </c>
       <c r="DY107" s="105">
         <f t="shared" si="234"/>
@@ -43800,7 +42813,7 @@
       </c>
       <c r="DZ107" s="105">
         <f t="shared" si="234"/>
-        <v>0.80000000000000016</v>
+        <v>0.8</v>
       </c>
       <c r="EA107" s="105">
         <f t="shared" si="234"/>
@@ -43808,11 +42821,11 @@
       </c>
       <c r="EB107" s="105">
         <f t="shared" si="234"/>
-        <v>0.80000000000000016</v>
+        <v>0.8</v>
       </c>
       <c r="EC107" s="105">
         <f t="shared" si="234"/>
-        <v>0.8</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="ED107" s="105">
         <f t="shared" si="234"/>
@@ -43840,7 +42853,7 @@
       </c>
       <c r="EJ107" s="105">
         <f t="shared" si="234"/>
-        <v>0.8</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="EL107" s="83" t="s">
         <v>647</v>
@@ -43985,7 +42998,7 @@
       </c>
       <c r="CM108" s="105">
         <f t="shared" si="235"/>
-        <v>0.16876072777205631</v>
+        <v>0.16966935873541797</v>
       </c>
       <c r="CN108" s="105">
         <f t="shared" si="235"/>
@@ -44228,7 +43241,7 @@
       </c>
       <c r="CM109" s="105">
         <f t="shared" si="237"/>
-        <v>0.29289392378990731</v>
+        <v>0.29447090494926487</v>
       </c>
       <c r="CN109" s="105">
         <f t="shared" si="237"/>
@@ -44471,7 +43484,7 @@
       </c>
       <c r="CM110" s="105">
         <f t="shared" si="239"/>
-        <v>0.30820460006865774</v>
+        <v>0.30447987851176916</v>
       </c>
       <c r="CN110" s="105">
         <f t="shared" si="239"/>
@@ -44585,7 +43598,7 @@
       </c>
       <c r="EM110" s="87">
         <f>NPV($EM$109,DY103:HA103)+Main!J5-Main!J6+DX103</f>
-        <v>237010.70210847582</v>
+        <v>233740.43491107016</v>
       </c>
     </row>
     <row r="111" spans="2:250" s="103" customFormat="1" ht="12.75" customHeight="1">
@@ -44790,7 +43803,7 @@
       </c>
       <c r="EM111" s="109">
         <f>EM110/Main!J3</f>
-        <v>93.502379443868733</v>
+        <v>92.212236164875733</v>
       </c>
     </row>
     <row r="112" spans="2:250" s="103" customFormat="1" ht="12.75" customHeight="1">
@@ -44929,7 +43942,7 @@
       </c>
       <c r="CM112" s="105">
         <f t="shared" si="243"/>
-        <v>0.25032612427051149</v>
+        <v>0.24628977704148547</v>
       </c>
       <c r="CN112" s="105">
         <f t="shared" si="243"/>
@@ -45213,7 +44226,7 @@
       </c>
       <c r="CM113" s="105">
         <f t="shared" si="247"/>
-        <v>0.20026321561745997</v>
+        <v>0.20374916313322919</v>
       </c>
       <c r="CN113" s="105">
         <f t="shared" si="247"/>
@@ -45752,7 +44765,7 @@
       </c>
       <c r="CM116" s="44">
         <f t="shared" si="250"/>
-        <v>-8.4019872963964515E-2</v>
+        <v>-8.8925224828627081E-2</v>
       </c>
       <c r="CN116" s="44">
         <f t="shared" si="250"/>
@@ -45768,7 +44781,7 @@
       </c>
       <c r="CQ116" s="44">
         <f t="shared" si="250"/>
-        <v>8.3075866803982157E-2</v>
+        <v>8.8907296196589991E-2</v>
       </c>
       <c r="CR116" s="44">
         <f t="shared" si="250"/>
@@ -45819,7 +44832,7 @@
     </row>
     <row r="117" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="B117" s="36" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -45911,12 +44924,18 @@
       <c r="CL117" s="44">
         <v>0.08</v>
       </c>
-      <c r="CM117" s="44"/>
-      <c r="CN117" s="44"/>
+      <c r="CM117" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="CN117" s="44">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="CO117" s="44">
         <v>0.08</v>
       </c>
-      <c r="CP117" s="44"/>
+      <c r="CP117" s="44">
+        <v>0.13</v>
+      </c>
       <c r="CQ117" s="44"/>
       <c r="CR117" s="44">
         <v>0.11</v>
@@ -46720,7 +45739,7 @@
     </row>
     <row r="122" spans="2:140" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B122" s="100" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C122" s="101"/>
       <c r="D122" s="101"/>
@@ -46812,7 +45831,7 @@
         <v>-21297</v>
       </c>
       <c r="CK122" s="116">
-        <f t="shared" ref="CK122:CM122" si="255">CK123-CK132</f>
+        <f t="shared" ref="CK122:CP122" si="255">CK123-CK132</f>
         <v>0</v>
       </c>
       <c r="CL122" s="116">
@@ -46823,9 +45842,18 @@
         <f t="shared" si="255"/>
         <v>-19069</v>
       </c>
-      <c r="CN122" s="116"/>
-      <c r="CO122" s="116"/>
-      <c r="CP122" s="116"/>
+      <c r="CN122" s="116">
+        <f t="shared" si="255"/>
+        <v>-29319</v>
+      </c>
+      <c r="CO122" s="116">
+        <f t="shared" si="255"/>
+        <v>-24780</v>
+      </c>
+      <c r="CP122" s="116">
+        <f t="shared" si="255"/>
+        <v>-27710</v>
+      </c>
       <c r="CQ122" s="116">
         <f>+CQ123-CQ132</f>
         <v>-28320</v>
@@ -46867,55 +45895,55 @@
       <c r="DW122" s="84"/>
       <c r="DX122" s="87">
         <f>CP122</f>
-        <v>0</v>
+        <v>-27710</v>
       </c>
       <c r="DY122" s="87">
         <f t="shared" ref="DY122:EJ122" si="256">DX122+DY103</f>
-        <v>27333.342000000004</v>
+        <v>-626.60299999999552</v>
       </c>
       <c r="DZ122" s="87">
         <f t="shared" si="256"/>
-        <v>54356.829165000003</v>
+        <v>26149.276577500001</v>
       </c>
       <c r="EA122" s="87">
         <f t="shared" si="256"/>
-        <v>80420.541867937514</v>
+        <v>51967.315436031255</v>
       </c>
       <c r="EB122" s="87">
         <f t="shared" si="256"/>
-        <v>103312.39684408267</v>
+        <v>74624.661196437111</v>
       </c>
       <c r="EC122" s="87">
         <f t="shared" si="256"/>
-        <v>126149.0626332204</v>
+        <v>97227.169952467491</v>
       </c>
       <c r="ED122" s="87">
         <f t="shared" si="256"/>
-        <v>147920.62627656217</v>
+        <v>118764.72028652861</v>
       </c>
       <c r="EE122" s="87">
         <f t="shared" si="256"/>
-        <v>167833.15699775697</v>
+        <v>138443.19251004065</v>
       </c>
       <c r="EF122" s="87">
         <f t="shared" si="256"/>
-        <v>185527.23610705155</v>
+        <v>155902.99660319561</v>
       </c>
       <c r="EG122" s="87">
         <f t="shared" si="256"/>
-        <v>201171.25478717682</v>
+        <v>171312.3682328084</v>
       </c>
       <c r="EH122" s="87">
         <f t="shared" si="256"/>
-        <v>215645.22887924887</v>
+        <v>185551.18194691249</v>
       </c>
       <c r="EI122" s="87">
         <f t="shared" si="256"/>
-        <v>229393.64336127232</v>
+        <v>199063.79422101422</v>
       </c>
       <c r="EJ122" s="87">
         <f t="shared" si="256"/>
-        <v>242781.40572770126</v>
+        <v>212214.99554855496</v>
       </c>
     </row>
     <row r="123" spans="2:140" s="83" customFormat="1" ht="12.75" customHeight="1">
@@ -47017,9 +46045,18 @@
         <f>9707+680+1290</f>
         <v>11677</v>
       </c>
-      <c r="CN123" s="84"/>
-      <c r="CO123" s="84"/>
-      <c r="CP123" s="84"/>
+      <c r="CN123" s="87">
+        <f>5660+718+1214</f>
+        <v>7592</v>
+      </c>
+      <c r="CO123" s="87">
+        <f>8605+168+1306</f>
+        <v>10079</v>
+      </c>
+      <c r="CP123" s="87">
+        <f>6841+252+252</f>
+        <v>7345</v>
+      </c>
       <c r="CQ123" s="87">
         <f>5579+40+280</f>
         <v>5899</v>
@@ -47162,9 +46199,15 @@
       <c r="CM124" s="87">
         <v>10415</v>
       </c>
-      <c r="CN124" s="84"/>
-      <c r="CO124" s="84"/>
-      <c r="CP124" s="84"/>
+      <c r="CN124" s="87">
+        <v>11030</v>
+      </c>
+      <c r="CO124" s="87">
+        <v>10394</v>
+      </c>
+      <c r="CP124" s="87">
+        <v>10349</v>
+      </c>
       <c r="CQ124" s="87">
         <v>11366</v>
       </c>
@@ -47305,9 +46348,15 @@
       <c r="CM125" s="87">
         <v>5863</v>
       </c>
-      <c r="CN125" s="84"/>
-      <c r="CO125" s="84"/>
-      <c r="CP125" s="84"/>
+      <c r="CN125" s="87">
+        <v>5930</v>
+      </c>
+      <c r="CO125" s="87">
+        <v>6131</v>
+      </c>
+      <c r="CP125" s="87">
+        <v>6358</v>
+      </c>
       <c r="CQ125" s="87">
         <v>6510</v>
       </c>
@@ -47448,9 +46497,15 @@
       <c r="CM126" s="87">
         <v>6737</v>
       </c>
-      <c r="CN126" s="88"/>
-      <c r="CO126" s="88"/>
-      <c r="CP126" s="88"/>
+      <c r="CN126" s="87">
+        <v>6639</v>
+      </c>
+      <c r="CO126" s="87">
+        <v>6656</v>
+      </c>
+      <c r="CP126" s="87">
+        <v>8368</v>
+      </c>
       <c r="CQ126" s="87">
         <v>7950</v>
       </c>
@@ -47591,9 +46646,15 @@
       <c r="CM127" s="87">
         <v>21758</v>
       </c>
-      <c r="CN127" s="84"/>
-      <c r="CO127" s="84"/>
-      <c r="CP127" s="84"/>
+      <c r="CN127" s="87">
+        <v>22231</v>
+      </c>
+      <c r="CO127" s="87">
+        <v>22526</v>
+      </c>
+      <c r="CP127" s="87">
+        <v>23051</v>
+      </c>
       <c r="CQ127" s="87">
         <v>23045</v>
       </c>
@@ -47736,9 +46797,18 @@
         <f>21209+19857</f>
         <v>41066</v>
       </c>
-      <c r="CN128" s="84"/>
-      <c r="CO128" s="84"/>
-      <c r="CP128" s="84"/>
+      <c r="CN128" s="87">
+        <f>21195+19665</f>
+        <v>40860</v>
+      </c>
+      <c r="CO128" s="87">
+        <f>21183+19199</f>
+        <v>40382</v>
+      </c>
+      <c r="CP128" s="87">
+        <f>18011+21197</f>
+        <v>39208</v>
+      </c>
       <c r="CQ128" s="87">
         <f>21181+17572</f>
         <v>38753</v>
@@ -47881,9 +46951,15 @@
       <c r="CM129" s="87">
         <v>10280</v>
       </c>
-      <c r="CN129" s="84"/>
-      <c r="CO129" s="84"/>
-      <c r="CP129" s="84"/>
+      <c r="CN129" s="87">
+        <v>10187</v>
+      </c>
+      <c r="CO129" s="87">
+        <v>10559</v>
+      </c>
+      <c r="CP129" s="87">
+        <v>11996</v>
+      </c>
       <c r="CQ129" s="87">
         <v>12326</v>
       </c>
@@ -48026,9 +47102,18 @@
         <f>SUM(CM123:CM129)</f>
         <v>107796</v>
       </c>
-      <c r="CN130" s="84"/>
-      <c r="CO130" s="84"/>
-      <c r="CP130" s="84"/>
+      <c r="CN130" s="87">
+        <f>SUM(CN123:CN129)</f>
+        <v>104469</v>
+      </c>
+      <c r="CO130" s="87">
+        <f>SUM(CO123:CO129)</f>
+        <v>106727</v>
+      </c>
+      <c r="CP130" s="87">
+        <f>SUM(CP123:CP129)</f>
+        <v>106675</v>
+      </c>
       <c r="CQ130" s="87">
         <f>SUM(CQ123:CQ129)</f>
         <v>105849</v>
@@ -48306,9 +47391,18 @@
         <f>2672+28074</f>
         <v>30746</v>
       </c>
-      <c r="CN132" s="87"/>
-      <c r="CO132" s="87"/>
-      <c r="CP132" s="87"/>
+      <c r="CN132" s="87">
+        <f>2839+34072</f>
+        <v>36911</v>
+      </c>
+      <c r="CO132" s="87">
+        <f>887+33972</f>
+        <v>34859</v>
+      </c>
+      <c r="CP132" s="87">
+        <f>1372+33683</f>
+        <v>35055</v>
+      </c>
       <c r="CQ132" s="87">
         <f>31142+3077</f>
         <v>34219</v>
@@ -48451,9 +47545,15 @@
       <c r="CM133" s="87">
         <v>3680</v>
       </c>
-      <c r="CN133" s="87"/>
-      <c r="CO133" s="87"/>
-      <c r="CP133" s="87"/>
+      <c r="CN133" s="87">
+        <v>3442</v>
+      </c>
+      <c r="CO133" s="87">
+        <v>3509</v>
+      </c>
+      <c r="CP133" s="87">
+        <v>3922</v>
+      </c>
       <c r="CQ133" s="87">
         <v>3514</v>
       </c>
@@ -48594,9 +47694,15 @@
       <c r="CM134" s="87">
         <v>13000</v>
       </c>
-      <c r="CN134" s="87"/>
-      <c r="CO134" s="87"/>
-      <c r="CP134" s="87"/>
+      <c r="CN134" s="87">
+        <v>13747</v>
+      </c>
+      <c r="CO134" s="87">
+        <v>14840</v>
+      </c>
+      <c r="CP134" s="87">
+        <v>15766</v>
+      </c>
       <c r="CQ134" s="87">
         <v>14102</v>
       </c>
@@ -48739,9 +47845,18 @@
         <f>1872+1442</f>
         <v>3314</v>
       </c>
-      <c r="CN135" s="87"/>
-      <c r="CO135" s="87"/>
-      <c r="CP135" s="87"/>
+      <c r="CN135" s="87">
+        <f>1489+996</f>
+        <v>2485</v>
+      </c>
+      <c r="CO135" s="87">
+        <f>1981+1018</f>
+        <v>2999</v>
+      </c>
+      <c r="CP135" s="87">
+        <f>2649+871</f>
+        <v>3520</v>
+      </c>
       <c r="CQ135" s="87">
         <f>2398+922</f>
         <v>3320</v>
@@ -48883,9 +47998,15 @@
       <c r="CM136" s="87">
         <v>1907</v>
       </c>
-      <c r="CN136" s="87"/>
-      <c r="CO136" s="87"/>
-      <c r="CP136" s="87"/>
+      <c r="CN136" s="87">
+        <v>1877</v>
+      </c>
+      <c r="CO136" s="87">
+        <v>1877</v>
+      </c>
+      <c r="CP136" s="87">
+        <v>1985</v>
+      </c>
       <c r="CQ136" s="87">
         <v>2008</v>
       </c>
@@ -49026,9 +48147,15 @@
       <c r="CM137" s="87">
         <v>8244</v>
       </c>
-      <c r="CN137" s="87"/>
-      <c r="CO137" s="87"/>
-      <c r="CP137" s="87"/>
+      <c r="CN137" s="87">
+        <v>7265</v>
+      </c>
+      <c r="CO137" s="87">
+        <v>7343</v>
+      </c>
+      <c r="CP137" s="87">
+        <v>8792</v>
+      </c>
       <c r="CQ137" s="87">
         <v>8262</v>
       </c>
@@ -49170,9 +48297,15 @@
       <c r="CM138" s="87">
         <v>46905</v>
       </c>
-      <c r="CN138" s="87"/>
-      <c r="CO138" s="87"/>
-      <c r="CP138" s="87"/>
+      <c r="CN138" s="87">
+        <v>38742</v>
+      </c>
+      <c r="CO138" s="87">
+        <v>41300</v>
+      </c>
+      <c r="CP138" s="87">
+        <v>37635</v>
+      </c>
       <c r="CQ138" s="87">
         <v>40424</v>
       </c>
@@ -49315,9 +48448,18 @@
         <f>SUM(CM132:CM138)</f>
         <v>107796</v>
       </c>
-      <c r="CN139" s="87"/>
-      <c r="CO139" s="87"/>
-      <c r="CP139" s="87"/>
+      <c r="CN139" s="87">
+        <f>SUM(CN132:CN138)</f>
+        <v>104469</v>
+      </c>
+      <c r="CO139" s="87">
+        <f>SUM(CO132:CO138)</f>
+        <v>106727</v>
+      </c>
+      <c r="CP139" s="87">
+        <f>SUM(CP132:CP138)</f>
+        <v>106675</v>
+      </c>
       <c r="CQ139" s="87">
         <f>SUM(CQ132:CQ138)</f>
         <v>105849</v>
@@ -49498,7 +48640,7 @@
     </row>
     <row r="141" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B141" s="100" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C141" s="101"/>
       <c r="D141" s="101"/>
@@ -49588,10 +48730,22 @@
       <c r="CJ141" s="84"/>
       <c r="CK141" s="84"/>
       <c r="CL141" s="84"/>
-      <c r="CM141" s="84"/>
-      <c r="CN141" s="84"/>
-      <c r="CO141" s="84"/>
-      <c r="CP141" s="84"/>
+      <c r="CM141" s="87">
+        <f t="shared" ref="CM141:CQ141" si="257">+CM103</f>
+        <v>3568</v>
+      </c>
+      <c r="CN141" s="87">
+        <f t="shared" si="257"/>
+        <v>4945</v>
+      </c>
+      <c r="CO141" s="87">
+        <f t="shared" si="257"/>
+        <v>5432</v>
+      </c>
+      <c r="CP141" s="87">
+        <f t="shared" si="257"/>
+        <v>5567</v>
+      </c>
       <c r="CQ141" s="87">
         <f>+CQ103</f>
         <v>5284</v>
@@ -49636,7 +48790,7 @@
     </row>
     <row r="142" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B142" s="100" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C142" s="101"/>
       <c r="D142" s="101"/>
@@ -49726,10 +48880,21 @@
       <c r="CJ142" s="84"/>
       <c r="CK142" s="84"/>
       <c r="CL142" s="84"/>
-      <c r="CM142" s="84"/>
-      <c r="CN142" s="84"/>
-      <c r="CO142" s="84"/>
-      <c r="CP142" s="84"/>
+      <c r="CM142" s="87">
+        <v>2825</v>
+      </c>
+      <c r="CN142" s="87">
+        <f>-3147-CM142</f>
+        <v>-5972</v>
+      </c>
+      <c r="CO142" s="87">
+        <f>1603-CN142-CM142+13</f>
+        <v>4763</v>
+      </c>
+      <c r="CP142" s="87">
+        <f>377-CO142-CN142-CM142</f>
+        <v>-1239</v>
+      </c>
       <c r="CQ142" s="87">
         <v>4767</v>
       </c>
@@ -49863,10 +49028,21 @@
       <c r="CJ143" s="84"/>
       <c r="CK143" s="84"/>
       <c r="CL143" s="84"/>
-      <c r="CM143" s="84"/>
-      <c r="CN143" s="84"/>
-      <c r="CO143" s="84"/>
-      <c r="CP143" s="84"/>
+      <c r="CM143" s="87">
+        <v>543</v>
+      </c>
+      <c r="CN143" s="87">
+        <f>1020-CM143</f>
+        <v>477</v>
+      </c>
+      <c r="CO143" s="87">
+        <f>1582-CN143-CM143</f>
+        <v>562</v>
+      </c>
+      <c r="CP143" s="87">
+        <f>2044-CO143-CN143-CM143</f>
+        <v>462</v>
+      </c>
       <c r="CQ143" s="87">
         <v>473</v>
       </c>
@@ -50000,10 +49176,21 @@
       <c r="CJ144" s="84"/>
       <c r="CK144" s="84"/>
       <c r="CL144" s="84"/>
-      <c r="CM144" s="84"/>
-      <c r="CN144" s="84"/>
-      <c r="CO144" s="84"/>
-      <c r="CP144" s="84"/>
+      <c r="CM144" s="87">
+        <v>448</v>
+      </c>
+      <c r="CN144" s="87">
+        <f>874-CM144</f>
+        <v>426</v>
+      </c>
+      <c r="CO144" s="87">
+        <f>1326-CN144-CM144</f>
+        <v>452</v>
+      </c>
+      <c r="CP144" s="87">
+        <f>1828-CO144-CN144-CM144</f>
+        <v>502</v>
+      </c>
       <c r="CQ144" s="87">
         <v>511</v>
       </c>
@@ -50047,7 +49234,7 @@
     </row>
     <row r="145" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B145" s="100" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C145" s="101"/>
       <c r="D145" s="101"/>
@@ -50137,10 +49324,22 @@
       <c r="CJ145" s="84"/>
       <c r="CK145" s="84"/>
       <c r="CL145" s="84"/>
-      <c r="CM145" s="84"/>
-      <c r="CN145" s="84"/>
-      <c r="CO145" s="84"/>
-      <c r="CP145" s="84"/>
+      <c r="CM145" s="87">
+        <f>-450+1192</f>
+        <v>742</v>
+      </c>
+      <c r="CN145" s="87">
+        <f>-274+10217-CM145+1192</f>
+        <v>10393</v>
+      </c>
+      <c r="CO145" s="87">
+        <f>-240+10217+1192-CN145-CM145</f>
+        <v>34</v>
+      </c>
+      <c r="CP145" s="87">
+        <f>792-340+10217+1192-CO145-CN145-CM145</f>
+        <v>692</v>
+      </c>
       <c r="CQ145" s="87">
         <f>-143+656</f>
         <v>513</v>
@@ -50185,7 +49384,7 @@
     </row>
     <row r="146" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B146" s="100" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C146" s="101"/>
       <c r="D146" s="101"/>
@@ -50275,10 +49474,21 @@
       <c r="CJ146" s="84"/>
       <c r="CK146" s="84"/>
       <c r="CL146" s="84"/>
-      <c r="CM146" s="84"/>
-      <c r="CN146" s="84"/>
-      <c r="CO146" s="84"/>
-      <c r="CP146" s="84"/>
+      <c r="CM146" s="87">
+        <v>-277</v>
+      </c>
+      <c r="CN146" s="87">
+        <f>-632-CM146</f>
+        <v>-355</v>
+      </c>
+      <c r="CO146" s="87">
+        <f>-968-CN146-CM146</f>
+        <v>-336</v>
+      </c>
+      <c r="CP146" s="87">
+        <f>-1899-CO146-CN146-CM146</f>
+        <v>-931</v>
+      </c>
       <c r="CQ146" s="87">
         <v>-51</v>
       </c>
@@ -50322,7 +49532,7 @@
     </row>
     <row r="147" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B147" s="100" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C147" s="101"/>
       <c r="D147" s="101"/>
@@ -50412,10 +49622,21 @@
       <c r="CJ147" s="84"/>
       <c r="CK147" s="84"/>
       <c r="CL147" s="84"/>
-      <c r="CM147" s="84"/>
-      <c r="CN147" s="84"/>
-      <c r="CO147" s="84"/>
-      <c r="CP147" s="84"/>
+      <c r="CM147" s="87">
+        <v>145</v>
+      </c>
+      <c r="CN147" s="87">
+        <f>314-CM147</f>
+        <v>169</v>
+      </c>
+      <c r="CO147" s="87">
+        <f>478-CN147-CM147</f>
+        <v>164</v>
+      </c>
+      <c r="CP147" s="87">
+        <f>645-CO147-CN147-CM147</f>
+        <v>167</v>
+      </c>
       <c r="CQ147" s="87">
         <v>176</v>
       </c>
@@ -50549,10 +49770,21 @@
       <c r="CJ148" s="84"/>
       <c r="CK148" s="84"/>
       <c r="CL148" s="84"/>
-      <c r="CM148" s="84"/>
-      <c r="CN148" s="84"/>
-      <c r="CO148" s="84"/>
-      <c r="CP148" s="84"/>
+      <c r="CM148" s="87">
+        <v>-197</v>
+      </c>
+      <c r="CN148" s="87">
+        <f>5-CM148</f>
+        <v>202</v>
+      </c>
+      <c r="CO148" s="87">
+        <f>-94-CN148-CM148</f>
+        <v>-99</v>
+      </c>
+      <c r="CP148" s="87">
+        <f>355-CO148-CN148-CM148</f>
+        <v>449</v>
+      </c>
       <c r="CQ148" s="87">
         <v>83</v>
       </c>
@@ -50596,7 +49828,7 @@
     </row>
     <row r="149" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B149" s="100" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
@@ -50686,10 +49918,21 @@
       <c r="CJ149" s="84"/>
       <c r="CK149" s="84"/>
       <c r="CL149" s="84"/>
-      <c r="CM149" s="84"/>
-      <c r="CN149" s="84"/>
-      <c r="CO149" s="84"/>
-      <c r="CP149" s="84"/>
+      <c r="CM149" s="87">
+        <v>-2890</v>
+      </c>
+      <c r="CN149" s="87">
+        <f>-4526-CM149</f>
+        <v>-1636</v>
+      </c>
+      <c r="CO149" s="87">
+        <f>-2349-CN149-CM149</f>
+        <v>2177</v>
+      </c>
+      <c r="CP149" s="87">
+        <f>-1148-816-380+1783+214+456-2314-CO149-CN149-CM149</f>
+        <v>144</v>
+      </c>
       <c r="CQ149" s="87">
         <v>-3382</v>
       </c>
@@ -50733,7 +49976,7 @@
     </row>
     <row r="150" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B150" s="100" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
@@ -50823,10 +50066,22 @@
       <c r="CJ150" s="84"/>
       <c r="CK150" s="84"/>
       <c r="CL150" s="84"/>
-      <c r="CM150" s="84"/>
-      <c r="CN150" s="84"/>
-      <c r="CO150" s="84"/>
-      <c r="CP150" s="84"/>
+      <c r="CM150" s="87">
+        <f>SUM(CM142:CM149)</f>
+        <v>1339</v>
+      </c>
+      <c r="CN150" s="87">
+        <f>SUM(CN142:CN149)</f>
+        <v>3704</v>
+      </c>
+      <c r="CO150" s="87">
+        <f>SUM(CO142:CO149)</f>
+        <v>7717</v>
+      </c>
+      <c r="CP150" s="87">
+        <f>SUM(CP142:CP149)</f>
+        <v>246</v>
+      </c>
       <c r="CQ150" s="87">
         <f>SUM(CQ142:CQ149)</f>
         <v>3090</v>
@@ -51004,7 +50259,7 @@
     </row>
     <row r="152" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B152" s="100" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C152" s="101"/>
       <c r="D152" s="101"/>
@@ -51094,10 +50349,21 @@
       <c r="CJ152" s="84"/>
       <c r="CK152" s="84"/>
       <c r="CL152" s="84"/>
-      <c r="CM152" s="84"/>
-      <c r="CN152" s="84"/>
-      <c r="CO152" s="84"/>
-      <c r="CP152" s="84"/>
+      <c r="CM152" s="87">
+        <v>-1007</v>
+      </c>
+      <c r="CN152" s="87">
+        <f>-1972-CM152</f>
+        <v>-965</v>
+      </c>
+      <c r="CO152" s="87">
+        <f>-2874-CN152-CM152</f>
+        <v>-902</v>
+      </c>
+      <c r="CP152" s="87">
+        <f>-3863-CO152-CN152-CM152</f>
+        <v>-989</v>
+      </c>
       <c r="CQ152" s="87">
         <v>-861</v>
       </c>
@@ -51141,7 +50407,7 @@
     </row>
     <row r="153" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B153" s="100" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C153" s="101"/>
       <c r="D153" s="101"/>
@@ -51231,10 +50497,22 @@
       <c r="CJ153" s="84"/>
       <c r="CK153" s="84"/>
       <c r="CL153" s="84"/>
-      <c r="CM153" s="84"/>
-      <c r="CN153" s="84"/>
-      <c r="CO153" s="84"/>
-      <c r="CP153" s="84"/>
+      <c r="CM153" s="87">
+        <f>-562+500</f>
+        <v>-62</v>
+      </c>
+      <c r="CN153" s="87">
+        <f>-587+785-CM153</f>
+        <v>260</v>
+      </c>
+      <c r="CO153" s="87">
+        <f>-704+1489-CN153-CM153</f>
+        <v>587</v>
+      </c>
+      <c r="CP153" s="87">
+        <f>-955+1145+1658-CO153-CN153-CM153</f>
+        <v>1063</v>
+      </c>
       <c r="CQ153" s="87">
         <f>-15+260</f>
         <v>245</v>
@@ -51279,7 +50557,7 @@
     </row>
     <row r="154" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B154" s="100" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C154" s="101"/>
       <c r="D154" s="101"/>
@@ -51369,10 +50647,21 @@
       <c r="CJ154" s="84"/>
       <c r="CK154" s="84"/>
       <c r="CL154" s="84"/>
-      <c r="CM154" s="84"/>
-      <c r="CN154" s="84"/>
-      <c r="CO154" s="84"/>
-      <c r="CP154" s="84"/>
+      <c r="CM154" s="87">
+        <v>-1327</v>
+      </c>
+      <c r="CN154" s="87">
+        <f>-10705-1327-CM154</f>
+        <v>-10705</v>
+      </c>
+      <c r="CO154" s="87">
+        <f>-10705-1327-CN154-CM154</f>
+        <v>0</v>
+      </c>
+      <c r="CP154" s="87">
+        <f>-10705-1327-CO154-CN154-CM154</f>
+        <v>0</v>
+      </c>
       <c r="CQ154" s="87">
         <v>-746</v>
       </c>
@@ -51506,10 +50795,21 @@
       <c r="CJ155" s="84"/>
       <c r="CK155" s="84"/>
       <c r="CL155" s="84"/>
-      <c r="CM155" s="84"/>
-      <c r="CN155" s="84"/>
-      <c r="CO155" s="84"/>
-      <c r="CP155" s="84"/>
+      <c r="CM155" s="87">
+        <v>37</v>
+      </c>
+      <c r="CN155" s="87">
+        <f>4-CM155</f>
+        <v>-33</v>
+      </c>
+      <c r="CO155" s="87">
+        <f>-15-CN155-CM155</f>
+        <v>-19</v>
+      </c>
+      <c r="CP155" s="87">
+        <f>-36-CO155-CN155-CM155</f>
+        <v>-21</v>
+      </c>
       <c r="CQ155" s="87">
         <v>-14</v>
       </c>
@@ -51553,7 +50853,7 @@
     </row>
     <row r="156" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B156" s="100" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C156" s="101"/>
       <c r="D156" s="101"/>
@@ -51643,10 +50943,22 @@
       <c r="CJ156" s="84"/>
       <c r="CK156" s="84"/>
       <c r="CL156" s="84"/>
-      <c r="CM156" s="84"/>
-      <c r="CN156" s="84"/>
-      <c r="CO156" s="84"/>
-      <c r="CP156" s="84"/>
+      <c r="CM156" s="87">
+        <f>SUM(CM152:CM155)</f>
+        <v>-2359</v>
+      </c>
+      <c r="CN156" s="87">
+        <f>SUM(CN152:CN155)</f>
+        <v>-11443</v>
+      </c>
+      <c r="CO156" s="87">
+        <f>SUM(CO152:CO155)</f>
+        <v>-334</v>
+      </c>
+      <c r="CP156" s="87">
+        <f>SUM(CP152:CP155)</f>
+        <v>53</v>
+      </c>
       <c r="CQ156" s="87">
         <f>SUM(CQ152:CQ155)</f>
         <v>-1376</v>
@@ -51824,7 +51136,7 @@
     </row>
     <row r="158" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B158" s="100" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C158" s="101"/>
       <c r="D158" s="101"/>
@@ -51914,10 +51226,21 @@
       <c r="CJ158" s="84"/>
       <c r="CK158" s="84"/>
       <c r="CL158" s="84"/>
-      <c r="CM158" s="84"/>
-      <c r="CN158" s="84"/>
-      <c r="CO158" s="84"/>
-      <c r="CP158" s="84"/>
+      <c r="CM158" s="87">
+        <v>-1</v>
+      </c>
+      <c r="CN158" s="87">
+        <f>-1751+1937+5946-CM158</f>
+        <v>6133</v>
+      </c>
+      <c r="CO158" s="87">
+        <f>5939-1752-CN158-CM158</f>
+        <v>-1945</v>
+      </c>
+      <c r="CP158" s="87">
+        <f>-1755+5939-CO158-CN158-CM158</f>
+        <v>-3</v>
+      </c>
       <c r="CQ158" s="87">
         <v>-751</v>
       </c>
@@ -52051,10 +51374,21 @@
       <c r="CJ159" s="84"/>
       <c r="CK159" s="84"/>
       <c r="CL159" s="84"/>
-      <c r="CM159" s="84"/>
-      <c r="CN159" s="84"/>
-      <c r="CO159" s="84"/>
-      <c r="CP159" s="84"/>
+      <c r="CM159" s="87">
+        <v>-1853</v>
+      </c>
+      <c r="CN159" s="87">
+        <f>-3738-CM159</f>
+        <v>-1885</v>
+      </c>
+      <c r="CO159" s="87">
+        <f>-5593-CN159-CM159</f>
+        <v>-1855</v>
+      </c>
+      <c r="CP159" s="87">
+        <f>-7445-CO159-CN159-CM159</f>
+        <v>-1852</v>
+      </c>
       <c r="CQ159" s="87">
         <v>-1950</v>
       </c>
@@ -52098,7 +51432,7 @@
     </row>
     <row r="160" spans="2:133" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B160" s="100" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C160" s="101"/>
       <c r="D160" s="101"/>
@@ -52188,10 +51522,21 @@
       <c r="CJ160" s="84"/>
       <c r="CK160" s="84"/>
       <c r="CL160" s="84"/>
-      <c r="CM160" s="84"/>
-      <c r="CN160" s="84"/>
-      <c r="CO160" s="84"/>
-      <c r="CP160" s="84"/>
+      <c r="CM160" s="87">
+        <v>-149</v>
+      </c>
+      <c r="CN160" s="87">
+        <f>-487-CM160</f>
+        <v>-338</v>
+      </c>
+      <c r="CO160" s="87">
+        <f>-953-CN160-CM160</f>
+        <v>-466</v>
+      </c>
+      <c r="CP160" s="87">
+        <f>-1346-CO160-CN160-CM160</f>
+        <v>-393</v>
+      </c>
       <c r="CQ160" s="87">
         <v>-122</v>
       </c>
@@ -52235,7 +51580,7 @@
     </row>
     <row r="161" spans="2:137" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B161" s="100" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C161" s="101"/>
       <c r="D161" s="101"/>
@@ -52325,10 +51670,21 @@
       <c r="CJ161" s="84"/>
       <c r="CK161" s="84"/>
       <c r="CL161" s="84"/>
-      <c r="CM161" s="84"/>
-      <c r="CN161" s="84"/>
-      <c r="CO161" s="84"/>
-      <c r="CP161" s="84"/>
+      <c r="CM161" s="87">
+        <v>30</v>
+      </c>
+      <c r="CN161" s="87">
+        <f>112-CM161</f>
+        <v>82</v>
+      </c>
+      <c r="CO161" s="87">
+        <f>119-CN161-CM161</f>
+        <v>7</v>
+      </c>
+      <c r="CP161" s="87">
+        <f>125-CO161-CN161-CM161</f>
+        <v>6</v>
+      </c>
       <c r="CQ161" s="87">
         <v>87</v>
       </c>
@@ -52462,10 +51818,21 @@
       <c r="CJ162" s="84"/>
       <c r="CK162" s="84"/>
       <c r="CL162" s="84"/>
-      <c r="CM162" s="84"/>
-      <c r="CN162" s="84"/>
-      <c r="CO162" s="84"/>
-      <c r="CP162" s="84"/>
+      <c r="CM162" s="87">
+        <v>-81</v>
+      </c>
+      <c r="CN162" s="87">
+        <f>-315-CM162</f>
+        <v>-234</v>
+      </c>
+      <c r="CO162" s="87">
+        <f>-325-CN162-CM162</f>
+        <v>-10</v>
+      </c>
+      <c r="CP162" s="87">
+        <f>-328-CO162-CN162-CM162</f>
+        <v>-3</v>
+      </c>
       <c r="CQ162" s="87">
         <v>-78</v>
       </c>
@@ -52509,7 +51876,7 @@
     </row>
     <row r="163" spans="2:137" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B163" s="100" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C163" s="101"/>
       <c r="D163" s="101"/>
@@ -52599,10 +51966,22 @@
       <c r="CJ163" s="84"/>
       <c r="CK163" s="84"/>
       <c r="CL163" s="84"/>
-      <c r="CM163" s="84"/>
-      <c r="CN163" s="84"/>
-      <c r="CO163" s="84"/>
-      <c r="CP163" s="84"/>
+      <c r="CM163" s="87">
+        <f>SUM(CM158:CM162)</f>
+        <v>-2054</v>
+      </c>
+      <c r="CN163" s="87">
+        <f>SUM(CN158:CN162)</f>
+        <v>3758</v>
+      </c>
+      <c r="CO163" s="87">
+        <f>SUM(CO158:CO162)</f>
+        <v>-4269</v>
+      </c>
+      <c r="CP163" s="87">
+        <f>SUM(CP158:CP162)</f>
+        <v>-2245</v>
+      </c>
       <c r="CQ163" s="87">
         <f>SUM(CQ158:CQ162)</f>
         <v>-2814</v>
@@ -52647,7 +52026,7 @@
     </row>
     <row r="164" spans="2:137" s="83" customFormat="1" ht="12.75" customHeight="1">
       <c r="B164" s="100" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C164" s="101"/>
       <c r="D164" s="101"/>
@@ -52737,10 +52116,21 @@
       <c r="CJ164" s="84"/>
       <c r="CK164" s="84"/>
       <c r="CL164" s="84"/>
-      <c r="CM164" s="84"/>
-      <c r="CN164" s="84"/>
-      <c r="CO164" s="84"/>
-      <c r="CP164" s="84"/>
+      <c r="CM164" s="84">
+        <v>87</v>
+      </c>
+      <c r="CN164" s="84">
+        <f>-6-CM164</f>
+        <v>-93</v>
+      </c>
+      <c r="CO164" s="84">
+        <f>-163-CN164-CM164</f>
+        <v>-157</v>
+      </c>
+      <c r="CP164" s="84">
+        <f>23-CO164-CN164-CM164</f>
+        <v>186</v>
+      </c>
       <c r="CQ164" s="84">
         <v>-138</v>
       </c>
@@ -52783,7 +52173,9 @@
       <c r="EC164" s="87"/>
     </row>
     <row r="165" spans="2:137" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B165" s="110"/>
+      <c r="B165" s="110" t="s">
+        <v>985</v>
+      </c>
       <c r="C165" s="101"/>
       <c r="D165" s="101"/>
       <c r="E165" s="101"/>
@@ -52872,10 +52264,22 @@
       <c r="CJ165" s="84"/>
       <c r="CK165" s="84"/>
       <c r="CL165" s="84"/>
-      <c r="CM165" s="84"/>
-      <c r="CN165" s="84"/>
-      <c r="CO165" s="84"/>
-      <c r="CP165" s="84"/>
+      <c r="CM165" s="87">
+        <f>+CM164+CM163+CM156+CM150</f>
+        <v>-2987</v>
+      </c>
+      <c r="CN165" s="87">
+        <f>+CN164+CN163+CN156+CN150</f>
+        <v>-4074</v>
+      </c>
+      <c r="CO165" s="87">
+        <f>+CO164+CO163+CO156+CO150</f>
+        <v>2957</v>
+      </c>
+      <c r="CP165" s="87">
+        <f>+CP164+CP163+CP156+CP150</f>
+        <v>-1760</v>
+      </c>
       <c r="CQ165" s="87">
         <f>+CQ164+CQ163+CQ156+CQ150</f>
         <v>-1238</v>
@@ -53519,71 +52923,71 @@
         <v>442</v>
       </c>
       <c r="AD170" s="112">
-        <f t="shared" ref="AD170:AT170" si="257">+AD10/Z10-1</f>
+        <f t="shared" ref="AD170:AT170" si="258">+AD10/Z10-1</f>
         <v>3.7619047619047619</v>
       </c>
       <c r="AE170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>2.1264367816091956</v>
       </c>
       <c r="AF170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>1.3194444444444446</v>
       </c>
       <c r="AG170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>1.0486486486486486</v>
       </c>
       <c r="AH170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>-1</v>
       </c>
       <c r="AI170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.51102941176470584</v>
       </c>
       <c r="AJ170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.38323353293413165</v>
       </c>
       <c r="AK170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.29551451187335087</v>
       </c>
       <c r="AL170" s="112" t="e">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.24330900243308995</v>
       </c>
       <c r="AN170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.29870129870129869</v>
       </c>
       <c r="AO170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.22199592668024448</v>
       </c>
       <c r="AP170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.20967741935483875</v>
       </c>
       <c r="AQ170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.44618395303326808</v>
       </c>
       <c r="AR170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.29833333333333334</v>
       </c>
       <c r="AS170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.40999999999999992</v>
       </c>
       <c r="AT170" s="112">
-        <f t="shared" si="257"/>
+        <f t="shared" si="258"/>
         <v>0.42222222222222228</v>
       </c>
       <c r="AU170" s="112"/>
@@ -53619,71 +53023,71 @@
       <c r="BY170" s="112"/>
       <c r="BZ170" s="112"/>
       <c r="CA170" s="112">
-        <f t="shared" ref="CA170:CJ171" si="258">+CA10/BW10-1</f>
+        <f t="shared" ref="CA170:CJ171" si="259">+CA10/BW10-1</f>
         <v>-6.067961165048541E-2</v>
       </c>
       <c r="CB170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-5.9471365638766538E-2</v>
       </c>
       <c r="CC170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>1.7348203221809078E-2</v>
       </c>
       <c r="CD170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-9.1198303287380655E-2</v>
       </c>
       <c r="CE170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>4.5219638242893989E-2</v>
       </c>
       <c r="CF170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-8.1967213114754078E-2</v>
       </c>
       <c r="CG170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>3.7758830694275325E-2</v>
       </c>
       <c r="CH170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>2.4504084014002281E-2</v>
       </c>
       <c r="CI170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-3.7082818294190356E-2</v>
       </c>
       <c r="CJ170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-3.5714285714285698E-2</v>
       </c>
       <c r="CK170" s="112">
-        <f t="shared" ref="CK170:CT171" si="259">+CK10/CG10-1</f>
+        <f t="shared" ref="CK170:CQ171" si="260">+CK10/CG10-1</f>
         <v>-0.15845070422535212</v>
       </c>
       <c r="CL170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.36104783599088841</v>
       </c>
       <c r="CM170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.29268292682926833</v>
       </c>
       <c r="CN170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.32407407407407407</v>
       </c>
       <c r="CO170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.18967921896792195</v>
       </c>
       <c r="CP170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-2.4955436720142554E-2</v>
       </c>
       <c r="CQ170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.23956442831215974</v>
       </c>
       <c r="CR170" s="112"/>
@@ -53768,63 +53172,63 @@
         <v>442</v>
       </c>
       <c r="AF171" s="112">
-        <f t="shared" ref="AF171:AT171" si="260">+AF11/AB11-1</f>
+        <f t="shared" ref="AF171:AT171" si="261">+AF11/AB11-1</f>
         <v>2</v>
       </c>
       <c r="AG171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>4.3157894736842106</v>
       </c>
       <c r="AH171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>-1</v>
       </c>
       <c r="AI171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="AJ171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>1.1527777777777777</v>
       </c>
       <c r="AK171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.71287128712871284</v>
       </c>
       <c r="AL171" s="112" t="e">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.5703125</v>
       </c>
       <c r="AN171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.40645161290322585</v>
       </c>
       <c r="AO171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.42774566473988429</v>
       </c>
       <c r="AP171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.42574257425742568</v>
       </c>
       <c r="AQ171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.51741293532338317</v>
       </c>
       <c r="AR171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.47247706422018343</v>
       </c>
       <c r="AS171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.417004048582996</v>
       </c>
       <c r="AT171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.34027777777777768</v>
       </c>
       <c r="AU171" s="112"/>
@@ -53860,71 +53264,71 @@
       <c r="BY171" s="112"/>
       <c r="BZ171" s="112"/>
       <c r="CA171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-5.0943396226415083E-2</v>
       </c>
       <c r="CB171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-8.0675422138836828E-2</v>
       </c>
       <c r="CC171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>5.9642147117295874E-3</v>
       </c>
       <c r="CD171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-6.3157894736841635E-3</v>
       </c>
       <c r="CE171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-3.379721669980118E-2</v>
       </c>
       <c r="CF171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-2.6530612244897944E-2</v>
       </c>
       <c r="CG171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-3.7549407114624511E-2</v>
       </c>
       <c r="CH171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>8.8983050847457612E-2</v>
       </c>
       <c r="CI171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-6.5843621399176988E-2</v>
       </c>
       <c r="CJ171" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-2.0964360587002462E-3</v>
       </c>
       <c r="CK171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.14373716632443534</v>
       </c>
       <c r="CL171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.3132295719844358</v>
       </c>
       <c r="CM171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.27533039647577096</v>
       </c>
       <c r="CN171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.25630252100840334</v>
       </c>
       <c r="CO171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.38848920863309355</v>
       </c>
       <c r="CP171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.32011331444759206</v>
       </c>
       <c r="CQ171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.23708206686930089</v>
       </c>
       <c r="CR171" s="112"/>
@@ -54009,55 +53413,55 @@
         <v>442</v>
       </c>
       <c r="AH172" s="112">
-        <f t="shared" ref="AH172:AT172" si="261">+AH22/AD22-1</f>
+        <f t="shared" ref="AH172:AT172" si="262">+AH22/AD22-1</f>
         <v>7.9120879120879062E-2</v>
       </c>
       <c r="AI172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>2.1696252465483346E-2</v>
       </c>
       <c r="AJ172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>1.4362657091562037E-2</v>
       </c>
       <c r="AK172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>7.8014184397163122E-2</v>
       </c>
       <c r="AL172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.12219959266802449</v>
       </c>
       <c r="AM172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.30115830115830122</v>
       </c>
       <c r="AN172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.1840707964601771</v>
       </c>
       <c r="AO172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>8.7171052631578982E-2</v>
       </c>
       <c r="AP172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.64733178654292334</v>
       </c>
       <c r="AQ172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.1172106824925816</v>
       </c>
       <c r="AR172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.25859491778774291</v>
       </c>
       <c r="AS172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.15128593040847205</v>
       </c>
       <c r="AT172" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.28028169014084503</v>
       </c>
       <c r="AU172" s="112"/>
@@ -54179,71 +53583,71 @@
       <c r="AB173" s="112"/>
       <c r="AC173" s="112"/>
       <c r="AD173" s="112">
-        <f t="shared" ref="AD173:AT173" si="262">+AD51/Z51-1</f>
+        <f t="shared" ref="AD173:AT173" si="263">+AD51/Z51-1</f>
         <v>8.5187194791101595E-2</v>
       </c>
       <c r="AE173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>4.3924334722667657E-2</v>
       </c>
       <c r="AF173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-0.13738344988344986</v>
       </c>
       <c r="AG173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-0.18152958152958143</v>
       </c>
       <c r="AH173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-3.7999999999999923E-2</v>
       </c>
       <c r="AI173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-0.26750614250614257</v>
       </c>
       <c r="AJ173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-0.10150312447221754</v>
       </c>
       <c r="AK173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-7.4400564174894268E-2</v>
       </c>
       <c r="AL173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-3.4650034650041128E-4</v>
       </c>
       <c r="AM173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AN173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-7.8947368421052655E-2</v>
       </c>
       <c r="AO173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-7.6190476190476142E-2</v>
       </c>
       <c r="AP173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-2.5996533795493937E-2</v>
       </c>
       <c r="AQ173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>6.2893081761006275E-3</v>
       </c>
       <c r="AR173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-6.3265306122448961E-2</v>
       </c>
       <c r="AS173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-3.2989690721649478E-2</v>
       </c>
       <c r="AT173" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-0.15480427046263345</v>
       </c>
       <c r="AU173" s="112"/>
@@ -54365,71 +53769,71 @@
       <c r="AB174" s="112"/>
       <c r="AC174" s="112"/>
       <c r="AD174" s="112">
-        <f t="shared" ref="AD174:AT174" si="263">+AD50/Z50-1</f>
+        <f t="shared" ref="AD174:AT174" si="264">+AD50/Z50-1</f>
         <v>0.13784741652676735</v>
       </c>
       <c r="AE174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>6.9301470588235325E-2</v>
       </c>
       <c r="AF174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>-2.9610389610389642E-2</v>
       </c>
       <c r="AG174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>-0.11976935749588147</v>
       </c>
       <c r="AH174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>-1</v>
       </c>
       <c r="AI174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>-0.12325941206807645</v>
       </c>
       <c r="AJ174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>-7.8515346181298185E-3</v>
       </c>
       <c r="AK174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>5.371514130638233E-2</v>
       </c>
       <c r="AL174" s="112" t="e">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>4.705882352941182E-2</v>
       </c>
       <c r="AN174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.4388489208633004E-2</v>
       </c>
       <c r="AO174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.4209591474245054E-2</v>
       </c>
       <c r="AP174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>2.4429967426710109E-2</v>
       </c>
       <c r="AQ174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>8.98876404494382E-2</v>
       </c>
       <c r="AR174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>4.9645390070921946E-2</v>
       </c>
       <c r="AS174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>7.5306479859895026E-2</v>
       </c>
       <c r="AT174" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.7488076311605649E-2</v>
       </c>
       <c r="AU174" s="112"/>
@@ -55988,35 +55392,35 @@
       <c r="M185" s="87"/>
       <c r="N185" s="87"/>
       <c r="O185" s="87" t="e">
-        <f t="shared" ref="O185:V185" si="264">O184-O186</f>
+        <f t="shared" ref="O185:V185" si="265">O184-O186</f>
         <v>#REF!</v>
       </c>
       <c r="P185" s="87" t="e">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>#REF!</v>
       </c>
       <c r="Q185" s="87" t="e">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>#REF!</v>
       </c>
       <c r="R185" s="87" t="e">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>#REF!</v>
       </c>
       <c r="S185" s="87" t="e">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>#REF!</v>
       </c>
       <c r="T185" s="87">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="U185" s="87">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="V185" s="87" t="e">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>#REF!</v>
       </c>
       <c r="W185" s="87"/>
@@ -56646,51 +56050,51 @@
       <c r="I189" s="94"/>
       <c r="J189" s="94"/>
       <c r="K189" s="94">
-        <f t="shared" ref="K189:V189" si="265">ROUND(K103/K188,2)</f>
+        <f t="shared" ref="K189:V189" si="266">ROUND(K103/K188,2)</f>
         <v>-1.79</v>
       </c>
       <c r="L189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.67</v>
       </c>
       <c r="M189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.74</v>
       </c>
       <c r="N189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.9</v>
       </c>
       <c r="O189" s="94" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>#REF!</v>
       </c>
       <c r="P189" s="94" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>#REF!</v>
       </c>
       <c r="Q189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.27</v>
       </c>
       <c r="R189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.25</v>
       </c>
       <c r="S189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.23</v>
       </c>
       <c r="T189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.34</v>
       </c>
       <c r="U189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.22</v>
       </c>
       <c r="V189" s="94">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.19</v>
       </c>
       <c r="W189" s="94"/>
@@ -56973,47 +56377,47 @@
       <c r="I191" s="93"/>
       <c r="J191" s="93"/>
       <c r="K191" s="93">
-        <f t="shared" ref="K191:U191" si="266">K101+K95+K94+K184</f>
+        <f t="shared" ref="K191:U191" si="267">K101+K95+K94+K184</f>
         <v>-3021.7999999999997</v>
       </c>
       <c r="L191" s="93">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-2563</v>
       </c>
       <c r="M191" s="93">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-2950.9000000000005</v>
       </c>
       <c r="N191" s="93">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-3537.7999999999997</v>
       </c>
       <c r="O191" s="93" t="e">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="P191" s="93" t="e">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="Q191" s="93" t="e">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="R191" s="93" t="e">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="S191" s="93" t="e">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="T191" s="93">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-2190.2000000000003</v>
       </c>
       <c r="U191" s="93">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-1877.1000000000001</v>
       </c>
       <c r="V191" s="93"/>
@@ -57532,11 +56936,11 @@
       <c r="DB194" s="114"/>
       <c r="DC194" s="114"/>
       <c r="DD194" s="93">
-        <f t="shared" ref="DD194:DD199" si="267">SUM(K194:N194)</f>
+        <f t="shared" ref="DD194:DD199" si="268">SUM(K194:N194)</f>
         <v>195</v>
       </c>
       <c r="DE194" s="93">
-        <f t="shared" ref="DE194:DE199" si="268">SUM(O194:R194)</f>
+        <f t="shared" ref="DE194:DE199" si="269">SUM(O194:R194)</f>
         <v>106</v>
       </c>
       <c r="DF194" s="116">
@@ -57692,11 +57096,11 @@
       <c r="DB195" s="114"/>
       <c r="DC195" s="114"/>
       <c r="DD195" s="93">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="DE195" s="93">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>93.2</v>
       </c>
       <c r="DF195" s="116">
@@ -57852,11 +57256,11 @@
       <c r="DB196" s="114"/>
       <c r="DC196" s="114"/>
       <c r="DD196" s="93">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="DE196" s="93">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>745.4</v>
       </c>
       <c r="DF196" s="116"/>
@@ -58009,11 +57413,11 @@
       <c r="DB197" s="114"/>
       <c r="DC197" s="114"/>
       <c r="DD197" s="93">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="DE197" s="93">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>-173.6</v>
       </c>
       <c r="DF197" s="87"/>
@@ -58053,27 +57457,27 @@
       <c r="I198" s="116"/>
       <c r="J198" s="116"/>
       <c r="K198" s="116">
-        <f t="shared" ref="K198:P198" si="269">K90-K194</f>
+        <f t="shared" ref="K198:P198" si="270">K90-K194</f>
         <v>1547.3</v>
       </c>
       <c r="L198" s="116">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>1589.9</v>
       </c>
       <c r="M198" s="116">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>1463.6</v>
       </c>
       <c r="N198" s="116">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>1599.1</v>
       </c>
       <c r="O198" s="116">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>1542.4</v>
       </c>
       <c r="P198" s="116">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>1574.2</v>
       </c>
       <c r="Q198" s="116">
@@ -58186,11 +57590,11 @@
       <c r="DB198" s="114"/>
       <c r="DC198" s="114"/>
       <c r="DD198" s="114">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>6199.9</v>
       </c>
       <c r="DE198" s="114">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>5835.9000000000005</v>
       </c>
       <c r="DF198" s="87"/>
@@ -58230,35 +57634,35 @@
       <c r="I199" s="87"/>
       <c r="J199" s="87"/>
       <c r="K199" s="87">
-        <f t="shared" ref="K199:R199" si="270">K88-K195</f>
+        <f t="shared" ref="K199:R199" si="271">K88-K195</f>
         <v>1046.8</v>
       </c>
       <c r="L199" s="87">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>988.5</v>
       </c>
       <c r="M199" s="87">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>1083.4000000000001</v>
       </c>
       <c r="N199" s="87">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>1228.3</v>
       </c>
       <c r="O199" s="87">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>1147.8</v>
       </c>
       <c r="P199" s="87">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>1164.2</v>
       </c>
       <c r="Q199" s="87">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>1271</v>
       </c>
       <c r="R199" s="87">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>1283.5999999999999</v>
       </c>
       <c r="S199" s="87"/>
@@ -58351,11 +57755,11 @@
       <c r="DB199" s="114"/>
       <c r="DC199" s="114"/>
       <c r="DD199" s="114">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>4347</v>
       </c>
       <c r="DE199" s="114">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>4866.6000000000004</v>
       </c>
       <c r="DF199" s="87"/>
@@ -59037,43 +58441,43 @@
       <c r="DI204" s="31"/>
       <c r="DJ204" s="31"/>
       <c r="DK204" s="30">
-        <f t="shared" ref="DK204:DT204" si="271">(DK62+DK54+DK51+DK50+DK10+DK47+DK34+DK53+DK14+DK37+DK63+DK32+DK11+DK25+DK35+DK38+DK58+DK46+DK59+DK48+DK61+DK55+DK57+DK64+DK56)</f>
+        <f t="shared" ref="DK204:DT204" si="272">(DK62+DK54+DK51+DK50+DK10+DK47+DK34+DK53+DK14+DK37+DK63+DK32+DK11+DK25+DK35+DK38+DK58+DK46+DK59+DK48+DK61+DK55+DK57+DK64+DK56)</f>
         <v>25281</v>
       </c>
       <c r="DL204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>26526</v>
       </c>
       <c r="DM204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>24892</v>
       </c>
       <c r="DN204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>20004</v>
       </c>
       <c r="DO204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>18945</v>
       </c>
       <c r="DP204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>16537</v>
       </c>
       <c r="DQ204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>15768</v>
       </c>
       <c r="DR204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>12932</v>
       </c>
       <c r="DS204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>11819</v>
       </c>
       <c r="DT204" s="30">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>10003</v>
       </c>
       <c r="DU204" s="30"/>
@@ -59202,43 +58606,43 @@
       <c r="DI205" s="118"/>
       <c r="DJ205" s="118"/>
       <c r="DK205" s="119">
-        <f t="shared" ref="DK205:DT205" si="272">DK204/DK87</f>
+        <f t="shared" ref="DK205:DT205" si="273">DK204/DK87</f>
         <v>0.54900214988381946</v>
       </c>
       <c r="DL205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.55278622931688404</v>
       </c>
       <c r="DM205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.52659191876454414</v>
       </c>
       <c r="DN205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.45430595930232559</v>
       </c>
       <c r="DO205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.4485403792883017</v>
       </c>
       <c r="DP205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.41867942680642056</v>
       </c>
       <c r="DQ205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.39611123671716031</v>
       </c>
       <c r="DR205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.32231693335327249</v>
       </c>
       <c r="DS205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.27944862155388472</v>
       </c>
       <c r="DT205" s="119">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>0.21355222988407591</v>
       </c>
       <c r="DU205" s="119"/>
@@ -64060,12 +63464,12 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -64094,7 +63498,7 @@
         <v>769</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -64110,7 +63514,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -64190,11 +63594,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -64605,7 +64009,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -64628,7 +64032,7 @@
         <v>758</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -64636,7 +64040,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -64644,7 +64048,7 @@
         <v>762</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -64660,17 +64064,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="132" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="75" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -64690,7 +64094,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -64705,7 +64109,7 @@
         <v>757</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -64713,7 +64117,7 @@
         <v>758</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -64721,7 +64125,7 @@
         <v>762</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -64729,7 +64133,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -64737,7 +64141,7 @@
         <v>268</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -64745,7 +64149,7 @@
         <v>417</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -64753,37 +64157,37 @@
         <v>6</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="75"/>
       <c r="C9" s="75" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="75"/>
       <c r="C10" s="75" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="75"/>
       <c r="C11" s="75" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="75"/>
       <c r="C12" s="75" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="75"/>
       <c r="C13" s="75" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -64797,37 +64201,37 @@
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="18" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="18" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="75" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="75" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -64847,7 +64251,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -64863,7 +64267,7 @@
         <v>757</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -64871,7 +64275,7 @@
         <v>758</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -64879,7 +64283,7 @@
         <v>762</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -64887,7 +64291,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -64895,7 +64299,7 @@
         <v>268</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -64905,12 +64309,12 @@
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="18" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="75" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -64927,7 +64331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -65030,21 +64434,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -65158,10 +64547,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -65176,17 +64588,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr showObjects="placeholders" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB22E86-C5AA-4026-A497-29BE62D03DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9DF171-B834-434E-AD9E-39282E2B47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51165" yWindow="375" windowWidth="24000" windowHeight="19110" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Pipeline" sheetId="29" r:id="rId1"/>
@@ -46,15 +46,6 @@
     <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
-    <definedName name="\a">[1]ROCHE!#REF!</definedName>
-    <definedName name="\p">[1]ROCHE!#REF!</definedName>
-    <definedName name="\q">[1]ROCHE!#REF!</definedName>
-    <definedName name="\r">[1]ROCHE!#REF!</definedName>
-    <definedName name="\s">[1]ROCHE!#REF!</definedName>
-    <definedName name="\t">[1]ROCHE!#REF!</definedName>
-    <definedName name="\u">[1]ROCHE!#REF!</definedName>
-    <definedName name="\v">[1]ROCHE!#REF!</definedName>
-    <definedName name="\x">[1]ROCHE!#REF!</definedName>
     <definedName name="_1EBITDA_Sh">#REF!</definedName>
     <definedName name="_2NOPAT_Sh">#REF!</definedName>
     <definedName name="_3_.__Gross_inc_gro">#REF!</definedName>
@@ -65,6 +56,15 @@
     <definedName name="_8_3__Increase_in_other_liabilit">#REF!</definedName>
     <definedName name="_9_3__Other_Segment_Reven">#REF!</definedName>
     <definedName name="_QP2">#REF!</definedName>
+    <definedName name="\a">[1]ROCHE!#REF!</definedName>
+    <definedName name="\p">[1]ROCHE!#REF!</definedName>
+    <definedName name="\q">[1]ROCHE!#REF!</definedName>
+    <definedName name="\r">[1]ROCHE!#REF!</definedName>
+    <definedName name="\s">[1]ROCHE!#REF!</definedName>
+    <definedName name="\t">[1]ROCHE!#REF!</definedName>
+    <definedName name="\u">[1]ROCHE!#REF!</definedName>
+    <definedName name="\v">[1]ROCHE!#REF!</definedName>
+    <definedName name="\x">[1]ROCHE!#REF!</definedName>
     <definedName name="Adjusted_EPS">[2]Figures!#REF!</definedName>
     <definedName name="Choices_Wrapper">[0]!Choices_Wrapper</definedName>
     <definedName name="Company_reported_exceptionals">[2]Figures!#REF!</definedName>
@@ -7730,7 +7730,7 @@
     </xf>
     <xf numFmtId="175" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -8023,12 +8023,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="64">
-    <cellStyle name="$" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="_Comma" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="_Currency" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="_CurrencySpace" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -8036,6 +8032,7 @@
     <cellStyle name="_MultipleSpace" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="_Percent" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="_PercentSpace" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="$" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Actual data" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Actual year" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Actuals Cells" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -8166,14 +8163,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>81744</xdr:colOff>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>65869</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>81744</xdr:colOff>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>65869</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
@@ -8190,8 +8187,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44920682" y="5953"/>
-          <a:ext cx="0" cy="27217687"/>
+          <a:off x="52159682" y="5953"/>
+          <a:ext cx="0" cy="17508141"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8765,13 +8762,13 @@
       <selection pane="bottomRight" activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9579,7 +9576,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -9645,10 +9642,10 @@
       <selection activeCell="Q53" sqref="Q52:Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9705,13 +9702,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="10.28515625" style="73" customWidth="1"/>
+    <col min="11" max="12" width="10.33203125" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10134,12 +10131,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="12" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10367,12 +10364,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11000,11 +10997,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11080,16 +11077,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11268,7 +11265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -11303,11 +11300,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11406,10 +11403,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11498,19 +11495,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="50" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="51" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="51" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="11.25" customHeight="1">
@@ -12414,11 +12411,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12535,11 +12532,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12713,11 +12710,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12847,10 +12844,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12909,11 +12906,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -13434,11 +13431,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13478,11 +13475,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13613,11 +13610,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -13819,42 +13816,42 @@
   <dimension ref="A1:IP241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CF78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CP2" sqref="CP2"/>
+      <selection pane="bottomRight" activeCell="CS88" sqref="CS88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="6.140625" style="62" customWidth="1"/>
-    <col min="35" max="38" width="6.85546875" style="62" customWidth="1"/>
-    <col min="39" max="39" width="7.28515625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="6.1640625" style="62" customWidth="1"/>
+    <col min="35" max="38" width="6.83203125" style="62" customWidth="1"/>
+    <col min="39" max="39" width="7.33203125" style="62" customWidth="1"/>
     <col min="40" max="43" width="7" style="62" customWidth="1"/>
-    <col min="44" max="54" width="6.7109375" style="62" customWidth="1"/>
-    <col min="55" max="70" width="7.42578125" style="62" customWidth="1"/>
-    <col min="71" max="74" width="7.140625" style="62" customWidth="1"/>
-    <col min="75" max="85" width="6.85546875" style="62" customWidth="1"/>
-    <col min="86" max="86" width="7.28515625" style="62" customWidth="1"/>
-    <col min="87" max="102" width="7.85546875" style="62" customWidth="1"/>
-    <col min="103" max="104" width="6.42578125" style="62" customWidth="1"/>
-    <col min="105" max="105" width="4.28515625" style="75" customWidth="1"/>
-    <col min="106" max="106" width="7.140625" style="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="7.42578125" style="62" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="9.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="7.7109375" style="62" customWidth="1"/>
-    <col min="110" max="110" width="7.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="111" max="113" width="7.42578125" style="62" customWidth="1"/>
-    <col min="114" max="125" width="7.28515625" style="62" customWidth="1"/>
-    <col min="126" max="130" width="7.7109375" style="62" customWidth="1"/>
-    <col min="131" max="131" width="8.28515625" style="62" customWidth="1"/>
-    <col min="132" max="132" width="8.28515625" style="75" customWidth="1"/>
-    <col min="133" max="133" width="8.28515625" style="114" customWidth="1"/>
-    <col min="134" max="140" width="8.28515625" style="75" customWidth="1"/>
-    <col min="141" max="191" width="9.28515625" style="75" bestFit="1" customWidth="1"/>
-    <col min="192" max="16384" width="9.140625" style="75"/>
+    <col min="44" max="54" width="6.6640625" style="62" customWidth="1"/>
+    <col min="55" max="70" width="7.5" style="62" customWidth="1"/>
+    <col min="71" max="74" width="7.1640625" style="62" customWidth="1"/>
+    <col min="75" max="85" width="6.83203125" style="62" customWidth="1"/>
+    <col min="86" max="86" width="7.33203125" style="62" customWidth="1"/>
+    <col min="87" max="102" width="7.83203125" style="62" customWidth="1"/>
+    <col min="103" max="104" width="6.5" style="62" customWidth="1"/>
+    <col min="105" max="105" width="4.33203125" style="75" customWidth="1"/>
+    <col min="106" max="106" width="7.1640625" style="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="7.5" style="62" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="9.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.6640625" style="62" customWidth="1"/>
+    <col min="110" max="110" width="7.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="111" max="113" width="7.5" style="62" customWidth="1"/>
+    <col min="114" max="125" width="7.33203125" style="62" customWidth="1"/>
+    <col min="126" max="130" width="7.6640625" style="62" customWidth="1"/>
+    <col min="131" max="131" width="8.33203125" style="62" customWidth="1"/>
+    <col min="132" max="132" width="8.33203125" style="75" customWidth="1"/>
+    <col min="133" max="133" width="8.33203125" style="114" customWidth="1"/>
+    <col min="134" max="140" width="8.33203125" style="75" customWidth="1"/>
+    <col min="141" max="191" width="9.33203125" style="75" bestFit="1" customWidth="1"/>
+    <col min="192" max="16384" width="9.1640625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:140" s="83" customFormat="1" ht="12.75" customHeight="1">
@@ -13949,7 +13946,7 @@
       <c r="CJ1" s="84"/>
       <c r="CK1" s="84"/>
       <c r="CL1" s="84"/>
-      <c r="CM1" s="134"/>
+      <c r="CM1" s="84"/>
       <c r="CN1" s="84"/>
       <c r="CO1" s="84"/>
       <c r="CP1" s="84"/>
@@ -14616,8 +14613,7 @@
         <v>7270</v>
       </c>
       <c r="CS3" s="93">
-        <f>+CO3*1.1</f>
-        <v>6971.8</v>
+        <v>7429</v>
       </c>
       <c r="CT3" s="93">
         <f>+CP3*1.1</f>
@@ -14886,7 +14882,9 @@
       <c r="CR4" s="93">
         <v>317</v>
       </c>
-      <c r="CS4" s="93"/>
+      <c r="CS4" s="93">
+        <v>337</v>
+      </c>
       <c r="CT4" s="93"/>
       <c r="CU4" s="93"/>
       <c r="CV4" s="93"/>
@@ -15136,7 +15134,9 @@
       <c r="CR5" s="93">
         <v>249</v>
       </c>
-      <c r="CS5" s="93"/>
+      <c r="CS5" s="93">
+        <v>251</v>
+      </c>
       <c r="CT5" s="93"/>
       <c r="CU5" s="93"/>
       <c r="CV5" s="93"/>
@@ -15356,12 +15356,11 @@
         <v>90</v>
       </c>
       <c r="CS6" s="93">
-        <f>+CR6+5</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="CT6" s="93">
         <f>+CS6+5</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="CU6" s="93"/>
       <c r="CV6" s="93"/>
@@ -15570,12 +15569,11 @@
         <v>126</v>
       </c>
       <c r="CS7" s="93">
-        <f t="shared" ref="CS7:CT7" si="17">+CR7+3</f>
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="CT7" s="93">
-        <f t="shared" si="17"/>
-        <v>132</v>
+        <f t="shared" ref="CS7:CT7" si="17">+CS7+3</f>
+        <v>142</v>
       </c>
       <c r="CU7" s="93"/>
       <c r="CV7" s="93"/>
@@ -15783,12 +15781,11 @@
         <v>110</v>
       </c>
       <c r="CS8" s="94">
-        <f>+CR8*0.5</f>
-        <v>55</v>
+        <v>383</v>
       </c>
       <c r="CT8" s="94">
         <f>+CS8*0.5</f>
-        <v>27.5</v>
+        <v>191.5</v>
       </c>
       <c r="CU8" s="94"/>
       <c r="CV8" s="94"/>
@@ -16124,8 +16121,7 @@
         <v>2478</v>
       </c>
       <c r="CS9" s="94">
-        <f>+CO9*1.05</f>
-        <v>2714.25</v>
+        <v>2306</v>
       </c>
       <c r="CT9" s="94">
         <f>+CP9*1.05</f>
@@ -16514,7 +16510,9 @@
       <c r="CR10" s="94">
         <v>405</v>
       </c>
-      <c r="CS10" s="94"/>
+      <c r="CS10" s="94">
+        <v>278</v>
+      </c>
       <c r="CT10" s="94"/>
       <c r="CU10" s="94"/>
       <c r="CV10" s="94"/>
@@ -16895,7 +16893,9 @@
       <c r="CR11" s="94">
         <v>224</v>
       </c>
-      <c r="CS11" s="94"/>
+      <c r="CS11" s="94">
+        <v>204</v>
+      </c>
       <c r="CT11" s="94"/>
       <c r="CU11" s="94"/>
       <c r="CV11" s="94"/>
@@ -17306,7 +17306,9 @@
       <c r="CR12" s="94">
         <v>617</v>
       </c>
-      <c r="CS12" s="94"/>
+      <c r="CS12" s="94">
+        <v>703</v>
+      </c>
       <c r="CT12" s="94"/>
       <c r="CU12" s="94"/>
       <c r="CV12" s="94"/>
@@ -17659,7 +17661,9 @@
       <c r="CR13" s="94">
         <v>455</v>
       </c>
-      <c r="CS13" s="94"/>
+      <c r="CS13" s="94">
+        <v>420</v>
+      </c>
       <c r="CT13" s="94"/>
       <c r="CU13" s="94"/>
       <c r="CV13" s="94"/>
@@ -18018,7 +18022,9 @@
       <c r="CR14" s="94">
         <v>89</v>
       </c>
-      <c r="CS14" s="94"/>
+      <c r="CS14" s="94">
+        <v>102</v>
+      </c>
       <c r="CT14" s="94"/>
       <c r="CU14" s="94"/>
       <c r="CV14" s="94"/>
@@ -18319,7 +18325,9 @@
       <c r="CR15" s="94">
         <v>53</v>
       </c>
-      <c r="CS15" s="94"/>
+      <c r="CS15" s="94">
+        <v>78</v>
+      </c>
       <c r="CT15" s="94"/>
       <c r="CU15" s="94"/>
       <c r="CV15" s="94"/>
@@ -18539,7 +18547,9 @@
       <c r="CR16" s="94">
         <v>189</v>
       </c>
-      <c r="CS16" s="94"/>
+      <c r="CS16" s="94">
+        <v>239</v>
+      </c>
       <c r="CT16" s="94"/>
       <c r="CU16" s="94"/>
       <c r="CV16" s="94"/>
@@ -18874,7 +18884,9 @@
       <c r="CR17" s="94">
         <v>163</v>
       </c>
-      <c r="CS17" s="94"/>
+      <c r="CS17" s="94">
+        <v>193</v>
+      </c>
       <c r="CT17" s="94"/>
       <c r="CU17" s="94"/>
       <c r="CV17" s="94"/>
@@ -19227,7 +19239,9 @@
       <c r="CR18" s="94">
         <v>172</v>
       </c>
-      <c r="CS18" s="94"/>
+      <c r="CS18" s="94">
+        <v>189</v>
+      </c>
       <c r="CT18" s="94"/>
       <c r="CU18" s="94"/>
       <c r="CV18" s="94"/>
@@ -19489,7 +19503,9 @@
       <c r="CR19" s="94">
         <v>188</v>
       </c>
-      <c r="CS19" s="94"/>
+      <c r="CS19" s="94">
+        <v>208</v>
+      </c>
       <c r="CT19" s="94"/>
       <c r="CU19" s="94"/>
       <c r="CV19" s="94"/>
@@ -19711,7 +19727,9 @@
       <c r="CR20" s="94">
         <v>92</v>
       </c>
-      <c r="CS20" s="94"/>
+      <c r="CS20" s="94">
+        <v>96</v>
+      </c>
       <c r="CT20" s="94"/>
       <c r="CU20" s="94"/>
       <c r="CV20" s="94"/>
@@ -19943,7 +19961,9 @@
       <c r="CR21" s="94">
         <v>62</v>
       </c>
-      <c r="CS21" s="94"/>
+      <c r="CS21" s="94">
+        <v>64</v>
+      </c>
       <c r="CT21" s="94"/>
       <c r="CU21" s="94"/>
       <c r="CV21" s="94"/>
@@ -20271,7 +20291,9 @@
       <c r="CR22" s="94">
         <v>35</v>
       </c>
-      <c r="CS22" s="94"/>
+      <c r="CS22" s="94">
+        <v>41</v>
+      </c>
       <c r="CT22" s="94"/>
       <c r="CU22" s="94"/>
       <c r="CV22" s="94"/>
@@ -20620,7 +20642,9 @@
       <c r="CR23" s="94">
         <v>59</v>
       </c>
-      <c r="CS23" s="94"/>
+      <c r="CS23" s="94">
+        <v>68</v>
+      </c>
       <c r="CT23" s="94"/>
       <c r="CU23" s="94"/>
       <c r="CV23" s="94"/>
@@ -21514,7 +21538,9 @@
       <c r="CR26" s="94">
         <v>106</v>
       </c>
-      <c r="CS26" s="94"/>
+      <c r="CS26" s="94">
+        <v>102</v>
+      </c>
       <c r="CT26" s="94"/>
       <c r="CU26" s="94"/>
       <c r="CV26" s="94"/>
@@ -21768,7 +21794,9 @@
       <c r="CR27" s="94">
         <v>72</v>
       </c>
-      <c r="CS27" s="94"/>
+      <c r="CS27" s="94">
+        <v>72</v>
+      </c>
       <c r="CT27" s="94"/>
       <c r="CU27" s="94"/>
       <c r="CV27" s="94"/>
@@ -22076,7 +22104,9 @@
       <c r="CR28" s="94">
         <v>45</v>
       </c>
-      <c r="CS28" s="94"/>
+      <c r="CS28" s="94">
+        <v>41</v>
+      </c>
       <c r="CT28" s="94"/>
       <c r="CU28" s="94"/>
       <c r="CV28" s="94"/>
@@ -22306,7 +22336,9 @@
       <c r="CR29" s="94">
         <v>60</v>
       </c>
-      <c r="CS29" s="94"/>
+      <c r="CS29" s="94">
+        <v>65</v>
+      </c>
       <c r="CT29" s="94"/>
       <c r="CU29" s="94"/>
       <c r="CV29" s="94"/>
@@ -22500,7 +22532,9 @@
       <c r="CR30" s="94">
         <v>39</v>
       </c>
-      <c r="CS30" s="94"/>
+      <c r="CS30" s="94">
+        <v>42</v>
+      </c>
       <c r="CT30" s="94"/>
       <c r="CU30" s="94"/>
       <c r="CV30" s="94"/>
@@ -22649,12 +22683,11 @@
         <v>70</v>
       </c>
       <c r="CS31" s="94">
-        <f>+CR31+30</f>
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="CT31" s="94">
         <f>+CS31+30</f>
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="CU31" s="94"/>
       <c r="CV31" s="94"/>
@@ -33746,8 +33779,7 @@
         <v>1482</v>
       </c>
       <c r="CS77" s="94">
-        <f>+CO77</f>
-        <v>1400</v>
+        <v>1487</v>
       </c>
       <c r="CT77" s="94">
         <f>+CP77</f>
@@ -35406,8 +35438,8 @@
         <v>795</v>
       </c>
       <c r="CS86" s="94">
-        <f>+CO86*0.95</f>
-        <v>823.65</v>
+        <f>227+644</f>
+        <v>871</v>
       </c>
       <c r="CT86" s="94">
         <f>+CP86*0.95</f>
@@ -35906,11 +35938,11 @@
       </c>
       <c r="CS87" s="41">
         <f t="shared" si="137"/>
-        <v>12288.699999999999</v>
+        <v>16657</v>
       </c>
       <c r="CT87" s="41">
         <f t="shared" si="137"/>
-        <v>11648.5</v>
+        <v>11876.5</v>
       </c>
       <c r="DA87" s="48"/>
       <c r="DB87" s="28">
@@ -42749,10 +42781,13 @@
         <v>0.81229793977812992</v>
       </c>
       <c r="CR107" s="105">
-        <f t="shared" ref="CR107" si="233">+CR89/CR87</f>
+        <f t="shared" ref="CR107:CS107" si="233">+CR89/CR87</f>
         <v>0.80927259185700096</v>
       </c>
-      <c r="CS107" s="105"/>
+      <c r="CS107" s="105">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
       <c r="CT107" s="105"/>
       <c r="CU107" s="105"/>
       <c r="CV107" s="105"/>
@@ -44789,11 +44824,11 @@
       </c>
       <c r="CS116" s="44">
         <f t="shared" si="250"/>
-        <v>-0.23012780353339191</v>
+        <v>4.354090966044355E-2</v>
       </c>
       <c r="CT116" s="44">
         <f t="shared" si="250"/>
-        <v>-0.20379357484620642</v>
+        <v>-0.18820915926179083</v>
       </c>
       <c r="CU116" s="44"/>
       <c r="CV116" s="44"/>
@@ -45131,7 +45166,7 @@
       </c>
       <c r="CS118" s="112">
         <f t="shared" si="251"/>
-        <v>0.10000000000000009</v>
+        <v>0.17213632060586925</v>
       </c>
       <c r="CT118" s="112">
         <f t="shared" si="251"/>
@@ -45377,7 +45412,7 @@
       </c>
       <c r="CS119" s="112">
         <f t="shared" si="253"/>
-        <v>5.0000000000000044E-2</v>
+        <v>-0.10793036750483564</v>
       </c>
       <c r="CT119" s="112">
         <f t="shared" si="253"/>
@@ -47099,27 +47134,27 @@
       <c r="CK130" s="84"/>
       <c r="CL130" s="84"/>
       <c r="CM130" s="87">
-        <f>SUM(CM123:CM129)</f>
+        <f t="shared" ref="CM130:CR130" si="257">SUM(CM123:CM129)</f>
         <v>107796</v>
       </c>
       <c r="CN130" s="87">
-        <f>SUM(CN123:CN129)</f>
+        <f t="shared" si="257"/>
         <v>104469</v>
       </c>
       <c r="CO130" s="87">
-        <f>SUM(CO123:CO129)</f>
+        <f t="shared" si="257"/>
         <v>106727</v>
       </c>
       <c r="CP130" s="87">
-        <f>SUM(CP123:CP129)</f>
+        <f t="shared" si="257"/>
         <v>106675</v>
       </c>
       <c r="CQ130" s="87">
-        <f>SUM(CQ123:CQ129)</f>
+        <f t="shared" si="257"/>
         <v>105849</v>
       </c>
       <c r="CR130" s="87">
-        <f>SUM(CR123:CR129)</f>
+        <f t="shared" si="257"/>
         <v>112630</v>
       </c>
       <c r="CS130" s="84"/>
@@ -48445,27 +48480,27 @@
       <c r="CK139" s="87"/>
       <c r="CL139" s="87"/>
       <c r="CM139" s="87">
-        <f>SUM(CM132:CM138)</f>
+        <f t="shared" ref="CM139:CR139" si="258">SUM(CM132:CM138)</f>
         <v>107796</v>
       </c>
       <c r="CN139" s="87">
-        <f>SUM(CN132:CN138)</f>
+        <f t="shared" si="258"/>
         <v>104469</v>
       </c>
       <c r="CO139" s="87">
-        <f>SUM(CO132:CO138)</f>
+        <f t="shared" si="258"/>
         <v>106727</v>
       </c>
       <c r="CP139" s="87">
-        <f>SUM(CP132:CP138)</f>
+        <f t="shared" si="258"/>
         <v>106675</v>
       </c>
       <c r="CQ139" s="87">
-        <f>SUM(CQ132:CQ138)</f>
+        <f t="shared" si="258"/>
         <v>105849</v>
       </c>
       <c r="CR139" s="87">
-        <f>SUM(CR132:CR138)</f>
+        <f t="shared" si="258"/>
         <v>112630</v>
       </c>
       <c r="CS139" s="87"/>
@@ -48731,19 +48766,19 @@
       <c r="CK141" s="84"/>
       <c r="CL141" s="84"/>
       <c r="CM141" s="87">
-        <f t="shared" ref="CM141:CQ141" si="257">+CM103</f>
+        <f t="shared" ref="CM141:CP141" si="259">+CM103</f>
         <v>3568</v>
       </c>
       <c r="CN141" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="259"/>
         <v>4945</v>
       </c>
       <c r="CO141" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="259"/>
         <v>5432</v>
       </c>
       <c r="CP141" s="87">
-        <f t="shared" si="257"/>
+        <f t="shared" si="259"/>
         <v>5567</v>
       </c>
       <c r="CQ141" s="87">
@@ -52923,71 +52958,71 @@
         <v>442</v>
       </c>
       <c r="AD170" s="112">
-        <f t="shared" ref="AD170:AT170" si="258">+AD10/Z10-1</f>
+        <f t="shared" ref="AD170:AT170" si="260">+AD10/Z10-1</f>
         <v>3.7619047619047619</v>
       </c>
       <c r="AE170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>2.1264367816091956</v>
       </c>
       <c r="AF170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1.3194444444444446</v>
       </c>
       <c r="AG170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>1.0486486486486486</v>
       </c>
       <c r="AH170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>-1</v>
       </c>
       <c r="AI170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.51102941176470584</v>
       </c>
       <c r="AJ170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.38323353293413165</v>
       </c>
       <c r="AK170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.29551451187335087</v>
       </c>
       <c r="AL170" s="112" t="e">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.24330900243308995</v>
       </c>
       <c r="AN170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.29870129870129869</v>
       </c>
       <c r="AO170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.22199592668024448</v>
       </c>
       <c r="AP170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.20967741935483875</v>
       </c>
       <c r="AQ170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.44618395303326808</v>
       </c>
       <c r="AR170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.29833333333333334</v>
       </c>
       <c r="AS170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.40999999999999992</v>
       </c>
       <c r="AT170" s="112">
-        <f t="shared" si="258"/>
+        <f t="shared" si="260"/>
         <v>0.42222222222222228</v>
       </c>
       <c r="AU170" s="112"/>
@@ -53023,71 +53058,71 @@
       <c r="BY170" s="112"/>
       <c r="BZ170" s="112"/>
       <c r="CA170" s="112">
-        <f t="shared" ref="CA170:CJ171" si="259">+CA10/BW10-1</f>
+        <f t="shared" ref="CA170:CJ171" si="261">+CA10/BW10-1</f>
         <v>-6.067961165048541E-2</v>
       </c>
       <c r="CB170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-5.9471365638766538E-2</v>
       </c>
       <c r="CC170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>1.7348203221809078E-2</v>
       </c>
       <c r="CD170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-9.1198303287380655E-2</v>
       </c>
       <c r="CE170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>4.5219638242893989E-2</v>
       </c>
       <c r="CF170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-8.1967213114754078E-2</v>
       </c>
       <c r="CG170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>3.7758830694275325E-2</v>
       </c>
       <c r="CH170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>2.4504084014002281E-2</v>
       </c>
       <c r="CI170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-3.7082818294190356E-2</v>
       </c>
       <c r="CJ170" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-3.5714285714285698E-2</v>
       </c>
       <c r="CK170" s="112">
-        <f t="shared" ref="CK170:CQ171" si="260">+CK10/CG10-1</f>
+        <f t="shared" ref="CK170:CQ171" si="262">+CK10/CG10-1</f>
         <v>-0.15845070422535212</v>
       </c>
       <c r="CL170" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.36104783599088841</v>
       </c>
       <c r="CM170" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.29268292682926833</v>
       </c>
       <c r="CN170" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.32407407407407407</v>
       </c>
       <c r="CO170" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.18967921896792195</v>
       </c>
       <c r="CP170" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-2.4955436720142554E-2</v>
       </c>
       <c r="CQ170" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.23956442831215974</v>
       </c>
       <c r="CR170" s="112"/>
@@ -53172,63 +53207,63 @@
         <v>442</v>
       </c>
       <c r="AF171" s="112">
-        <f t="shared" ref="AF171:AT171" si="261">+AF11/AB11-1</f>
+        <f t="shared" ref="AF171:AT171" si="263">+AF11/AB11-1</f>
         <v>2</v>
       </c>
       <c r="AG171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>4.3157894736842106</v>
       </c>
       <c r="AH171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>-1</v>
       </c>
       <c r="AI171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="AJ171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>1.1527777777777777</v>
       </c>
       <c r="AK171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.71287128712871284</v>
       </c>
       <c r="AL171" s="112" t="e">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.5703125</v>
       </c>
       <c r="AN171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.40645161290322585</v>
       </c>
       <c r="AO171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.42774566473988429</v>
       </c>
       <c r="AP171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.42574257425742568</v>
       </c>
       <c r="AQ171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.51741293532338317</v>
       </c>
       <c r="AR171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.47247706422018343</v>
       </c>
       <c r="AS171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.417004048582996</v>
       </c>
       <c r="AT171" s="112">
-        <f t="shared" si="261"/>
+        <f t="shared" si="263"/>
         <v>0.34027777777777768</v>
       </c>
       <c r="AU171" s="112"/>
@@ -53264,71 +53299,71 @@
       <c r="BY171" s="112"/>
       <c r="BZ171" s="112"/>
       <c r="CA171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-5.0943396226415083E-2</v>
       </c>
       <c r="CB171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-8.0675422138836828E-2</v>
       </c>
       <c r="CC171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>5.9642147117295874E-3</v>
       </c>
       <c r="CD171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-6.3157894736841635E-3</v>
       </c>
       <c r="CE171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-3.379721669980118E-2</v>
       </c>
       <c r="CF171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-2.6530612244897944E-2</v>
       </c>
       <c r="CG171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-3.7549407114624511E-2</v>
       </c>
       <c r="CH171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>8.8983050847457612E-2</v>
       </c>
       <c r="CI171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-6.5843621399176988E-2</v>
       </c>
       <c r="CJ171" s="112">
-        <f t="shared" si="259"/>
+        <f t="shared" si="261"/>
         <v>-2.0964360587002462E-3</v>
       </c>
       <c r="CK171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.14373716632443534</v>
       </c>
       <c r="CL171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.3132295719844358</v>
       </c>
       <c r="CM171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.27533039647577096</v>
       </c>
       <c r="CN171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.25630252100840334</v>
       </c>
       <c r="CO171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.38848920863309355</v>
       </c>
       <c r="CP171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.32011331444759206</v>
       </c>
       <c r="CQ171" s="112">
-        <f t="shared" si="260"/>
+        <f t="shared" si="262"/>
         <v>-0.23708206686930089</v>
       </c>
       <c r="CR171" s="112"/>
@@ -53413,55 +53448,55 @@
         <v>442</v>
       </c>
       <c r="AH172" s="112">
-        <f t="shared" ref="AH172:AT172" si="262">+AH22/AD22-1</f>
+        <f t="shared" ref="AH172:AT172" si="264">+AH22/AD22-1</f>
         <v>7.9120879120879062E-2</v>
       </c>
       <c r="AI172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>2.1696252465483346E-2</v>
       </c>
       <c r="AJ172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>1.4362657091562037E-2</v>
       </c>
       <c r="AK172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>7.8014184397163122E-2</v>
       </c>
       <c r="AL172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>-0.12219959266802449</v>
       </c>
       <c r="AM172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.30115830115830122</v>
       </c>
       <c r="AN172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.1840707964601771</v>
       </c>
       <c r="AO172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>8.7171052631578982E-2</v>
       </c>
       <c r="AP172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.64733178654292334</v>
       </c>
       <c r="AQ172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.1172106824925816</v>
       </c>
       <c r="AR172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>0.25859491778774291</v>
       </c>
       <c r="AS172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>-0.15128593040847205</v>
       </c>
       <c r="AT172" s="112">
-        <f t="shared" si="262"/>
+        <f t="shared" si="264"/>
         <v>-0.28028169014084503</v>
       </c>
       <c r="AU172" s="112"/>
@@ -53583,71 +53618,71 @@
       <c r="AB173" s="112"/>
       <c r="AC173" s="112"/>
       <c r="AD173" s="112">
-        <f t="shared" ref="AD173:AT173" si="263">+AD51/Z51-1</f>
+        <f t="shared" ref="AD173:AT173" si="265">+AD51/Z51-1</f>
         <v>8.5187194791101595E-2</v>
       </c>
       <c r="AE173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>4.3924334722667657E-2</v>
       </c>
       <c r="AF173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-0.13738344988344986</v>
       </c>
       <c r="AG173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-0.18152958152958143</v>
       </c>
       <c r="AH173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-3.7999999999999923E-2</v>
       </c>
       <c r="AI173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-0.26750614250614257</v>
       </c>
       <c r="AJ173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-0.10150312447221754</v>
       </c>
       <c r="AK173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-7.4400564174894268E-2</v>
       </c>
       <c r="AL173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-3.4650034650041128E-4</v>
       </c>
       <c r="AM173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>0</v>
       </c>
       <c r="AN173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-7.8947368421052655E-2</v>
       </c>
       <c r="AO173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-7.6190476190476142E-2</v>
       </c>
       <c r="AP173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-2.5996533795493937E-2</v>
       </c>
       <c r="AQ173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>6.2893081761006275E-3</v>
       </c>
       <c r="AR173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-6.3265306122448961E-2</v>
       </c>
       <c r="AS173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-3.2989690721649478E-2</v>
       </c>
       <c r="AT173" s="112">
-        <f t="shared" si="263"/>
+        <f t="shared" si="265"/>
         <v>-0.15480427046263345</v>
       </c>
       <c r="AU173" s="112"/>
@@ -53769,71 +53804,71 @@
       <c r="AB174" s="112"/>
       <c r="AC174" s="112"/>
       <c r="AD174" s="112">
-        <f t="shared" ref="AD174:AT174" si="264">+AD50/Z50-1</f>
+        <f t="shared" ref="AD174:AT174" si="266">+AD50/Z50-1</f>
         <v>0.13784741652676735</v>
       </c>
       <c r="AE174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>6.9301470588235325E-2</v>
       </c>
       <c r="AF174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>-2.9610389610389642E-2</v>
       </c>
       <c r="AG174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>-0.11976935749588147</v>
       </c>
       <c r="AH174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>-1</v>
       </c>
       <c r="AI174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>-0.12325941206807645</v>
       </c>
       <c r="AJ174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>-7.8515346181298185E-3</v>
       </c>
       <c r="AK174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>5.371514130638233E-2</v>
       </c>
       <c r="AL174" s="112" t="e">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>4.705882352941182E-2</v>
       </c>
       <c r="AN174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>1.4388489208633004E-2</v>
       </c>
       <c r="AO174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>1.4209591474245054E-2</v>
       </c>
       <c r="AP174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>2.4429967426710109E-2</v>
       </c>
       <c r="AQ174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>8.98876404494382E-2</v>
       </c>
       <c r="AR174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>4.9645390070921946E-2</v>
       </c>
       <c r="AS174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>7.5306479859895026E-2</v>
       </c>
       <c r="AT174" s="112">
-        <f t="shared" si="264"/>
+        <f t="shared" si="266"/>
         <v>1.7488076311605649E-2</v>
       </c>
       <c r="AU174" s="112"/>
@@ -55392,35 +55427,35 @@
       <c r="M185" s="87"/>
       <c r="N185" s="87"/>
       <c r="O185" s="87" t="e">
-        <f t="shared" ref="O185:V185" si="265">O184-O186</f>
+        <f t="shared" ref="O185:V185" si="267">O184-O186</f>
         <v>#REF!</v>
       </c>
       <c r="P185" s="87" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="Q185" s="87" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="R185" s="87" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="S185" s="87" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="T185" s="87">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="U185" s="87">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="V185" s="87" t="e">
-        <f t="shared" si="265"/>
+        <f t="shared" si="267"/>
         <v>#REF!</v>
       </c>
       <c r="W185" s="87"/>
@@ -56050,51 +56085,51 @@
       <c r="I189" s="94"/>
       <c r="J189" s="94"/>
       <c r="K189" s="94">
-        <f t="shared" ref="K189:V189" si="266">ROUND(K103/K188,2)</f>
+        <f t="shared" ref="K189:V189" si="268">ROUND(K103/K188,2)</f>
         <v>-1.79</v>
       </c>
       <c r="L189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.67</v>
       </c>
       <c r="M189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.74</v>
       </c>
       <c r="N189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.9</v>
       </c>
       <c r="O189" s="94" t="e">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>#REF!</v>
       </c>
       <c r="P189" s="94" t="e">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>#REF!</v>
       </c>
       <c r="Q189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.27</v>
       </c>
       <c r="R189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.25</v>
       </c>
       <c r="S189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.23</v>
       </c>
       <c r="T189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.34</v>
       </c>
       <c r="U189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.22</v>
       </c>
       <c r="V189" s="94">
-        <f t="shared" si="266"/>
+        <f t="shared" si="268"/>
         <v>-1.19</v>
       </c>
       <c r="W189" s="94"/>
@@ -56377,47 +56412,47 @@
       <c r="I191" s="93"/>
       <c r="J191" s="93"/>
       <c r="K191" s="93">
-        <f t="shared" ref="K191:U191" si="267">K101+K95+K94+K184</f>
+        <f t="shared" ref="K191:U191" si="269">K101+K95+K94+K184</f>
         <v>-3021.7999999999997</v>
       </c>
       <c r="L191" s="93">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>-2563</v>
       </c>
       <c r="M191" s="93">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>-2950.9000000000005</v>
       </c>
       <c r="N191" s="93">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>-3537.7999999999997</v>
       </c>
       <c r="O191" s="93" t="e">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>#REF!</v>
       </c>
       <c r="P191" s="93" t="e">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>#REF!</v>
       </c>
       <c r="Q191" s="93" t="e">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>#REF!</v>
       </c>
       <c r="R191" s="93" t="e">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>#REF!</v>
       </c>
       <c r="S191" s="93" t="e">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>#REF!</v>
       </c>
       <c r="T191" s="93">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>-2190.2000000000003</v>
       </c>
       <c r="U191" s="93">
-        <f t="shared" si="267"/>
+        <f t="shared" si="269"/>
         <v>-1877.1000000000001</v>
       </c>
       <c r="V191" s="93"/>
@@ -56936,11 +56971,11 @@
       <c r="DB194" s="114"/>
       <c r="DC194" s="114"/>
       <c r="DD194" s="93">
-        <f t="shared" ref="DD194:DD199" si="268">SUM(K194:N194)</f>
+        <f t="shared" ref="DD194:DD199" si="270">SUM(K194:N194)</f>
         <v>195</v>
       </c>
       <c r="DE194" s="93">
-        <f t="shared" ref="DE194:DE199" si="269">SUM(O194:R194)</f>
+        <f t="shared" ref="DE194:DE199" si="271">SUM(O194:R194)</f>
         <v>106</v>
       </c>
       <c r="DF194" s="116">
@@ -57096,11 +57131,11 @@
       <c r="DB195" s="114"/>
       <c r="DC195" s="114"/>
       <c r="DD195" s="93">
-        <f t="shared" si="268"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="DE195" s="93">
-        <f t="shared" si="269"/>
+        <f t="shared" si="271"/>
         <v>93.2</v>
       </c>
       <c r="DF195" s="116">
@@ -57256,11 +57291,11 @@
       <c r="DB196" s="114"/>
       <c r="DC196" s="114"/>
       <c r="DD196" s="93">
-        <f t="shared" si="268"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="DE196" s="93">
-        <f t="shared" si="269"/>
+        <f t="shared" si="271"/>
         <v>745.4</v>
       </c>
       <c r="DF196" s="116"/>
@@ -57413,11 +57448,11 @@
       <c r="DB197" s="114"/>
       <c r="DC197" s="114"/>
       <c r="DD197" s="93">
-        <f t="shared" si="268"/>
+        <f t="shared" si="270"/>
         <v>0</v>
       </c>
       <c r="DE197" s="93">
-        <f t="shared" si="269"/>
+        <f t="shared" si="271"/>
         <v>-173.6</v>
       </c>
       <c r="DF197" s="87"/>
@@ -57457,27 +57492,27 @@
       <c r="I198" s="116"/>
       <c r="J198" s="116"/>
       <c r="K198" s="116">
-        <f t="shared" ref="K198:P198" si="270">K90-K194</f>
+        <f t="shared" ref="K198:P198" si="272">K90-K194</f>
         <v>1547.3</v>
       </c>
       <c r="L198" s="116">
-        <f t="shared" si="270"/>
+        <f t="shared" si="272"/>
         <v>1589.9</v>
       </c>
       <c r="M198" s="116">
-        <f t="shared" si="270"/>
+        <f t="shared" si="272"/>
         <v>1463.6</v>
       </c>
       <c r="N198" s="116">
-        <f t="shared" si="270"/>
+        <f t="shared" si="272"/>
         <v>1599.1</v>
       </c>
       <c r="O198" s="116">
-        <f t="shared" si="270"/>
+        <f t="shared" si="272"/>
         <v>1542.4</v>
       </c>
       <c r="P198" s="116">
-        <f t="shared" si="270"/>
+        <f t="shared" si="272"/>
         <v>1574.2</v>
       </c>
       <c r="Q198" s="116">
@@ -57590,11 +57625,11 @@
       <c r="DB198" s="114"/>
       <c r="DC198" s="114"/>
       <c r="DD198" s="114">
-        <f t="shared" si="268"/>
+        <f t="shared" si="270"/>
         <v>6199.9</v>
       </c>
       <c r="DE198" s="114">
-        <f t="shared" si="269"/>
+        <f t="shared" si="271"/>
         <v>5835.9000000000005</v>
       </c>
       <c r="DF198" s="87"/>
@@ -57634,35 +57669,35 @@
       <c r="I199" s="87"/>
       <c r="J199" s="87"/>
       <c r="K199" s="87">
-        <f t="shared" ref="K199:R199" si="271">K88-K195</f>
+        <f t="shared" ref="K199:R199" si="273">K88-K195</f>
         <v>1046.8</v>
       </c>
       <c r="L199" s="87">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>988.5</v>
       </c>
       <c r="M199" s="87">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>1083.4000000000001</v>
       </c>
       <c r="N199" s="87">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>1228.3</v>
       </c>
       <c r="O199" s="87">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>1147.8</v>
       </c>
       <c r="P199" s="87">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>1164.2</v>
       </c>
       <c r="Q199" s="87">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>1271</v>
       </c>
       <c r="R199" s="87">
-        <f t="shared" si="271"/>
+        <f t="shared" si="273"/>
         <v>1283.5999999999999</v>
       </c>
       <c r="S199" s="87"/>
@@ -57755,11 +57790,11 @@
       <c r="DB199" s="114"/>
       <c r="DC199" s="114"/>
       <c r="DD199" s="114">
-        <f t="shared" si="268"/>
+        <f t="shared" si="270"/>
         <v>4347</v>
       </c>
       <c r="DE199" s="114">
-        <f t="shared" si="269"/>
+        <f t="shared" si="271"/>
         <v>4866.6000000000004</v>
       </c>
       <c r="DF199" s="87"/>
@@ -58441,43 +58476,43 @@
       <c r="DI204" s="31"/>
       <c r="DJ204" s="31"/>
       <c r="DK204" s="30">
-        <f t="shared" ref="DK204:DT204" si="272">(DK62+DK54+DK51+DK50+DK10+DK47+DK34+DK53+DK14+DK37+DK63+DK32+DK11+DK25+DK35+DK38+DK58+DK46+DK59+DK48+DK61+DK55+DK57+DK64+DK56)</f>
+        <f t="shared" ref="DK204:DT204" si="274">(DK62+DK54+DK51+DK50+DK10+DK47+DK34+DK53+DK14+DK37+DK63+DK32+DK11+DK25+DK35+DK38+DK58+DK46+DK59+DK48+DK61+DK55+DK57+DK64+DK56)</f>
         <v>25281</v>
       </c>
       <c r="DL204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>26526</v>
       </c>
       <c r="DM204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>24892</v>
       </c>
       <c r="DN204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>20004</v>
       </c>
       <c r="DO204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>18945</v>
       </c>
       <c r="DP204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>16537</v>
       </c>
       <c r="DQ204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>15768</v>
       </c>
       <c r="DR204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>12932</v>
       </c>
       <c r="DS204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>11819</v>
       </c>
       <c r="DT204" s="30">
-        <f t="shared" si="272"/>
+        <f t="shared" si="274"/>
         <v>10003</v>
       </c>
       <c r="DU204" s="30"/>
@@ -58606,43 +58641,43 @@
       <c r="DI205" s="118"/>
       <c r="DJ205" s="118"/>
       <c r="DK205" s="119">
-        <f t="shared" ref="DK205:DT205" si="273">DK204/DK87</f>
+        <f t="shared" ref="DK205:DT205" si="275">DK204/DK87</f>
         <v>0.54900214988381946</v>
       </c>
       <c r="DL205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.55278622931688404</v>
       </c>
       <c r="DM205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.52659191876454414</v>
       </c>
       <c r="DN205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.45430595930232559</v>
       </c>
       <c r="DO205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.4485403792883017</v>
       </c>
       <c r="DP205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.41867942680642056</v>
       </c>
       <c r="DQ205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.39611123671716031</v>
       </c>
       <c r="DR205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.32231693335327249</v>
       </c>
       <c r="DS205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.27944862155388472</v>
       </c>
       <c r="DT205" s="119">
-        <f t="shared" si="273"/>
+        <f t="shared" si="275"/>
         <v>0.21355222988407591</v>
       </c>
       <c r="DU205" s="119"/>
@@ -63464,12 +63499,12 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -63594,11 +63629,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -64009,7 +64044,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -64094,7 +64129,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -64251,7 +64286,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -64331,7 +64366,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -64434,6 +64469,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -64547,33 +64597,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -64588,9 +64615,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F09D5-07A6-4BC9-B40D-83B14CBE1C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1129AAD7-160A-490B-A1CF-627185582E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27195" yWindow="1725" windowWidth="21570" windowHeight="17925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Pipeline" sheetId="29" r:id="rId1"/>
@@ -9348,13 +9348,13 @@
       <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="76" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="76" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9764,7 +9764,7 @@
       <c r="G28" s="57"/>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" ht="13">
       <c r="B29" s="16" t="s">
         <v>672</v>
       </c>
@@ -10175,7 +10175,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -10231,7 +10231,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="16" t="s">
         <v>913</v>
       </c>
@@ -10255,7 +10255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -10331,7 +10331,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="16" t="s">
         <v>598</v>
       </c>
@@ -10363,7 +10363,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -10403,7 +10403,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="13">
       <c r="C6" s="125" t="s">
         <v>921</v>
       </c>
@@ -10427,11 +10427,11 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10460,7 +10460,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="13">
       <c r="C6" s="16" t="s">
         <v>1105</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="16" t="s">
         <v>1108</v>
       </c>
@@ -10480,12 +10480,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="16" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="16" t="s">
         <v>1110</v>
       </c>
@@ -10511,10 +10511,10 @@
       <selection activeCell="Q53" sqref="Q52:Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10571,13 +10571,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="10.28515625" style="71" customWidth="1"/>
+    <col min="11" max="12" width="10.26953125" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10598,7 +10598,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="13">
       <c r="C4" s="16" t="s">
         <v>496</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="13">
       <c r="C7" s="16" t="s">
         <v>419</v>
       </c>
@@ -11000,12 +11000,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.7265625" style="1" customWidth="1"/>
+    <col min="3" max="12" width="7.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11233,12 +11233,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11407,7 +11407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" ht="13">
       <c r="C26" s="10" t="s">
         <v>400</v>
       </c>
@@ -11866,11 +11866,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11915,7 +11915,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="10" t="s">
         <v>433</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="10" t="s">
         <v>671</v>
       </c>
@@ -11946,16 +11946,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12000,7 +12000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="13">
       <c r="C7" s="10" t="s">
         <v>665</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" ht="13">
       <c r="C18" s="10" t="s">
         <v>231</v>
       </c>
@@ -12139,19 +12139,19 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="11.25" customHeight="1">
@@ -13084,102 +13084,102 @@
       </c>
       <c r="G50" s="68"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" ht="13">
       <c r="E52" s="69"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" ht="13">
       <c r="B53" s="47"/>
       <c r="E53" s="69" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" ht="13">
       <c r="B54" s="47"/>
       <c r="E54" s="69" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" ht="13">
       <c r="B55" s="47"/>
       <c r="E55" s="120" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" ht="13">
       <c r="B56" s="47"/>
       <c r="E56" s="120" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" ht="13">
       <c r="B57" s="47"/>
       <c r="E57" s="69" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" ht="13">
       <c r="E58" s="69" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" ht="13">
       <c r="B59" s="4"/>
       <c r="E59" s="69" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" ht="13">
       <c r="E60" s="120" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" ht="13">
       <c r="E61" s="120" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" ht="13">
       <c r="E62" s="69" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" ht="13">
       <c r="E63" s="69" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" ht="13">
       <c r="E64" s="120" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
+    <row r="65" spans="5:5" ht="13">
       <c r="E65" s="120" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="66" spans="5:5">
+    <row r="66" spans="5:5" ht="13">
       <c r="E66" s="120" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="67" spans="5:5">
+    <row r="67" spans="5:5" ht="13">
       <c r="E67" s="120" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
+    <row r="68" spans="5:5" ht="13">
       <c r="E68" s="120" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="69" spans="5:5">
+    <row r="69" spans="5:5" ht="13">
       <c r="E69" s="120"/>
     </row>
-    <row r="70" spans="5:5">
+    <row r="70" spans="5:5" ht="13">
       <c r="E70" s="120"/>
     </row>
-    <row r="71" spans="5:5">
+    <row r="71" spans="5:5" ht="13">
       <c r="E71" s="69" t="s">
         <v>977</v>
       </c>
@@ -13239,7 +13239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -13274,11 +13274,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13341,7 +13341,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="10" t="s">
         <v>213</v>
       </c>
@@ -13377,10 +13377,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13433,12 +13433,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="16" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="16" t="s">
         <v>406</v>
       </c>
@@ -13464,11 +13464,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.1796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13537,7 +13537,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="10" t="s">
         <v>409</v>
       </c>
@@ -13557,15 +13557,15 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="13">
       <c r="C15" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="10"/>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" ht="13">
       <c r="C19" s="10"/>
     </row>
   </sheetData>
@@ -13585,11 +13585,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13661,7 +13661,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="B10" s="14" t="s">
         <v>366</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="10" t="s">
         <v>475</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="10" t="s">
         <v>451</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" ht="13">
       <c r="C26" s="10" t="s">
         <v>457</v>
       </c>
@@ -13763,11 +13763,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13826,7 +13826,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="10" t="s">
         <v>272</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="10" t="s">
         <v>274</v>
       </c>
@@ -13897,10 +13897,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13929,12 +13929,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="13">
       <c r="C5" s="16" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="16" t="s">
         <v>656</v>
       </c>
@@ -13959,11 +13959,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -14484,11 +14484,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14528,11 +14528,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14582,7 +14582,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="10" t="s">
         <v>304</v>
       </c>
@@ -14665,42 +14665,42 @@
   <dimension ref="A1:IP241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="DK27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="EC28" sqref="EC28"/>
+      <selection pane="bottomRight" activeCell="DY91" sqref="DY91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="6.140625" style="60" customWidth="1"/>
-    <col min="35" max="38" width="6.85546875" style="60" customWidth="1"/>
-    <col min="39" max="39" width="7.28515625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="6.1796875" style="60" customWidth="1"/>
+    <col min="35" max="38" width="6.81640625" style="60" customWidth="1"/>
+    <col min="39" max="39" width="7.26953125" style="60" customWidth="1"/>
     <col min="40" max="43" width="7" style="60" customWidth="1"/>
-    <col min="44" max="54" width="6.7109375" style="60" customWidth="1"/>
-    <col min="55" max="70" width="7.42578125" style="60" customWidth="1"/>
-    <col min="71" max="74" width="7.140625" style="60" customWidth="1"/>
-    <col min="75" max="85" width="6.85546875" style="60" customWidth="1"/>
-    <col min="86" max="86" width="7.28515625" style="60" customWidth="1"/>
-    <col min="87" max="102" width="7.85546875" style="60" customWidth="1"/>
-    <col min="103" max="104" width="6.42578125" style="60" customWidth="1"/>
-    <col min="105" max="105" width="4.28515625" style="73" customWidth="1"/>
-    <col min="106" max="106" width="7.140625" style="60" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="7.42578125" style="60" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="9.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="7.7109375" style="60" customWidth="1"/>
-    <col min="110" max="110" width="7.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="111" max="113" width="7.42578125" style="60" customWidth="1"/>
-    <col min="114" max="125" width="7.28515625" style="60" customWidth="1"/>
-    <col min="126" max="130" width="7.7109375" style="60" customWidth="1"/>
-    <col min="131" max="131" width="8.28515625" style="60" customWidth="1"/>
-    <col min="132" max="132" width="8.28515625" style="73" customWidth="1"/>
-    <col min="133" max="133" width="8.28515625" style="112" customWidth="1"/>
-    <col min="134" max="140" width="8.28515625" style="73" customWidth="1"/>
-    <col min="141" max="191" width="9.28515625" style="73" bestFit="1" customWidth="1"/>
-    <col min="192" max="16384" width="9.140625" style="73"/>
+    <col min="44" max="54" width="6.7265625" style="60" customWidth="1"/>
+    <col min="55" max="70" width="7.453125" style="60" customWidth="1"/>
+    <col min="71" max="74" width="7.1796875" style="60" customWidth="1"/>
+    <col min="75" max="85" width="6.81640625" style="60" customWidth="1"/>
+    <col min="86" max="86" width="7.26953125" style="60" customWidth="1"/>
+    <col min="87" max="102" width="7.81640625" style="60" customWidth="1"/>
+    <col min="103" max="104" width="6.453125" style="60" customWidth="1"/>
+    <col min="105" max="105" width="4.26953125" style="73" customWidth="1"/>
+    <col min="106" max="106" width="7.1796875" style="60" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="7.453125" style="60" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="9.453125" style="60" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.7265625" style="60" customWidth="1"/>
+    <col min="110" max="110" width="7.453125" style="60" bestFit="1" customWidth="1"/>
+    <col min="111" max="113" width="7.453125" style="60" customWidth="1"/>
+    <col min="114" max="125" width="7.26953125" style="60" customWidth="1"/>
+    <col min="126" max="130" width="7.7265625" style="60" customWidth="1"/>
+    <col min="131" max="131" width="8.26953125" style="60" customWidth="1"/>
+    <col min="132" max="132" width="8.26953125" style="73" customWidth="1"/>
+    <col min="133" max="133" width="8.26953125" style="112" customWidth="1"/>
+    <col min="134" max="140" width="8.26953125" style="73" customWidth="1"/>
+    <col min="141" max="191" width="9.26953125" style="73" bestFit="1" customWidth="1"/>
+    <col min="192" max="16384" width="9.1796875" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:140" s="81" customFormat="1" ht="12.75" customHeight="1">
@@ -38663,7 +38663,10 @@
         <f>SUM(CM91:CP91)</f>
         <v>14012</v>
       </c>
-      <c r="DY91" s="91"/>
+      <c r="DY91" s="91">
+        <f>SUM(CQ91:CT91)</f>
+        <v>17866</v>
+      </c>
       <c r="DZ91" s="91"/>
       <c r="EA91" s="91"/>
       <c r="EC91" s="85"/>
@@ -39043,7 +39046,7 @@
       </c>
       <c r="DY92" s="92">
         <f t="shared" si="186"/>
-        <v>10296</v>
+        <v>28162</v>
       </c>
       <c r="DZ92" s="92">
         <f t="shared" si="186"/>
@@ -39465,7 +39468,7 @@
       </c>
       <c r="DY93" s="92">
         <f t="shared" si="196"/>
-        <v>40271.496000000006</v>
+        <v>22405.496000000006</v>
       </c>
       <c r="DZ93" s="92">
         <f t="shared" si="196"/>
@@ -39965,47 +39968,47 @@
       </c>
       <c r="DZ95" s="85">
         <f t="shared" si="206"/>
-        <v>-22.857970000000059</v>
+        <v>111.13702999999994</v>
       </c>
       <c r="EA95" s="85">
         <f t="shared" si="206"/>
-        <v>-332.00621417500008</v>
+        <v>-197.00625167500007</v>
       </c>
       <c r="EB95" s="85">
         <f t="shared" si="206"/>
-        <v>-641.31488804331264</v>
+        <v>-505.30242582456253</v>
       </c>
       <c r="EC95" s="85">
         <f t="shared" si="206"/>
-        <v>-911.95391362864632</v>
+        <v>-774.92135794325554</v>
       </c>
       <c r="ED95" s="85">
         <f t="shared" si="206"/>
-        <v>-1152.0427347502025</v>
+        <v>-1013.9824348971712</v>
       </c>
       <c r="EE95" s="85">
         <f t="shared" si="206"/>
-        <v>-1357.2934384758678</v>
+        <v>-1218.197686373939</v>
       </c>
       <c r="EF95" s="85">
         <f t="shared" si="206"/>
-        <v>-1530.6271581877156</v>
+        <v>-1390.4881879450227</v>
       </c>
       <c r="EG95" s="85">
         <f t="shared" si="206"/>
-        <v>-1690.4212070845699</v>
+        <v>-1549.2311945650567</v>
       </c>
       <c r="EH95" s="85">
         <f t="shared" si="206"/>
-        <v>-1841.3153235856059</v>
+        <v>-1699.0663859721963</v>
       </c>
       <c r="EI95" s="85">
         <f t="shared" si="206"/>
-        <v>-1984.136836331113</v>
+        <v>-1840.8210316856027</v>
       </c>
       <c r="EJ95" s="85">
         <f t="shared" si="206"/>
-        <v>-2121.3168341072133</v>
+        <v>-1976.9261609268617</v>
       </c>
     </row>
     <row r="96" spans="2:140" s="81" customFormat="1" ht="3.75" customHeight="1">
@@ -41168,47 +41171,47 @@
       </c>
       <c r="DZ100" s="91">
         <f t="shared" ref="DZ100:EJ100" si="212">DZ94-DZ95+DZ96+DZ97+DZ98+DZ99</f>
-        <v>22.857970000000059</v>
+        <v>-111.13702999999994</v>
       </c>
       <c r="EA100" s="91">
         <f t="shared" si="212"/>
-        <v>332.00621417500008</v>
+        <v>197.00625167500007</v>
       </c>
       <c r="EB100" s="91">
         <f t="shared" si="212"/>
-        <v>641.31488804331264</v>
+        <v>505.30242582456253</v>
       </c>
       <c r="EC100" s="91">
         <f t="shared" si="212"/>
-        <v>911.95391362864632</v>
+        <v>774.92135794325554</v>
       </c>
       <c r="ED100" s="91">
         <f t="shared" si="212"/>
-        <v>1152.0427347502025</v>
+        <v>1013.9824348971712</v>
       </c>
       <c r="EE100" s="91">
         <f t="shared" si="212"/>
-        <v>1357.2934384758678</v>
+        <v>1218.197686373939</v>
       </c>
       <c r="EF100" s="91">
         <f t="shared" si="212"/>
-        <v>1530.6271581877156</v>
+        <v>1390.4881879450227</v>
       </c>
       <c r="EG100" s="91">
         <f t="shared" si="212"/>
-        <v>1690.4212070845699</v>
+        <v>1549.2311945650567</v>
       </c>
       <c r="EH100" s="91">
         <f t="shared" si="212"/>
-        <v>1841.3153235856059</v>
+        <v>1699.0663859721963</v>
       </c>
       <c r="EI100" s="91">
         <f t="shared" si="212"/>
-        <v>1984.136836331113</v>
+        <v>1840.8210316856027</v>
       </c>
       <c r="EJ100" s="91">
         <f t="shared" si="212"/>
-        <v>2121.3168341072133</v>
+        <v>1976.9261609268617</v>
       </c>
       <c r="EK100" s="90"/>
       <c r="EL100" s="90"/>
@@ -41652,51 +41655,51 @@
       </c>
       <c r="DY101" s="91">
         <f>DY100+DY93</f>
-        <v>39994.396000000008</v>
+        <v>22128.396000000008</v>
       </c>
       <c r="DZ101" s="91">
         <f t="shared" ref="DZ101:EJ101" si="223">DZ100+DZ93</f>
-        <v>41219.765889999995</v>
+        <v>41085.77089</v>
       </c>
       <c r="EA101" s="91">
         <f t="shared" si="223"/>
-        <v>41241.156515775008</v>
+        <v>41106.156553275003</v>
       </c>
       <c r="EB101" s="91">
         <f t="shared" si="223"/>
-        <v>36085.203411377821</v>
+        <v>35949.19094915907</v>
       </c>
       <c r="EC101" s="91">
         <f t="shared" si="223"/>
-        <v>32011.842816207478</v>
+        <v>31874.810260522085</v>
       </c>
       <c r="ED101" s="91">
         <f t="shared" si="223"/>
-        <v>27366.760496755389</v>
+        <v>27228.700196902359</v>
       </c>
       <c r="EE101" s="91">
         <f t="shared" si="223"/>
-        <v>23111.162628246409</v>
+        <v>22972.066876144483</v>
       </c>
       <c r="EF101" s="91">
         <f t="shared" si="223"/>
-        <v>21305.873186247234</v>
+        <v>21165.734216004541</v>
       </c>
       <c r="EG101" s="91">
         <f t="shared" si="223"/>
-        <v>20119.215533471463</v>
+        <v>19978.025520951949</v>
       </c>
       <c r="EH101" s="91">
         <f t="shared" si="223"/>
-        <v>19042.868366067607</v>
+        <v>18900.6194284542</v>
       </c>
       <c r="EI101" s="91">
         <f t="shared" si="223"/>
-        <v>18290.666370146693</v>
+        <v>18147.350565501183</v>
       </c>
       <c r="EJ101" s="91">
         <f t="shared" si="223"/>
-        <v>17958.565978725124</v>
+        <v>17814.175305544773</v>
       </c>
       <c r="EK101" s="90"/>
       <c r="EL101" s="90"/>
@@ -42097,51 +42100,51 @@
       </c>
       <c r="DY102" s="91">
         <f t="shared" si="226"/>
-        <v>9998.599000000002</v>
+        <v>5532.099000000002</v>
       </c>
       <c r="DZ102" s="91">
         <f t="shared" si="226"/>
-        <v>10304.941472499999</v>
+        <v>10271.4427225</v>
       </c>
       <c r="EA102" s="91">
         <f t="shared" si="226"/>
-        <v>10310.289128943752</v>
+        <v>10276.539138318751</v>
       </c>
       <c r="EB102" s="91">
         <f t="shared" ref="EB102:EI102" si="229">EB101*0.25</f>
-        <v>9021.3008528444552</v>
+        <v>8987.2977372897676</v>
       </c>
       <c r="EC102" s="91">
         <f t="shared" si="229"/>
-        <v>8002.9607040518695</v>
+        <v>7968.7025651305212</v>
       </c>
       <c r="ED102" s="91">
         <f t="shared" si="229"/>
-        <v>6841.6901241888472</v>
+        <v>6807.1750492255896</v>
       </c>
       <c r="EE102" s="91">
         <f t="shared" si="229"/>
-        <v>5777.7906570616024</v>
+        <v>5743.0167190361208</v>
       </c>
       <c r="EF102" s="91">
         <f t="shared" si="229"/>
-        <v>5326.4682965618085</v>
+        <v>5291.4335540011352</v>
       </c>
       <c r="EG102" s="91">
         <f t="shared" si="229"/>
-        <v>5029.8038833678656</v>
+        <v>4994.5063802379873</v>
       </c>
       <c r="EH102" s="91">
         <f t="shared" si="229"/>
-        <v>4760.7170915169017</v>
+        <v>4725.15485711355</v>
       </c>
       <c r="EI102" s="91">
         <f t="shared" si="229"/>
-        <v>4572.6665925366733</v>
+        <v>4536.8376413752958</v>
       </c>
       <c r="EJ102" s="91">
         <f>EJ101*0.25</f>
-        <v>4489.6414946812811</v>
+        <v>4453.5438263861934</v>
       </c>
       <c r="EK102" s="90"/>
       <c r="EL102" s="90"/>
@@ -42585,491 +42588,491 @@
       </c>
       <c r="DY103" s="92">
         <f t="shared" si="238"/>
-        <v>29995.797000000006</v>
+        <v>16596.297000000006</v>
       </c>
       <c r="DZ103" s="92">
         <f t="shared" si="238"/>
-        <v>30914.824417499996</v>
+        <v>30814.3281675</v>
       </c>
       <c r="EA103" s="92">
         <f t="shared" si="238"/>
-        <v>30930.867386831254</v>
+        <v>30829.61741495625</v>
       </c>
       <c r="EB103" s="92">
         <f t="shared" ref="EB103:EJ103" si="239">EB101-EB102</f>
-        <v>27063.902558533366</v>
+        <v>26961.893211869305</v>
       </c>
       <c r="EC103" s="92">
         <f t="shared" si="239"/>
-        <v>24008.88211215561</v>
+        <v>23906.107695391562</v>
       </c>
       <c r="ED103" s="92">
         <f t="shared" si="239"/>
-        <v>20525.070372566541</v>
+        <v>20421.52514767677</v>
       </c>
       <c r="EE103" s="92">
         <f t="shared" si="239"/>
-        <v>17333.371971184806</v>
+        <v>17229.050157108362</v>
       </c>
       <c r="EF103" s="92">
         <f t="shared" si="239"/>
-        <v>15979.404889685426</v>
+        <v>15874.300662003407</v>
       </c>
       <c r="EG103" s="92">
         <f t="shared" si="239"/>
-        <v>15089.411650103597</v>
+        <v>14983.519140713961</v>
       </c>
       <c r="EH103" s="92">
         <f t="shared" si="239"/>
-        <v>14282.151274550706</v>
+        <v>14175.46457134065</v>
       </c>
       <c r="EI103" s="92">
         <f t="shared" si="239"/>
-        <v>13717.999777610021</v>
+        <v>13610.512924125887</v>
       </c>
       <c r="EJ103" s="92">
         <f t="shared" si="239"/>
-        <v>13468.924484043844</v>
+        <v>13360.631479158579</v>
       </c>
       <c r="EK103" s="95">
         <f t="shared" ref="EK103:FP103" si="240">EJ103*(1+$EM$108)</f>
-        <v>13334.235239203406</v>
+        <v>13227.025164366993</v>
       </c>
       <c r="EL103" s="95">
         <f t="shared" si="240"/>
-        <v>13200.892886811373</v>
+        <v>13094.754912723323</v>
       </c>
       <c r="EM103" s="95">
         <f t="shared" si="240"/>
-        <v>13068.883957943259</v>
+        <v>12963.80736359609</v>
       </c>
       <c r="EN103" s="95">
         <f t="shared" si="240"/>
-        <v>12938.195118363827</v>
+        <v>12834.169289960129</v>
       </c>
       <c r="EO103" s="95">
         <f t="shared" si="240"/>
-        <v>12808.813167180188</v>
+        <v>12705.827597060528</v>
       </c>
       <c r="EP103" s="95">
         <f t="shared" si="240"/>
-        <v>12680.725035508385</v>
+        <v>12578.769321089923</v>
       </c>
       <c r="EQ103" s="95">
         <f t="shared" si="240"/>
-        <v>12553.9177851533</v>
+        <v>12452.981627879024</v>
       </c>
       <c r="ER103" s="95">
         <f t="shared" si="240"/>
-        <v>12428.378607301767</v>
+        <v>12328.451811600233</v>
       </c>
       <c r="ES103" s="95">
         <f t="shared" si="240"/>
-        <v>12304.094821228749</v>
+        <v>12205.16729348423</v>
       </c>
       <c r="ET103" s="95">
         <f t="shared" si="240"/>
-        <v>12181.053873016463</v>
+        <v>12083.115620549388</v>
       </c>
       <c r="EU103" s="95">
         <f t="shared" si="240"/>
-        <v>12059.243334286299</v>
+        <v>11962.284464343895</v>
       </c>
       <c r="EV103" s="95">
         <f t="shared" si="240"/>
-        <v>11938.650900943436</v>
+        <v>11842.661619700455</v>
       </c>
       <c r="EW103" s="95">
         <f t="shared" si="240"/>
-        <v>11819.264391934001</v>
+        <v>11724.235003503451</v>
       </c>
       <c r="EX103" s="95">
         <f t="shared" si="240"/>
-        <v>11701.071748014661</v>
+        <v>11606.992653468416</v>
       </c>
       <c r="EY103" s="95">
         <f t="shared" si="240"/>
-        <v>11584.061030534514</v>
+        <v>11490.922726933732</v>
       </c>
       <c r="EZ103" s="95">
         <f t="shared" si="240"/>
-        <v>11468.220420229169</v>
+        <v>11376.013499664394</v>
       </c>
       <c r="FA103" s="95">
         <f t="shared" si="240"/>
-        <v>11353.538216026876</v>
+        <v>11262.253364667749</v>
       </c>
       <c r="FB103" s="95">
         <f t="shared" si="240"/>
-        <v>11240.002833866607</v>
+        <v>11149.630831021072</v>
       </c>
       <c r="FC103" s="95">
         <f t="shared" si="240"/>
-        <v>11127.60280552794</v>
+        <v>11038.134522710861</v>
       </c>
       <c r="FD103" s="95">
         <f t="shared" si="240"/>
-        <v>11016.326777472661</v>
+        <v>10927.753177483753</v>
       </c>
       <c r="FE103" s="95">
         <f t="shared" si="240"/>
-        <v>10906.163509697933</v>
+        <v>10818.475645708915</v>
       </c>
       <c r="FF103" s="95">
         <f t="shared" si="240"/>
-        <v>10797.101874600954</v>
+        <v>10710.290889251826</v>
       </c>
       <c r="FG103" s="95">
         <f t="shared" si="240"/>
-        <v>10689.130855854944</v>
+        <v>10603.187980359307</v>
       </c>
       <c r="FH103" s="95">
         <f t="shared" si="240"/>
-        <v>10582.239547296394</v>
+        <v>10497.156100555714</v>
       </c>
       <c r="FI103" s="95">
         <f t="shared" si="240"/>
-        <v>10476.417151823431</v>
+        <v>10392.184539550157</v>
       </c>
       <c r="FJ103" s="95">
         <f t="shared" si="240"/>
-        <v>10371.652980305196</v>
+        <v>10288.262694154655</v>
       </c>
       <c r="FK103" s="95">
         <f t="shared" si="240"/>
-        <v>10267.936450502144</v>
+        <v>10185.380067213109</v>
       </c>
       <c r="FL103" s="95">
         <f t="shared" si="240"/>
-        <v>10165.257085997122</v>
+        <v>10083.526266540977</v>
       </c>
       <c r="FM103" s="95">
         <f t="shared" si="240"/>
-        <v>10063.604515137151</v>
+        <v>9982.6910038755668</v>
       </c>
       <c r="FN103" s="95">
         <f t="shared" si="240"/>
-        <v>9962.9684699857789</v>
+        <v>9882.8640938368117</v>
       </c>
       <c r="FO103" s="95">
         <f t="shared" si="240"/>
-        <v>9863.3387852859214</v>
+        <v>9784.0354528984426</v>
       </c>
       <c r="FP103" s="95">
         <f t="shared" si="240"/>
-        <v>9764.7053974330629</v>
+        <v>9686.1950983694587</v>
       </c>
       <c r="FQ103" s="95">
         <f t="shared" ref="FQ103:GV103" si="241">FP103*(1+$EM$108)</f>
-        <v>9667.0583434587315</v>
+        <v>9589.3331473857634</v>
       </c>
       <c r="FR103" s="95">
         <f t="shared" si="241"/>
-        <v>9570.3877600241449</v>
+        <v>9493.4398159119064</v>
       </c>
       <c r="FS103" s="95">
         <f t="shared" si="241"/>
-        <v>9474.6838824239039</v>
+        <v>9398.5054177527873</v>
       </c>
       <c r="FT103" s="95">
         <f t="shared" si="241"/>
-        <v>9379.9370435996643</v>
+        <v>9304.5203635752587</v>
       </c>
       <c r="FU103" s="95">
         <f t="shared" si="241"/>
-        <v>9286.1376731636683</v>
+        <v>9211.4751599395058</v>
       </c>
       <c r="FV103" s="95">
         <f t="shared" si="241"/>
-        <v>9193.2762964320318</v>
+        <v>9119.3604083401115</v>
       </c>
       <c r="FW103" s="95">
         <f t="shared" si="241"/>
-        <v>9101.3435334677106</v>
+        <v>9028.1668042567107</v>
       </c>
       <c r="FX103" s="95">
         <f t="shared" si="241"/>
-        <v>9010.330098133034</v>
+        <v>8937.8851362141431</v>
       </c>
       <c r="FY103" s="95">
         <f t="shared" si="241"/>
-        <v>8920.2267971517031</v>
+        <v>8848.506284852001</v>
       </c>
       <c r="FZ103" s="95">
         <f t="shared" si="241"/>
-        <v>8831.0245291801857</v>
+        <v>8760.0212220034809</v>
       </c>
       <c r="GA103" s="95">
         <f t="shared" si="241"/>
-        <v>8742.7142838883847</v>
+        <v>8672.4210097834457</v>
       </c>
       <c r="GB103" s="95">
         <f t="shared" si="241"/>
-        <v>8655.2871410495009</v>
+        <v>8585.696799685611</v>
       </c>
       <c r="GC103" s="95">
         <f t="shared" si="241"/>
-        <v>8568.734269639006</v>
+        <v>8499.8398316887542</v>
       </c>
       <c r="GD103" s="95">
         <f t="shared" si="241"/>
-        <v>8483.0469269426158</v>
+        <v>8414.8414333718665</v>
       </c>
       <c r="GE103" s="95">
         <f t="shared" si="241"/>
-        <v>8398.2164576731902</v>
+        <v>8330.6930190381481</v>
       </c>
       <c r="GF103" s="95">
         <f t="shared" si="241"/>
-        <v>8314.2342930964587</v>
+        <v>8247.3860888477666</v>
       </c>
       <c r="GG103" s="95">
         <f t="shared" si="241"/>
-        <v>8231.0919501654935</v>
+        <v>8164.9122279592884</v>
       </c>
       <c r="GH103" s="95">
         <f t="shared" si="241"/>
-        <v>8148.7810306638385</v>
+        <v>8083.2631056796954</v>
       </c>
       <c r="GI103" s="95">
         <f t="shared" si="241"/>
-        <v>8067.2932203572</v>
+        <v>8002.4304746228981</v>
       </c>
       <c r="GJ103" s="95">
         <f t="shared" si="241"/>
-        <v>7986.6202881536283</v>
+        <v>7922.4061698766691</v>
       </c>
       <c r="GK103" s="95">
         <f t="shared" si="241"/>
-        <v>7906.7540852720922</v>
+        <v>7843.1821081779026</v>
       </c>
       <c r="GL103" s="95">
         <f t="shared" si="241"/>
-        <v>7827.6865444193709</v>
+        <v>7764.7502870961234</v>
       </c>
       <c r="GM103" s="95">
         <f t="shared" si="241"/>
-        <v>7749.4096789751775</v>
+        <v>7687.1027842251624</v>
       </c>
       <c r="GN103" s="95">
         <f t="shared" si="241"/>
-        <v>7671.9155821854256</v>
+        <v>7610.231756382911</v>
       </c>
       <c r="GO103" s="95">
         <f t="shared" si="241"/>
-        <v>7595.1964263635709</v>
+        <v>7534.1294388190818</v>
       </c>
       <c r="GP103" s="95">
         <f t="shared" si="241"/>
-        <v>7519.2444620999349</v>
+        <v>7458.7881444308905</v>
       </c>
       <c r="GQ103" s="95">
         <f t="shared" si="241"/>
-        <v>7444.0520174789353</v>
+        <v>7384.2002629865819</v>
       </c>
       <c r="GR103" s="95">
         <f t="shared" si="241"/>
-        <v>7369.6114973041458</v>
+        <v>7310.3582603567156</v>
       </c>
       <c r="GS103" s="95">
         <f t="shared" si="241"/>
-        <v>7295.9153823311044</v>
+        <v>7237.2546777531488</v>
       </c>
       <c r="GT103" s="95">
         <f t="shared" si="241"/>
-        <v>7222.9562285077936</v>
+        <v>7164.8821309756177</v>
       </c>
       <c r="GU103" s="95">
         <f t="shared" si="241"/>
-        <v>7150.7266662227157</v>
+        <v>7093.2333096658613</v>
       </c>
       <c r="GV103" s="95">
         <f t="shared" si="241"/>
-        <v>7079.2193995604885</v>
+        <v>7022.3009765692022</v>
       </c>
       <c r="GW103" s="95">
         <f t="shared" ref="GW103:IB103" si="242">GV103*(1+$EM$108)</f>
-        <v>7008.4272055648835</v>
+        <v>6952.0779668035102</v>
       </c>
       <c r="GX103" s="95">
         <f t="shared" si="242"/>
-        <v>6938.3429335092342</v>
+        <v>6882.557187135475</v>
       </c>
       <c r="GY103" s="95">
         <f t="shared" si="242"/>
-        <v>6868.9595041741413</v>
+        <v>6813.7316152641206</v>
       </c>
       <c r="GZ103" s="95">
         <f t="shared" si="242"/>
-        <v>6800.2699091324002</v>
+        <v>6745.5942991114789</v>
       </c>
       <c r="HA103" s="95">
         <f t="shared" si="242"/>
-        <v>6732.2672100410764</v>
+        <v>6678.1383561203638</v>
       </c>
       <c r="HB103" s="95">
         <f t="shared" si="242"/>
-        <v>6664.9445379406652</v>
+        <v>6611.3569725591606</v>
       </c>
       <c r="HC103" s="95">
         <f t="shared" si="242"/>
-        <v>6598.2950925612586</v>
+        <v>6545.2434028335692</v>
       </c>
       <c r="HD103" s="95">
         <f t="shared" si="242"/>
-        <v>6532.3121416356462</v>
+        <v>6479.7909688052332</v>
       </c>
       <c r="HE103" s="95">
         <f t="shared" si="242"/>
-        <v>6466.9890202192901</v>
+        <v>6414.9930591171806</v>
       </c>
       <c r="HF103" s="95">
         <f t="shared" si="242"/>
-        <v>6402.3191300170975</v>
+        <v>6350.8431285260085</v>
       </c>
       <c r="HG103" s="95">
         <f t="shared" si="242"/>
-        <v>6338.2959387169267</v>
+        <v>6287.334697240748</v>
       </c>
       <c r="HH103" s="95">
         <f t="shared" si="242"/>
-        <v>6274.912979329757</v>
+        <v>6224.4613502683405</v>
       </c>
       <c r="HI103" s="95">
         <f t="shared" si="242"/>
-        <v>6212.1638495364596</v>
+        <v>6162.2167367656575</v>
       </c>
       <c r="HJ103" s="95">
         <f t="shared" si="242"/>
-        <v>6150.0422110410946</v>
+        <v>6100.5945693980011</v>
       </c>
       <c r="HK103" s="95">
         <f t="shared" si="242"/>
-        <v>6088.5417889306837</v>
+        <v>6039.5886237040213</v>
       </c>
       <c r="HL103" s="95">
         <f t="shared" si="242"/>
-        <v>6027.6563710413766</v>
+        <v>5979.1927374669813</v>
       </c>
       <c r="HM103" s="95">
         <f t="shared" si="242"/>
-        <v>5967.3798073309626</v>
+        <v>5919.4008100923111</v>
       </c>
       <c r="HN103" s="95">
         <f t="shared" si="242"/>
-        <v>5907.706009257653</v>
+        <v>5860.2068019913877</v>
       </c>
       <c r="HO103" s="95">
         <f t="shared" si="242"/>
-        <v>5848.6289491650768</v>
+        <v>5801.6047339714742</v>
       </c>
       <c r="HP103" s="95">
         <f t="shared" si="242"/>
-        <v>5790.1426596734264</v>
+        <v>5743.5886866317596</v>
       </c>
       <c r="HQ103" s="95">
         <f t="shared" si="242"/>
-        <v>5732.241233076692</v>
+        <v>5686.1527997654421</v>
       </c>
       <c r="HR103" s="95">
         <f t="shared" si="242"/>
-        <v>5674.9188207459247</v>
+        <v>5629.2912717677873</v>
       </c>
       <c r="HS103" s="95">
         <f t="shared" si="242"/>
-        <v>5618.1696325384655</v>
+        <v>5572.9983590501097</v>
       </c>
       <c r="HT103" s="95">
         <f t="shared" si="242"/>
-        <v>5561.9879362130805</v>
+        <v>5517.2683754596083</v>
       </c>
       <c r="HU103" s="95">
         <f t="shared" si="242"/>
-        <v>5506.3680568509499</v>
+        <v>5462.0956917050125</v>
       </c>
       <c r="HV103" s="95">
         <f t="shared" si="242"/>
-        <v>5451.30437628244</v>
+        <v>5407.474734787962</v>
       </c>
       <c r="HW103" s="95">
         <f t="shared" si="242"/>
-        <v>5396.7913325196159</v>
+        <v>5353.3999874400824</v>
       </c>
       <c r="HX103" s="95">
         <f t="shared" si="242"/>
-        <v>5342.8234191944193</v>
+        <v>5299.8659875656813</v>
       </c>
       <c r="HY103" s="95">
         <f t="shared" si="242"/>
-        <v>5289.395185002475</v>
+        <v>5246.8673276900245</v>
       </c>
       <c r="HZ103" s="95">
         <f t="shared" si="242"/>
-        <v>5236.5012331524504</v>
+        <v>5194.3986544131239</v>
       </c>
       <c r="IA103" s="95">
         <f t="shared" si="242"/>
-        <v>5184.1362208209257</v>
+        <v>5142.4546678689931</v>
       </c>
       <c r="IB103" s="95">
         <f t="shared" si="242"/>
-        <v>5132.2948586127168</v>
+        <v>5091.0301211903034</v>
       </c>
       <c r="IC103" s="95">
         <f t="shared" ref="IC103:IP103" si="243">IB103*(1+$EM$108)</f>
-        <v>5080.9719100265893</v>
+        <v>5040.1198199784003</v>
       </c>
       <c r="ID103" s="95">
         <f t="shared" si="243"/>
-        <v>5030.1621909263231</v>
+        <v>4989.7186217786166</v>
       </c>
       <c r="IE103" s="95">
         <f t="shared" si="243"/>
-        <v>4979.8605690170598</v>
+        <v>4939.8214355608307</v>
       </c>
       <c r="IF103" s="95">
         <f t="shared" si="243"/>
-        <v>4930.0619633268889</v>
+        <v>4890.423221205222</v>
       </c>
       <c r="IG103" s="95">
         <f t="shared" si="243"/>
-        <v>4880.7613436936199</v>
+        <v>4841.5189889931698</v>
       </c>
       <c r="IH103" s="95">
         <f t="shared" si="243"/>
-        <v>4831.9537302566832</v>
+        <v>4793.1037991032381</v>
       </c>
       <c r="II103" s="95">
         <f t="shared" si="243"/>
-        <v>4783.6341929541168</v>
+        <v>4745.172761112206</v>
       </c>
       <c r="IJ103" s="95">
         <f t="shared" si="243"/>
-        <v>4735.7978510245757</v>
+        <v>4697.7210335010841</v>
       </c>
       <c r="IK103" s="95">
         <f t="shared" si="243"/>
-        <v>4688.4398725143301</v>
+        <v>4650.7438231660735</v>
       </c>
       <c r="IL103" s="95">
         <f t="shared" si="243"/>
-        <v>4641.5554737891871</v>
+        <v>4604.2363849344129</v>
       </c>
       <c r="IM103" s="95">
         <f t="shared" si="243"/>
-        <v>4595.1399190512948</v>
+        <v>4558.1940210850689</v>
       </c>
       <c r="IN103" s="95">
         <f t="shared" si="243"/>
-        <v>4549.1885198607815</v>
+        <v>4512.612080874218</v>
       </c>
       <c r="IO103" s="95">
         <f t="shared" si="243"/>
-        <v>4503.6966346621739</v>
+        <v>4467.4859600654754</v>
       </c>
       <c r="IP103" s="95">
         <f t="shared" si="243"/>
-        <v>4458.6596683155522</v>
+        <v>4422.8111004648208</v>
       </c>
     </row>
     <row r="104" spans="2:250" s="8" customFormat="1" ht="12.75" customHeight="1">
@@ -43417,51 +43420,51 @@
       </c>
       <c r="DY104" s="27">
         <f t="shared" si="251"/>
-        <v>11.8</v>
+        <v>6.53</v>
       </c>
       <c r="DZ104" s="27">
         <f t="shared" si="251"/>
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="EA104" s="27">
         <f t="shared" si="251"/>
-        <v>12.17</v>
+        <v>12.13</v>
       </c>
       <c r="EB104" s="27">
         <f t="shared" ref="EB104:EJ104" si="252">ROUND(EB103/EB105,2)</f>
-        <v>10.65</v>
+        <v>10.61</v>
       </c>
       <c r="EC104" s="27">
         <f t="shared" si="252"/>
-        <v>9.44</v>
+        <v>9.4</v>
       </c>
       <c r="ED104" s="27">
         <f t="shared" si="252"/>
-        <v>8.07</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="EE104" s="27">
         <f t="shared" si="252"/>
-        <v>6.82</v>
+        <v>6.78</v>
       </c>
       <c r="EF104" s="27">
         <f t="shared" si="252"/>
-        <v>6.29</v>
+        <v>6.24</v>
       </c>
       <c r="EG104" s="27">
         <f t="shared" si="252"/>
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="EH104" s="27">
         <f t="shared" si="252"/>
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="EI104" s="27">
         <f t="shared" si="252"/>
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="EJ104" s="27">
         <f t="shared" si="252"/>
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="105" spans="2:250" s="81" customFormat="1" ht="12.75" customHeight="1">
@@ -44939,7 +44942,7 @@
       </c>
       <c r="EM110" s="85">
         <f>NPV($EM$109,EA103:HC103)+Main!J5-Main!J6+DZ103</f>
-        <v>235169.08281584151</v>
+        <v>233657.48805066073</v>
       </c>
     </row>
     <row r="111" spans="2:250" s="101" customFormat="1" ht="12.75" customHeight="1">
@@ -45102,7 +45105,7 @@
       </c>
       <c r="EM111" s="107">
         <f>EM110/Main!J3</f>
-        <v>92.440677207484867</v>
+        <v>91.846496875259717</v>
       </c>
     </row>
     <row r="112" spans="2:250" s="101" customFormat="1" ht="12.75" customHeight="1">
@@ -47206,51 +47209,51 @@
       </c>
       <c r="DY122" s="85">
         <f t="shared" ref="DY122:EJ122" si="301">DX122+DY103</f>
-        <v>2285.7970000000059</v>
+        <v>-11113.702999999994</v>
       </c>
       <c r="DZ122" s="85">
         <f t="shared" si="301"/>
-        <v>33200.621417500006</v>
+        <v>19700.625167500006</v>
       </c>
       <c r="EA122" s="85">
         <f t="shared" si="301"/>
-        <v>64131.48880433126</v>
+        <v>50530.242582456252</v>
       </c>
       <c r="EB122" s="85">
         <f t="shared" si="301"/>
-        <v>91195.391362864626</v>
+        <v>77492.135794325557</v>
       </c>
       <c r="EC122" s="85">
         <f t="shared" si="301"/>
-        <v>115204.27347502024</v>
+        <v>101398.24348971712</v>
       </c>
       <c r="ED122" s="85">
         <f t="shared" si="301"/>
-        <v>135729.34384758677</v>
+        <v>121819.76863739389</v>
       </c>
       <c r="EE122" s="85">
         <f t="shared" si="301"/>
-        <v>153062.71581877157</v>
+        <v>139048.81879450227</v>
       </c>
       <c r="EF122" s="85">
         <f t="shared" si="301"/>
-        <v>169042.12070845699</v>
+        <v>154923.11945650566</v>
       </c>
       <c r="EG122" s="85">
         <f t="shared" si="301"/>
-        <v>184131.53235856059</v>
+        <v>169906.63859721963</v>
       </c>
       <c r="EH122" s="85">
         <f t="shared" si="301"/>
-        <v>198413.6836331113</v>
+        <v>184082.10316856028</v>
       </c>
       <c r="EI122" s="85">
         <f t="shared" si="301"/>
-        <v>212131.68341072131</v>
+        <v>197692.61609268616</v>
       </c>
       <c r="EJ122" s="85">
         <f t="shared" si="301"/>
-        <v>225600.60789476515</v>
+        <v>211053.24757184475</v>
       </c>
     </row>
     <row r="123" spans="2:140" s="81" customFormat="1" ht="12.75" customHeight="1">
@@ -64959,11 +64962,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -65165,12 +65168,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -65612,10 +65615,10 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -65696,7 +65699,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="16" t="s">
         <v>1088</v>
       </c>
@@ -65706,7 +65709,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="16" t="s">
         <v>1087</v>
       </c>
@@ -65731,12 +65734,12 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" ht="13">
       <c r="C22" s="16" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" ht="13">
       <c r="C24" s="16" t="s">
         <v>1085</v>
       </c>
@@ -65756,10 +65759,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -65812,7 +65815,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="16" t="s">
         <v>1078</v>
       </c>
@@ -65841,10 +65844,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -66289,10 +66292,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -66375,10 +66378,10 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -66501,17 +66504,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" ht="13">
       <c r="C19" s="16" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" ht="13">
       <c r="C21" s="16" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" ht="13">
       <c r="C23" s="16" t="s">
         <v>898</v>
       </c>
@@ -66521,7 +66524,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" ht="13">
       <c r="C26" s="16" t="s">
         <v>900</v>
       </c>
@@ -66660,18 +66663,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66691,18 +66694,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958B6939-179A-4B1A-8B2E-7C8092C58C5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr showObjects="placeholders" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1129AAD7-160A-490B-A1CF-627185582E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593B128A-1BA3-4C61-BBBF-656F15F70169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Pipeline" sheetId="29" r:id="rId1"/>
@@ -2380,6 +2380,7 @@
     <author>tc={7821796D-9EB0-4DFB-8766-A9582AD4F077}</author>
     <author>tc={99E8A869-9A70-49E7-AF36-9A3825C38124}</author>
     <author>tc={140DB855-F5DD-4991-9A54-36A299C8D9FE}</author>
+    <author>tc={D6D86380-783B-460C-A857-C52D55F18C37}</author>
     <author>waterg</author>
   </authors>
   <commentList>
@@ -4085,6 +4086,14 @@
     21% cc</t>
       </text>
     </comment>
+    <comment ref="CT118" authorId="24" shapeId="0" xr:uid="{D6D86380-783B-460C-A857-C52D55F18C37}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    +22% CC</t>
+      </text>
+    </comment>
     <comment ref="AH168" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0300-000044000000}">
       <text>
         <r>
@@ -4134,7 +4143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B185" authorId="24" shapeId="0" xr:uid="{00000000-0006-0000-0300-000048000000}">
+    <comment ref="B185" authorId="25" shapeId="0" xr:uid="{00000000-0006-0000-0300-000048000000}">
       <text>
         <r>
           <rPr>
@@ -4159,7 +4168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B186" authorId="24" shapeId="0" xr:uid="{00000000-0006-0000-0300-000049000000}">
+    <comment ref="B186" authorId="25" shapeId="0" xr:uid="{00000000-0006-0000-0300-000049000000}">
       <text>
         <r>
           <rPr>
@@ -4174,7 +4183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N188" authorId="24" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004A000000}">
+    <comment ref="N188" authorId="25" shapeId="0" xr:uid="{00000000-0006-0000-0300-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -8625,14 +8634,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>128</xdr:col>
-      <xdr:colOff>64294</xdr:colOff>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>34528</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>128</xdr:col>
-      <xdr:colOff>64294</xdr:colOff>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>34528</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
@@ -8651,8 +8660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="58631138" y="0"/>
-          <a:ext cx="0" cy="20740687"/>
+          <a:off x="61351716" y="0"/>
+          <a:ext cx="0" cy="12769453"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9334,6 +9343,9 @@
   <threadedComment ref="CS118" dT="2025-01-28T01:26:21.09" personId="{8A593782-0C54-4957-8AFA-F9666DD85167}" id="{140DB855-F5DD-4991-9A54-36A299C8D9FE}">
     <text>21% cc</text>
   </threadedComment>
+  <threadedComment ref="CT118" dT="2025-04-04T13:21:21.97" personId="{8A593782-0C54-4957-8AFA-F9666DD85167}" id="{D6D86380-783B-460C-A857-C52D55F18C37}">
+    <text>+22% CC</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -9348,13 +9360,13 @@
       <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="76" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="76" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9764,7 +9776,7 @@
       <c r="G28" s="57"/>
       <c r="J28" s="49"/>
     </row>
-    <row r="29" spans="2:10" ht="13">
+    <row r="29" spans="2:10">
       <c r="B29" s="16" t="s">
         <v>672</v>
       </c>
@@ -10175,7 +10187,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -10231,7 +10243,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="16" t="s">
         <v>913</v>
       </c>
@@ -10255,7 +10267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -10331,7 +10343,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="16" t="s">
         <v>598</v>
       </c>
@@ -10363,7 +10375,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -10403,7 +10415,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13">
+    <row r="6" spans="1:3">
       <c r="C6" s="125" t="s">
         <v>921</v>
       </c>
@@ -10427,11 +10439,11 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10460,7 +10472,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13">
+    <row r="6" spans="1:3">
       <c r="C6" s="16" t="s">
         <v>1105</v>
       </c>
@@ -10470,7 +10482,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="16" t="s">
         <v>1108</v>
       </c>
@@ -10480,12 +10492,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13">
+    <row r="13" spans="1:3">
       <c r="C13" s="16" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3">
       <c r="C16" s="16" t="s">
         <v>1110</v>
       </c>
@@ -10511,10 +10523,10 @@
       <selection activeCell="Q53" sqref="Q52:Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10571,13 +10583,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="10.26953125" style="71" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10598,7 +10610,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13">
+    <row r="4" spans="1:12">
       <c r="C4" s="16" t="s">
         <v>496</v>
       </c>
@@ -10608,7 +10620,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13">
+    <row r="7" spans="1:12">
       <c r="C7" s="16" t="s">
         <v>419</v>
       </c>
@@ -11000,12 +11012,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" style="1" customWidth="1"/>
-    <col min="3" max="12" width="7.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="12" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11233,12 +11245,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11407,7 +11419,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="13">
+    <row r="26" spans="2:5">
       <c r="C26" s="10" t="s">
         <v>400</v>
       </c>
@@ -11866,11 +11878,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11915,7 +11927,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13">
+    <row r="7" spans="1:3">
       <c r="C7" s="10" t="s">
         <v>433</v>
       </c>
@@ -11925,7 +11937,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="10" t="s">
         <v>671</v>
       </c>
@@ -11946,16 +11958,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -12000,7 +12012,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13">
+    <row r="7" spans="1:11">
       <c r="C7" s="10" t="s">
         <v>665</v>
       </c>
@@ -12098,7 +12110,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="13">
+    <row r="18" spans="3:3">
       <c r="C18" s="10" t="s">
         <v>231</v>
       </c>
@@ -12135,23 +12147,23 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="11.25" customHeight="1">
@@ -12180,7 +12192,7 @@
         <v>192</v>
       </c>
       <c r="J2" s="53">
-        <v>90.8</v>
+        <v>85.24</v>
       </c>
       <c r="M2" s="4"/>
     </row>
@@ -12207,10 +12219,10 @@
         <v>326</v>
       </c>
       <c r="J3" s="59">
-        <v>2544</v>
+        <v>2526.0362399999999</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12237,7 +12249,7 @@
       </c>
       <c r="J4" s="37">
         <f>J2*J3</f>
-        <v>230995.19999999998</v>
+        <v>215319.32909759998</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -12263,10 +12275,10 @@
         <v>328</v>
       </c>
       <c r="J5" s="37">
-        <v>15168</v>
+        <v>14152</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12292,10 +12304,10 @@
         <v>329</v>
       </c>
       <c r="J6" s="37">
-        <v>38131</v>
+        <v>37111</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12322,7 +12334,7 @@
       </c>
       <c r="J7" s="37">
         <f>J4-J5+J6</f>
-        <v>253958.19999999998</v>
+        <v>238278.32909759998</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -13084,102 +13096,102 @@
       </c>
       <c r="G50" s="68"/>
     </row>
-    <row r="52" spans="2:7" ht="13">
+    <row r="52" spans="2:7">
       <c r="E52" s="69"/>
     </row>
-    <row r="53" spans="2:7" ht="13">
+    <row r="53" spans="2:7">
       <c r="B53" s="47"/>
       <c r="E53" s="69" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="13">
+    <row r="54" spans="2:7">
       <c r="B54" s="47"/>
       <c r="E54" s="69" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="13">
+    <row r="55" spans="2:7">
       <c r="B55" s="47"/>
       <c r="E55" s="120" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="13">
+    <row r="56" spans="2:7">
       <c r="B56" s="47"/>
       <c r="E56" s="120" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="13">
+    <row r="57" spans="2:7">
       <c r="B57" s="47"/>
       <c r="E57" s="69" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="13">
+    <row r="58" spans="2:7">
       <c r="E58" s="69" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="13">
+    <row r="59" spans="2:7">
       <c r="B59" s="4"/>
       <c r="E59" s="69" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="13">
+    <row r="60" spans="2:7">
       <c r="E60" s="120" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="13">
+    <row r="61" spans="2:7">
       <c r="E61" s="120" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="13">
+    <row r="62" spans="2:7">
       <c r="E62" s="69" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="13">
+    <row r="63" spans="2:7">
       <c r="E63" s="69" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="13">
+    <row r="64" spans="2:7">
       <c r="E64" s="120" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="65" spans="5:5" ht="13">
+    <row r="65" spans="5:5">
       <c r="E65" s="120" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="13">
+    <row r="66" spans="5:5">
       <c r="E66" s="120" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="67" spans="5:5" ht="13">
+    <row r="67" spans="5:5">
       <c r="E67" s="120" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="68" spans="5:5" ht="13">
+    <row r="68" spans="5:5">
       <c r="E68" s="120" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="69" spans="5:5" ht="13">
+    <row r="69" spans="5:5">
       <c r="E69" s="120"/>
     </row>
-    <row r="70" spans="5:5" ht="13">
+    <row r="70" spans="5:5">
       <c r="E70" s="120"/>
     </row>
-    <row r="71" spans="5:5" ht="13">
+    <row r="71" spans="5:5">
       <c r="E71" s="69" t="s">
         <v>977</v>
       </c>
@@ -13239,7 +13251,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -13274,11 +13286,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13341,7 +13353,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13">
+    <row r="11" spans="1:3">
       <c r="C11" s="10" t="s">
         <v>213</v>
       </c>
@@ -13377,10 +13389,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13433,12 +13445,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="16" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13">
+    <row r="12" spans="1:3">
       <c r="C12" s="16" t="s">
         <v>406</v>
       </c>
@@ -13464,11 +13476,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13537,7 +13549,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="10" t="s">
         <v>409</v>
       </c>
@@ -13557,15 +13569,15 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13">
+    <row r="15" spans="1:3">
       <c r="C15" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3">
       <c r="C16" s="10"/>
     </row>
-    <row r="19" spans="3:3" ht="13">
+    <row r="19" spans="3:3">
       <c r="C19" s="10"/>
     </row>
   </sheetData>
@@ -13585,11 +13597,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13661,7 +13673,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="B10" s="14" t="s">
         <v>366</v>
       </c>
@@ -13674,7 +13686,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13">
+    <row r="12" spans="1:3">
       <c r="C12" s="10" t="s">
         <v>475</v>
       </c>
@@ -13689,7 +13701,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3">
       <c r="C16" s="10" t="s">
         <v>451</v>
       </c>
@@ -13734,7 +13746,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="13">
+    <row r="26" spans="3:3">
       <c r="C26" s="10" t="s">
         <v>457</v>
       </c>
@@ -13763,11 +13775,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13826,7 +13838,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="10" t="s">
         <v>272</v>
       </c>
@@ -13836,7 +13848,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13">
+    <row r="13" spans="1:3">
       <c r="C13" s="10" t="s">
         <v>274</v>
       </c>
@@ -13897,10 +13909,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13929,12 +13941,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13">
+    <row r="5" spans="1:3">
       <c r="C5" s="16" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13">
+    <row r="7" spans="1:3">
       <c r="C7" s="16" t="s">
         <v>656</v>
       </c>
@@ -13959,11 +13971,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
@@ -14484,11 +14496,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14528,11 +14540,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14582,7 +14594,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="10" t="s">
         <v>304</v>
       </c>
@@ -14664,43 +14676,43 @@
   </sheetPr>
   <dimension ref="A1:IP241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="DK27" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CP114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="DY91" sqref="DY91"/>
+      <selection pane="bottomRight" activeCell="CT140" sqref="CT140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="6.1796875" style="60" customWidth="1"/>
-    <col min="35" max="38" width="6.81640625" style="60" customWidth="1"/>
-    <col min="39" max="39" width="7.26953125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="6.140625" style="60" customWidth="1"/>
+    <col min="35" max="38" width="6.85546875" style="60" customWidth="1"/>
+    <col min="39" max="39" width="7.28515625" style="60" customWidth="1"/>
     <col min="40" max="43" width="7" style="60" customWidth="1"/>
-    <col min="44" max="54" width="6.7265625" style="60" customWidth="1"/>
-    <col min="55" max="70" width="7.453125" style="60" customWidth="1"/>
-    <col min="71" max="74" width="7.1796875" style="60" customWidth="1"/>
-    <col min="75" max="85" width="6.81640625" style="60" customWidth="1"/>
-    <col min="86" max="86" width="7.26953125" style="60" customWidth="1"/>
-    <col min="87" max="102" width="7.81640625" style="60" customWidth="1"/>
-    <col min="103" max="104" width="6.453125" style="60" customWidth="1"/>
-    <col min="105" max="105" width="4.26953125" style="73" customWidth="1"/>
-    <col min="106" max="106" width="7.1796875" style="60" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="7.453125" style="60" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="9.453125" style="60" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="7.7265625" style="60" customWidth="1"/>
-    <col min="110" max="110" width="7.453125" style="60" bestFit="1" customWidth="1"/>
-    <col min="111" max="113" width="7.453125" style="60" customWidth="1"/>
-    <col min="114" max="125" width="7.26953125" style="60" customWidth="1"/>
-    <col min="126" max="130" width="7.7265625" style="60" customWidth="1"/>
-    <col min="131" max="131" width="8.26953125" style="60" customWidth="1"/>
-    <col min="132" max="132" width="8.26953125" style="73" customWidth="1"/>
-    <col min="133" max="133" width="8.26953125" style="112" customWidth="1"/>
-    <col min="134" max="140" width="8.26953125" style="73" customWidth="1"/>
-    <col min="141" max="191" width="9.26953125" style="73" bestFit="1" customWidth="1"/>
-    <col min="192" max="16384" width="9.1796875" style="73"/>
+    <col min="44" max="54" width="6.7109375" style="60" customWidth="1"/>
+    <col min="55" max="70" width="7.42578125" style="60" customWidth="1"/>
+    <col min="71" max="74" width="7.140625" style="60" customWidth="1"/>
+    <col min="75" max="85" width="6.85546875" style="60" customWidth="1"/>
+    <col min="86" max="86" width="7.28515625" style="60" customWidth="1"/>
+    <col min="87" max="102" width="7.85546875" style="60" customWidth="1"/>
+    <col min="103" max="104" width="6.42578125" style="60" customWidth="1"/>
+    <col min="105" max="105" width="4.28515625" style="73" customWidth="1"/>
+    <col min="106" max="106" width="7.140625" style="60" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="7.42578125" style="60" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="9.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="7.7109375" style="60" customWidth="1"/>
+    <col min="110" max="110" width="7.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="111" max="113" width="7.42578125" style="60" customWidth="1"/>
+    <col min="114" max="125" width="7.28515625" style="60" customWidth="1"/>
+    <col min="126" max="130" width="7.7109375" style="60" customWidth="1"/>
+    <col min="131" max="131" width="8.28515625" style="60" customWidth="1"/>
+    <col min="132" max="132" width="8.28515625" style="73" customWidth="1"/>
+    <col min="133" max="133" width="8.28515625" style="112" customWidth="1"/>
+    <col min="134" max="140" width="8.28515625" style="73" customWidth="1"/>
+    <col min="141" max="191" width="9.28515625" style="73" bestFit="1" customWidth="1"/>
+    <col min="192" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:140" s="81" customFormat="1" ht="12.75" customHeight="1">
@@ -15468,8 +15480,8 @@
         <v>7836</v>
       </c>
       <c r="CU3" s="91">
-        <f>+CQ3*1.1</f>
-        <v>7641.7000000000007</v>
+        <f>+CQ3*1.15</f>
+        <v>7989.0499999999993</v>
       </c>
       <c r="CV3" s="91">
         <f>+CR3*1.1</f>
@@ -15545,47 +15557,47 @@
       </c>
       <c r="DZ3" s="92">
         <f>SUM(CU3:CX3)</f>
-        <v>32430.200000000004</v>
+        <v>32777.550000000003</v>
       </c>
       <c r="EA3" s="92">
         <f>DZ3*1.05</f>
-        <v>34051.710000000006</v>
+        <v>34416.427500000005</v>
       </c>
       <c r="EB3" s="92">
         <f>EA3*1.05</f>
-        <v>35754.295500000007</v>
+        <v>36137.248875000005</v>
       </c>
       <c r="EC3" s="92">
         <f>EB3*0.8</f>
-        <v>28603.436400000006</v>
+        <v>28909.799100000004</v>
       </c>
       <c r="ED3" s="92">
         <f>EC3*0.7</f>
-        <v>20022.405480000001</v>
+        <v>20236.859370000002</v>
       </c>
       <c r="EE3" s="92">
         <f>ED3*0.6</f>
-        <v>12013.443288</v>
+        <v>12142.115622000001</v>
       </c>
       <c r="EF3" s="90">
         <f>EE3*0.7</f>
-        <v>8409.410301599999</v>
+        <v>8499.4809354000008</v>
       </c>
       <c r="EG3" s="90">
         <f>EF3*0.7</f>
-        <v>5886.5872111199988</v>
+        <v>5949.6366547799998</v>
       </c>
       <c r="EH3" s="90">
         <f t="shared" ref="EH3:EJ3" si="11">EG3*0.6</f>
-        <v>3531.9523266719993</v>
+        <v>3569.7819928679996</v>
       </c>
       <c r="EI3" s="90">
         <f t="shared" si="11"/>
-        <v>2119.1713960031993</v>
+        <v>2141.8691957207998</v>
       </c>
       <c r="EJ3" s="90">
         <f t="shared" si="11"/>
-        <v>1271.5028376019195</v>
+        <v>1285.1215174324798</v>
       </c>
     </row>
     <row r="4" spans="1:140" s="90" customFormat="1" ht="12.75" customHeight="1">
@@ -17164,44 +17176,44 @@
         <v>8668.83</v>
       </c>
       <c r="EA9" s="92">
-        <f t="shared" si="33"/>
-        <v>8755.5182999999997</v>
+        <f>DZ9*1.05</f>
+        <v>9102.2715000000007</v>
       </c>
       <c r="EB9" s="92">
-        <f t="shared" si="33"/>
-        <v>8843.0734830000001</v>
+        <f>EA9*1.05</f>
+        <v>9557.385075000002</v>
       </c>
       <c r="EC9" s="92">
-        <f t="shared" si="33"/>
-        <v>8931.5042178300009</v>
+        <f>EB9*1.05</f>
+        <v>10035.254328750003</v>
       </c>
       <c r="ED9" s="92">
-        <f t="shared" si="33"/>
-        <v>9020.8192600083003</v>
+        <f>EC9*1.05</f>
+        <v>10537.017045187504</v>
       </c>
       <c r="EE9" s="92">
-        <f t="shared" si="33"/>
-        <v>9111.0274526083831</v>
+        <f>ED9*1.03</f>
+        <v>10853.12755654313</v>
       </c>
       <c r="EF9" s="92">
-        <f t="shared" si="33"/>
-        <v>9202.1377271344663</v>
+        <f>EE9*1.03</f>
+        <v>11178.721383239425</v>
       </c>
       <c r="EG9" s="92">
-        <f t="shared" si="33"/>
-        <v>9294.1591044058114</v>
+        <f>EF9*1.03</f>
+        <v>11514.083024736608</v>
       </c>
       <c r="EH9" s="92">
-        <f t="shared" si="33"/>
-        <v>9387.1006954498698</v>
+        <f>EG9*1.03</f>
+        <v>11859.505515478708</v>
       </c>
       <c r="EI9" s="92">
         <f t="shared" si="33"/>
-        <v>9480.9717024043694</v>
+        <v>11978.100570633494</v>
       </c>
       <c r="EJ9" s="92">
         <f t="shared" si="33"/>
-        <v>9575.7814194284128</v>
+        <v>12097.881576339829</v>
       </c>
     </row>
     <row r="10" spans="1:140" s="39" customFormat="1" ht="12.75" customHeight="1">
@@ -37165,7 +37177,7 @@
       </c>
       <c r="CU87" s="39">
         <f t="shared" si="164"/>
-        <v>16359.889999999998</v>
+        <v>16707.239999999998</v>
       </c>
       <c r="CV87" s="39">
         <f t="shared" si="164"/>
@@ -37278,47 +37290,47 @@
       </c>
       <c r="DZ87" s="26">
         <f t="shared" si="165"/>
-        <v>64366.13489999999</v>
+        <v>64713.484899999996</v>
       </c>
       <c r="EA87" s="26">
         <f t="shared" si="165"/>
-        <v>64006.437877000004</v>
+        <v>64717.908577000002</v>
       </c>
       <c r="EB87" s="26">
         <f t="shared" si="165"/>
-        <v>64443.433678790003</v>
+        <v>65540.698645790006</v>
       </c>
       <c r="EC87" s="26">
         <f t="shared" si="165"/>
-        <v>56545.252550143319</v>
+        <v>57955.365361063312</v>
       </c>
       <c r="ED87" s="26">
         <f t="shared" si="165"/>
-        <v>47663.123203645788</v>
+        <v>49393.774878824996</v>
       </c>
       <c r="EE87" s="26">
         <f t="shared" si="165"/>
-        <v>39552.489435946445</v>
+        <v>41423.261873881187</v>
       </c>
       <c r="EF87" s="26">
         <f t="shared" si="165"/>
-        <v>35954.992778290027</v>
+        <v>38021.647068194987</v>
       </c>
       <c r="EG87" s="26">
         <f t="shared" si="165"/>
-        <v>33506.89877524889</v>
+        <v>35789.872139239684</v>
       </c>
       <c r="EH87" s="26">
         <f t="shared" si="165"/>
-        <v>31275.550986330905</v>
+        <v>33785.785472555741</v>
       </c>
       <c r="EI87" s="26">
         <f t="shared" si="165"/>
-        <v>29648.23551602833</v>
+        <v>32168.062183975057</v>
       </c>
       <c r="EJ87" s="26">
         <f t="shared" si="165"/>
-        <v>28794.998444759833</v>
+        <v>31330.717281501806</v>
       </c>
     </row>
     <row r="88" spans="2:140" s="90" customFormat="1" ht="12.75" customHeight="1">
@@ -37650,47 +37662,47 @@
       </c>
       <c r="DZ88" s="90">
         <f t="shared" si="166"/>
-        <v>12873.226979999992</v>
+        <v>12942.696979999993</v>
       </c>
       <c r="EA88" s="90">
         <f t="shared" si="166"/>
-        <v>12801.287575399998</v>
+        <v>12943.581715399996</v>
       </c>
       <c r="EB88" s="90">
         <f>EB87-EB89</f>
-        <v>12888.686735757998</v>
+        <v>13108.139729158</v>
       </c>
       <c r="EC88" s="90">
         <f t="shared" ref="EC88:EJ88" si="168">EC87-EC89</f>
-        <v>11309.050510028661</v>
+        <v>11591.073072212661</v>
       </c>
       <c r="ED88" s="90">
         <f t="shared" si="168"/>
-        <v>9532.6246407291546</v>
+        <v>9878.7549757649977</v>
       </c>
       <c r="EE88" s="90">
         <f t="shared" si="168"/>
-        <v>7910.497887189289</v>
+        <v>8284.652374776233</v>
       </c>
       <c r="EF88" s="90">
         <f t="shared" si="168"/>
-        <v>7190.9985556580032</v>
+        <v>7604.3294136389959</v>
       </c>
       <c r="EG88" s="90">
         <f t="shared" si="168"/>
-        <v>6701.3797550497766</v>
+        <v>7157.9744278479338</v>
       </c>
       <c r="EH88" s="90">
         <f t="shared" si="168"/>
-        <v>6255.1101972661781</v>
+        <v>6757.1570945111453</v>
       </c>
       <c r="EI88" s="90">
         <f t="shared" si="168"/>
-        <v>5929.6471032056652</v>
+        <v>6433.6124367950106</v>
       </c>
       <c r="EJ88" s="90">
         <f t="shared" si="168"/>
-        <v>5758.9996889519643</v>
+        <v>6266.1434563003604</v>
       </c>
     </row>
     <row r="89" spans="2:140" s="90" customFormat="1" ht="12.75" customHeight="1">
@@ -37937,47 +37949,47 @@
       </c>
       <c r="DZ89" s="90">
         <f t="shared" si="172"/>
-        <v>51492.907919999998</v>
+        <v>51770.787920000002</v>
       </c>
       <c r="EA89" s="90">
         <f t="shared" si="172"/>
-        <v>51205.150301600006</v>
+        <v>51774.326861600006</v>
       </c>
       <c r="EB89" s="90">
         <f>EB87*0.8</f>
-        <v>51554.746943032005</v>
+        <v>52432.558916632006</v>
       </c>
       <c r="EC89" s="90">
         <f t="shared" ref="EC89:EJ89" si="173">EC87*0.8</f>
-        <v>45236.202040114658</v>
+        <v>46364.292288850651</v>
       </c>
       <c r="ED89" s="90">
         <f t="shared" si="173"/>
-        <v>38130.498562916633</v>
+        <v>39515.019903059998</v>
       </c>
       <c r="EE89" s="90">
         <f t="shared" si="173"/>
-        <v>31641.991548757156</v>
+        <v>33138.609499104954</v>
       </c>
       <c r="EF89" s="90">
         <f t="shared" si="173"/>
-        <v>28763.994222632024</v>
+        <v>30417.317654555991</v>
       </c>
       <c r="EG89" s="90">
         <f t="shared" si="173"/>
-        <v>26805.519020199114</v>
+        <v>28631.89771139175</v>
       </c>
       <c r="EH89" s="90">
         <f t="shared" si="173"/>
-        <v>25020.440789064727</v>
+        <v>27028.628378044596</v>
       </c>
       <c r="EI89" s="90">
         <f t="shared" si="173"/>
-        <v>23718.588412822664</v>
+        <v>25734.449747180046</v>
       </c>
       <c r="EJ89" s="90">
         <f t="shared" si="173"/>
-        <v>23035.998755807868</v>
+        <v>25064.573825201445</v>
       </c>
     </row>
     <row r="90" spans="2:140" s="90" customFormat="1" ht="12.75" customHeight="1">
@@ -38319,39 +38331,39 @@
       </c>
       <c r="EB90" s="90">
         <f>EB87*0.25</f>
-        <v>16110.858419697501</v>
+        <v>16385.174661447501</v>
       </c>
       <c r="EC90" s="90">
         <f t="shared" ref="EC90:EJ90" si="177">EC87*0.25</f>
-        <v>14136.31313753583</v>
+        <v>14488.841340265828</v>
       </c>
       <c r="ED90" s="90">
         <f t="shared" si="177"/>
-        <v>11915.780800911447</v>
+        <v>12348.443719706249</v>
       </c>
       <c r="EE90" s="90">
         <f t="shared" si="177"/>
-        <v>9888.1223589866113</v>
+        <v>10355.815468470297</v>
       </c>
       <c r="EF90" s="90">
         <f t="shared" si="177"/>
-        <v>8988.7481945725067</v>
+        <v>9505.4117670487467</v>
       </c>
       <c r="EG90" s="90">
         <f t="shared" si="177"/>
-        <v>8376.7246938122225</v>
+        <v>8947.4680348099209</v>
       </c>
       <c r="EH90" s="90">
         <f t="shared" si="177"/>
-        <v>7818.8877465827263</v>
+        <v>8446.4463681389352</v>
       </c>
       <c r="EI90" s="90">
         <f t="shared" si="177"/>
-        <v>7412.0588790070824</v>
+        <v>8042.0155459937641</v>
       </c>
       <c r="EJ90" s="90">
         <f t="shared" si="177"/>
-        <v>7198.7496111899582</v>
+        <v>7832.6793203754514</v>
       </c>
     </row>
     <row r="91" spans="2:140" s="81" customFormat="1" ht="12.75" customHeight="1">
@@ -39058,39 +39070,39 @@
       </c>
       <c r="EB92" s="92">
         <f t="shared" ref="EB92:EJ92" si="187">EB91+EB90</f>
-        <v>16110.858419697501</v>
+        <v>16385.174661447501</v>
       </c>
       <c r="EC92" s="92">
         <f t="shared" si="187"/>
-        <v>14136.31313753583</v>
+        <v>14488.841340265828</v>
       </c>
       <c r="ED92" s="92">
         <f t="shared" si="187"/>
-        <v>11915.780800911447</v>
+        <v>12348.443719706249</v>
       </c>
       <c r="EE92" s="92">
         <f t="shared" si="187"/>
-        <v>9888.1223589866113</v>
+        <v>10355.815468470297</v>
       </c>
       <c r="EF92" s="92">
         <f t="shared" si="187"/>
-        <v>8988.7481945725067</v>
+        <v>9505.4117670487467</v>
       </c>
       <c r="EG92" s="92">
         <f t="shared" si="187"/>
-        <v>8376.7246938122225</v>
+        <v>8947.4680348099209</v>
       </c>
       <c r="EH92" s="92">
         <f t="shared" si="187"/>
-        <v>7818.8877465827263</v>
+        <v>8446.4463681389352</v>
       </c>
       <c r="EI92" s="92">
         <f t="shared" si="187"/>
-        <v>7412.0588790070824</v>
+        <v>8042.0155459937641</v>
       </c>
       <c r="EJ92" s="92">
         <f t="shared" si="187"/>
-        <v>7198.7496111899582</v>
+        <v>7832.6793203754514</v>
       </c>
     </row>
     <row r="93" spans="2:140" s="90" customFormat="1" ht="12.75" customHeight="1">
@@ -39472,47 +39484,47 @@
       </c>
       <c r="DZ93" s="92">
         <f t="shared" si="196"/>
-        <v>41196.907919999998</v>
+        <v>41474.787920000002</v>
       </c>
       <c r="EA93" s="92">
         <f t="shared" si="196"/>
-        <v>40909.150301600006</v>
+        <v>41478.326861600006</v>
       </c>
       <c r="EB93" s="92">
         <f t="shared" ref="EB93:EJ93" si="197">EB89-EB92</f>
-        <v>35443.888523334506</v>
+        <v>36047.384255184501</v>
       </c>
       <c r="EC93" s="92">
         <f t="shared" si="197"/>
-        <v>31099.88890257883</v>
+        <v>31875.450948584825</v>
       </c>
       <c r="ED93" s="92">
         <f t="shared" si="197"/>
-        <v>26214.717762005188</v>
+        <v>27166.576183353747</v>
       </c>
       <c r="EE93" s="92">
         <f t="shared" si="197"/>
-        <v>21753.869189770543</v>
+        <v>22782.794030634657</v>
       </c>
       <c r="EF93" s="92">
         <f t="shared" si="197"/>
-        <v>19775.246028059519</v>
+        <v>20911.905887507244</v>
       </c>
       <c r="EG93" s="92">
         <f t="shared" si="197"/>
-        <v>18428.794326386891</v>
+        <v>19684.429676581829</v>
       </c>
       <c r="EH93" s="92">
         <f t="shared" si="197"/>
-        <v>17201.553042482003</v>
+        <v>18582.18200990566</v>
       </c>
       <c r="EI93" s="92">
         <f t="shared" si="197"/>
-        <v>16306.529533815581</v>
+        <v>17692.434201186283</v>
       </c>
       <c r="EJ93" s="92">
         <f t="shared" si="197"/>
-        <v>15837.24914461791</v>
+        <v>17231.894504825992</v>
       </c>
     </row>
     <row r="94" spans="2:140" s="81" customFormat="1" ht="12.75" customHeight="1">
@@ -39972,43 +39984,43 @@
       </c>
       <c r="EA95" s="85">
         <f t="shared" si="206"/>
-        <v>-197.00625167500007</v>
+        <v>-199.09035167500011</v>
       </c>
       <c r="EB95" s="85">
         <f t="shared" si="206"/>
-        <v>-505.30242582456253</v>
+        <v>-511.67098077456262</v>
       </c>
       <c r="EC95" s="85">
         <f t="shared" si="206"/>
-        <v>-774.92135794325554</v>
+        <v>-785.86389504425563</v>
       </c>
       <c r="ED95" s="85">
         <f t="shared" si="206"/>
-        <v>-1013.9824348971712</v>
+        <v>-1030.8237563714738</v>
       </c>
       <c r="EE95" s="85">
         <f t="shared" si="206"/>
-        <v>-1218.197686373939</v>
+        <v>-1242.3042559194128</v>
       </c>
       <c r="EF95" s="85">
         <f t="shared" si="206"/>
-        <v>-1390.4881879450227</v>
+        <v>-1422.4924930685684</v>
       </c>
       <c r="EG95" s="85">
         <f t="shared" si="206"/>
-        <v>-1549.2311945650567</v>
+        <v>-1590.0004809228869</v>
       </c>
       <c r="EH95" s="85">
         <f t="shared" si="206"/>
-        <v>-1699.0663859721963</v>
+        <v>-1749.5587071041723</v>
       </c>
       <c r="EI95" s="85">
         <f t="shared" si="206"/>
-        <v>-1840.8210316856027</v>
+        <v>-1902.0467624817461</v>
       </c>
       <c r="EJ95" s="85">
         <f t="shared" si="206"/>
-        <v>-1976.9261609268617</v>
+        <v>-2049.0053697092562</v>
       </c>
     </row>
     <row r="96" spans="2:140" s="81" customFormat="1" ht="3.75" customHeight="1">
@@ -41175,43 +41187,43 @@
       </c>
       <c r="EA100" s="91">
         <f t="shared" si="212"/>
-        <v>197.00625167500007</v>
+        <v>199.09035167500011</v>
       </c>
       <c r="EB100" s="91">
         <f t="shared" si="212"/>
-        <v>505.30242582456253</v>
+        <v>511.67098077456262</v>
       </c>
       <c r="EC100" s="91">
         <f t="shared" si="212"/>
-        <v>774.92135794325554</v>
+        <v>785.86389504425563</v>
       </c>
       <c r="ED100" s="91">
         <f t="shared" si="212"/>
-        <v>1013.9824348971712</v>
+        <v>1030.8237563714738</v>
       </c>
       <c r="EE100" s="91">
         <f t="shared" si="212"/>
-        <v>1218.197686373939</v>
+        <v>1242.3042559194128</v>
       </c>
       <c r="EF100" s="91">
         <f t="shared" si="212"/>
-        <v>1390.4881879450227</v>
+        <v>1422.4924930685684</v>
       </c>
       <c r="EG100" s="91">
         <f t="shared" si="212"/>
-        <v>1549.2311945650567</v>
+        <v>1590.0004809228869</v>
       </c>
       <c r="EH100" s="91">
         <f t="shared" si="212"/>
-        <v>1699.0663859721963</v>
+        <v>1749.5587071041723</v>
       </c>
       <c r="EI100" s="91">
         <f t="shared" si="212"/>
-        <v>1840.8210316856027</v>
+        <v>1902.0467624817461</v>
       </c>
       <c r="EJ100" s="91">
         <f t="shared" si="212"/>
-        <v>1976.9261609268617</v>
+        <v>2049.0053697092562</v>
       </c>
       <c r="EK100" s="90"/>
       <c r="EL100" s="90"/>
@@ -41659,47 +41671,47 @@
       </c>
       <c r="DZ101" s="91">
         <f t="shared" ref="DZ101:EJ101" si="223">DZ100+DZ93</f>
-        <v>41085.77089</v>
+        <v>41363.650890000004</v>
       </c>
       <c r="EA101" s="91">
         <f t="shared" si="223"/>
-        <v>41106.156553275003</v>
+        <v>41677.417213275003</v>
       </c>
       <c r="EB101" s="91">
         <f t="shared" si="223"/>
-        <v>35949.19094915907</v>
+        <v>36559.055235959066</v>
       </c>
       <c r="EC101" s="91">
         <f t="shared" si="223"/>
-        <v>31874.810260522085</v>
+        <v>32661.314843629079</v>
       </c>
       <c r="ED101" s="91">
         <f t="shared" si="223"/>
-        <v>27228.700196902359</v>
+        <v>28197.399939725219</v>
       </c>
       <c r="EE101" s="91">
         <f t="shared" si="223"/>
-        <v>22972.066876144483</v>
+        <v>24025.098286554072</v>
       </c>
       <c r="EF101" s="91">
         <f t="shared" si="223"/>
-        <v>21165.734216004541</v>
+        <v>22334.398380575811</v>
       </c>
       <c r="EG101" s="91">
         <f t="shared" si="223"/>
-        <v>19978.025520951949</v>
+        <v>21274.430157504717</v>
       </c>
       <c r="EH101" s="91">
         <f t="shared" si="223"/>
-        <v>18900.6194284542</v>
+        <v>20331.740717009834</v>
       </c>
       <c r="EI101" s="91">
         <f t="shared" si="223"/>
-        <v>18147.350565501183</v>
+        <v>19594.480963668029</v>
       </c>
       <c r="EJ101" s="91">
         <f t="shared" si="223"/>
-        <v>17814.175305544773</v>
+        <v>19280.899874535247</v>
       </c>
       <c r="EK101" s="90"/>
       <c r="EL101" s="90"/>
@@ -42104,47 +42116,47 @@
       </c>
       <c r="DZ102" s="91">
         <f t="shared" si="226"/>
-        <v>10271.4427225</v>
+        <v>10340.912722500001</v>
       </c>
       <c r="EA102" s="91">
         <f t="shared" si="226"/>
-        <v>10276.539138318751</v>
+        <v>10419.354303318751</v>
       </c>
       <c r="EB102" s="91">
         <f t="shared" ref="EB102:EI102" si="229">EB101*0.25</f>
-        <v>8987.2977372897676</v>
+        <v>9139.7638089897664</v>
       </c>
       <c r="EC102" s="91">
         <f t="shared" si="229"/>
-        <v>7968.7025651305212</v>
+        <v>8165.3287109072699</v>
       </c>
       <c r="ED102" s="91">
         <f t="shared" si="229"/>
-        <v>6807.1750492255896</v>
+        <v>7049.3499849313048</v>
       </c>
       <c r="EE102" s="91">
         <f t="shared" si="229"/>
-        <v>5743.0167190361208</v>
+        <v>6006.274571638518</v>
       </c>
       <c r="EF102" s="91">
         <f t="shared" si="229"/>
-        <v>5291.4335540011352</v>
+        <v>5583.5995951439527</v>
       </c>
       <c r="EG102" s="91">
         <f t="shared" si="229"/>
-        <v>4994.5063802379873</v>
+        <v>5318.6075393761794</v>
       </c>
       <c r="EH102" s="91">
         <f t="shared" si="229"/>
-        <v>4725.15485711355</v>
+        <v>5082.9351792524585</v>
       </c>
       <c r="EI102" s="91">
         <f t="shared" si="229"/>
-        <v>4536.8376413752958</v>
+        <v>4898.6202409170073</v>
       </c>
       <c r="EJ102" s="91">
         <f>EJ101*0.25</f>
-        <v>4453.5438263861934</v>
+        <v>4820.2249686338118</v>
       </c>
       <c r="EK102" s="90"/>
       <c r="EL102" s="90"/>
@@ -42592,487 +42604,487 @@
       </c>
       <c r="DZ103" s="92">
         <f t="shared" si="238"/>
-        <v>30814.3281675</v>
+        <v>31022.738167500003</v>
       </c>
       <c r="EA103" s="92">
         <f t="shared" si="238"/>
-        <v>30829.61741495625</v>
+        <v>31258.06290995625</v>
       </c>
       <c r="EB103" s="92">
         <f t="shared" ref="EB103:EJ103" si="239">EB101-EB102</f>
-        <v>26961.893211869305</v>
+        <v>27419.291426969299</v>
       </c>
       <c r="EC103" s="92">
         <f t="shared" si="239"/>
-        <v>23906.107695391562</v>
+        <v>24495.98613272181</v>
       </c>
       <c r="ED103" s="92">
         <f t="shared" si="239"/>
-        <v>20421.52514767677</v>
+        <v>21148.049954793914</v>
       </c>
       <c r="EE103" s="92">
         <f t="shared" si="239"/>
-        <v>17229.050157108362</v>
+        <v>18018.823714915554</v>
       </c>
       <c r="EF103" s="92">
         <f t="shared" si="239"/>
-        <v>15874.300662003407</v>
+        <v>16750.798785431856</v>
       </c>
       <c r="EG103" s="92">
         <f t="shared" si="239"/>
-        <v>14983.519140713961</v>
+        <v>15955.822618128539</v>
       </c>
       <c r="EH103" s="92">
         <f t="shared" si="239"/>
-        <v>14175.46457134065</v>
+        <v>15248.805537757376</v>
       </c>
       <c r="EI103" s="92">
         <f t="shared" si="239"/>
-        <v>13610.512924125887</v>
+        <v>14695.860722751022</v>
       </c>
       <c r="EJ103" s="92">
         <f t="shared" si="239"/>
-        <v>13360.631479158579</v>
+        <v>14460.674905901436</v>
       </c>
       <c r="EK103" s="95">
         <f t="shared" ref="EK103:FP103" si="240">EJ103*(1+$EM$108)</f>
-        <v>13227.025164366993</v>
+        <v>14316.068156842422</v>
       </c>
       <c r="EL103" s="95">
         <f t="shared" si="240"/>
-        <v>13094.754912723323</v>
+        <v>14172.907475273998</v>
       </c>
       <c r="EM103" s="95">
         <f t="shared" si="240"/>
-        <v>12963.80736359609</v>
+        <v>14031.178400521258</v>
       </c>
       <c r="EN103" s="95">
         <f t="shared" si="240"/>
-        <v>12834.169289960129</v>
+        <v>13890.866616516045</v>
       </c>
       <c r="EO103" s="95">
         <f t="shared" si="240"/>
-        <v>12705.827597060528</v>
+        <v>13751.957950350885</v>
       </c>
       <c r="EP103" s="95">
         <f t="shared" si="240"/>
-        <v>12578.769321089923</v>
+        <v>13614.438370847376</v>
       </c>
       <c r="EQ103" s="95">
         <f t="shared" si="240"/>
-        <v>12452.981627879024</v>
+        <v>13478.293987138903</v>
       </c>
       <c r="ER103" s="95">
         <f t="shared" si="240"/>
-        <v>12328.451811600233</v>
+        <v>13343.511047267513</v>
       </c>
       <c r="ES103" s="95">
         <f t="shared" si="240"/>
-        <v>12205.16729348423</v>
+        <v>13210.075936794838</v>
       </c>
       <c r="ET103" s="95">
         <f t="shared" si="240"/>
-        <v>12083.115620549388</v>
+        <v>13077.97517742689</v>
       </c>
       <c r="EU103" s="95">
         <f t="shared" si="240"/>
-        <v>11962.284464343895</v>
+        <v>12947.195425652621</v>
       </c>
       <c r="EV103" s="95">
         <f t="shared" si="240"/>
-        <v>11842.661619700455</v>
+        <v>12817.723471396093</v>
       </c>
       <c r="EW103" s="95">
         <f t="shared" si="240"/>
-        <v>11724.235003503451</v>
+        <v>12689.546236682132</v>
       </c>
       <c r="EX103" s="95">
         <f t="shared" si="240"/>
-        <v>11606.992653468416</v>
+        <v>12562.650774315311</v>
       </c>
       <c r="EY103" s="95">
         <f t="shared" si="240"/>
-        <v>11490.922726933732</v>
+        <v>12437.024266572158</v>
       </c>
       <c r="EZ103" s="95">
         <f t="shared" si="240"/>
-        <v>11376.013499664394</v>
+        <v>12312.654023906436</v>
       </c>
       <c r="FA103" s="95">
         <f t="shared" si="240"/>
-        <v>11262.253364667749</v>
+        <v>12189.527483667373</v>
       </c>
       <c r="FB103" s="95">
         <f t="shared" si="240"/>
-        <v>11149.630831021072</v>
+        <v>12067.632208830699</v>
       </c>
       <c r="FC103" s="95">
         <f t="shared" si="240"/>
-        <v>11038.134522710861</v>
+        <v>11946.955886742391</v>
       </c>
       <c r="FD103" s="95">
         <f t="shared" si="240"/>
-        <v>10927.753177483753</v>
+        <v>11827.486327874967</v>
       </c>
       <c r="FE103" s="95">
         <f t="shared" si="240"/>
-        <v>10818.475645708915</v>
+        <v>11709.211464596217</v>
       </c>
       <c r="FF103" s="95">
         <f t="shared" si="240"/>
-        <v>10710.290889251826</v>
+        <v>11592.119349950255</v>
       </c>
       <c r="FG103" s="95">
         <f t="shared" si="240"/>
-        <v>10603.187980359307</v>
+        <v>11476.198156450753</v>
       </c>
       <c r="FH103" s="95">
         <f t="shared" si="240"/>
-        <v>10497.156100555714</v>
+        <v>11361.436174886245</v>
       </c>
       <c r="FI103" s="95">
         <f t="shared" si="240"/>
-        <v>10392.184539550157</v>
+        <v>11247.821813137381</v>
       </c>
       <c r="FJ103" s="95">
         <f t="shared" si="240"/>
-        <v>10288.262694154655</v>
+        <v>11135.343595006008</v>
       </c>
       <c r="FK103" s="95">
         <f t="shared" si="240"/>
-        <v>10185.380067213109</v>
+        <v>11023.990159055948</v>
       </c>
       <c r="FL103" s="95">
         <f t="shared" si="240"/>
-        <v>10083.526266540977</v>
+        <v>10913.750257465388</v>
       </c>
       <c r="FM103" s="95">
         <f t="shared" si="240"/>
-        <v>9982.6910038755668</v>
+        <v>10804.612754890733</v>
       </c>
       <c r="FN103" s="95">
         <f t="shared" si="240"/>
-        <v>9882.8640938368117</v>
+        <v>10696.566627341826</v>
       </c>
       <c r="FO103" s="95">
         <f t="shared" si="240"/>
-        <v>9784.0354528984426</v>
+        <v>10589.600961068409</v>
       </c>
       <c r="FP103" s="95">
         <f t="shared" si="240"/>
-        <v>9686.1950983694587</v>
+        <v>10483.704951457725</v>
       </c>
       <c r="FQ103" s="95">
         <f t="shared" ref="FQ103:GV103" si="241">FP103*(1+$EM$108)</f>
-        <v>9589.3331473857634</v>
+        <v>10378.867901943147</v>
       </c>
       <c r="FR103" s="95">
         <f t="shared" si="241"/>
-        <v>9493.4398159119064</v>
+        <v>10275.079222923716</v>
       </c>
       <c r="FS103" s="95">
         <f t="shared" si="241"/>
-        <v>9398.5054177527873</v>
+        <v>10172.328430694479</v>
       </c>
       <c r="FT103" s="95">
         <f t="shared" si="241"/>
-        <v>9304.5203635752587</v>
+        <v>10070.605146387534</v>
       </c>
       <c r="FU103" s="95">
         <f t="shared" si="241"/>
-        <v>9211.4751599395058</v>
+        <v>9969.8990949236577</v>
       </c>
       <c r="FV103" s="95">
         <f t="shared" si="241"/>
-        <v>9119.3604083401115</v>
+        <v>9870.2001039744209</v>
       </c>
       <c r="FW103" s="95">
         <f t="shared" si="241"/>
-        <v>9028.1668042567107</v>
+        <v>9771.4981029346764</v>
       </c>
       <c r="FX103" s="95">
         <f t="shared" si="241"/>
-        <v>8937.8851362141431</v>
+        <v>9673.7831219053296</v>
       </c>
       <c r="FY103" s="95">
         <f t="shared" si="241"/>
-        <v>8848.506284852001</v>
+        <v>9577.0452906862756</v>
       </c>
       <c r="FZ103" s="95">
         <f t="shared" si="241"/>
-        <v>8760.0212220034809</v>
+        <v>9481.2748377794123</v>
       </c>
       <c r="GA103" s="95">
         <f t="shared" si="241"/>
-        <v>8672.4210097834457</v>
+        <v>9386.4620894016189</v>
       </c>
       <c r="GB103" s="95">
         <f t="shared" si="241"/>
-        <v>8585.696799685611</v>
+        <v>9292.5974685076035</v>
       </c>
       <c r="GC103" s="95">
         <f t="shared" si="241"/>
-        <v>8499.8398316887542</v>
+        <v>9199.6714938225268</v>
       </c>
       <c r="GD103" s="95">
         <f t="shared" si="241"/>
-        <v>8414.8414333718665</v>
+        <v>9107.6747788843022</v>
       </c>
       <c r="GE103" s="95">
         <f t="shared" si="241"/>
-        <v>8330.6930190381481</v>
+        <v>9016.5980310954583</v>
       </c>
       <c r="GF103" s="95">
         <f t="shared" si="241"/>
-        <v>8247.3860888477666</v>
+        <v>8926.4320507845041</v>
       </c>
       <c r="GG103" s="95">
         <f t="shared" si="241"/>
-        <v>8164.9122279592884</v>
+        <v>8837.1677302766584</v>
       </c>
       <c r="GH103" s="95">
         <f t="shared" si="241"/>
-        <v>8083.2631056796954</v>
+        <v>8748.7960529738921</v>
       </c>
       <c r="GI103" s="95">
         <f t="shared" si="241"/>
-        <v>8002.4304746228981</v>
+        <v>8661.3080924441529</v>
       </c>
       <c r="GJ103" s="95">
         <f t="shared" si="241"/>
-        <v>7922.4061698766691</v>
+        <v>8574.6950115197105</v>
       </c>
       <c r="GK103" s="95">
         <f t="shared" si="241"/>
-        <v>7843.1821081779026</v>
+        <v>8488.9480614045133</v>
       </c>
       <c r="GL103" s="95">
         <f t="shared" si="241"/>
-        <v>7764.7502870961234</v>
+        <v>8404.0585807904681</v>
       </c>
       <c r="GM103" s="95">
         <f t="shared" si="241"/>
-        <v>7687.1027842251624</v>
+        <v>8320.0179949825633</v>
       </c>
       <c r="GN103" s="95">
         <f t="shared" si="241"/>
-        <v>7610.231756382911</v>
+        <v>8236.8178150327385</v>
       </c>
       <c r="GO103" s="95">
         <f t="shared" si="241"/>
-        <v>7534.1294388190818</v>
+        <v>8154.4496368824111</v>
       </c>
       <c r="GP103" s="95">
         <f t="shared" si="241"/>
-        <v>7458.7881444308905</v>
+        <v>8072.905140513587</v>
       </c>
       <c r="GQ103" s="95">
         <f t="shared" si="241"/>
-        <v>7384.2002629865819</v>
+        <v>7992.1760891084514</v>
       </c>
       <c r="GR103" s="95">
         <f t="shared" si="241"/>
-        <v>7310.3582603567156</v>
+        <v>7912.2543282173665</v>
       </c>
       <c r="GS103" s="95">
         <f t="shared" si="241"/>
-        <v>7237.2546777531488</v>
+        <v>7833.1317849351926</v>
       </c>
       <c r="GT103" s="95">
         <f t="shared" si="241"/>
-        <v>7164.8821309756177</v>
+        <v>7754.8004670858409</v>
       </c>
       <c r="GU103" s="95">
         <f t="shared" si="241"/>
-        <v>7093.2333096658613</v>
+        <v>7677.2524624149828</v>
       </c>
       <c r="GV103" s="95">
         <f t="shared" si="241"/>
-        <v>7022.3009765692022</v>
+        <v>7600.479937790833</v>
       </c>
       <c r="GW103" s="95">
         <f t="shared" ref="GW103:IB103" si="242">GV103*(1+$EM$108)</f>
-        <v>6952.0779668035102</v>
+        <v>7524.4751384129249</v>
       </c>
       <c r="GX103" s="95">
         <f t="shared" si="242"/>
-        <v>6882.557187135475</v>
+        <v>7449.230387028796</v>
       </c>
       <c r="GY103" s="95">
         <f t="shared" si="242"/>
-        <v>6813.7316152641206</v>
+        <v>7374.7380831585078</v>
       </c>
       <c r="GZ103" s="95">
         <f t="shared" si="242"/>
-        <v>6745.5942991114789</v>
+        <v>7300.9907023269225</v>
       </c>
       <c r="HA103" s="95">
         <f t="shared" si="242"/>
-        <v>6678.1383561203638</v>
+        <v>7227.9807953036534</v>
       </c>
       <c r="HB103" s="95">
         <f t="shared" si="242"/>
-        <v>6611.3569725591606</v>
+        <v>7155.7009873506167</v>
       </c>
       <c r="HC103" s="95">
         <f t="shared" si="242"/>
-        <v>6545.2434028335692</v>
+        <v>7084.1439774771106</v>
       </c>
       <c r="HD103" s="95">
         <f t="shared" si="242"/>
-        <v>6479.7909688052332</v>
+        <v>7013.3025377023396</v>
       </c>
       <c r="HE103" s="95">
         <f t="shared" si="242"/>
-        <v>6414.9930591171806</v>
+        <v>6943.1695123253157</v>
       </c>
       <c r="HF103" s="95">
         <f t="shared" si="242"/>
-        <v>6350.8431285260085</v>
+        <v>6873.7378172020626</v>
       </c>
       <c r="HG103" s="95">
         <f t="shared" si="242"/>
-        <v>6287.334697240748</v>
+        <v>6805.0004390300419</v>
       </c>
       <c r="HH103" s="95">
         <f t="shared" si="242"/>
-        <v>6224.4613502683405</v>
+        <v>6736.9504346397416</v>
       </c>
       <c r="HI103" s="95">
         <f t="shared" si="242"/>
-        <v>6162.2167367656575</v>
+        <v>6669.580930293344</v>
       </c>
       <c r="HJ103" s="95">
         <f t="shared" si="242"/>
-        <v>6100.5945693980011</v>
+        <v>6602.8851209904105</v>
       </c>
       <c r="HK103" s="95">
         <f t="shared" si="242"/>
-        <v>6039.5886237040213</v>
+        <v>6536.8562697805064</v>
       </c>
       <c r="HL103" s="95">
         <f t="shared" si="242"/>
-        <v>5979.1927374669813</v>
+        <v>6471.4877070827015</v>
       </c>
       <c r="HM103" s="95">
         <f t="shared" si="242"/>
-        <v>5919.4008100923111</v>
+        <v>6406.7728300118742</v>
       </c>
       <c r="HN103" s="95">
         <f t="shared" si="242"/>
-        <v>5860.2068019913877</v>
+        <v>6342.7051017117556</v>
       </c>
       <c r="HO103" s="95">
         <f t="shared" si="242"/>
-        <v>5801.6047339714742</v>
+        <v>6279.2780506946383</v>
       </c>
       <c r="HP103" s="95">
         <f t="shared" si="242"/>
-        <v>5743.5886866317596</v>
+        <v>6216.4852701876916</v>
       </c>
       <c r="HQ103" s="95">
         <f t="shared" si="242"/>
-        <v>5686.1527997654421</v>
+        <v>6154.3204174858147</v>
       </c>
       <c r="HR103" s="95">
         <f t="shared" si="242"/>
-        <v>5629.2912717677873</v>
+        <v>6092.7772133109565</v>
       </c>
       <c r="HS103" s="95">
         <f t="shared" si="242"/>
-        <v>5572.9983590501097</v>
+        <v>6031.8494411778465</v>
       </c>
       <c r="HT103" s="95">
         <f t="shared" si="242"/>
-        <v>5517.2683754596083</v>
+        <v>5971.5309467660682</v>
       </c>
       <c r="HU103" s="95">
         <f t="shared" si="242"/>
-        <v>5462.0956917050125</v>
+        <v>5911.8156372984076</v>
       </c>
       <c r="HV103" s="95">
         <f t="shared" si="242"/>
-        <v>5407.474734787962</v>
+        <v>5852.6974809254234</v>
       </c>
       <c r="HW103" s="95">
         <f t="shared" si="242"/>
-        <v>5353.3999874400824</v>
+        <v>5794.1705061161692</v>
       </c>
       <c r="HX103" s="95">
         <f t="shared" si="242"/>
-        <v>5299.8659875656813</v>
+        <v>5736.2288010550074</v>
       </c>
       <c r="HY103" s="95">
         <f t="shared" si="242"/>
-        <v>5246.8673276900245</v>
+        <v>5678.866513044457</v>
       </c>
       <c r="HZ103" s="95">
         <f t="shared" si="242"/>
-        <v>5194.3986544131239</v>
+        <v>5622.0778479140126</v>
       </c>
       <c r="IA103" s="95">
         <f t="shared" si="242"/>
-        <v>5142.4546678689931</v>
+        <v>5565.8570694348728</v>
       </c>
       <c r="IB103" s="95">
         <f t="shared" si="242"/>
-        <v>5091.0301211903034</v>
+        <v>5510.198498740524</v>
       </c>
       <c r="IC103" s="95">
         <f t="shared" ref="IC103:IP103" si="243">IB103*(1+$EM$108)</f>
-        <v>5040.1198199784003</v>
+        <v>5455.0965137531184</v>
       </c>
       <c r="ID103" s="95">
         <f t="shared" si="243"/>
-        <v>4989.7186217786166</v>
+        <v>5400.545548615587</v>
       </c>
       <c r="IE103" s="95">
         <f t="shared" si="243"/>
-        <v>4939.8214355608307</v>
+        <v>5346.5400931294307</v>
       </c>
       <c r="IF103" s="95">
         <f t="shared" si="243"/>
-        <v>4890.423221205222</v>
+        <v>5293.0746921981363</v>
       </c>
       <c r="IG103" s="95">
         <f t="shared" si="243"/>
-        <v>4841.5189889931698</v>
+        <v>5240.1439452761551</v>
       </c>
       <c r="IH103" s="95">
         <f t="shared" si="243"/>
-        <v>4793.1037991032381</v>
+        <v>5187.7425058233939</v>
       </c>
       <c r="II103" s="95">
         <f t="shared" si="243"/>
-        <v>4745.172761112206</v>
+        <v>5135.8650807651602</v>
       </c>
       <c r="IJ103" s="95">
         <f t="shared" si="243"/>
-        <v>4697.7210335010841</v>
+        <v>5084.5064299575088</v>
       </c>
       <c r="IK103" s="95">
         <f t="shared" si="243"/>
-        <v>4650.7438231660735</v>
+        <v>5033.6613656579339</v>
       </c>
       <c r="IL103" s="95">
         <f t="shared" si="243"/>
-        <v>4604.2363849344129</v>
+        <v>4983.3247520013547</v>
       </c>
       <c r="IM103" s="95">
         <f t="shared" si="243"/>
-        <v>4558.1940210850689</v>
+        <v>4933.4915044813415</v>
       </c>
       <c r="IN103" s="95">
         <f t="shared" si="243"/>
-        <v>4512.612080874218</v>
+        <v>4884.1565894365276</v>
       </c>
       <c r="IO103" s="95">
         <f t="shared" si="243"/>
-        <v>4467.4859600654754</v>
+        <v>4835.3150235421626</v>
       </c>
       <c r="IP103" s="95">
         <f t="shared" si="243"/>
-        <v>4422.8111004648208</v>
+        <v>4786.9618733067409</v>
       </c>
     </row>
     <row r="104" spans="2:250" s="8" customFormat="1" ht="12.75" customHeight="1">
@@ -43424,47 +43436,47 @@
       </c>
       <c r="DZ104" s="27">
         <f t="shared" si="251"/>
-        <v>12.12</v>
+        <v>12.2</v>
       </c>
       <c r="EA104" s="27">
         <f t="shared" si="251"/>
-        <v>12.13</v>
+        <v>12.3</v>
       </c>
       <c r="EB104" s="27">
         <f t="shared" ref="EB104:EJ104" si="252">ROUND(EB103/EB105,2)</f>
-        <v>10.61</v>
+        <v>10.79</v>
       </c>
       <c r="EC104" s="27">
         <f t="shared" si="252"/>
-        <v>9.4</v>
+        <v>9.64</v>
       </c>
       <c r="ED104" s="27">
         <f t="shared" si="252"/>
-        <v>8.0299999999999994</v>
+        <v>8.32</v>
       </c>
       <c r="EE104" s="27">
         <f t="shared" si="252"/>
-        <v>6.78</v>
+        <v>7.09</v>
       </c>
       <c r="EF104" s="27">
         <f t="shared" si="252"/>
-        <v>6.24</v>
+        <v>6.59</v>
       </c>
       <c r="EG104" s="27">
         <f t="shared" si="252"/>
-        <v>5.89</v>
+        <v>6.28</v>
       </c>
       <c r="EH104" s="27">
         <f t="shared" si="252"/>
-        <v>5.58</v>
+        <v>6</v>
       </c>
       <c r="EI104" s="27">
         <f t="shared" si="252"/>
-        <v>5.35</v>
+        <v>5.78</v>
       </c>
       <c r="EJ104" s="27">
         <f t="shared" si="252"/>
-        <v>5.26</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="105" spans="2:250" s="81" customFormat="1" ht="12.75" customHeight="1">
@@ -44165,7 +44177,7 @@
       </c>
       <c r="EE107" s="103">
         <f t="shared" si="268"/>
-        <v>0.8</v>
+        <v>0.80000000000000016</v>
       </c>
       <c r="EF107" s="103">
         <f t="shared" si="268"/>
@@ -44429,7 +44441,10 @@
       <c r="DV108" s="103"/>
       <c r="DW108" s="103"/>
       <c r="DX108" s="103"/>
-      <c r="DY108" s="103"/>
+      <c r="DY108" s="103">
+        <f>+DY90/DY87</f>
+        <v>0.16288724282491662</v>
+      </c>
       <c r="DZ108" s="103"/>
       <c r="EA108" s="103"/>
       <c r="EC108" s="106"/>
@@ -44675,7 +44690,10 @@
       <c r="DV109" s="103"/>
       <c r="DW109" s="103"/>
       <c r="DX109" s="103"/>
-      <c r="DY109" s="103"/>
+      <c r="DY109" s="103">
+        <f>+DY91/DY87</f>
+        <v>0.28264796817307308</v>
+      </c>
       <c r="DZ109" s="103"/>
       <c r="EA109" s="103"/>
       <c r="EC109" s="106"/>
@@ -44933,7 +44951,10 @@
       <c r="DV110" s="103"/>
       <c r="DW110" s="103"/>
       <c r="DX110" s="103"/>
-      <c r="DY110" s="103"/>
+      <c r="DY110" s="103">
+        <f>+DY93/DY87</f>
+        <v>0.35446478900201039</v>
+      </c>
       <c r="DZ110" s="103"/>
       <c r="EA110" s="103"/>
       <c r="EC110" s="106"/>
@@ -44942,7 +44963,7 @@
       </c>
       <c r="EM110" s="85">
         <f>NPV($EM$109,EA103:HC103)+Main!J5-Main!J6+DZ103</f>
-        <v>233657.48805066073</v>
+        <v>246124.89026475293</v>
       </c>
     </row>
     <row r="111" spans="2:250" s="101" customFormat="1" ht="12.75" customHeight="1">
@@ -45096,7 +45117,10 @@
       <c r="DV111" s="103"/>
       <c r="DW111" s="103"/>
       <c r="DX111" s="103"/>
-      <c r="DY111" s="103"/>
+      <c r="DY111" s="103">
+        <f>+DY103/DY87</f>
+        <v>0.26256070895818145</v>
+      </c>
       <c r="DZ111" s="103"/>
       <c r="EA111" s="103"/>
       <c r="EC111" s="106"/>
@@ -45105,7 +45129,7 @@
       </c>
       <c r="EM111" s="107">
         <f>EM110/Main!J3</f>
-        <v>91.846496875259717</v>
+        <v>97.435217423782063</v>
       </c>
     </row>
     <row r="112" spans="2:250" s="101" customFormat="1" ht="12.75" customHeight="1">
@@ -45325,7 +45349,10 @@
       <c r="DV112" s="103"/>
       <c r="DW112" s="103"/>
       <c r="DX112" s="103"/>
-      <c r="DY112" s="103"/>
+      <c r="DY112" s="103">
+        <f>+DY102/DY101</f>
+        <v>0.25</v>
+      </c>
       <c r="DZ112" s="103"/>
       <c r="EA112" s="103"/>
       <c r="EC112" s="106"/>
@@ -46066,7 +46093,7 @@
       </c>
       <c r="CU116" s="42">
         <f t="shared" si="287"/>
-        <v>3.7077020602218624E-2</v>
+        <v>5.9096038034865073E-2</v>
       </c>
       <c r="CV116" s="42">
         <f t="shared" si="287"/>
@@ -46087,29 +46114,130 @@
       <c r="DC116" s="43"/>
       <c r="DD116" s="43"/>
       <c r="DE116" s="43"/>
-      <c r="DF116" s="43"/>
-      <c r="DG116" s="43"/>
-      <c r="DH116" s="43"/>
-      <c r="DI116" s="43"/>
-      <c r="DJ116" s="43"/>
-      <c r="DK116" s="43"/>
-      <c r="DL116" s="43"/>
-      <c r="DM116" s="43"/>
-      <c r="DN116" s="43"/>
-      <c r="DO116" s="43"/>
-      <c r="DP116" s="24"/>
-      <c r="DQ116" s="24"/>
-      <c r="DR116" s="24"/>
-      <c r="DS116" s="24"/>
-      <c r="DT116" s="24"/>
-      <c r="DU116" s="24"/>
-      <c r="DV116" s="24"/>
-      <c r="DW116" s="24"/>
-      <c r="DX116" s="24"/>
-      <c r="DY116" s="24"/>
-      <c r="DZ116" s="24"/>
-      <c r="EA116" s="24"/>
-      <c r="EC116" s="28"/>
+      <c r="DF116" s="42">
+        <f t="shared" ref="DF116:DK116" si="288">+DF87/DE87-1</f>
+        <v>-4.2000982479122317E-2</v>
+      </c>
+      <c r="DG116" s="42">
+        <f t="shared" si="288"/>
+        <v>-0.19600888812921968</v>
+      </c>
+      <c r="DH116" s="42">
+        <f t="shared" si="288"/>
+        <v>0.10882806271591838</v>
+      </c>
+      <c r="DI116" s="42">
+        <f t="shared" si="288"/>
+        <v>-0.33274855483017485</v>
+      </c>
+      <c r="DJ116" s="42">
+        <f t="shared" si="288"/>
+        <v>3.0241081562576326</v>
+      </c>
+      <c r="DK116" s="42">
+        <f t="shared" si="288"/>
+        <v>0.64407868899282383</v>
+      </c>
+      <c r="DL116" s="42">
+        <f t="shared" ref="DL116:DT116" si="289">+DL87/DK87-1</f>
+        <v>4.2063888466633337E-2</v>
+      </c>
+      <c r="DM116" s="42">
+        <f t="shared" si="289"/>
+        <v>-1.4921018630433824E-2</v>
+      </c>
+      <c r="DN116" s="42">
+        <f t="shared" si="289"/>
+        <v>-6.8500105775333164E-2</v>
+      </c>
+      <c r="DO116" s="42">
+        <f t="shared" si="289"/>
+        <v>-4.0765806686046457E-2</v>
+      </c>
+      <c r="DP116" s="42">
+        <f t="shared" si="289"/>
+        <v>-6.4848355707081473E-2</v>
+      </c>
+      <c r="DQ116" s="42">
+        <f t="shared" si="289"/>
+        <v>7.8231809205528968E-3</v>
+      </c>
+      <c r="DR116" s="42">
+        <f t="shared" si="289"/>
+        <v>7.9131810988017914E-3</v>
+      </c>
+      <c r="DS116" s="42">
+        <f t="shared" si="289"/>
+        <v>5.41348885898012E-2</v>
+      </c>
+      <c r="DT116" s="42">
+        <f t="shared" si="289"/>
+        <v>0.10750933938620144</v>
+      </c>
+      <c r="DU116" s="42">
+        <f t="shared" ref="DU116:DX116" si="290">+DU87/DT87-1</f>
+        <v>-1.0012595802822322E-2</v>
+      </c>
+      <c r="DV116" s="42">
+        <f t="shared" si="290"/>
+        <v>5.0288967480376146E-2</v>
+      </c>
+      <c r="DW116" s="42">
+        <f t="shared" si="290"/>
+        <v>0.21721008541392894</v>
+      </c>
+      <c r="DX116" s="42">
+        <f t="shared" si="290"/>
+        <v>1.486092134338679E-2</v>
+      </c>
+      <c r="DY116" s="42">
+        <f>+DY87/DX87-1</f>
+        <v>5.0617811315736949E-2</v>
+      </c>
+      <c r="DZ116" s="42">
+        <f t="shared" ref="DZ116:EJ116" si="291">+DZ87/DY87-1</f>
+        <v>2.3795758445306348E-2</v>
+      </c>
+      <c r="EA116" s="42">
+        <f t="shared" si="291"/>
+        <v>6.835788563752665E-5</v>
+      </c>
+      <c r="EB116" s="42">
+        <f t="shared" si="291"/>
+        <v>1.2713483591810792E-2</v>
+      </c>
+      <c r="EC116" s="42">
+        <f t="shared" si="291"/>
+        <v>-0.11573470288623378</v>
+      </c>
+      <c r="ED116" s="42">
+        <f t="shared" si="291"/>
+        <v>-0.14772731444102549</v>
+      </c>
+      <c r="EE116" s="42">
+        <f t="shared" si="291"/>
+        <v>-0.16136675167057846</v>
+      </c>
+      <c r="EF116" s="42">
+        <f t="shared" si="291"/>
+        <v>-8.2118468025113134E-2</v>
+      </c>
+      <c r="EG116" s="42">
+        <f t="shared" si="291"/>
+        <v>-5.869748159390431E-2</v>
+      </c>
+      <c r="EH116" s="42">
+        <f t="shared" si="291"/>
+        <v>-5.5995915796711704E-2</v>
+      </c>
+      <c r="EI116" s="42">
+        <f t="shared" si="291"/>
+        <v>-4.7881772347567964E-2</v>
+      </c>
+      <c r="EJ116" s="42">
+        <f t="shared" si="291"/>
+        <v>-2.6030318447046064E-2</v>
+      </c>
     </row>
     <row r="117" spans="2:140" s="8" customFormat="1" ht="12.75" customHeight="1">
       <c r="B117" s="34" t="s">
@@ -46224,7 +46352,9 @@
       <c r="CS117" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="CT117" s="42"/>
+      <c r="CT117" s="42">
+        <v>0.09</v>
+      </c>
       <c r="CU117" s="42"/>
       <c r="CV117" s="42"/>
       <c r="CW117" s="42"/>
@@ -46341,99 +46471,99 @@
       <c r="BY118" s="110"/>
       <c r="BZ118" s="110"/>
       <c r="CA118" s="110">
-        <f t="shared" ref="CA118:CT118" si="288">+CA3/BW3-1</f>
+        <f t="shared" ref="CA118:CS118" si="292">+CA3/BW3-1</f>
         <v>0.44733362714852354</v>
       </c>
       <c r="CB118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.28625664388762329</v>
       </c>
       <c r="CC118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.21009771986970693</v>
       </c>
       <c r="CD118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.28351012536162012</v>
       </c>
       <c r="CE118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.18727161997563946</v>
       </c>
       <c r="CF118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.23258559622195984</v>
       </c>
       <c r="CG118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.22045760430686401</v>
       </c>
       <c r="CH118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.14625594790884056</v>
       </c>
       <c r="CI118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.23339317773788149</v>
       </c>
       <c r="CJ118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.25766283524904221</v>
       </c>
       <c r="CK118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.19673577415086019</v>
       </c>
       <c r="CL118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.19073629014638405</v>
       </c>
       <c r="CM118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.20503223123310454</v>
       </c>
       <c r="CN118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.19402132520944404</v>
       </c>
       <c r="CO118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.1680796166605234</v>
       </c>
       <c r="CP118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.21247706422018342</v>
       </c>
       <c r="CQ118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.19879206212251943</v>
       </c>
       <c r="CR118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.15930473608674856</v>
       </c>
       <c r="CS118" s="110">
-        <f t="shared" si="288"/>
+        <f t="shared" si="292"/>
         <v>0.17213632060586925</v>
       </c>
       <c r="CT118" s="110">
-        <f t="shared" si="288"/>
+        <f>+CT3/CP3-1</f>
         <v>0.18583535108958849</v>
       </c>
       <c r="CU118" s="110">
-        <f t="shared" ref="CU118" si="289">+CU3/CQ3-1</f>
+        <f t="shared" ref="CU118" si="293">+CU3/CQ3-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="CV118" s="110">
+        <f t="shared" ref="CV118" si="294">+CV3/CR3-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="CV118" s="110">
-        <f t="shared" ref="CV118" si="290">+CV3/CR3-1</f>
+      <c r="CW118" s="110">
+        <f t="shared" ref="CW118" si="295">+CW3/CS3-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="CW118" s="110">
-        <f t="shared" ref="CW118" si="291">+CW3/CS3-1</f>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="CX118" s="110">
-        <f t="shared" ref="CX118" si="292">+CX3/CT3-1</f>
+        <f t="shared" ref="CX118" si="296">+CX3/CT3-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="CY118" s="110"/>
@@ -46499,71 +46629,71 @@
       <c r="AB119" s="110"/>
       <c r="AC119" s="110"/>
       <c r="AD119" s="110">
-        <f t="shared" ref="AD119:AT119" si="293">+AD9/Z9-1</f>
+        <f t="shared" ref="AD119:AT119" si="297">+AD9/Z9-1</f>
         <v>1.903225806451613</v>
       </c>
       <c r="AE119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>6.8493150684931559E-2</v>
       </c>
       <c r="AF119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-8.9385474860335212E-2</v>
       </c>
       <c r="AG119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-4.0669856459330189E-2</v>
       </c>
       <c r="AH119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-8.666666666666667E-2</v>
       </c>
       <c r="AI119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-0.32820512820512826</v>
       </c>
       <c r="AJ119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-0.17791411042944782</v>
       </c>
       <c r="AK119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-0.22443890274314215</v>
       </c>
       <c r="AL119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-0.32603406326034068</v>
       </c>
       <c r="AM119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-0.11068702290076338</v>
       </c>
       <c r="AN119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-0.18283582089552242</v>
       </c>
       <c r="AO119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>1.6077170418006492E-2</v>
       </c>
       <c r="AP119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-0.20216606498194944</v>
       </c>
       <c r="AQ119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>-8.1545064377682386E-2</v>
       </c>
       <c r="AR119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>0.26484018264840192</v>
       </c>
       <c r="AS119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>0.40822784810126578</v>
       </c>
       <c r="AT119" s="110">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>0.23981900452488691</v>
       </c>
       <c r="AU119" s="110"/>
@@ -46599,99 +46729,99 @@
       <c r="BY119" s="110"/>
       <c r="BZ119" s="110"/>
       <c r="CA119" s="110">
-        <f t="shared" ref="CA119:CT119" si="294">+CA9/BW9-1</f>
+        <f t="shared" ref="CA119:CT119" si="298">+CA9/BW9-1</f>
         <v>0.30906921241050123</v>
       </c>
       <c r="CB119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>-0.2595936794582393</v>
       </c>
       <c r="CC119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>-0.10075757575757571</v>
       </c>
       <c r="CD119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.44011544011544013</v>
       </c>
       <c r="CE119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>-0.16408386508659978</v>
       </c>
       <c r="CF119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.88109756097560976</v>
       </c>
       <c r="CG119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.67902274641954508</v>
       </c>
       <c r="CH119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.53106212424849697</v>
       </c>
       <c r="CI119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.59214830970556154</v>
       </c>
       <c r="CJ119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.35656401944894656</v>
       </c>
       <c r="CK119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.15102860010035113</v>
       </c>
       <c r="CL119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>-3.7958115183246099E-2</v>
       </c>
       <c r="CM119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.35068493150684921</v>
       </c>
       <c r="CN119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.46833930704898452</v>
       </c>
       <c r="CO119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.12685265911072352</v>
       </c>
       <c r="CP119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.27278911564625852</v>
       </c>
       <c r="CQ119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>0.1404665314401623</v>
       </c>
       <c r="CR119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>8.1366965012203973E-3</v>
       </c>
       <c r="CS119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>-0.10793036750483564</v>
       </c>
       <c r="CT119" s="110">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>-0.17156600748262962</v>
       </c>
       <c r="CU119" s="110">
-        <f t="shared" ref="CU119" si="295">+CU9/CQ9-1</f>
+        <f t="shared" ref="CU119" si="299">+CU9/CQ9-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CV119" s="110">
-        <f t="shared" ref="CV119" si="296">+CV9/CR9-1</f>
+        <f t="shared" ref="CV119" si="300">+CV9/CR9-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CW119" s="110">
-        <f t="shared" ref="CW119" si="297">+CW9/CS9-1</f>
+        <f t="shared" ref="CW119" si="301">+CW9/CS9-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CX119" s="110">
-        <f t="shared" ref="CX119" si="298">+CX9/CT9-1</f>
+        <f t="shared" ref="CX119" si="302">+CX9/CT9-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CY119" s="110"/>
@@ -46757,71 +46887,71 @@
       <c r="AB120" s="110"/>
       <c r="AC120" s="110"/>
       <c r="AD120" s="110">
-        <f t="shared" ref="AD120:AT120" si="299">+AD12/Z12-1</f>
+        <f t="shared" ref="AD120:AT120" si="303">+AD12/Z12-1</f>
         <v>0.85281385281385291</v>
       </c>
       <c r="AE120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-8.1300813008130079E-2</v>
       </c>
       <c r="AF120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-7.5581395348837233E-2</v>
       </c>
       <c r="AG120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>4.6728971962617383E-3</v>
       </c>
       <c r="AH120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>4.6728971962617383E-3</v>
       </c>
       <c r="AI120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>0.11504424778761058</v>
       </c>
       <c r="AJ120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>1.2578616352201255E-2</v>
       </c>
       <c r="AK120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>7.441860465116279E-2</v>
       </c>
       <c r="AL120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-0.22558139534883725</v>
       </c>
       <c r="AM120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>0.26587301587301582</v>
       </c>
       <c r="AN120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>5.5900621118012417E-2</v>
       </c>
       <c r="AO120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-6.0606060606060552E-2</v>
       </c>
       <c r="AP120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-0.14414414414414412</v>
       </c>
       <c r="AQ120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-0.23510971786833856</v>
       </c>
       <c r="AR120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-0.14411764705882357</v>
       </c>
       <c r="AS120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-9.9078341013824844E-2</v>
       </c>
       <c r="AT120" s="110">
-        <f t="shared" si="299"/>
+        <f t="shared" si="303"/>
         <v>-3.157894736842104E-2</v>
       </c>
       <c r="AU120" s="110"/>
@@ -47138,27 +47268,27 @@
         <v>-21297</v>
       </c>
       <c r="CK122" s="114">
-        <f t="shared" ref="CK122:CP122" si="300">CK123-CK132</f>
+        <f t="shared" ref="CK122:CP122" si="304">CK123-CK132</f>
         <v>0</v>
       </c>
       <c r="CL122" s="114">
-        <f t="shared" si="300"/>
+        <f t="shared" si="304"/>
         <v>0</v>
       </c>
       <c r="CM122" s="114">
-        <f t="shared" si="300"/>
+        <f t="shared" si="304"/>
         <v>-19069</v>
       </c>
       <c r="CN122" s="114">
-        <f t="shared" si="300"/>
+        <f t="shared" si="304"/>
         <v>-29319</v>
       </c>
       <c r="CO122" s="114">
-        <f t="shared" si="300"/>
+        <f t="shared" si="304"/>
         <v>-24780</v>
       </c>
       <c r="CP122" s="114">
-        <f t="shared" si="300"/>
+        <f t="shared" si="304"/>
         <v>-27710</v>
       </c>
       <c r="CQ122" s="114">
@@ -47173,7 +47303,10 @@
         <f>+CS123-CS132</f>
         <v>-22963</v>
       </c>
-      <c r="CT122" s="114"/>
+      <c r="CT122" s="114">
+        <f>+CT123-CT132</f>
+        <v>-22959</v>
+      </c>
       <c r="CU122" s="114"/>
       <c r="CV122" s="114"/>
       <c r="CW122" s="114"/>
@@ -47208,52 +47341,52 @@
         <v>-27710</v>
       </c>
       <c r="DY122" s="85">
-        <f t="shared" ref="DY122:EJ122" si="301">DX122+DY103</f>
+        <f t="shared" ref="DY122:EJ122" si="305">DX122+DY103</f>
         <v>-11113.702999999994</v>
       </c>
       <c r="DZ122" s="85">
-        <f t="shared" si="301"/>
-        <v>19700.625167500006</v>
+        <f t="shared" si="305"/>
+        <v>19909.035167500009</v>
       </c>
       <c r="EA122" s="85">
-        <f t="shared" si="301"/>
-        <v>50530.242582456252</v>
+        <f t="shared" si="305"/>
+        <v>51167.098077456263</v>
       </c>
       <c r="EB122" s="85">
-        <f t="shared" si="301"/>
-        <v>77492.135794325557</v>
+        <f t="shared" si="305"/>
+        <v>78586.389504425562</v>
       </c>
       <c r="EC122" s="85">
-        <f t="shared" si="301"/>
-        <v>101398.24348971712</v>
+        <f t="shared" si="305"/>
+        <v>103082.37563714737</v>
       </c>
       <c r="ED122" s="85">
-        <f t="shared" si="301"/>
-        <v>121819.76863739389</v>
+        <f t="shared" si="305"/>
+        <v>124230.42559194128</v>
       </c>
       <c r="EE122" s="85">
-        <f t="shared" si="301"/>
-        <v>139048.81879450227</v>
+        <f t="shared" si="305"/>
+        <v>142249.24930685683</v>
       </c>
       <c r="EF122" s="85">
-        <f t="shared" si="301"/>
-        <v>154923.11945650566</v>
+        <f t="shared" si="305"/>
+        <v>159000.04809228869</v>
       </c>
       <c r="EG122" s="85">
-        <f t="shared" si="301"/>
-        <v>169906.63859721963</v>
+        <f t="shared" si="305"/>
+        <v>174955.87071041722</v>
       </c>
       <c r="EH122" s="85">
-        <f t="shared" si="301"/>
-        <v>184082.10316856028</v>
+        <f t="shared" si="305"/>
+        <v>190204.6762481746</v>
       </c>
       <c r="EI122" s="85">
-        <f t="shared" si="301"/>
-        <v>197692.61609268616</v>
+        <f t="shared" si="305"/>
+        <v>204900.53697092563</v>
       </c>
       <c r="EJ122" s="85">
-        <f t="shared" si="301"/>
-        <v>211053.24757184475</v>
+        <f t="shared" si="305"/>
+        <v>219361.21187682706</v>
       </c>
     </row>
     <row r="123" spans="2:140" s="81" customFormat="1" ht="12.75" customHeight="1">
@@ -47379,7 +47512,10 @@
         <f>14593+575</f>
         <v>15168</v>
       </c>
-      <c r="CT123" s="82"/>
+      <c r="CT123" s="85">
+        <f>13242+447+463</f>
+        <v>14152</v>
+      </c>
       <c r="CU123" s="82"/>
       <c r="CV123" s="82"/>
       <c r="CW123" s="82"/>
@@ -47530,7 +47666,9 @@
       <c r="CS124" s="85">
         <v>11381</v>
       </c>
-      <c r="CT124" s="82"/>
+      <c r="CT124" s="85">
+        <v>10278</v>
+      </c>
       <c r="CU124" s="82"/>
       <c r="CV124" s="82"/>
       <c r="CW124" s="82"/>
@@ -47681,7 +47819,9 @@
       <c r="CS125" s="85">
         <v>6244</v>
       </c>
-      <c r="CT125" s="82"/>
+      <c r="CT125" s="85">
+        <v>6109</v>
+      </c>
       <c r="CU125" s="82"/>
       <c r="CV125" s="82"/>
       <c r="CW125" s="82"/>
@@ -47832,7 +47972,9 @@
       <c r="CS126" s="85">
         <v>8143</v>
       </c>
-      <c r="CT126" s="86"/>
+      <c r="CT126" s="85">
+        <v>8706</v>
+      </c>
       <c r="CU126" s="86"/>
       <c r="CV126" s="86"/>
       <c r="CW126" s="86"/>
@@ -47983,7 +48125,9 @@
       <c r="CS127" s="85">
         <v>23446</v>
       </c>
-      <c r="CT127" s="82"/>
+      <c r="CT127" s="85">
+        <v>23779</v>
+      </c>
       <c r="CU127" s="82"/>
       <c r="CV127" s="82"/>
       <c r="CW127" s="82"/>
@@ -48142,7 +48286,10 @@
         <f>21697+17010</f>
         <v>38707</v>
       </c>
-      <c r="CT128" s="82"/>
+      <c r="CT128" s="85">
+        <f>21668+16370</f>
+        <v>38038</v>
+      </c>
       <c r="CU128" s="82"/>
       <c r="CV128" s="82"/>
       <c r="CW128" s="82"/>
@@ -48293,7 +48440,9 @@
       <c r="CS129" s="85">
         <v>14443</v>
       </c>
-      <c r="CT129" s="82"/>
+      <c r="CT129" s="85">
+        <v>16044</v>
+      </c>
       <c r="CU129" s="82"/>
       <c r="CV129" s="82"/>
       <c r="CW129" s="82"/>
@@ -48425,34 +48574,37 @@
       <c r="CK130" s="82"/>
       <c r="CL130" s="82"/>
       <c r="CM130" s="85">
-        <f t="shared" ref="CM130:CR130" si="302">SUM(CM123:CM129)</f>
+        <f t="shared" ref="CM130:CR130" si="306">SUM(CM123:CM129)</f>
         <v>107796</v>
       </c>
       <c r="CN130" s="85">
-        <f t="shared" si="302"/>
+        <f t="shared" si="306"/>
         <v>104469</v>
       </c>
       <c r="CO130" s="85">
-        <f t="shared" si="302"/>
+        <f t="shared" si="306"/>
         <v>106727</v>
       </c>
       <c r="CP130" s="85">
-        <f t="shared" si="302"/>
+        <f t="shared" si="306"/>
         <v>106675</v>
       </c>
       <c r="CQ130" s="85">
-        <f t="shared" si="302"/>
+        <f t="shared" si="306"/>
         <v>105849</v>
       </c>
       <c r="CR130" s="85">
-        <f t="shared" si="302"/>
+        <f t="shared" si="306"/>
         <v>112630</v>
       </c>
       <c r="CS130" s="85">
         <f>SUM(CS123:CS129)</f>
         <v>117532</v>
       </c>
-      <c r="CT130" s="82"/>
+      <c r="CT130" s="85">
+        <f>SUM(CT123:CT129)</f>
+        <v>117106</v>
+      </c>
       <c r="CU130" s="82"/>
       <c r="CV130" s="82"/>
       <c r="CW130" s="82"/>
@@ -48744,7 +48896,10 @@
         <f>3149+34982</f>
         <v>38131</v>
       </c>
-      <c r="CT132" s="85"/>
+      <c r="CT132" s="85">
+        <f>34462+2649</f>
+        <v>37111</v>
+      </c>
       <c r="CU132" s="85"/>
       <c r="CV132" s="85"/>
       <c r="CW132" s="85"/>
@@ -48895,7 +49050,9 @@
       <c r="CS133" s="85">
         <v>3586</v>
       </c>
-      <c r="CT133" s="85"/>
+      <c r="CT133" s="85">
+        <v>4079</v>
+      </c>
       <c r="CU133" s="85"/>
       <c r="CV133" s="85"/>
       <c r="CW133" s="85"/>
@@ -49046,7 +49203,9 @@
       <c r="CS134" s="85">
         <v>16539</v>
       </c>
-      <c r="CT134" s="85"/>
+      <c r="CT134" s="85">
+        <v>15694</v>
+      </c>
       <c r="CU134" s="85"/>
       <c r="CV134" s="85"/>
       <c r="CW134" s="85"/>
@@ -49204,7 +49363,10 @@
         <f>4330+864</f>
         <v>5194</v>
       </c>
-      <c r="CT135" s="85"/>
+      <c r="CT135" s="85">
+        <f>3914+1387</f>
+        <v>5301</v>
+      </c>
       <c r="CU135" s="85"/>
       <c r="CV135" s="85"/>
       <c r="CW135" s="85"/>
@@ -49355,7 +49517,9 @@
       <c r="CS136" s="85">
         <v>1982</v>
       </c>
-      <c r="CT136" s="85"/>
+      <c r="CT136" s="85">
+        <v>2084</v>
+      </c>
       <c r="CU136" s="85"/>
       <c r="CV136" s="85"/>
       <c r="CW136" s="85"/>
@@ -49507,7 +49671,9 @@
       <c r="CS137" s="85">
         <v>7540</v>
       </c>
-      <c r="CT137" s="85"/>
+      <c r="CT137" s="85">
+        <v>6465</v>
+      </c>
       <c r="CU137" s="85"/>
       <c r="CV137" s="85"/>
       <c r="CW137" s="85"/>
@@ -49658,7 +49824,10 @@
       <c r="CS138" s="85">
         <v>44560</v>
       </c>
-      <c r="CT138" s="85"/>
+      <c r="CT138" s="85">
+        <f>46372</f>
+        <v>46372</v>
+      </c>
       <c r="CU138" s="85"/>
       <c r="CV138" s="85"/>
       <c r="CW138" s="85"/>
@@ -49790,34 +49959,37 @@
       <c r="CK139" s="85"/>
       <c r="CL139" s="85"/>
       <c r="CM139" s="85">
-        <f t="shared" ref="CM139:CR139" si="303">SUM(CM132:CM138)</f>
+        <f t="shared" ref="CM139:CR139" si="307">SUM(CM132:CM138)</f>
         <v>107796</v>
       </c>
       <c r="CN139" s="85">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>104469</v>
       </c>
       <c r="CO139" s="85">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>106727</v>
       </c>
       <c r="CP139" s="85">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>106675</v>
       </c>
       <c r="CQ139" s="85">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>105849</v>
       </c>
       <c r="CR139" s="85">
-        <f t="shared" si="303"/>
+        <f t="shared" si="307"/>
         <v>112630</v>
       </c>
       <c r="CS139" s="85">
         <f>SUM(CS132:CS138)</f>
         <v>117532</v>
       </c>
-      <c r="CT139" s="85"/>
+      <c r="CT139" s="85">
+        <f>SUM(CT132:CT138)</f>
+        <v>117106</v>
+      </c>
       <c r="CU139" s="85"/>
       <c r="CV139" s="85"/>
       <c r="CW139" s="85"/>
@@ -50079,19 +50251,19 @@
       <c r="CK141" s="82"/>
       <c r="CL141" s="82"/>
       <c r="CM141" s="85">
-        <f t="shared" ref="CM141:CP141" si="304">+CM103</f>
+        <f t="shared" ref="CM141:CP141" si="308">+CM103</f>
         <v>3568</v>
       </c>
       <c r="CN141" s="85">
-        <f t="shared" si="304"/>
+        <f t="shared" si="308"/>
         <v>4945</v>
       </c>
       <c r="CO141" s="85">
-        <f t="shared" si="304"/>
+        <f t="shared" si="308"/>
         <v>5432</v>
       </c>
       <c r="CP141" s="85">
-        <f t="shared" si="304"/>
+        <f t="shared" si="308"/>
         <v>5567</v>
       </c>
       <c r="CQ141" s="85">
@@ -51469,31 +51641,31 @@
       <c r="CK150" s="82"/>
       <c r="CL150" s="82"/>
       <c r="CM150" s="85">
-        <f t="shared" ref="CM150:CS150" si="305">SUM(CM142:CM149)</f>
+        <f t="shared" ref="CM150:CS150" si="309">SUM(CM142:CM149)</f>
         <v>1339</v>
       </c>
       <c r="CN150" s="85">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>3704</v>
       </c>
       <c r="CO150" s="85">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>7717</v>
       </c>
       <c r="CP150" s="85">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>246</v>
       </c>
       <c r="CQ150" s="85">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>3090</v>
       </c>
       <c r="CR150" s="85">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>5637</v>
       </c>
       <c r="CS150" s="85">
-        <f t="shared" si="305"/>
+        <f t="shared" si="309"/>
         <v>9291</v>
       </c>
       <c r="CT150" s="82"/>
@@ -52376,31 +52548,31 @@
       <c r="CK156" s="82"/>
       <c r="CL156" s="82"/>
       <c r="CM156" s="85">
-        <f t="shared" ref="CM156:CS156" si="306">SUM(CM152:CM155)</f>
+        <f t="shared" ref="CM156:CS156" si="310">SUM(CM152:CM155)</f>
         <v>-2359</v>
       </c>
       <c r="CN156" s="85">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>-11443</v>
       </c>
       <c r="CO156" s="85">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>-334</v>
       </c>
       <c r="CP156" s="85">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>53</v>
       </c>
       <c r="CQ156" s="85">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>-1376</v>
       </c>
       <c r="CR156" s="85">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>-1069</v>
       </c>
       <c r="CS156" s="85">
-        <f t="shared" si="306"/>
+        <f t="shared" si="310"/>
         <v>-3845</v>
       </c>
       <c r="CT156" s="82"/>
@@ -53435,31 +53607,31 @@
       <c r="CK163" s="82"/>
       <c r="CL163" s="82"/>
       <c r="CM163" s="85">
-        <f t="shared" ref="CM163:CS163" si="307">SUM(CM158:CM162)</f>
+        <f t="shared" ref="CM163:CS163" si="311">SUM(CM158:CM162)</f>
         <v>-2054</v>
       </c>
       <c r="CN163" s="85">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>3758</v>
       </c>
       <c r="CO163" s="85">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>-4269</v>
       </c>
       <c r="CP163" s="85">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>-2245</v>
       </c>
       <c r="CQ163" s="85">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>-2814</v>
       </c>
       <c r="CR163" s="85">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>1216</v>
       </c>
       <c r="CS163" s="85">
-        <f t="shared" si="307"/>
+        <f t="shared" si="311"/>
         <v>-2425</v>
       </c>
       <c r="CT163" s="82"/>
@@ -53745,31 +53917,31 @@
       <c r="CK165" s="82"/>
       <c r="CL165" s="82"/>
       <c r="CM165" s="85">
-        <f t="shared" ref="CM165:CS165" si="308">+CM164+CM163+CM156+CM150</f>
+        <f t="shared" ref="CM165:CS165" si="312">+CM164+CM163+CM156+CM150</f>
         <v>-2987</v>
       </c>
       <c r="CN165" s="85">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>-4074</v>
       </c>
       <c r="CO165" s="85">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>2957</v>
       </c>
       <c r="CP165" s="85">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>-1760</v>
       </c>
       <c r="CQ165" s="85">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>-1238</v>
       </c>
       <c r="CR165" s="85">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>5702</v>
       </c>
       <c r="CS165" s="85">
-        <f t="shared" si="308"/>
+        <f t="shared" si="312"/>
         <v>3315</v>
       </c>
       <c r="CT165" s="82"/>
@@ -54409,71 +54581,71 @@
         <v>440</v>
       </c>
       <c r="AD170" s="110">
-        <f t="shared" ref="AD170:AT170" si="309">+AD10/Z10-1</f>
+        <f t="shared" ref="AD170:AT170" si="313">+AD10/Z10-1</f>
         <v>3.7619047619047619</v>
       </c>
       <c r="AE170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>2.1264367816091956</v>
       </c>
       <c r="AF170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>1.3194444444444446</v>
       </c>
       <c r="AG170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>1.0486486486486486</v>
       </c>
       <c r="AH170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>-1</v>
       </c>
       <c r="AI170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.51102941176470584</v>
       </c>
       <c r="AJ170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.38323353293413165</v>
       </c>
       <c r="AK170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.29551451187335087</v>
       </c>
       <c r="AL170" s="110" t="e">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.24330900243308995</v>
       </c>
       <c r="AN170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.29870129870129869</v>
       </c>
       <c r="AO170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.22199592668024448</v>
       </c>
       <c r="AP170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.20967741935483875</v>
       </c>
       <c r="AQ170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.44618395303326808</v>
       </c>
       <c r="AR170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.29833333333333334</v>
       </c>
       <c r="AS170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.40999999999999992</v>
       </c>
       <c r="AT170" s="110">
-        <f t="shared" si="309"/>
+        <f t="shared" si="313"/>
         <v>0.42222222222222228</v>
       </c>
       <c r="AU170" s="110"/>
@@ -54509,79 +54681,79 @@
       <c r="BY170" s="110"/>
       <c r="BZ170" s="110"/>
       <c r="CA170" s="110">
-        <f t="shared" ref="CA170:CJ171" si="310">+CA10/BW10-1</f>
+        <f t="shared" ref="CA170:CJ171" si="314">+CA10/BW10-1</f>
         <v>-6.067961165048541E-2</v>
       </c>
       <c r="CB170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-5.9471365638766538E-2</v>
       </c>
       <c r="CC170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>1.7348203221809078E-2</v>
       </c>
       <c r="CD170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-9.1198303287380655E-2</v>
       </c>
       <c r="CE170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>4.5219638242893989E-2</v>
       </c>
       <c r="CF170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-8.1967213114754078E-2</v>
       </c>
       <c r="CG170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>3.7758830694275325E-2</v>
       </c>
       <c r="CH170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>2.4504084014002281E-2</v>
       </c>
       <c r="CI170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-3.7082818294190356E-2</v>
       </c>
       <c r="CJ170" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-3.5714285714285698E-2</v>
       </c>
       <c r="CK170" s="110">
-        <f t="shared" ref="CK170:CS171" si="311">+CK10/CG10-1</f>
+        <f t="shared" ref="CK170:CS171" si="315">+CK10/CG10-1</f>
         <v>-0.15845070422535212</v>
       </c>
       <c r="CL170" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.36104783599088841</v>
       </c>
       <c r="CM170" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.29268292682926833</v>
       </c>
       <c r="CN170" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.32407407407407407</v>
       </c>
       <c r="CO170" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.18967921896792195</v>
       </c>
       <c r="CP170" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-2.4955436720142554E-2</v>
       </c>
       <c r="CQ170" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.23956442831215974</v>
       </c>
       <c r="CR170" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.20743639921722112</v>
       </c>
       <c r="CS170" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.52151462994836484</v>
       </c>
       <c r="CT170" s="110"/>
@@ -54664,63 +54836,63 @@
         <v>440</v>
       </c>
       <c r="AF171" s="110">
-        <f t="shared" ref="AF171:AT171" si="312">+AF11/AB11-1</f>
+        <f t="shared" ref="AF171:AT171" si="316">+AF11/AB11-1</f>
         <v>2</v>
       </c>
       <c r="AG171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>4.3157894736842106</v>
       </c>
       <c r="AH171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>-1</v>
       </c>
       <c r="AI171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>1.2068965517241379</v>
       </c>
       <c r="AJ171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>1.1527777777777777</v>
       </c>
       <c r="AK171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.71287128712871284</v>
       </c>
       <c r="AL171" s="110" t="e">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.5703125</v>
       </c>
       <c r="AN171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.40645161290322585</v>
       </c>
       <c r="AO171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.42774566473988429</v>
       </c>
       <c r="AP171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.42574257425742568</v>
       </c>
       <c r="AQ171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.51741293532338317</v>
       </c>
       <c r="AR171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.47247706422018343</v>
       </c>
       <c r="AS171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.417004048582996</v>
       </c>
       <c r="AT171" s="110">
-        <f t="shared" si="312"/>
+        <f t="shared" si="316"/>
         <v>0.34027777777777768</v>
       </c>
       <c r="AU171" s="110"/>
@@ -54756,79 +54928,79 @@
       <c r="BY171" s="110"/>
       <c r="BZ171" s="110"/>
       <c r="CA171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-5.0943396226415083E-2</v>
       </c>
       <c r="CB171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-8.0675422138836828E-2</v>
       </c>
       <c r="CC171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>5.9642147117295874E-3</v>
       </c>
       <c r="CD171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-6.3157894736841635E-3</v>
       </c>
       <c r="CE171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-3.379721669980118E-2</v>
       </c>
       <c r="CF171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-2.6530612244897944E-2</v>
       </c>
       <c r="CG171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-3.7549407114624511E-2</v>
       </c>
       <c r="CH171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>8.8983050847457612E-2</v>
       </c>
       <c r="CI171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-6.5843621399176988E-2</v>
       </c>
       <c r="CJ171" s="110">
-        <f t="shared" si="310"/>
+        <f t="shared" si="314"/>
         <v>-2.0964360587002462E-3</v>
       </c>
       <c r="CK171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.14373716632443534</v>
       </c>
       <c r="CL171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.3132295719844358</v>
       </c>
       <c r="CM171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.27533039647577096</v>
       </c>
       <c r="CN171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.25630252100840334</v>
       </c>
       <c r="CO171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.38848920863309355</v>
       </c>
       <c r="CP171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.32011331444759206</v>
       </c>
       <c r="CQ171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.23708206686930089</v>
       </c>
       <c r="CR171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.36723163841807904</v>
       </c>
       <c r="CS171" s="110">
-        <f t="shared" si="311"/>
+        <f t="shared" si="315"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="CT171" s="110"/>
@@ -54911,55 +55083,55 @@
         <v>440</v>
       </c>
       <c r="AH172" s="110">
-        <f t="shared" ref="AH172:AT172" si="313">+AH22/AD22-1</f>
+        <f t="shared" ref="AH172:AT172" si="317">+AH22/AD22-1</f>
         <v>7.9120879120879062E-2</v>
       </c>
       <c r="AI172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>2.1696252465483346E-2</v>
       </c>
       <c r="AJ172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>1.4362657091562037E-2</v>
       </c>
       <c r="AK172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>7.8014184397163122E-2</v>
       </c>
       <c r="AL172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>-0.12219959266802449</v>
       </c>
       <c r="AM172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>0.30115830115830122</v>
       </c>
       <c r="AN172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>0.1840707964601771</v>
       </c>
       <c r="AO172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>8.7171052631578982E-2</v>
       </c>
       <c r="AP172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>0.64733178654292334</v>
       </c>
       <c r="AQ172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>0.1172106824925816</v>
       </c>
       <c r="AR172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>0.25859491778774291</v>
       </c>
       <c r="AS172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>-0.15128593040847205</v>
       </c>
       <c r="AT172" s="110">
-        <f t="shared" si="313"/>
+        <f t="shared" si="317"/>
         <v>-0.28028169014084503</v>
       </c>
       <c r="AU172" s="110"/>
@@ -55081,71 +55253,71 @@
       <c r="AB173" s="110"/>
       <c r="AC173" s="110"/>
       <c r="AD173" s="110">
-        <f t="shared" ref="AD173:AT173" si="314">+AD51/Z51-1</f>
+        <f t="shared" ref="AD173:AT173" si="318">+AD51/Z51-1</f>
         <v>8.5187194791101595E-2</v>
       </c>
       <c r="AE173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>4.3924334722667657E-2</v>
       </c>
       <c r="AF173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-0.13738344988344986</v>
       </c>
       <c r="AG173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-0.18152958152958143</v>
       </c>
       <c r="AH173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-3.7999999999999923E-2</v>
       </c>
       <c r="AI173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-0.26750614250614257</v>
       </c>
       <c r="AJ173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-0.10150312447221754</v>
       </c>
       <c r="AK173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-7.4400564174894268E-2</v>
       </c>
       <c r="AL173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-3.4650034650041128E-4</v>
       </c>
       <c r="AM173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AN173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-7.8947368421052655E-2</v>
       </c>
       <c r="AO173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-7.6190476190476142E-2</v>
       </c>
       <c r="AP173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-2.5996533795493937E-2</v>
       </c>
       <c r="AQ173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>6.2893081761006275E-3</v>
       </c>
       <c r="AR173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-6.3265306122448961E-2</v>
       </c>
       <c r="AS173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-3.2989690721649478E-2</v>
       </c>
       <c r="AT173" s="110">
-        <f t="shared" si="314"/>
+        <f t="shared" si="318"/>
         <v>-0.15480427046263345</v>
       </c>
       <c r="AU173" s="110"/>
@@ -55267,71 +55439,71 @@
       <c r="AB174" s="110"/>
       <c r="AC174" s="110"/>
       <c r="AD174" s="110">
-        <f t="shared" ref="AD174:AT174" si="315">+AD50/Z50-1</f>
+        <f t="shared" ref="AD174:AT174" si="319">+AD50/Z50-1</f>
         <v>0.13784741652676735</v>
       </c>
       <c r="AE174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>6.9301470588235325E-2</v>
       </c>
       <c r="AF174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>-2.9610389610389642E-2</v>
       </c>
       <c r="AG174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>-0.11976935749588147</v>
       </c>
       <c r="AH174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>-1</v>
       </c>
       <c r="AI174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>-0.12325941206807645</v>
       </c>
       <c r="AJ174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>-7.8515346181298185E-3</v>
       </c>
       <c r="AK174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>5.371514130638233E-2</v>
       </c>
       <c r="AL174" s="110" t="e">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>4.705882352941182E-2</v>
       </c>
       <c r="AN174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>1.4388489208633004E-2</v>
       </c>
       <c r="AO174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>1.4209591474245054E-2</v>
       </c>
       <c r="AP174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>2.4429967426710109E-2</v>
       </c>
       <c r="AQ174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>8.98876404494382E-2</v>
       </c>
       <c r="AR174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>4.9645390070921946E-2</v>
       </c>
       <c r="AS174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>7.5306479859895026E-2</v>
       </c>
       <c r="AT174" s="110">
-        <f t="shared" si="315"/>
+        <f t="shared" si="319"/>
         <v>1.7488076311605649E-2</v>
       </c>
       <c r="AU174" s="110"/>
@@ -56890,35 +57062,35 @@
       <c r="M185" s="85"/>
       <c r="N185" s="85"/>
       <c r="O185" s="85" t="e">
-        <f t="shared" ref="O185:V185" si="316">O184-O186</f>
+        <f t="shared" ref="O185:V185" si="320">O184-O186</f>
         <v>#REF!</v>
       </c>
       <c r="P185" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="Q185" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="R185" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="S185" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="T185" s="85">
-        <f t="shared" si="316"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="U185" s="85">
-        <f t="shared" si="316"/>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="V185" s="85" t="e">
-        <f t="shared" si="316"/>
+        <f t="shared" si="320"/>
         <v>#REF!</v>
       </c>
       <c r="W185" s="85"/>
@@ -57548,51 +57720,51 @@
       <c r="I189" s="92"/>
       <c r="J189" s="92"/>
       <c r="K189" s="92">
-        <f t="shared" ref="K189:V189" si="317">ROUND(K103/K188,2)</f>
+        <f t="shared" ref="K189:V189" si="321">ROUND(K103/K188,2)</f>
         <v>-1.79</v>
       </c>
       <c r="L189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.67</v>
       </c>
       <c r="M189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.74</v>
       </c>
       <c r="N189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.9</v>
       </c>
       <c r="O189" s="92" t="e">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>#REF!</v>
       </c>
       <c r="P189" s="92" t="e">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>#REF!</v>
       </c>
       <c r="Q189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.27</v>
       </c>
       <c r="R189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.25</v>
       </c>
       <c r="S189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.23</v>
       </c>
       <c r="T189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.34</v>
       </c>
       <c r="U189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.22</v>
       </c>
       <c r="V189" s="92">
-        <f t="shared" si="317"/>
+        <f t="shared" si="321"/>
         <v>-1.19</v>
       </c>
       <c r="W189" s="92"/>
@@ -57875,47 +58047,47 @@
       <c r="I191" s="91"/>
       <c r="J191" s="91"/>
       <c r="K191" s="91">
-        <f t="shared" ref="K191:U191" si="318">K101+K95+K94+K184</f>
+        <f t="shared" ref="K191:U191" si="322">K101+K95+K94+K184</f>
         <v>-3021.7999999999997</v>
       </c>
       <c r="L191" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>-2563</v>
       </c>
       <c r="M191" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>-2950.9000000000005</v>
       </c>
       <c r="N191" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>-3537.7999999999997</v>
       </c>
       <c r="O191" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>#REF!</v>
       </c>
       <c r="P191" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>#REF!</v>
       </c>
       <c r="Q191" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>#REF!</v>
       </c>
       <c r="R191" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>#REF!</v>
       </c>
       <c r="S191" s="91" t="e">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>#REF!</v>
       </c>
       <c r="T191" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>-2190.2000000000003</v>
       </c>
       <c r="U191" s="91">
-        <f t="shared" si="318"/>
+        <f t="shared" si="322"/>
         <v>-1877.1000000000001</v>
       </c>
       <c r="V191" s="91"/>
@@ -58434,11 +58606,11 @@
       <c r="DB194" s="112"/>
       <c r="DC194" s="112"/>
       <c r="DD194" s="91">
-        <f t="shared" ref="DD194:DD199" si="319">SUM(K194:N194)</f>
+        <f t="shared" ref="DD194:DD199" si="323">SUM(K194:N194)</f>
         <v>195</v>
       </c>
       <c r="DE194" s="91">
-        <f t="shared" ref="DE194:DE199" si="320">SUM(O194:R194)</f>
+        <f t="shared" ref="DE194:DE199" si="324">SUM(O194:R194)</f>
         <v>106</v>
       </c>
       <c r="DF194" s="114">
@@ -58594,11 +58766,11 @@
       <c r="DB195" s="112"/>
       <c r="DC195" s="112"/>
       <c r="DD195" s="91">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="DE195" s="91">
-        <f t="shared" si="320"/>
+        <f t="shared" si="324"/>
         <v>93.2</v>
       </c>
       <c r="DF195" s="114">
@@ -58754,11 +58926,11 @@
       <c r="DB196" s="112"/>
       <c r="DC196" s="112"/>
       <c r="DD196" s="91">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="DE196" s="91">
-        <f t="shared" si="320"/>
+        <f t="shared" si="324"/>
         <v>745.4</v>
       </c>
       <c r="DF196" s="114"/>
@@ -58911,11 +59083,11 @@
       <c r="DB197" s="112"/>
       <c r="DC197" s="112"/>
       <c r="DD197" s="91">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="DE197" s="91">
-        <f t="shared" si="320"/>
+        <f t="shared" si="324"/>
         <v>-173.6</v>
       </c>
       <c r="DF197" s="85"/>
@@ -58955,27 +59127,27 @@
       <c r="I198" s="114"/>
       <c r="J198" s="114"/>
       <c r="K198" s="114">
-        <f t="shared" ref="K198:P198" si="321">K90-K194</f>
+        <f t="shared" ref="K198:P198" si="325">K90-K194</f>
         <v>1547.3</v>
       </c>
       <c r="L198" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="325"/>
         <v>1589.9</v>
       </c>
       <c r="M198" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="325"/>
         <v>1463.6</v>
       </c>
       <c r="N198" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="325"/>
         <v>1599.1</v>
       </c>
       <c r="O198" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="325"/>
         <v>1542.4</v>
       </c>
       <c r="P198" s="114">
-        <f t="shared" si="321"/>
+        <f t="shared" si="325"/>
         <v>1574.2</v>
       </c>
       <c r="Q198" s="114">
@@ -59088,11 +59260,11 @@
       <c r="DB198" s="112"/>
       <c r="DC198" s="112"/>
       <c r="DD198" s="112">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>6199.9</v>
       </c>
       <c r="DE198" s="112">
-        <f t="shared" si="320"/>
+        <f t="shared" si="324"/>
         <v>5835.9000000000005</v>
       </c>
       <c r="DF198" s="85"/>
@@ -59132,35 +59304,35 @@
       <c r="I199" s="85"/>
       <c r="J199" s="85"/>
       <c r="K199" s="85">
-        <f t="shared" ref="K199:R199" si="322">K88-K195</f>
+        <f t="shared" ref="K199:R199" si="326">K88-K195</f>
         <v>1046.8</v>
       </c>
       <c r="L199" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="326"/>
         <v>988.5</v>
       </c>
       <c r="M199" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="326"/>
         <v>1083.4000000000001</v>
       </c>
       <c r="N199" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="326"/>
         <v>1228.3</v>
       </c>
       <c r="O199" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="326"/>
         <v>1147.8</v>
       </c>
       <c r="P199" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="326"/>
         <v>1164.2</v>
       </c>
       <c r="Q199" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="326"/>
         <v>1271</v>
       </c>
       <c r="R199" s="85">
-        <f t="shared" si="322"/>
+        <f t="shared" si="326"/>
         <v>1283.5999999999999</v>
       </c>
       <c r="S199" s="85"/>
@@ -59253,11 +59425,11 @@
       <c r="DB199" s="112"/>
       <c r="DC199" s="112"/>
       <c r="DD199" s="112">
-        <f t="shared" si="319"/>
+        <f t="shared" si="323"/>
         <v>4347</v>
       </c>
       <c r="DE199" s="112">
-        <f t="shared" si="320"/>
+        <f t="shared" si="324"/>
         <v>4866.6000000000004</v>
       </c>
       <c r="DF199" s="85"/>
@@ -59939,43 +60111,43 @@
       <c r="DI204" s="29"/>
       <c r="DJ204" s="29"/>
       <c r="DK204" s="28">
-        <f t="shared" ref="DK204:DT204" si="323">(DK62+DK54+DK51+DK50+DK10+DK47+DK34+DK53+DK14+DK37+DK63+DK32+DK11+DK25+DK35+DK38+DK58+DK46+DK59+DK48+DK61+DK55+DK57+DK64+DK56)</f>
+        <f t="shared" ref="DK204:DT204" si="327">(DK62+DK54+DK51+DK50+DK10+DK47+DK34+DK53+DK14+DK37+DK63+DK32+DK11+DK25+DK35+DK38+DK58+DK46+DK59+DK48+DK61+DK55+DK57+DK64+DK56)</f>
         <v>25281</v>
       </c>
       <c r="DL204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>26526</v>
       </c>
       <c r="DM204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>24892</v>
       </c>
       <c r="DN204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>20004</v>
       </c>
       <c r="DO204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>18945</v>
       </c>
       <c r="DP204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>16537</v>
       </c>
       <c r="DQ204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>15768</v>
       </c>
       <c r="DR204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>12932</v>
       </c>
       <c r="DS204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>11819</v>
       </c>
       <c r="DT204" s="28">
-        <f t="shared" si="323"/>
+        <f t="shared" si="327"/>
         <v>10003</v>
       </c>
       <c r="DU204" s="28"/>
@@ -60104,43 +60276,43 @@
       <c r="DI205" s="116"/>
       <c r="DJ205" s="116"/>
       <c r="DK205" s="117">
-        <f t="shared" ref="DK205:DT205" si="324">DK204/DK87</f>
+        <f t="shared" ref="DK205:DT205" si="328">DK204/DK87</f>
         <v>0.54900214988381946</v>
       </c>
       <c r="DL205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.55278622931688404</v>
       </c>
       <c r="DM205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.52659191876454414</v>
       </c>
       <c r="DN205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.45430595930232559</v>
       </c>
       <c r="DO205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.4485403792883017</v>
       </c>
       <c r="DP205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.41867942680642056</v>
       </c>
       <c r="DQ205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.39611123671716031</v>
       </c>
       <c r="DR205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.32231693335327249</v>
       </c>
       <c r="DS205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.27944862155388472</v>
       </c>
       <c r="DT205" s="117">
-        <f t="shared" si="324"/>
+        <f t="shared" si="328"/>
         <v>0.21355222988407591</v>
       </c>
       <c r="DU205" s="117"/>
@@ -64962,11 +65134,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -65168,12 +65340,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -65615,10 +65787,10 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -65699,7 +65871,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13">
+    <row r="12" spans="1:3">
       <c r="C12" s="16" t="s">
         <v>1088</v>
       </c>
@@ -65709,7 +65881,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3">
       <c r="C16" s="16" t="s">
         <v>1087</v>
       </c>
@@ -65734,12 +65906,12 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="13">
+    <row r="22" spans="3:3">
       <c r="C22" s="16" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="13">
+    <row r="24" spans="3:3">
       <c r="C24" s="16" t="s">
         <v>1085</v>
       </c>
@@ -65759,10 +65931,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -65815,7 +65987,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="16" t="s">
         <v>1078</v>
       </c>
@@ -65844,10 +66016,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -66292,10 +66464,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -66378,10 +66550,10 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -66504,17 +66676,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="13">
+    <row r="19" spans="2:3">
       <c r="C19" s="16" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="13">
+    <row r="21" spans="2:3">
       <c r="C21" s="16" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="13">
+    <row r="23" spans="2:3">
       <c r="C23" s="16" t="s">
         <v>898</v>
       </c>
@@ -66524,7 +66696,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="13">
+    <row r="26" spans="2:3">
       <c r="C26" s="16" t="s">
         <v>900</v>
       </c>
@@ -66549,6 +66721,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -66662,22 +66843,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C45FF9D-F8BD-4029-B235-519EDFAFA19B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -66693,19 +66873,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{958B6939-179A-4B1A-8B2E-7C8092C58C5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6484F5-E093-4358-8F99-4066973C606D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>